--- a/do_not_delete/usa-translations.xlsx
+++ b/do_not_delete/usa-translations.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="546">
   <si>
     <t>ofo.com copy deck for translations: USA</t>
   </si>
@@ -34,46 +34,46 @@
     <t>United States</t>
   </si>
   <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To be translated </t>
+  </si>
+  <si>
+    <t>Translation</t>
+  </si>
+  <si>
+    <t>Website Page</t>
+  </si>
+  <si>
+    <t>Page Section</t>
+  </si>
+  <si>
+    <t>English (US)</t>
+  </si>
+  <si>
+    <t>Chinese (简体中文)</t>
+  </si>
+  <si>
+    <t>Spanish (Latin America)</t>
+  </si>
+  <si>
+    <t>country_name</t>
+  </si>
+  <si>
+    <t>country_code</t>
+  </si>
+  <si>
     <t>US</t>
   </si>
   <si>
-    <t>Page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To be translated </t>
-  </si>
-  <si>
-    <t>Translation</t>
-  </si>
-  <si>
-    <t>Website Page</t>
-  </si>
-  <si>
-    <t>Page Section</t>
-  </si>
-  <si>
-    <t>English (US)</t>
-  </si>
-  <si>
-    <t>Chinese (简体中文)</t>
-  </si>
-  <si>
-    <t>Spanish (Latin America)</t>
-  </si>
-  <si>
-    <t>country_name</t>
-  </si>
-  <si>
-    <t>country_code</t>
-  </si>
-  <si>
     <t>riders_page</t>
   </si>
   <si>
     <t>language_code</t>
-  </si>
-  <si>
-    <t>en</t>
   </si>
   <si>
     <t>zh</t>
@@ -344,6 +344,12 @@
     <t>Download on</t>
   </si>
   <si>
+    <t>key_word</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
@@ -356,79 +362,70 @@
     <t>CityBenefitsPage</t>
   </si>
   <si>
-    <t>Header Text</t>
-  </si>
-  <si>
     <t>bringing ofo to your city</t>
   </si>
   <si>
     <t>ofo strengthens communities via sustainable urban travel – with zero cost for local government.</t>
   </si>
   <si>
-    <t>Content Block 1</t>
-  </si>
-  <si>
     <t>zero investment required</t>
   </si>
   <si>
     <t>ofo maintains the bikes and supports riders. With no docking stations taking up valuable parking space, any city can now provide its citizens a bike share program at virtually zero cost.</t>
   </si>
   <si>
-    <t>Call to Action</t>
-  </si>
-  <si>
     <t xml:space="preserve">give your city the gift of bike share                                                   </t>
   </si>
   <si>
     <t>Contact ofo</t>
   </si>
   <si>
-    <t>Content Block 2</t>
-  </si>
-  <si>
     <t>filling the gaps</t>
   </si>
   <si>
     <t>It isn't just about "last mile" commuting – ofo expands your metro area perimeter, and fills in the service gaps that mass transit hasn't been able to serve.</t>
   </si>
   <si>
-    <t>Content Block 3</t>
-  </si>
-  <si>
     <t>mobility for all</t>
   </si>
   <si>
     <t>People shouldn't have to struggle to get to work or school because of where they live. ofo is a step towards social equality and inclusion for any city that adopts it.</t>
   </si>
   <si>
-    <t>Content Block 4</t>
-  </si>
-  <si>
     <t>an economic boost</t>
   </si>
   <si>
+    <t>content_block_5_paragraph</t>
+  </si>
+  <si>
     <t>Research has shown that bike share programs have a positive impact on property values. With citizens spending less time commuting, and the added cultural capital of being known as a proactive, green city, ofo's economic impact is substantial.</t>
   </si>
   <si>
-    <t>Content Block 5</t>
-  </si>
-  <si>
     <t>safety first</t>
   </si>
   <si>
+    <t>content_block_6_paragraph</t>
+  </si>
+  <si>
     <t>Every ofo city has a full-time maintenance team to manage, inspect, and repair bikes. We've performed hundreds of thousands of hardware inspections to ensure the safest ride in your city.</t>
   </si>
   <si>
-    <t>Content Block 6</t>
+    <t>content_block_7_headline</t>
   </si>
   <si>
     <t>a smaller carbon footprint</t>
   </si>
   <si>
+    <t>content_block_7_paragraph</t>
+  </si>
+  <si>
     <t>Every mile travelled by bike lowers carbon emissions by .77 lbs (as compared to driving). To date, ofo riders have reduced aggregate carbon emissions by over 13,500 tons.</t>
   </si>
   <si>
     <t xml:space="preserve">give your city the gift of bike share                                                                       </t>
+  </si>
+  <si>
+    <t>CampusBenefitsPage</t>
   </si>
   <si>
     <t>Campus Benefits (staging.ofo-site.com/campus-benefits)</t>
@@ -482,6 +479,9 @@
   </si>
   <si>
     <t>FAQ</t>
+  </si>
+  <si>
+    <t>Header Text</t>
   </si>
   <si>
     <t xml:space="preserve">frequently asked questions                                                                                                                                               </t>
@@ -1135,12 +1135,12 @@
     <t>Send message</t>
   </si>
   <si>
+    <t>BikeSafetyPage</t>
+  </si>
+  <si>
     <t>Bike Safety                                                     (staging.ofo-site.com/bike-safety)</t>
   </si>
   <si>
-    <t xml:space="preserve">Page </t>
-  </si>
-  <si>
     <t xml:space="preserve">safety first                                                                                                                     </t>
   </si>
   <si>
@@ -1151,9 +1151,6 @@
   </si>
   <si>
     <t>A bicycle is a vehicle and you are a driver. Pay attention to your surroundings, and adhere to all traffic signs, signals and lane markings.</t>
-  </si>
-  <si>
-    <t>Content Block 2 Headline</t>
   </si>
   <si>
     <t>biking tips for all</t>
@@ -1163,106 +1160,106 @@
 </t>
   </si>
   <si>
-    <t>Tip 1 Headline</t>
+    <t>tip_1_headline</t>
   </si>
   <si>
     <t>ride with traffic</t>
   </si>
   <si>
-    <t>Tip 1 Paragraph</t>
+    <t>tip_1_paragraph</t>
   </si>
   <si>
     <t xml:space="preserve">Ride on the right in the same direction as other vehicles. Go with the flow – not against it.
 </t>
   </si>
   <si>
-    <t>Tip 2 Headline</t>
+    <t>tip_2_headline</t>
   </si>
   <si>
     <t>ride sober</t>
   </si>
   <si>
-    <t>Tip 2 Paragraph</t>
+    <t>tip_2_paragraph</t>
   </si>
   <si>
     <t>Never drink and drive. You need 100% of your senses to ride safely.</t>
   </si>
   <si>
-    <t>Tip 3 Headline</t>
+    <t>tip_3_headline</t>
   </si>
   <si>
     <t>signal all turns</t>
   </si>
   <si>
-    <t>Tip 3 Paragraph</t>
+    <t>tip_3_paragraph</t>
   </si>
   <si>
     <t xml:space="preserve">Use hand signals to alert others of where you are going. Do not assume drivers and other riders will stop for you.
 </t>
   </si>
   <si>
-    <t>Tip 4 Headline</t>
+    <t>tip_4_headline</t>
   </si>
   <si>
     <t xml:space="preserve">adjust your bicycle to fit
 </t>
   </si>
   <si>
-    <t>Tip 4 Paragraph</t>
+    <t>tip_4_paragraph</t>
   </si>
   <si>
     <t xml:space="preserve">The seat height should be adjusted to allow a slight bend at the knee when the leg is fully extended.
 </t>
   </si>
   <si>
-    <t>Tip 5 Headline</t>
+    <t>tip_5_headline</t>
   </si>
   <si>
     <t xml:space="preserve">be prepared for conditions
 </t>
   </si>
   <si>
-    <t>Tip 5 Paragraph</t>
+    <t>tip_5_paragraph</t>
   </si>
   <si>
     <t xml:space="preserve">Wet weather can cause some difficult riding conditions. Take your time and pay attention.
 </t>
   </si>
   <si>
-    <t>Tip 6 Headline</t>
+    <t>tip_6_headline</t>
   </si>
   <si>
     <t xml:space="preserve">make left-hand turns safely
 </t>
   </si>
   <si>
-    <t>Tip 6 Paragraph</t>
+    <t>tip_6_paragraph</t>
   </si>
   <si>
     <t xml:space="preserve">Never make a left turn from the right lane. Yield to oncoming traffic before turning.
 </t>
   </si>
   <si>
-    <t>Tip 7 Headline</t>
+    <t>tip_7_headline</t>
   </si>
   <si>
     <t>wear a properly fitted helmet</t>
   </si>
   <si>
-    <t>Tip 7 Paragraph</t>
+    <t>tip_7_paragraph</t>
   </si>
   <si>
     <t xml:space="preserve">Make sure your helmet fits snug on the top of your head in a level position and does not rock when you move your head.
 </t>
   </si>
   <si>
-    <t>Tip 8 Headline</t>
+    <t>tip_8_headline</t>
   </si>
   <si>
     <t>yield to pedestrians</t>
   </si>
   <si>
-    <t>Tip 8 Paragraph</t>
+    <t>tip_8_paragraph</t>
   </si>
   <si>
     <t xml:space="preserve">Be prepared to yield the right of way and do not drive unnecessarily close to pedestrians.
@@ -1279,6 +1276,9 @@
   </si>
   <si>
     <t>about ofo</t>
+  </si>
+  <si>
+    <t>Content Block 2 Headline</t>
   </si>
   <si>
     <t xml:space="preserve">the world leader in station-free bike sharing                                                  </t>
@@ -1421,6 +1421,9 @@
     <t>All cities</t>
   </si>
   <si>
+    <t>Call to Action</t>
+  </si>
+  <si>
     <t>Apply Now</t>
   </si>
   <si>
@@ -1663,6 +1666,9 @@
     <t>12/1/2017</t>
   </si>
   <si>
+    <t>Content Block 1</t>
+  </si>
+  <si>
     <t>more from {the commuter} ***only translate "more from" do not translate "the commuter"****</t>
   </si>
   <si>
@@ -1685,6 +1691,9 @@
     <t>More press articles</t>
   </si>
   <si>
+    <t>Content Block 2</t>
+  </si>
+  <si>
     <t>more ofo press</t>
   </si>
   <si>
@@ -1748,6 +1757,9 @@
   </si>
   <si>
     <t>Your Email:</t>
+  </si>
+  <si>
+    <t>new_language</t>
   </si>
 </sst>
 </file>
@@ -2323,7 +2335,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -2504,60 +2516,75 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="7" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2582,6 +2609,9 @@
     <xf numFmtId="49" fontId="7" fillId="8" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2603,6 +2633,9 @@
     <xf numFmtId="49" fontId="7" fillId="9" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2618,6 +2651,9 @@
     <xf numFmtId="49" fontId="6" fillId="10" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2630,6 +2666,9 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="11" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2642,6 +2681,9 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="12" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2660,6 +2702,9 @@
     <xf numFmtId="49" fontId="6" fillId="13" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="13" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2678,6 +2723,9 @@
     <xf numFmtId="49" fontId="6" fillId="14" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="14" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2723,7 +2771,16 @@
     <xf numFmtId="49" fontId="3" fillId="16" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="16" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="16" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3919,7 +3976,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P353"/>
+  <dimension ref="A1:P373"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -4333,10 +4390,10 @@
         <v>17</v>
       </c>
       <c r="D20" t="s" s="37">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E20" t="s" s="37">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F20" s="37"/>
       <c r="G20" s="31"/>
@@ -4353,13 +4410,13 @@
     <row r="21" ht="14.7" customHeight="1">
       <c r="A21" s="32"/>
       <c r="B21" t="s" s="36">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s" s="37">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s" s="37">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E21" t="s" s="37">
         <v>21</v>
@@ -5153,11 +5210,17 @@
     <row r="55" ht="14.7" customHeight="1">
       <c r="A55" s="52"/>
       <c r="B55" s="53"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
+      <c r="C55" t="s" s="37">
+        <v>110</v>
+      </c>
+      <c r="D55" t="s" s="37">
+        <v>111</v>
+      </c>
+      <c r="E55" t="s" s="37">
+        <v>111</v>
+      </c>
       <c r="F55" t="s" s="37">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G55" s="31"/>
       <c r="H55" s="3"/>
@@ -5170,13 +5233,23 @@
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
     </row>
-    <row r="56" ht="15" customHeight="1">
+    <row r="56" ht="17" customHeight="1">
       <c r="A56" s="32"/>
-      <c r="B56" s="53"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
+      <c r="B56" t="s" s="36">
+        <v>11</v>
+      </c>
+      <c r="C56" t="s" s="37">
+        <v>12</v>
+      </c>
+      <c r="D56" t="s" s="37">
+        <v>13</v>
+      </c>
+      <c r="E56" t="s" s="37">
+        <v>14</v>
+      </c>
+      <c r="F56" t="s" s="37">
+        <v>15</v>
+      </c>
       <c r="G56" s="31"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
@@ -5188,23 +5261,19 @@
       <c r="O56" s="4"/>
       <c r="P56" s="4"/>
     </row>
-    <row r="57" ht="17" customHeight="1">
+    <row r="57" ht="14.7" customHeight="1">
       <c r="A57" s="32"/>
-      <c r="B57" t="s" s="36">
-        <v>11</v>
-      </c>
+      <c r="B57" s="36"/>
       <c r="C57" t="s" s="37">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D57" t="s" s="37">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E57" t="s" s="37">
-        <v>14</v>
-      </c>
-      <c r="F57" t="s" s="37">
-        <v>15</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F57" s="37"/>
       <c r="G57" s="31"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
@@ -5218,19 +5287,17 @@
     </row>
     <row r="58" ht="14.7" customHeight="1">
       <c r="A58" s="32"/>
-      <c r="B58" t="s" s="36">
-        <v>111</v>
-      </c>
-      <c r="C58" s="35"/>
+      <c r="B58" s="36"/>
+      <c r="C58" t="s" s="37">
+        <v>17</v>
+      </c>
       <c r="D58" t="s" s="37">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E58" t="s" s="37">
-        <v>21</v>
-      </c>
-      <c r="F58" t="s" s="37">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F58" s="37"/>
       <c r="G58" s="31"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
@@ -5242,22 +5309,22 @@
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
     </row>
-    <row r="59" ht="26.7" customHeight="1">
-      <c r="A59" s="38"/>
+    <row r="59" ht="14.7" customHeight="1">
+      <c r="A59" s="32"/>
       <c r="B59" t="s" s="36">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C59" t="s" s="37">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D59" t="s" s="37">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="E59" t="s" s="37">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="F59" t="s" s="37">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="G59" s="31"/>
       <c r="H59" s="3"/>
@@ -5270,17 +5337,23 @@
       <c r="O59" s="4"/>
       <c r="P59" s="4"/>
     </row>
-    <row r="60" ht="17.65" customHeight="1">
-      <c r="A60" s="54"/>
-      <c r="B60" s="55"/>
-      <c r="C60" t="s" s="56">
+    <row r="60" ht="26.7" customHeight="1">
+      <c r="A60" s="38"/>
+      <c r="B60" t="s" s="36">
         <v>114</v>
       </c>
-      <c r="D60" t="s" s="57">
+      <c r="C60" t="s" s="37">
+        <v>23</v>
+      </c>
+      <c r="D60" t="s" s="37">
         <v>115</v>
       </c>
-      <c r="E60" s="58"/>
-      <c r="F60" s="58"/>
+      <c r="E60" t="s" s="37">
+        <v>115</v>
+      </c>
+      <c r="F60" t="s" s="37">
+        <v>115</v>
+      </c>
       <c r="G60" s="31"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
@@ -5292,11 +5365,13 @@
       <c r="O60" s="4"/>
       <c r="P60" s="4"/>
     </row>
-    <row r="61" ht="26.7" customHeight="1">
+    <row r="61" ht="17.65" customHeight="1">
       <c r="A61" s="54"/>
-      <c r="B61" s="59"/>
-      <c r="C61" s="60"/>
-      <c r="D61" t="s" s="61">
+      <c r="B61" s="55"/>
+      <c r="C61" t="s" s="56">
+        <v>29</v>
+      </c>
+      <c r="D61" t="s" s="57">
         <v>116</v>
       </c>
       <c r="E61" s="58"/>
@@ -5312,14 +5387,14 @@
       <c r="O61" s="4"/>
       <c r="P61" s="4"/>
     </row>
-    <row r="62" ht="17.65" customHeight="1">
+    <row r="62" ht="26.7" customHeight="1">
       <c r="A62" s="54"/>
       <c r="B62" s="59"/>
-      <c r="C62" t="s" s="56">
+      <c r="C62" t="s" s="47">
+        <v>32</v>
+      </c>
+      <c r="D62" t="s" s="60">
         <v>117</v>
-      </c>
-      <c r="D62" t="s" s="57">
-        <v>118</v>
       </c>
       <c r="E62" s="58"/>
       <c r="F62" s="58"/>
@@ -5334,12 +5409,14 @@
       <c r="O62" s="4"/>
       <c r="P62" s="4"/>
     </row>
-    <row r="63" ht="38.7" customHeight="1">
+    <row r="63" ht="17.65" customHeight="1">
       <c r="A63" s="54"/>
       <c r="B63" s="59"/>
-      <c r="C63" s="60"/>
-      <c r="D63" t="s" s="61">
-        <v>119</v>
+      <c r="C63" t="s" s="56">
+        <v>35</v>
+      </c>
+      <c r="D63" t="s" s="57">
+        <v>118</v>
       </c>
       <c r="E63" s="58"/>
       <c r="F63" s="58"/>
@@ -5354,17 +5431,17 @@
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
     </row>
-    <row r="64" ht="17.65" customHeight="1">
+    <row r="64" ht="38.7" customHeight="1">
       <c r="A64" s="54"/>
       <c r="B64" s="59"/>
-      <c r="C64" t="s" s="56">
-        <v>120</v>
-      </c>
-      <c r="D64" t="s" s="57">
-        <v>121</v>
-      </c>
-      <c r="E64" s="62"/>
-      <c r="F64" s="62"/>
+      <c r="C64" t="s" s="47">
+        <v>38</v>
+      </c>
+      <c r="D64" t="s" s="60">
+        <v>119</v>
+      </c>
+      <c r="E64" s="58"/>
+      <c r="F64" s="58"/>
       <c r="G64" s="31"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
@@ -5379,12 +5456,14 @@
     <row r="65" ht="17.65" customHeight="1">
       <c r="A65" s="54"/>
       <c r="B65" s="59"/>
-      <c r="C65" s="60"/>
-      <c r="D65" t="s" s="61">
-        <v>122</v>
-      </c>
-      <c r="E65" s="62"/>
-      <c r="F65" s="62"/>
+      <c r="C65" t="s" s="56">
+        <v>41</v>
+      </c>
+      <c r="D65" t="s" s="57">
+        <v>120</v>
+      </c>
+      <c r="E65" s="61"/>
+      <c r="F65" s="61"/>
       <c r="G65" s="31"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
@@ -5399,14 +5478,14 @@
     <row r="66" ht="17.65" customHeight="1">
       <c r="A66" s="54"/>
       <c r="B66" s="59"/>
-      <c r="C66" t="s" s="56">
-        <v>123</v>
-      </c>
-      <c r="D66" t="s" s="57">
-        <v>124</v>
-      </c>
-      <c r="E66" s="58"/>
-      <c r="F66" s="58"/>
+      <c r="C66" t="s" s="47">
+        <v>44</v>
+      </c>
+      <c r="D66" t="s" s="60">
+        <v>121</v>
+      </c>
+      <c r="E66" s="61"/>
+      <c r="F66" s="61"/>
       <c r="G66" s="31"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
@@ -5418,12 +5497,14 @@
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
     </row>
-    <row r="67" ht="38.7" customHeight="1">
+    <row r="67" ht="17.65" customHeight="1">
       <c r="A67" s="54"/>
       <c r="B67" s="59"/>
-      <c r="C67" s="60"/>
-      <c r="D67" t="s" s="61">
-        <v>125</v>
+      <c r="C67" t="s" s="56">
+        <v>47</v>
+      </c>
+      <c r="D67" t="s" s="57">
+        <v>122</v>
       </c>
       <c r="E67" s="58"/>
       <c r="F67" s="58"/>
@@ -5438,14 +5519,14 @@
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
     </row>
-    <row r="68" ht="17.65" customHeight="1">
+    <row r="68" ht="38.7" customHeight="1">
       <c r="A68" s="54"/>
       <c r="B68" s="59"/>
-      <c r="C68" t="s" s="56">
-        <v>126</v>
-      </c>
-      <c r="D68" t="s" s="57">
-        <v>127</v>
+      <c r="C68" t="s" s="47">
+        <v>50</v>
+      </c>
+      <c r="D68" t="s" s="60">
+        <v>123</v>
       </c>
       <c r="E68" s="58"/>
       <c r="F68" s="58"/>
@@ -5460,12 +5541,14 @@
       <c r="O68" s="4"/>
       <c r="P68" s="4"/>
     </row>
-    <row r="69" ht="38.7" customHeight="1">
+    <row r="69" ht="17.65" customHeight="1">
       <c r="A69" s="54"/>
       <c r="B69" s="59"/>
-      <c r="C69" s="60"/>
-      <c r="D69" t="s" s="61">
-        <v>128</v>
+      <c r="C69" t="s" s="56">
+        <v>77</v>
+      </c>
+      <c r="D69" t="s" s="57">
+        <v>124</v>
       </c>
       <c r="E69" s="58"/>
       <c r="F69" s="58"/>
@@ -5480,14 +5563,14 @@
       <c r="O69" s="4"/>
       <c r="P69" s="4"/>
     </row>
-    <row r="70" ht="17.65" customHeight="1">
+    <row r="70" ht="38.7" customHeight="1">
       <c r="A70" s="54"/>
       <c r="B70" s="59"/>
-      <c r="C70" t="s" s="56">
-        <v>129</v>
-      </c>
-      <c r="D70" t="s" s="57">
-        <v>130</v>
+      <c r="C70" t="s" s="47">
+        <v>80</v>
+      </c>
+      <c r="D70" t="s" s="60">
+        <v>125</v>
       </c>
       <c r="E70" s="58"/>
       <c r="F70" s="58"/>
@@ -5502,12 +5585,14 @@
       <c r="O70" s="4"/>
       <c r="P70" s="4"/>
     </row>
-    <row r="71" ht="50.7" customHeight="1">
+    <row r="71" ht="17.65" customHeight="1">
       <c r="A71" s="54"/>
       <c r="B71" s="59"/>
-      <c r="C71" s="60"/>
-      <c r="D71" t="s" s="61">
-        <v>131</v>
+      <c r="C71" t="s" s="56">
+        <v>83</v>
+      </c>
+      <c r="D71" t="s" s="57">
+        <v>126</v>
       </c>
       <c r="E71" s="58"/>
       <c r="F71" s="58"/>
@@ -5522,14 +5607,14 @@
       <c r="O71" s="4"/>
       <c r="P71" s="4"/>
     </row>
-    <row r="72" ht="17.65" customHeight="1">
+    <row r="72" ht="50.7" customHeight="1">
       <c r="A72" s="54"/>
       <c r="B72" s="59"/>
-      <c r="C72" t="s" s="56">
-        <v>132</v>
-      </c>
-      <c r="D72" t="s" s="57">
-        <v>133</v>
+      <c r="C72" t="s" s="47">
+        <v>127</v>
+      </c>
+      <c r="D72" t="s" s="60">
+        <v>128</v>
       </c>
       <c r="E72" s="58"/>
       <c r="F72" s="58"/>
@@ -5544,12 +5629,14 @@
       <c r="O72" s="4"/>
       <c r="P72" s="4"/>
     </row>
-    <row r="73" ht="38.7" customHeight="1">
+    <row r="73" ht="17.65" customHeight="1">
       <c r="A73" s="54"/>
       <c r="B73" s="59"/>
-      <c r="C73" s="60"/>
-      <c r="D73" t="s" s="61">
-        <v>134</v>
+      <c r="C73" t="s" s="56">
+        <v>104</v>
+      </c>
+      <c r="D73" t="s" s="57">
+        <v>129</v>
       </c>
       <c r="E73" s="58"/>
       <c r="F73" s="58"/>
@@ -5564,14 +5651,14 @@
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
     </row>
-    <row r="74" ht="17.65" customHeight="1">
+    <row r="74" ht="38.7" customHeight="1">
       <c r="A74" s="54"/>
       <c r="B74" s="59"/>
-      <c r="C74" t="s" s="56">
-        <v>135</v>
-      </c>
-      <c r="D74" t="s" s="57">
-        <v>136</v>
+      <c r="C74" t="s" s="47">
+        <v>130</v>
+      </c>
+      <c r="D74" t="s" s="60">
+        <v>131</v>
       </c>
       <c r="E74" s="58"/>
       <c r="F74" s="58"/>
@@ -5586,12 +5673,14 @@
       <c r="O74" s="4"/>
       <c r="P74" s="4"/>
     </row>
-    <row r="75" ht="38.7" customHeight="1">
+    <row r="75" ht="17.65" customHeight="1">
       <c r="A75" s="54"/>
       <c r="B75" s="59"/>
-      <c r="C75" s="60"/>
-      <c r="D75" t="s" s="61">
-        <v>137</v>
+      <c r="C75" t="s" s="56">
+        <v>132</v>
+      </c>
+      <c r="D75" t="s" s="57">
+        <v>133</v>
       </c>
       <c r="E75" s="58"/>
       <c r="F75" s="58"/>
@@ -5606,14 +5695,14 @@
       <c r="O75" s="4"/>
       <c r="P75" s="4"/>
     </row>
-    <row r="76" ht="17.65" customHeight="1">
+    <row r="76" ht="38.7" customHeight="1">
       <c r="A76" s="54"/>
       <c r="B76" s="59"/>
-      <c r="C76" t="s" s="56">
-        <v>120</v>
-      </c>
-      <c r="D76" t="s" s="57">
-        <v>138</v>
+      <c r="C76" t="s" s="47">
+        <v>134</v>
+      </c>
+      <c r="D76" t="s" s="60">
+        <v>135</v>
       </c>
       <c r="E76" s="58"/>
       <c r="F76" s="58"/>
@@ -5630,10 +5719,12 @@
     </row>
     <row r="77" ht="17.65" customHeight="1">
       <c r="A77" s="54"/>
-      <c r="B77" s="63"/>
-      <c r="C77" s="60"/>
-      <c r="D77" t="s" s="61">
-        <v>122</v>
+      <c r="B77" s="59"/>
+      <c r="C77" t="s" s="56">
+        <v>106</v>
+      </c>
+      <c r="D77" t="s" s="57">
+        <v>136</v>
       </c>
       <c r="E77" s="58"/>
       <c r="F77" s="58"/>
@@ -5649,18 +5740,16 @@
       <c r="P77" s="4"/>
     </row>
     <row r="78" ht="17.65" customHeight="1">
-      <c r="A78" s="64"/>
-      <c r="B78" t="s" s="65">
-        <v>139</v>
-      </c>
-      <c r="C78" t="s" s="66">
-        <v>8</v>
-      </c>
-      <c r="D78" t="s" s="66">
-        <v>140</v>
-      </c>
-      <c r="E78" s="67"/>
-      <c r="F78" s="67"/>
+      <c r="A78" s="54"/>
+      <c r="B78" s="62"/>
+      <c r="C78" t="s" s="47">
+        <v>108</v>
+      </c>
+      <c r="D78" t="s" s="60">
+        <v>121</v>
+      </c>
+      <c r="E78" s="58"/>
+      <c r="F78" s="58"/>
       <c r="G78" s="31"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
@@ -5673,16 +5762,18 @@
       <c r="P78" s="4"/>
     </row>
     <row r="79" ht="17.65" customHeight="1">
-      <c r="A79" s="64"/>
-      <c r="B79" s="68"/>
-      <c r="C79" t="s" s="69">
-        <v>114</v>
-      </c>
-      <c r="D79" t="s" s="70">
-        <v>141</v>
-      </c>
-      <c r="E79" s="67"/>
-      <c r="F79" s="67"/>
+      <c r="A79" s="54"/>
+      <c r="B79" s="63"/>
+      <c r="C79" t="s" s="60">
+        <v>110</v>
+      </c>
+      <c r="D79" t="s" s="60">
+        <v>111</v>
+      </c>
+      <c r="E79" t="s" s="64">
+        <v>112</v>
+      </c>
+      <c r="F79" s="58"/>
       <c r="G79" s="31"/>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
@@ -5694,15 +5785,19 @@
       <c r="O79" s="4"/>
       <c r="P79" s="4"/>
     </row>
-    <row r="80" ht="26.7" customHeight="1">
-      <c r="A80" s="64"/>
-      <c r="B80" s="44"/>
-      <c r="C80" s="60"/>
-      <c r="D80" t="s" s="66">
-        <v>142</v>
-      </c>
-      <c r="E80" s="67"/>
-      <c r="F80" s="67"/>
+    <row r="80" ht="17.65" customHeight="1">
+      <c r="A80" s="54"/>
+      <c r="B80" s="63"/>
+      <c r="C80" t="s" s="60">
+        <v>16</v>
+      </c>
+      <c r="D80" t="s" s="60">
+        <v>6</v>
+      </c>
+      <c r="E80" t="s" s="64">
+        <v>6</v>
+      </c>
+      <c r="F80" s="58"/>
       <c r="G80" s="31"/>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
@@ -5715,16 +5810,18 @@
       <c r="P80" s="4"/>
     </row>
     <row r="81" ht="17.65" customHeight="1">
-      <c r="A81" s="64"/>
-      <c r="B81" s="44"/>
-      <c r="C81" t="s" s="69">
-        <v>117</v>
-      </c>
-      <c r="D81" t="s" s="70">
-        <v>143</v>
-      </c>
-      <c r="E81" s="67"/>
-      <c r="F81" s="67"/>
+      <c r="A81" s="54"/>
+      <c r="B81" s="63"/>
+      <c r="C81" t="s" s="60">
+        <v>17</v>
+      </c>
+      <c r="D81" t="s" s="60">
+        <v>18</v>
+      </c>
+      <c r="E81" t="s" s="64">
+        <v>18</v>
+      </c>
+      <c r="F81" s="58"/>
       <c r="G81" s="31"/>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
@@ -5736,15 +5833,19 @@
       <c r="O81" s="4"/>
       <c r="P81" s="4"/>
     </row>
-    <row r="82" ht="50.7" customHeight="1">
-      <c r="A82" s="64"/>
-      <c r="B82" s="44"/>
-      <c r="C82" s="60"/>
-      <c r="D82" t="s" s="66">
-        <v>144</v>
-      </c>
-      <c r="E82" s="67"/>
-      <c r="F82" s="67"/>
+    <row r="82" ht="17.65" customHeight="1">
+      <c r="A82" s="54"/>
+      <c r="B82" s="63"/>
+      <c r="C82" t="s" s="60">
+        <v>20</v>
+      </c>
+      <c r="D82" t="s" s="60">
+        <v>7</v>
+      </c>
+      <c r="E82" t="s" s="64">
+        <v>21</v>
+      </c>
+      <c r="F82" s="58"/>
       <c r="G82" s="31"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
@@ -5757,16 +5858,16 @@
       <c r="P82" s="4"/>
     </row>
     <row r="83" ht="17.65" customHeight="1">
-      <c r="A83" s="64"/>
-      <c r="B83" s="44"/>
-      <c r="C83" t="s" s="69">
-        <v>120</v>
-      </c>
-      <c r="D83" t="s" s="70">
-        <v>145</v>
-      </c>
-      <c r="E83" s="67"/>
-      <c r="F83" s="67"/>
+      <c r="A83" s="54"/>
+      <c r="B83" s="63"/>
+      <c r="C83" t="s" s="60">
+        <v>23</v>
+      </c>
+      <c r="D83" t="s" s="60">
+        <v>137</v>
+      </c>
+      <c r="E83" s="64"/>
+      <c r="F83" s="58"/>
       <c r="G83" s="31"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
@@ -5779,14 +5880,18 @@
       <c r="P83" s="4"/>
     </row>
     <row r="84" ht="17.65" customHeight="1">
-      <c r="A84" s="64"/>
-      <c r="B84" s="44"/>
-      <c r="C84" s="60"/>
-      <c r="D84" t="s" s="66">
-        <v>122</v>
-      </c>
-      <c r="E84" s="67"/>
-      <c r="F84" s="67"/>
+      <c r="A84" s="65"/>
+      <c r="B84" t="s" s="66">
+        <v>138</v>
+      </c>
+      <c r="C84" t="s" s="67">
+        <v>26</v>
+      </c>
+      <c r="D84" t="s" s="67">
+        <v>139</v>
+      </c>
+      <c r="E84" s="68"/>
+      <c r="F84" s="68"/>
       <c r="G84" s="31"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
@@ -5798,17 +5903,17 @@
       <c r="O84" s="4"/>
       <c r="P84" s="4"/>
     </row>
-    <row r="85" ht="26.7" customHeight="1">
-      <c r="A85" s="64"/>
-      <c r="B85" s="44"/>
-      <c r="C85" t="s" s="69">
-        <v>123</v>
-      </c>
-      <c r="D85" t="s" s="70">
-        <v>146</v>
-      </c>
-      <c r="E85" s="67"/>
-      <c r="F85" s="67"/>
+    <row r="85" ht="17.65" customHeight="1">
+      <c r="A85" s="65"/>
+      <c r="B85" s="69"/>
+      <c r="C85" t="s" s="70">
+        <v>29</v>
+      </c>
+      <c r="D85" t="s" s="71">
+        <v>140</v>
+      </c>
+      <c r="E85" s="68"/>
+      <c r="F85" s="68"/>
       <c r="G85" s="31"/>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
@@ -5820,15 +5925,17 @@
       <c r="O85" s="4"/>
       <c r="P85" s="4"/>
     </row>
-    <row r="86" ht="62.7" customHeight="1">
-      <c r="A86" s="64"/>
+    <row r="86" ht="26.7" customHeight="1">
+      <c r="A86" s="65"/>
       <c r="B86" s="44"/>
-      <c r="C86" s="60"/>
-      <c r="D86" t="s" s="66">
-        <v>147</v>
-      </c>
-      <c r="E86" s="67"/>
-      <c r="F86" s="67"/>
+      <c r="C86" t="s" s="47">
+        <v>32</v>
+      </c>
+      <c r="D86" t="s" s="67">
+        <v>141</v>
+      </c>
+      <c r="E86" s="68"/>
+      <c r="F86" s="68"/>
       <c r="G86" s="31"/>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
@@ -5841,16 +5948,16 @@
       <c r="P86" s="4"/>
     </row>
     <row r="87" ht="17.65" customHeight="1">
-      <c r="A87" s="64"/>
+      <c r="A87" s="65"/>
       <c r="B87" s="44"/>
-      <c r="C87" t="s" s="69">
-        <v>126</v>
-      </c>
-      <c r="D87" t="s" s="70">
-        <v>148</v>
-      </c>
-      <c r="E87" s="67"/>
-      <c r="F87" s="67"/>
+      <c r="C87" t="s" s="70">
+        <v>35</v>
+      </c>
+      <c r="D87" t="s" s="71">
+        <v>142</v>
+      </c>
+      <c r="E87" s="68"/>
+      <c r="F87" s="68"/>
       <c r="G87" s="31"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
@@ -5863,14 +5970,16 @@
       <c r="P87" s="4"/>
     </row>
     <row r="88" ht="50.7" customHeight="1">
-      <c r="A88" s="64"/>
+      <c r="A88" s="65"/>
       <c r="B88" s="44"/>
-      <c r="C88" s="60"/>
-      <c r="D88" t="s" s="66">
-        <v>149</v>
-      </c>
-      <c r="E88" s="67"/>
-      <c r="F88" s="67"/>
+      <c r="C88" t="s" s="47">
+        <v>38</v>
+      </c>
+      <c r="D88" t="s" s="67">
+        <v>143</v>
+      </c>
+      <c r="E88" s="68"/>
+      <c r="F88" s="68"/>
       <c r="G88" s="31"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
@@ -5883,16 +5992,16 @@
       <c r="P88" s="4"/>
     </row>
     <row r="89" ht="17.65" customHeight="1">
-      <c r="A89" s="64"/>
+      <c r="A89" s="65"/>
       <c r="B89" s="44"/>
-      <c r="C89" t="s" s="69">
-        <v>129</v>
-      </c>
-      <c r="D89" t="s" s="70">
-        <v>150</v>
-      </c>
-      <c r="E89" s="67"/>
-      <c r="F89" s="67"/>
+      <c r="C89" t="s" s="70">
+        <v>41</v>
+      </c>
+      <c r="D89" t="s" s="71">
+        <v>144</v>
+      </c>
+      <c r="E89" s="68"/>
+      <c r="F89" s="68"/>
       <c r="G89" s="31"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
@@ -5904,15 +6013,17 @@
       <c r="O89" s="4"/>
       <c r="P89" s="4"/>
     </row>
-    <row r="90" ht="50.7" customHeight="1">
-      <c r="A90" s="64"/>
+    <row r="90" ht="17.65" customHeight="1">
+      <c r="A90" s="65"/>
       <c r="B90" s="44"/>
-      <c r="C90" s="60"/>
-      <c r="D90" t="s" s="66">
-        <v>151</v>
-      </c>
-      <c r="E90" s="67"/>
-      <c r="F90" s="67"/>
+      <c r="C90" t="s" s="47">
+        <v>44</v>
+      </c>
+      <c r="D90" t="s" s="67">
+        <v>121</v>
+      </c>
+      <c r="E90" s="68"/>
+      <c r="F90" s="68"/>
       <c r="G90" s="31"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
@@ -5924,17 +6035,17 @@
       <c r="O90" s="4"/>
       <c r="P90" s="4"/>
     </row>
-    <row r="91" ht="17.65" customHeight="1">
-      <c r="A91" s="64"/>
+    <row r="91" ht="26.7" customHeight="1">
+      <c r="A91" s="65"/>
       <c r="B91" s="44"/>
-      <c r="C91" t="s" s="69">
-        <v>120</v>
-      </c>
-      <c r="D91" t="s" s="70">
-        <v>152</v>
-      </c>
-      <c r="E91" s="67"/>
-      <c r="F91" s="67"/>
+      <c r="C91" t="s" s="70">
+        <v>47</v>
+      </c>
+      <c r="D91" t="s" s="71">
+        <v>145</v>
+      </c>
+      <c r="E91" s="68"/>
+      <c r="F91" s="68"/>
       <c r="G91" s="31"/>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
@@ -5946,15 +6057,17 @@
       <c r="O91" s="4"/>
       <c r="P91" s="4"/>
     </row>
-    <row r="92" ht="17.65" customHeight="1">
-      <c r="A92" s="64"/>
-      <c r="B92" s="51"/>
-      <c r="C92" s="60"/>
-      <c r="D92" t="s" s="66">
-        <v>122</v>
-      </c>
-      <c r="E92" s="67"/>
-      <c r="F92" s="67"/>
+    <row r="92" ht="62.7" customHeight="1">
+      <c r="A92" s="65"/>
+      <c r="B92" s="44"/>
+      <c r="C92" t="s" s="47">
+        <v>50</v>
+      </c>
+      <c r="D92" t="s" s="67">
+        <v>146</v>
+      </c>
+      <c r="E92" s="68"/>
+      <c r="F92" s="68"/>
       <c r="G92" s="31"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
@@ -5967,18 +6080,16 @@
       <c r="P92" s="4"/>
     </row>
     <row r="93" ht="17.65" customHeight="1">
-      <c r="A93" s="71"/>
-      <c r="B93" t="s" s="72">
-        <v>153</v>
-      </c>
-      <c r="C93" t="s" s="73">
-        <v>8</v>
-      </c>
-      <c r="D93" t="s" s="73">
-        <v>154</v>
-      </c>
-      <c r="E93" s="74"/>
-      <c r="F93" s="74"/>
+      <c r="A93" s="65"/>
+      <c r="B93" s="44"/>
+      <c r="C93" t="s" s="70">
+        <v>77</v>
+      </c>
+      <c r="D93" t="s" s="71">
+        <v>147</v>
+      </c>
+      <c r="E93" s="68"/>
+      <c r="F93" s="68"/>
       <c r="G93" s="31"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
@@ -5990,17 +6101,17 @@
       <c r="O93" s="4"/>
       <c r="P93" s="4"/>
     </row>
-    <row r="94" ht="17.65" customHeight="1">
-      <c r="A94" s="71"/>
-      <c r="B94" s="68"/>
-      <c r="C94" t="s" s="75">
-        <v>114</v>
-      </c>
-      <c r="D94" t="s" s="76">
-        <v>155</v>
-      </c>
-      <c r="E94" s="74"/>
-      <c r="F94" s="74"/>
+    <row r="94" ht="50.7" customHeight="1">
+      <c r="A94" s="65"/>
+      <c r="B94" s="44"/>
+      <c r="C94" t="s" s="47">
+        <v>80</v>
+      </c>
+      <c r="D94" t="s" s="67">
+        <v>148</v>
+      </c>
+      <c r="E94" s="68"/>
+      <c r="F94" s="68"/>
       <c r="G94" s="31"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
@@ -6013,14 +6124,16 @@
       <c r="P94" s="4"/>
     </row>
     <row r="95" ht="17.65" customHeight="1">
-      <c r="A95" s="71"/>
+      <c r="A95" s="65"/>
       <c r="B95" s="44"/>
-      <c r="C95" s="60"/>
-      <c r="D95" t="s" s="73">
-        <v>156</v>
-      </c>
-      <c r="E95" s="74"/>
-      <c r="F95" s="74"/>
+      <c r="C95" t="s" s="70">
+        <v>83</v>
+      </c>
+      <c r="D95" t="s" s="71">
+        <v>149</v>
+      </c>
+      <c r="E95" s="68"/>
+      <c r="F95" s="68"/>
       <c r="G95" s="31"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
@@ -6032,17 +6145,17 @@
       <c r="O95" s="4"/>
       <c r="P95" s="4"/>
     </row>
-    <row r="96" ht="17.65" customHeight="1">
-      <c r="A96" s="71"/>
+    <row r="96" ht="50.7" customHeight="1">
+      <c r="A96" s="65"/>
       <c r="B96" s="44"/>
-      <c r="C96" t="s" s="73">
-        <v>157</v>
-      </c>
-      <c r="D96" t="s" s="76">
-        <v>158</v>
-      </c>
-      <c r="E96" s="74"/>
-      <c r="F96" s="74"/>
+      <c r="C96" t="s" s="47">
+        <v>127</v>
+      </c>
+      <c r="D96" t="s" s="67">
+        <v>150</v>
+      </c>
+      <c r="E96" s="68"/>
+      <c r="F96" s="68"/>
       <c r="G96" s="31"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
@@ -6054,17 +6167,17 @@
       <c r="O96" s="4"/>
       <c r="P96" s="4"/>
     </row>
-    <row r="97" ht="26.7" customHeight="1">
-      <c r="A97" s="71"/>
+    <row r="97" ht="17.65" customHeight="1">
+      <c r="A97" s="65"/>
       <c r="B97" s="44"/>
-      <c r="C97" t="s" s="77">
-        <v>159</v>
-      </c>
-      <c r="D97" t="s" s="76">
-        <v>160</v>
-      </c>
-      <c r="E97" s="74"/>
-      <c r="F97" s="74"/>
+      <c r="C97" t="s" s="70">
+        <v>106</v>
+      </c>
+      <c r="D97" t="s" s="71">
+        <v>151</v>
+      </c>
+      <c r="E97" s="68"/>
+      <c r="F97" s="68"/>
       <c r="G97" s="31"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
@@ -6076,15 +6189,17 @@
       <c r="O97" s="4"/>
       <c r="P97" s="4"/>
     </row>
-    <row r="98" ht="62.7" customHeight="1">
-      <c r="A98" s="71"/>
-      <c r="B98" s="44"/>
-      <c r="C98" s="60"/>
-      <c r="D98" t="s" s="73">
-        <v>161</v>
-      </c>
-      <c r="E98" s="74"/>
-      <c r="F98" s="74"/>
+    <row r="98" ht="17.65" customHeight="1">
+      <c r="A98" s="65"/>
+      <c r="B98" s="51"/>
+      <c r="C98" t="s" s="47">
+        <v>108</v>
+      </c>
+      <c r="D98" t="s" s="67">
+        <v>121</v>
+      </c>
+      <c r="E98" s="68"/>
+      <c r="F98" s="68"/>
       <c r="G98" s="31"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
@@ -6096,17 +6211,17 @@
       <c r="O98" s="4"/>
       <c r="P98" s="4"/>
     </row>
-    <row r="99" ht="26.7" customHeight="1">
-      <c r="A99" s="71"/>
-      <c r="B99" s="44"/>
-      <c r="C99" t="s" s="77">
-        <v>162</v>
-      </c>
-      <c r="D99" t="s" s="76">
-        <v>163</v>
-      </c>
-      <c r="E99" s="74"/>
-      <c r="F99" s="74"/>
+    <row r="99" ht="17.65" customHeight="1">
+      <c r="A99" s="65"/>
+      <c r="B99" s="72"/>
+      <c r="C99" t="s" s="67">
+        <v>110</v>
+      </c>
+      <c r="D99" t="s" s="67">
+        <v>111</v>
+      </c>
+      <c r="E99" s="68"/>
+      <c r="F99" s="68"/>
       <c r="G99" s="31"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
@@ -6118,15 +6233,19 @@
       <c r="O99" s="4"/>
       <c r="P99" s="4"/>
     </row>
-    <row r="100" ht="182.7" customHeight="1">
-      <c r="A100" s="71"/>
-      <c r="B100" s="44"/>
-      <c r="C100" s="60"/>
-      <c r="D100" t="s" s="73">
-        <v>164</v>
-      </c>
-      <c r="E100" s="74"/>
-      <c r="F100" s="74"/>
+    <row r="100" ht="17.65" customHeight="1">
+      <c r="A100" s="73"/>
+      <c r="B100" t="s" s="74">
+        <v>152</v>
+      </c>
+      <c r="C100" t="s" s="75">
+        <v>8</v>
+      </c>
+      <c r="D100" t="s" s="75">
+        <v>153</v>
+      </c>
+      <c r="E100" s="76"/>
+      <c r="F100" s="76"/>
       <c r="G100" s="31"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
@@ -6138,17 +6257,17 @@
       <c r="O100" s="4"/>
       <c r="P100" s="4"/>
     </row>
-    <row r="101" ht="26.7" customHeight="1">
-      <c r="A101" s="71"/>
-      <c r="B101" s="44"/>
+    <row r="101" ht="17.65" customHeight="1">
+      <c r="A101" s="73"/>
+      <c r="B101" s="69"/>
       <c r="C101" t="s" s="77">
-        <v>165</v>
-      </c>
-      <c r="D101" t="s" s="76">
-        <v>166</v>
-      </c>
-      <c r="E101" s="74"/>
-      <c r="F101" s="74"/>
+        <v>154</v>
+      </c>
+      <c r="D101" t="s" s="78">
+        <v>155</v>
+      </c>
+      <c r="E101" s="76"/>
+      <c r="F101" s="76"/>
       <c r="G101" s="31"/>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
@@ -6160,15 +6279,15 @@
       <c r="O101" s="4"/>
       <c r="P101" s="4"/>
     </row>
-    <row r="102" ht="38.7" customHeight="1">
-      <c r="A102" s="71"/>
+    <row r="102" ht="17.65" customHeight="1">
+      <c r="A102" s="73"/>
       <c r="B102" s="44"/>
-      <c r="C102" s="60"/>
-      <c r="D102" t="s" s="73">
-        <v>167</v>
-      </c>
-      <c r="E102" s="74"/>
-      <c r="F102" s="74"/>
+      <c r="C102" s="79"/>
+      <c r="D102" t="s" s="75">
+        <v>156</v>
+      </c>
+      <c r="E102" s="76"/>
+      <c r="F102" s="76"/>
       <c r="G102" s="31"/>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
@@ -6180,17 +6299,17 @@
       <c r="O102" s="4"/>
       <c r="P102" s="4"/>
     </row>
-    <row r="103" ht="26.7" customHeight="1">
-      <c r="A103" s="71"/>
+    <row r="103" ht="17.65" customHeight="1">
+      <c r="A103" s="73"/>
       <c r="B103" s="44"/>
-      <c r="C103" t="s" s="77">
-        <v>168</v>
-      </c>
-      <c r="D103" t="s" s="76">
-        <v>169</v>
-      </c>
-      <c r="E103" s="74"/>
-      <c r="F103" s="74"/>
+      <c r="C103" t="s" s="75">
+        <v>157</v>
+      </c>
+      <c r="D103" t="s" s="78">
+        <v>158</v>
+      </c>
+      <c r="E103" s="76"/>
+      <c r="F103" s="76"/>
       <c r="G103" s="31"/>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
@@ -6202,15 +6321,17 @@
       <c r="O103" s="4"/>
       <c r="P103" s="4"/>
     </row>
-    <row r="104" ht="50.7" customHeight="1">
-      <c r="A104" s="71"/>
+    <row r="104" ht="26.7" customHeight="1">
+      <c r="A104" s="73"/>
       <c r="B104" s="44"/>
-      <c r="C104" s="60"/>
-      <c r="D104" t="s" s="73">
-        <v>170</v>
-      </c>
-      <c r="E104" s="74"/>
-      <c r="F104" s="74"/>
+      <c r="C104" t="s" s="80">
+        <v>159</v>
+      </c>
+      <c r="D104" t="s" s="78">
+        <v>160</v>
+      </c>
+      <c r="E104" s="76"/>
+      <c r="F104" s="76"/>
       <c r="G104" s="31"/>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
@@ -6222,17 +6343,15 @@
       <c r="O104" s="4"/>
       <c r="P104" s="4"/>
     </row>
-    <row r="105" ht="26.7" customHeight="1">
-      <c r="A105" s="71"/>
+    <row r="105" ht="62.7" customHeight="1">
+      <c r="A105" s="73"/>
       <c r="B105" s="44"/>
-      <c r="C105" t="s" s="77">
-        <v>171</v>
-      </c>
-      <c r="D105" t="s" s="76">
-        <v>172</v>
-      </c>
-      <c r="E105" s="74"/>
-      <c r="F105" s="74"/>
+      <c r="C105" s="79"/>
+      <c r="D105" t="s" s="75">
+        <v>161</v>
+      </c>
+      <c r="E105" s="76"/>
+      <c r="F105" s="76"/>
       <c r="G105" s="31"/>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
@@ -6244,15 +6363,17 @@
       <c r="O105" s="4"/>
       <c r="P105" s="4"/>
     </row>
-    <row r="106" ht="74.7" customHeight="1">
-      <c r="A106" s="71"/>
+    <row r="106" ht="26.7" customHeight="1">
+      <c r="A106" s="73"/>
       <c r="B106" s="44"/>
-      <c r="C106" s="60"/>
-      <c r="D106" t="s" s="73">
-        <v>173</v>
-      </c>
-      <c r="E106" s="74"/>
-      <c r="F106" s="74"/>
+      <c r="C106" t="s" s="80">
+        <v>162</v>
+      </c>
+      <c r="D106" t="s" s="78">
+        <v>163</v>
+      </c>
+      <c r="E106" s="76"/>
+      <c r="F106" s="76"/>
       <c r="G106" s="31"/>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
@@ -6264,17 +6385,15 @@
       <c r="O106" s="4"/>
       <c r="P106" s="4"/>
     </row>
-    <row r="107" ht="38.7" customHeight="1">
-      <c r="A107" s="71"/>
+    <row r="107" ht="182.7" customHeight="1">
+      <c r="A107" s="73"/>
       <c r="B107" s="44"/>
-      <c r="C107" t="s" s="77">
-        <v>174</v>
-      </c>
-      <c r="D107" t="s" s="76">
-        <v>175</v>
-      </c>
-      <c r="E107" s="74"/>
-      <c r="F107" s="74"/>
+      <c r="C107" s="79"/>
+      <c r="D107" t="s" s="75">
+        <v>164</v>
+      </c>
+      <c r="E107" s="76"/>
+      <c r="F107" s="76"/>
       <c r="G107" s="31"/>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
@@ -6286,15 +6405,17 @@
       <c r="O107" s="4"/>
       <c r="P107" s="4"/>
     </row>
-    <row r="108" ht="62.7" customHeight="1">
-      <c r="A108" s="71"/>
+    <row r="108" ht="26.7" customHeight="1">
+      <c r="A108" s="73"/>
       <c r="B108" s="44"/>
-      <c r="C108" s="60"/>
-      <c r="D108" t="s" s="73">
-        <v>176</v>
-      </c>
-      <c r="E108" s="74"/>
-      <c r="F108" s="74"/>
+      <c r="C108" t="s" s="80">
+        <v>165</v>
+      </c>
+      <c r="D108" t="s" s="78">
+        <v>166</v>
+      </c>
+      <c r="E108" s="76"/>
+      <c r="F108" s="76"/>
       <c r="G108" s="31"/>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
@@ -6306,17 +6427,15 @@
       <c r="O108" s="4"/>
       <c r="P108" s="4"/>
     </row>
-    <row r="109" ht="26.7" customHeight="1">
-      <c r="A109" s="71"/>
+    <row r="109" ht="38.7" customHeight="1">
+      <c r="A109" s="73"/>
       <c r="B109" s="44"/>
-      <c r="C109" t="s" s="77">
-        <v>177</v>
-      </c>
-      <c r="D109" t="s" s="76">
-        <v>178</v>
-      </c>
-      <c r="E109" s="74"/>
-      <c r="F109" s="74"/>
+      <c r="C109" s="79"/>
+      <c r="D109" t="s" s="75">
+        <v>167</v>
+      </c>
+      <c r="E109" s="76"/>
+      <c r="F109" s="76"/>
       <c r="G109" s="31"/>
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
@@ -6328,15 +6447,17 @@
       <c r="O109" s="4"/>
       <c r="P109" s="4"/>
     </row>
-    <row r="110" ht="74.7" customHeight="1">
-      <c r="A110" s="71"/>
+    <row r="110" ht="26.7" customHeight="1">
+      <c r="A110" s="73"/>
       <c r="B110" s="44"/>
-      <c r="C110" s="60"/>
-      <c r="D110" t="s" s="73">
-        <v>179</v>
-      </c>
-      <c r="E110" s="74"/>
-      <c r="F110" s="74"/>
+      <c r="C110" t="s" s="80">
+        <v>168</v>
+      </c>
+      <c r="D110" t="s" s="78">
+        <v>169</v>
+      </c>
+      <c r="E110" s="76"/>
+      <c r="F110" s="76"/>
       <c r="G110" s="31"/>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
@@ -6348,17 +6469,15 @@
       <c r="O110" s="4"/>
       <c r="P110" s="4"/>
     </row>
-    <row r="111" ht="26.7" customHeight="1">
-      <c r="A111" s="71"/>
+    <row r="111" ht="50.7" customHeight="1">
+      <c r="A111" s="73"/>
       <c r="B111" s="44"/>
-      <c r="C111" t="s" s="77">
-        <v>180</v>
-      </c>
-      <c r="D111" t="s" s="76">
-        <v>181</v>
-      </c>
-      <c r="E111" s="74"/>
-      <c r="F111" s="74"/>
+      <c r="C111" s="79"/>
+      <c r="D111" t="s" s="75">
+        <v>170</v>
+      </c>
+      <c r="E111" s="76"/>
+      <c r="F111" s="76"/>
       <c r="G111" s="31"/>
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
@@ -6370,15 +6489,17 @@
       <c r="O111" s="4"/>
       <c r="P111" s="4"/>
     </row>
-    <row r="112" ht="86.7" customHeight="1">
-      <c r="A112" s="71"/>
+    <row r="112" ht="26.7" customHeight="1">
+      <c r="A112" s="73"/>
       <c r="B112" s="44"/>
-      <c r="C112" s="60"/>
-      <c r="D112" t="s" s="73">
-        <v>182</v>
-      </c>
-      <c r="E112" s="74"/>
-      <c r="F112" s="74"/>
+      <c r="C112" t="s" s="80">
+        <v>171</v>
+      </c>
+      <c r="D112" t="s" s="78">
+        <v>172</v>
+      </c>
+      <c r="E112" s="76"/>
+      <c r="F112" s="76"/>
       <c r="G112" s="31"/>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
@@ -6390,17 +6511,15 @@
       <c r="O112" s="4"/>
       <c r="P112" s="4"/>
     </row>
-    <row r="113" ht="17.65" customHeight="1">
-      <c r="A113" s="71"/>
+    <row r="113" ht="74.7" customHeight="1">
+      <c r="A113" s="73"/>
       <c r="B113" s="44"/>
-      <c r="C113" t="s" s="77">
-        <v>183</v>
-      </c>
-      <c r="D113" t="s" s="76">
-        <v>184</v>
-      </c>
-      <c r="E113" s="74"/>
-      <c r="F113" s="74"/>
+      <c r="C113" s="79"/>
+      <c r="D113" t="s" s="75">
+        <v>173</v>
+      </c>
+      <c r="E113" s="76"/>
+      <c r="F113" s="76"/>
       <c r="G113" s="31"/>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
@@ -6412,15 +6531,17 @@
       <c r="O113" s="4"/>
       <c r="P113" s="4"/>
     </row>
-    <row r="114" ht="62.7" customHeight="1">
-      <c r="A114" s="71"/>
+    <row r="114" ht="38.7" customHeight="1">
+      <c r="A114" s="73"/>
       <c r="B114" s="44"/>
-      <c r="C114" s="60"/>
-      <c r="D114" t="s" s="73">
-        <v>185</v>
-      </c>
-      <c r="E114" s="74"/>
-      <c r="F114" s="74"/>
+      <c r="C114" t="s" s="80">
+        <v>174</v>
+      </c>
+      <c r="D114" t="s" s="78">
+        <v>175</v>
+      </c>
+      <c r="E114" s="76"/>
+      <c r="F114" s="76"/>
       <c r="G114" s="31"/>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
@@ -6432,17 +6553,15 @@
       <c r="O114" s="4"/>
       <c r="P114" s="4"/>
     </row>
-    <row r="115" ht="17.65" customHeight="1">
-      <c r="A115" s="71"/>
+    <row r="115" ht="62.7" customHeight="1">
+      <c r="A115" s="73"/>
       <c r="B115" s="44"/>
-      <c r="C115" t="s" s="73">
-        <v>186</v>
-      </c>
-      <c r="D115" t="s" s="76">
-        <v>187</v>
-      </c>
-      <c r="E115" s="74"/>
-      <c r="F115" s="74"/>
+      <c r="C115" s="79"/>
+      <c r="D115" t="s" s="75">
+        <v>176</v>
+      </c>
+      <c r="E115" s="76"/>
+      <c r="F115" s="76"/>
       <c r="G115" s="31"/>
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
@@ -6454,17 +6573,17 @@
       <c r="O115" s="4"/>
       <c r="P115" s="4"/>
     </row>
-    <row r="116" ht="17.65" customHeight="1">
-      <c r="A116" s="71"/>
+    <row r="116" ht="26.7" customHeight="1">
+      <c r="A116" s="73"/>
       <c r="B116" s="44"/>
-      <c r="C116" t="s" s="77">
-        <v>159</v>
-      </c>
-      <c r="D116" t="s" s="76">
-        <v>188</v>
-      </c>
-      <c r="E116" s="74"/>
-      <c r="F116" s="74"/>
+      <c r="C116" t="s" s="80">
+        <v>177</v>
+      </c>
+      <c r="D116" t="s" s="78">
+        <v>178</v>
+      </c>
+      <c r="E116" s="76"/>
+      <c r="F116" s="76"/>
       <c r="G116" s="31"/>
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
@@ -6476,15 +6595,15 @@
       <c r="O116" s="4"/>
       <c r="P116" s="4"/>
     </row>
-    <row r="117" ht="50.7" customHeight="1">
-      <c r="A117" s="71"/>
+    <row r="117" ht="74.7" customHeight="1">
+      <c r="A117" s="73"/>
       <c r="B117" s="44"/>
-      <c r="C117" s="60"/>
-      <c r="D117" t="s" s="73">
-        <v>189</v>
-      </c>
-      <c r="E117" s="74"/>
-      <c r="F117" s="74"/>
+      <c r="C117" s="79"/>
+      <c r="D117" t="s" s="75">
+        <v>179</v>
+      </c>
+      <c r="E117" s="76"/>
+      <c r="F117" s="76"/>
       <c r="G117" s="31"/>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
@@ -6496,17 +6615,17 @@
       <c r="O117" s="4"/>
       <c r="P117" s="4"/>
     </row>
-    <row r="118" ht="17.65" customHeight="1">
-      <c r="A118" s="71"/>
+    <row r="118" ht="26.7" customHeight="1">
+      <c r="A118" s="73"/>
       <c r="B118" s="44"/>
-      <c r="C118" t="s" s="77">
-        <v>162</v>
-      </c>
-      <c r="D118" t="s" s="76">
-        <v>190</v>
-      </c>
-      <c r="E118" s="74"/>
-      <c r="F118" s="74"/>
+      <c r="C118" t="s" s="80">
+        <v>180</v>
+      </c>
+      <c r="D118" t="s" s="78">
+        <v>181</v>
+      </c>
+      <c r="E118" s="76"/>
+      <c r="F118" s="76"/>
       <c r="G118" s="31"/>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
@@ -6518,15 +6637,15 @@
       <c r="O118" s="4"/>
       <c r="P118" s="4"/>
     </row>
-    <row r="119" ht="38.7" customHeight="1">
-      <c r="A119" s="71"/>
+    <row r="119" ht="86.7" customHeight="1">
+      <c r="A119" s="73"/>
       <c r="B119" s="44"/>
-      <c r="C119" s="60"/>
-      <c r="D119" t="s" s="73">
-        <v>191</v>
-      </c>
-      <c r="E119" s="74"/>
-      <c r="F119" s="74"/>
+      <c r="C119" s="79"/>
+      <c r="D119" t="s" s="75">
+        <v>182</v>
+      </c>
+      <c r="E119" s="76"/>
+      <c r="F119" s="76"/>
       <c r="G119" s="31"/>
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
@@ -6539,16 +6658,16 @@
       <c r="P119" s="4"/>
     </row>
     <row r="120" ht="17.65" customHeight="1">
-      <c r="A120" s="71"/>
+      <c r="A120" s="73"/>
       <c r="B120" s="44"/>
-      <c r="C120" t="s" s="77">
-        <v>165</v>
-      </c>
-      <c r="D120" t="s" s="76">
-        <v>192</v>
-      </c>
-      <c r="E120" s="74"/>
-      <c r="F120" s="74"/>
+      <c r="C120" t="s" s="80">
+        <v>183</v>
+      </c>
+      <c r="D120" t="s" s="78">
+        <v>184</v>
+      </c>
+      <c r="E120" s="76"/>
+      <c r="F120" s="76"/>
       <c r="G120" s="31"/>
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
@@ -6560,15 +6679,15 @@
       <c r="O120" s="4"/>
       <c r="P120" s="4"/>
     </row>
-    <row r="121" ht="26.7" customHeight="1">
-      <c r="A121" s="71"/>
+    <row r="121" ht="62.7" customHeight="1">
+      <c r="A121" s="73"/>
       <c r="B121" s="44"/>
-      <c r="C121" s="60"/>
-      <c r="D121" t="s" s="73">
-        <v>193</v>
-      </c>
-      <c r="E121" s="74"/>
-      <c r="F121" s="74"/>
+      <c r="C121" s="79"/>
+      <c r="D121" t="s" s="75">
+        <v>185</v>
+      </c>
+      <c r="E121" s="76"/>
+      <c r="F121" s="76"/>
       <c r="G121" s="31"/>
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
@@ -6581,16 +6700,16 @@
       <c r="P121" s="4"/>
     </row>
     <row r="122" ht="17.65" customHeight="1">
-      <c r="A122" s="71"/>
+      <c r="A122" s="73"/>
       <c r="B122" s="44"/>
-      <c r="C122" t="s" s="77">
-        <v>168</v>
-      </c>
-      <c r="D122" t="s" s="76">
-        <v>194</v>
-      </c>
-      <c r="E122" s="74"/>
-      <c r="F122" s="74"/>
+      <c r="C122" t="s" s="75">
+        <v>186</v>
+      </c>
+      <c r="D122" t="s" s="78">
+        <v>187</v>
+      </c>
+      <c r="E122" s="76"/>
+      <c r="F122" s="76"/>
       <c r="G122" s="31"/>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
@@ -6602,15 +6721,17 @@
       <c r="O122" s="4"/>
       <c r="P122" s="4"/>
     </row>
-    <row r="123" ht="110.7" customHeight="1">
-      <c r="A123" s="71"/>
+    <row r="123" ht="17.65" customHeight="1">
+      <c r="A123" s="73"/>
       <c r="B123" s="44"/>
-      <c r="C123" s="60"/>
-      <c r="D123" t="s" s="73">
-        <v>195</v>
-      </c>
-      <c r="E123" s="74"/>
-      <c r="F123" s="74"/>
+      <c r="C123" t="s" s="80">
+        <v>159</v>
+      </c>
+      <c r="D123" t="s" s="78">
+        <v>188</v>
+      </c>
+      <c r="E123" s="76"/>
+      <c r="F123" s="76"/>
       <c r="G123" s="31"/>
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
@@ -6622,17 +6743,15 @@
       <c r="O123" s="4"/>
       <c r="P123" s="4"/>
     </row>
-    <row r="124" ht="17.65" customHeight="1">
-      <c r="A124" s="71"/>
+    <row r="124" ht="50.7" customHeight="1">
+      <c r="A124" s="73"/>
       <c r="B124" s="44"/>
-      <c r="C124" t="s" s="77">
-        <v>171</v>
-      </c>
-      <c r="D124" t="s" s="76">
-        <v>196</v>
-      </c>
-      <c r="E124" s="74"/>
-      <c r="F124" s="74"/>
+      <c r="C124" s="79"/>
+      <c r="D124" t="s" s="75">
+        <v>189</v>
+      </c>
+      <c r="E124" s="76"/>
+      <c r="F124" s="76"/>
       <c r="G124" s="31"/>
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
@@ -6644,15 +6763,17 @@
       <c r="O124" s="4"/>
       <c r="P124" s="4"/>
     </row>
-    <row r="125" ht="26.7" customHeight="1">
-      <c r="A125" s="71"/>
+    <row r="125" ht="17.65" customHeight="1">
+      <c r="A125" s="73"/>
       <c r="B125" s="44"/>
-      <c r="C125" s="60"/>
-      <c r="D125" t="s" s="73">
-        <v>197</v>
-      </c>
-      <c r="E125" s="74"/>
-      <c r="F125" s="74"/>
+      <c r="C125" t="s" s="80">
+        <v>162</v>
+      </c>
+      <c r="D125" t="s" s="78">
+        <v>190</v>
+      </c>
+      <c r="E125" s="76"/>
+      <c r="F125" s="76"/>
       <c r="G125" s="31"/>
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
@@ -6664,17 +6785,15 @@
       <c r="O125" s="4"/>
       <c r="P125" s="4"/>
     </row>
-    <row r="126" ht="17.65" customHeight="1">
-      <c r="A126" s="71"/>
+    <row r="126" ht="38.7" customHeight="1">
+      <c r="A126" s="73"/>
       <c r="B126" s="44"/>
-      <c r="C126" t="s" s="73">
-        <v>198</v>
-      </c>
-      <c r="D126" t="s" s="76">
-        <v>199</v>
-      </c>
-      <c r="E126" s="74"/>
-      <c r="F126" s="74"/>
+      <c r="C126" s="79"/>
+      <c r="D126" t="s" s="75">
+        <v>191</v>
+      </c>
+      <c r="E126" s="76"/>
+      <c r="F126" s="76"/>
       <c r="G126" s="31"/>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
@@ -6687,16 +6806,16 @@
       <c r="P126" s="4"/>
     </row>
     <row r="127" ht="17.65" customHeight="1">
-      <c r="A127" s="71"/>
+      <c r="A127" s="73"/>
       <c r="B127" s="44"/>
-      <c r="C127" t="s" s="77">
-        <v>159</v>
-      </c>
-      <c r="D127" t="s" s="76">
-        <v>200</v>
-      </c>
-      <c r="E127" s="74"/>
-      <c r="F127" s="74"/>
+      <c r="C127" t="s" s="80">
+        <v>165</v>
+      </c>
+      <c r="D127" t="s" s="78">
+        <v>192</v>
+      </c>
+      <c r="E127" s="76"/>
+      <c r="F127" s="76"/>
       <c r="G127" s="31"/>
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
@@ -6708,15 +6827,15 @@
       <c r="O127" s="4"/>
       <c r="P127" s="4"/>
     </row>
-    <row r="128" ht="98.7" customHeight="1">
-      <c r="A128" s="71"/>
+    <row r="128" ht="26.7" customHeight="1">
+      <c r="A128" s="73"/>
       <c r="B128" s="44"/>
-      <c r="C128" s="60"/>
-      <c r="D128" t="s" s="73">
-        <v>201</v>
-      </c>
-      <c r="E128" s="74"/>
-      <c r="F128" s="74"/>
+      <c r="C128" s="79"/>
+      <c r="D128" t="s" s="75">
+        <v>193</v>
+      </c>
+      <c r="E128" s="76"/>
+      <c r="F128" s="76"/>
       <c r="G128" s="31"/>
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
@@ -6729,16 +6848,16 @@
       <c r="P128" s="4"/>
     </row>
     <row r="129" ht="17.65" customHeight="1">
-      <c r="A129" s="71"/>
+      <c r="A129" s="73"/>
       <c r="B129" s="44"/>
-      <c r="C129" t="s" s="73">
-        <v>202</v>
-      </c>
-      <c r="D129" t="s" s="76">
-        <v>203</v>
-      </c>
-      <c r="E129" s="74"/>
-      <c r="F129" s="74"/>
+      <c r="C129" t="s" s="80">
+        <v>168</v>
+      </c>
+      <c r="D129" t="s" s="78">
+        <v>194</v>
+      </c>
+      <c r="E129" s="76"/>
+      <c r="F129" s="76"/>
       <c r="G129" s="31"/>
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
@@ -6750,17 +6869,15 @@
       <c r="O129" s="4"/>
       <c r="P129" s="4"/>
     </row>
-    <row r="130" ht="17.65" customHeight="1">
-      <c r="A130" s="71"/>
+    <row r="130" ht="110.7" customHeight="1">
+      <c r="A130" s="73"/>
       <c r="B130" s="44"/>
-      <c r="C130" t="s" s="77">
-        <v>159</v>
-      </c>
-      <c r="D130" t="s" s="76">
-        <v>204</v>
-      </c>
-      <c r="E130" s="74"/>
-      <c r="F130" s="74"/>
+      <c r="C130" s="79"/>
+      <c r="D130" t="s" s="75">
+        <v>195</v>
+      </c>
+      <c r="E130" s="76"/>
+      <c r="F130" s="76"/>
       <c r="G130" s="31"/>
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
@@ -6772,15 +6889,17 @@
       <c r="O130" s="4"/>
       <c r="P130" s="4"/>
     </row>
-    <row r="131" ht="38.7" customHeight="1">
-      <c r="A131" s="71"/>
+    <row r="131" ht="17.65" customHeight="1">
+      <c r="A131" s="73"/>
       <c r="B131" s="44"/>
-      <c r="C131" s="60"/>
-      <c r="D131" t="s" s="73">
-        <v>205</v>
-      </c>
-      <c r="E131" s="74"/>
-      <c r="F131" s="74"/>
+      <c r="C131" t="s" s="80">
+        <v>171</v>
+      </c>
+      <c r="D131" t="s" s="78">
+        <v>196</v>
+      </c>
+      <c r="E131" s="76"/>
+      <c r="F131" s="76"/>
       <c r="G131" s="31"/>
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
@@ -6792,17 +6911,15 @@
       <c r="O131" s="4"/>
       <c r="P131" s="4"/>
     </row>
-    <row r="132" ht="17.65" customHeight="1">
-      <c r="A132" s="71"/>
+    <row r="132" ht="26.7" customHeight="1">
+      <c r="A132" s="73"/>
       <c r="B132" s="44"/>
-      <c r="C132" t="s" s="77">
-        <v>162</v>
-      </c>
-      <c r="D132" t="s" s="76">
-        <v>206</v>
-      </c>
-      <c r="E132" s="74"/>
-      <c r="F132" s="74"/>
+      <c r="C132" s="79"/>
+      <c r="D132" t="s" s="75">
+        <v>197</v>
+      </c>
+      <c r="E132" s="76"/>
+      <c r="F132" s="76"/>
       <c r="G132" s="31"/>
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
@@ -6814,15 +6931,17 @@
       <c r="O132" s="4"/>
       <c r="P132" s="4"/>
     </row>
-    <row r="133" ht="62.7" customHeight="1">
-      <c r="A133" s="71"/>
+    <row r="133" ht="17.65" customHeight="1">
+      <c r="A133" s="73"/>
       <c r="B133" s="44"/>
-      <c r="C133" s="60"/>
-      <c r="D133" t="s" s="73">
-        <v>207</v>
-      </c>
-      <c r="E133" s="74"/>
-      <c r="F133" s="74"/>
+      <c r="C133" t="s" s="75">
+        <v>198</v>
+      </c>
+      <c r="D133" t="s" s="78">
+        <v>199</v>
+      </c>
+      <c r="E133" s="76"/>
+      <c r="F133" s="76"/>
       <c r="G133" s="31"/>
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
@@ -6835,16 +6954,16 @@
       <c r="P133" s="4"/>
     </row>
     <row r="134" ht="17.65" customHeight="1">
-      <c r="A134" s="71"/>
+      <c r="A134" s="73"/>
       <c r="B134" s="44"/>
-      <c r="C134" t="s" s="73">
-        <v>208</v>
-      </c>
-      <c r="D134" t="s" s="76">
-        <v>209</v>
-      </c>
-      <c r="E134" s="74"/>
-      <c r="F134" s="74"/>
+      <c r="C134" t="s" s="80">
+        <v>159</v>
+      </c>
+      <c r="D134" t="s" s="78">
+        <v>200</v>
+      </c>
+      <c r="E134" s="76"/>
+      <c r="F134" s="76"/>
       <c r="G134" s="31"/>
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
@@ -6856,17 +6975,15 @@
       <c r="O134" s="4"/>
       <c r="P134" s="4"/>
     </row>
-    <row r="135" ht="17.65" customHeight="1">
-      <c r="A135" s="71"/>
+    <row r="135" ht="98.7" customHeight="1">
+      <c r="A135" s="73"/>
       <c r="B135" s="44"/>
-      <c r="C135" t="s" s="77">
-        <v>159</v>
-      </c>
-      <c r="D135" t="s" s="76">
-        <v>210</v>
-      </c>
-      <c r="E135" s="74"/>
-      <c r="F135" s="74"/>
+      <c r="C135" s="79"/>
+      <c r="D135" t="s" s="75">
+        <v>201</v>
+      </c>
+      <c r="E135" s="76"/>
+      <c r="F135" s="76"/>
       <c r="G135" s="31"/>
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
@@ -6878,15 +6995,17 @@
       <c r="O135" s="4"/>
       <c r="P135" s="4"/>
     </row>
-    <row r="136" ht="26.7" customHeight="1">
-      <c r="A136" s="71"/>
+    <row r="136" ht="17.65" customHeight="1">
+      <c r="A136" s="73"/>
       <c r="B136" s="44"/>
-      <c r="C136" s="60"/>
-      <c r="D136" t="s" s="73">
-        <v>211</v>
-      </c>
-      <c r="E136" s="74"/>
-      <c r="F136" s="74"/>
+      <c r="C136" t="s" s="75">
+        <v>202</v>
+      </c>
+      <c r="D136" t="s" s="78">
+        <v>203</v>
+      </c>
+      <c r="E136" s="76"/>
+      <c r="F136" s="76"/>
       <c r="G136" s="31"/>
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
@@ -6899,16 +7018,16 @@
       <c r="P136" s="4"/>
     </row>
     <row r="137" ht="17.65" customHeight="1">
-      <c r="A137" s="71"/>
+      <c r="A137" s="73"/>
       <c r="B137" s="44"/>
-      <c r="C137" t="s" s="77">
-        <v>162</v>
-      </c>
-      <c r="D137" t="s" s="76">
-        <v>212</v>
-      </c>
-      <c r="E137" s="74"/>
-      <c r="F137" s="74"/>
+      <c r="C137" t="s" s="80">
+        <v>159</v>
+      </c>
+      <c r="D137" t="s" s="78">
+        <v>204</v>
+      </c>
+      <c r="E137" s="76"/>
+      <c r="F137" s="76"/>
       <c r="G137" s="31"/>
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
@@ -6920,15 +7039,15 @@
       <c r="O137" s="4"/>
       <c r="P137" s="4"/>
     </row>
-    <row r="138" ht="50.7" customHeight="1">
-      <c r="A138" s="71"/>
+    <row r="138" ht="38.7" customHeight="1">
+      <c r="A138" s="73"/>
       <c r="B138" s="44"/>
-      <c r="C138" s="60"/>
-      <c r="D138" t="s" s="73">
-        <v>213</v>
-      </c>
-      <c r="E138" s="74"/>
-      <c r="F138" s="74"/>
+      <c r="C138" s="79"/>
+      <c r="D138" t="s" s="75">
+        <v>205</v>
+      </c>
+      <c r="E138" s="76"/>
+      <c r="F138" s="76"/>
       <c r="G138" s="31"/>
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
@@ -6941,16 +7060,16 @@
       <c r="P138" s="4"/>
     </row>
     <row r="139" ht="17.65" customHeight="1">
-      <c r="A139" s="71"/>
+      <c r="A139" s="73"/>
       <c r="B139" s="44"/>
-      <c r="C139" t="s" s="73">
-        <v>214</v>
-      </c>
-      <c r="D139" t="s" s="76">
-        <v>215</v>
-      </c>
-      <c r="E139" s="74"/>
-      <c r="F139" s="74"/>
+      <c r="C139" t="s" s="80">
+        <v>162</v>
+      </c>
+      <c r="D139" t="s" s="78">
+        <v>206</v>
+      </c>
+      <c r="E139" s="76"/>
+      <c r="F139" s="76"/>
       <c r="G139" s="31"/>
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
@@ -6962,17 +7081,15 @@
       <c r="O139" s="4"/>
       <c r="P139" s="4"/>
     </row>
-    <row r="140" ht="17.65" customHeight="1">
-      <c r="A140" s="71"/>
+    <row r="140" ht="62.7" customHeight="1">
+      <c r="A140" s="73"/>
       <c r="B140" s="44"/>
-      <c r="C140" t="s" s="77">
-        <v>159</v>
-      </c>
-      <c r="D140" t="s" s="76">
-        <v>216</v>
-      </c>
-      <c r="E140" s="74"/>
-      <c r="F140" s="74"/>
+      <c r="C140" s="79"/>
+      <c r="D140" t="s" s="75">
+        <v>207</v>
+      </c>
+      <c r="E140" s="76"/>
+      <c r="F140" s="76"/>
       <c r="G140" s="31"/>
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
@@ -6984,15 +7101,17 @@
       <c r="O140" s="4"/>
       <c r="P140" s="4"/>
     </row>
-    <row r="141" ht="122.7" customHeight="1">
-      <c r="A141" s="71"/>
+    <row r="141" ht="17.65" customHeight="1">
+      <c r="A141" s="73"/>
       <c r="B141" s="44"/>
-      <c r="C141" s="60"/>
-      <c r="D141" t="s" s="73">
-        <v>217</v>
-      </c>
-      <c r="E141" s="74"/>
-      <c r="F141" s="74"/>
+      <c r="C141" t="s" s="75">
+        <v>208</v>
+      </c>
+      <c r="D141" t="s" s="78">
+        <v>209</v>
+      </c>
+      <c r="E141" s="76"/>
+      <c r="F141" s="76"/>
       <c r="G141" s="31"/>
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
@@ -7005,16 +7124,16 @@
       <c r="P141" s="4"/>
     </row>
     <row r="142" ht="17.65" customHeight="1">
-      <c r="A142" s="71"/>
+      <c r="A142" s="73"/>
       <c r="B142" s="44"/>
-      <c r="C142" t="s" s="73">
-        <v>218</v>
-      </c>
-      <c r="D142" t="s" s="76">
-        <v>219</v>
-      </c>
-      <c r="E142" s="74"/>
-      <c r="F142" s="74"/>
+      <c r="C142" t="s" s="80">
+        <v>159</v>
+      </c>
+      <c r="D142" t="s" s="78">
+        <v>210</v>
+      </c>
+      <c r="E142" s="76"/>
+      <c r="F142" s="76"/>
       <c r="G142" s="31"/>
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
@@ -7026,17 +7145,15 @@
       <c r="O142" s="4"/>
       <c r="P142" s="4"/>
     </row>
-    <row r="143" ht="17.65" customHeight="1">
-      <c r="A143" s="71"/>
+    <row r="143" ht="26.7" customHeight="1">
+      <c r="A143" s="73"/>
       <c r="B143" s="44"/>
-      <c r="C143" t="s" s="77">
-        <v>159</v>
-      </c>
-      <c r="D143" t="s" s="76">
-        <v>220</v>
-      </c>
-      <c r="E143" s="74"/>
-      <c r="F143" s="74"/>
+      <c r="C143" s="79"/>
+      <c r="D143" t="s" s="75">
+        <v>211</v>
+      </c>
+      <c r="E143" s="76"/>
+      <c r="F143" s="76"/>
       <c r="G143" s="31"/>
       <c r="H143" s="3"/>
       <c r="I143" s="3"/>
@@ -7049,14 +7166,16 @@
       <c r="P143" s="4"/>
     </row>
     <row r="144" ht="17.65" customHeight="1">
-      <c r="A144" s="71"/>
+      <c r="A144" s="73"/>
       <c r="B144" s="44"/>
-      <c r="C144" s="60"/>
-      <c r="D144" t="s" s="73">
-        <v>221</v>
-      </c>
-      <c r="E144" s="74"/>
-      <c r="F144" s="74"/>
+      <c r="C144" t="s" s="80">
+        <v>162</v>
+      </c>
+      <c r="D144" t="s" s="78">
+        <v>212</v>
+      </c>
+      <c r="E144" s="76"/>
+      <c r="F144" s="76"/>
       <c r="G144" s="31"/>
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
@@ -7068,17 +7187,15 @@
       <c r="O144" s="4"/>
       <c r="P144" s="4"/>
     </row>
-    <row r="145" ht="17.65" customHeight="1">
-      <c r="A145" s="71"/>
+    <row r="145" ht="50.7" customHeight="1">
+      <c r="A145" s="73"/>
       <c r="B145" s="44"/>
-      <c r="C145" t="s" s="77">
-        <v>162</v>
-      </c>
-      <c r="D145" t="s" s="76">
-        <v>222</v>
-      </c>
-      <c r="E145" s="74"/>
-      <c r="F145" s="74"/>
+      <c r="C145" s="79"/>
+      <c r="D145" t="s" s="75">
+        <v>213</v>
+      </c>
+      <c r="E145" s="76"/>
+      <c r="F145" s="76"/>
       <c r="G145" s="31"/>
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
@@ -7090,15 +7207,17 @@
       <c r="O145" s="4"/>
       <c r="P145" s="4"/>
     </row>
-    <row r="146" ht="122.7" customHeight="1">
-      <c r="A146" s="71"/>
+    <row r="146" ht="17.65" customHeight="1">
+      <c r="A146" s="73"/>
       <c r="B146" s="44"/>
-      <c r="C146" s="60"/>
-      <c r="D146" t="s" s="73">
-        <v>223</v>
-      </c>
-      <c r="E146" s="74"/>
-      <c r="F146" s="74"/>
+      <c r="C146" t="s" s="75">
+        <v>214</v>
+      </c>
+      <c r="D146" t="s" s="78">
+        <v>215</v>
+      </c>
+      <c r="E146" s="76"/>
+      <c r="F146" s="76"/>
       <c r="G146" s="31"/>
       <c r="H146" s="3"/>
       <c r="I146" s="3"/>
@@ -7111,16 +7230,16 @@
       <c r="P146" s="4"/>
     </row>
     <row r="147" ht="17.65" customHeight="1">
-      <c r="A147" s="71"/>
+      <c r="A147" s="73"/>
       <c r="B147" s="44"/>
-      <c r="C147" t="s" s="77">
-        <v>165</v>
-      </c>
-      <c r="D147" t="s" s="76">
-        <v>224</v>
-      </c>
-      <c r="E147" s="74"/>
-      <c r="F147" s="74"/>
+      <c r="C147" t="s" s="80">
+        <v>159</v>
+      </c>
+      <c r="D147" t="s" s="78">
+        <v>216</v>
+      </c>
+      <c r="E147" s="76"/>
+      <c r="F147" s="76"/>
       <c r="G147" s="31"/>
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
@@ -7132,15 +7251,15 @@
       <c r="O147" s="4"/>
       <c r="P147" s="4"/>
     </row>
-    <row r="148" ht="50.7" customHeight="1">
-      <c r="A148" s="71"/>
+    <row r="148" ht="122.7" customHeight="1">
+      <c r="A148" s="73"/>
       <c r="B148" s="44"/>
-      <c r="C148" s="60"/>
-      <c r="D148" t="s" s="73">
-        <v>225</v>
-      </c>
-      <c r="E148" s="74"/>
-      <c r="F148" s="74"/>
+      <c r="C148" s="79"/>
+      <c r="D148" t="s" s="75">
+        <v>217</v>
+      </c>
+      <c r="E148" s="76"/>
+      <c r="F148" s="76"/>
       <c r="G148" s="31"/>
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
@@ -7153,16 +7272,16 @@
       <c r="P148" s="4"/>
     </row>
     <row r="149" ht="17.65" customHeight="1">
-      <c r="A149" s="71"/>
+      <c r="A149" s="73"/>
       <c r="B149" s="44"/>
-      <c r="C149" t="s" s="77">
-        <v>168</v>
-      </c>
-      <c r="D149" t="s" s="76">
-        <v>226</v>
-      </c>
-      <c r="E149" s="74"/>
-      <c r="F149" s="74"/>
+      <c r="C149" t="s" s="75">
+        <v>218</v>
+      </c>
+      <c r="D149" t="s" s="78">
+        <v>219</v>
+      </c>
+      <c r="E149" s="76"/>
+      <c r="F149" s="76"/>
       <c r="G149" s="31"/>
       <c r="H149" s="3"/>
       <c r="I149" s="3"/>
@@ -7174,15 +7293,17 @@
       <c r="O149" s="4"/>
       <c r="P149" s="4"/>
     </row>
-    <row r="150" ht="74.7" customHeight="1">
-      <c r="A150" s="71"/>
+    <row r="150" ht="17.65" customHeight="1">
+      <c r="A150" s="73"/>
       <c r="B150" s="44"/>
-      <c r="C150" s="60"/>
-      <c r="D150" t="s" s="73">
-        <v>227</v>
-      </c>
-      <c r="E150" s="74"/>
-      <c r="F150" s="74"/>
+      <c r="C150" t="s" s="80">
+        <v>159</v>
+      </c>
+      <c r="D150" t="s" s="78">
+        <v>220</v>
+      </c>
+      <c r="E150" s="76"/>
+      <c r="F150" s="76"/>
       <c r="G150" s="31"/>
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
@@ -7194,17 +7315,15 @@
       <c r="O150" s="4"/>
       <c r="P150" s="4"/>
     </row>
-    <row r="151" ht="26.7" customHeight="1">
-      <c r="A151" s="71"/>
+    <row r="151" ht="17.65" customHeight="1">
+      <c r="A151" s="73"/>
       <c r="B151" s="44"/>
-      <c r="C151" t="s" s="77">
-        <v>171</v>
-      </c>
-      <c r="D151" t="s" s="76">
-        <v>228</v>
-      </c>
-      <c r="E151" s="74"/>
-      <c r="F151" s="74"/>
+      <c r="C151" s="79"/>
+      <c r="D151" t="s" s="75">
+        <v>221</v>
+      </c>
+      <c r="E151" s="76"/>
+      <c r="F151" s="76"/>
       <c r="G151" s="31"/>
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
@@ -7216,15 +7335,17 @@
       <c r="O151" s="4"/>
       <c r="P151" s="4"/>
     </row>
-    <row r="152" ht="122.7" customHeight="1">
-      <c r="A152" s="71"/>
+    <row r="152" ht="17.65" customHeight="1">
+      <c r="A152" s="73"/>
       <c r="B152" s="44"/>
-      <c r="C152" s="60"/>
-      <c r="D152" t="s" s="73">
-        <v>229</v>
-      </c>
-      <c r="E152" s="74"/>
-      <c r="F152" s="74"/>
+      <c r="C152" t="s" s="80">
+        <v>162</v>
+      </c>
+      <c r="D152" t="s" s="78">
+        <v>222</v>
+      </c>
+      <c r="E152" s="76"/>
+      <c r="F152" s="76"/>
       <c r="G152" s="31"/>
       <c r="H152" s="3"/>
       <c r="I152" s="3"/>
@@ -7236,17 +7357,15 @@
       <c r="O152" s="4"/>
       <c r="P152" s="4"/>
     </row>
-    <row r="153" ht="17.65" customHeight="1">
-      <c r="A153" s="71"/>
+    <row r="153" ht="122.7" customHeight="1">
+      <c r="A153" s="73"/>
       <c r="B153" s="44"/>
-      <c r="C153" t="s" s="77">
-        <v>174</v>
-      </c>
-      <c r="D153" t="s" s="76">
-        <v>230</v>
-      </c>
-      <c r="E153" s="74"/>
-      <c r="F153" s="74"/>
+      <c r="C153" s="79"/>
+      <c r="D153" t="s" s="75">
+        <v>223</v>
+      </c>
+      <c r="E153" s="76"/>
+      <c r="F153" s="76"/>
       <c r="G153" s="31"/>
       <c r="H153" s="3"/>
       <c r="I153" s="3"/>
@@ -7258,15 +7377,17 @@
       <c r="O153" s="4"/>
       <c r="P153" s="4"/>
     </row>
-    <row r="154" ht="374.7" customHeight="1">
-      <c r="A154" s="71"/>
+    <row r="154" ht="17.65" customHeight="1">
+      <c r="A154" s="73"/>
       <c r="B154" s="44"/>
-      <c r="C154" s="60"/>
-      <c r="D154" t="s" s="73">
-        <v>231</v>
-      </c>
-      <c r="E154" s="74"/>
-      <c r="F154" s="74"/>
+      <c r="C154" t="s" s="80">
+        <v>165</v>
+      </c>
+      <c r="D154" t="s" s="78">
+        <v>224</v>
+      </c>
+      <c r="E154" s="76"/>
+      <c r="F154" s="76"/>
       <c r="G154" s="31"/>
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
@@ -7278,17 +7399,15 @@
       <c r="O154" s="4"/>
       <c r="P154" s="4"/>
     </row>
-    <row r="155" ht="17.65" customHeight="1">
-      <c r="A155" s="71"/>
+    <row r="155" ht="50.7" customHeight="1">
+      <c r="A155" s="73"/>
       <c r="B155" s="44"/>
-      <c r="C155" t="s" s="73">
-        <v>232</v>
-      </c>
-      <c r="D155" t="s" s="76">
-        <v>233</v>
-      </c>
-      <c r="E155" s="74"/>
-      <c r="F155" s="74"/>
+      <c r="C155" s="79"/>
+      <c r="D155" t="s" s="75">
+        <v>225</v>
+      </c>
+      <c r="E155" s="76"/>
+      <c r="F155" s="76"/>
       <c r="G155" s="31"/>
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
@@ -7300,17 +7419,17 @@
       <c r="O155" s="4"/>
       <c r="P155" s="4"/>
     </row>
-    <row r="156" ht="26.7" customHeight="1">
-      <c r="A156" s="71"/>
+    <row r="156" ht="17.65" customHeight="1">
+      <c r="A156" s="73"/>
       <c r="B156" s="44"/>
-      <c r="C156" t="s" s="77">
-        <v>159</v>
-      </c>
-      <c r="D156" t="s" s="76">
-        <v>234</v>
-      </c>
-      <c r="E156" s="74"/>
-      <c r="F156" s="74"/>
+      <c r="C156" t="s" s="80">
+        <v>168</v>
+      </c>
+      <c r="D156" t="s" s="78">
+        <v>226</v>
+      </c>
+      <c r="E156" s="76"/>
+      <c r="F156" s="76"/>
       <c r="G156" s="31"/>
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
@@ -7322,15 +7441,15 @@
       <c r="O156" s="4"/>
       <c r="P156" s="4"/>
     </row>
-    <row r="157" ht="38.7" customHeight="1">
-      <c r="A157" s="71"/>
+    <row r="157" ht="74.7" customHeight="1">
+      <c r="A157" s="73"/>
       <c r="B157" s="44"/>
-      <c r="C157" s="60"/>
-      <c r="D157" t="s" s="73">
-        <v>235</v>
-      </c>
-      <c r="E157" s="74"/>
-      <c r="F157" s="74"/>
+      <c r="C157" s="79"/>
+      <c r="D157" t="s" s="75">
+        <v>227</v>
+      </c>
+      <c r="E157" s="76"/>
+      <c r="F157" s="76"/>
       <c r="G157" s="31"/>
       <c r="H157" s="3"/>
       <c r="I157" s="3"/>
@@ -7343,16 +7462,16 @@
       <c r="P157" s="4"/>
     </row>
     <row r="158" ht="26.7" customHeight="1">
-      <c r="A158" s="71"/>
+      <c r="A158" s="73"/>
       <c r="B158" s="44"/>
-      <c r="C158" t="s" s="77">
-        <v>162</v>
-      </c>
-      <c r="D158" t="s" s="76">
-        <v>236</v>
-      </c>
-      <c r="E158" s="74"/>
-      <c r="F158" s="74"/>
+      <c r="C158" t="s" s="80">
+        <v>171</v>
+      </c>
+      <c r="D158" t="s" s="78">
+        <v>228</v>
+      </c>
+      <c r="E158" s="76"/>
+      <c r="F158" s="76"/>
       <c r="G158" s="31"/>
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
@@ -7364,15 +7483,15 @@
       <c r="O158" s="4"/>
       <c r="P158" s="4"/>
     </row>
-    <row r="159" ht="86.7" customHeight="1">
-      <c r="A159" s="71"/>
+    <row r="159" ht="122.7" customHeight="1">
+      <c r="A159" s="73"/>
       <c r="B159" s="44"/>
-      <c r="C159" s="60"/>
-      <c r="D159" t="s" s="73">
-        <v>237</v>
-      </c>
-      <c r="E159" s="74"/>
-      <c r="F159" s="74"/>
+      <c r="C159" s="79"/>
+      <c r="D159" t="s" s="75">
+        <v>229</v>
+      </c>
+      <c r="E159" s="76"/>
+      <c r="F159" s="76"/>
       <c r="G159" s="31"/>
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
@@ -7384,17 +7503,17 @@
       <c r="O159" s="4"/>
       <c r="P159" s="4"/>
     </row>
-    <row r="160" ht="26.7" customHeight="1">
-      <c r="A160" s="71"/>
+    <row r="160" ht="17.65" customHeight="1">
+      <c r="A160" s="73"/>
       <c r="B160" s="44"/>
-      <c r="C160" t="s" s="77">
-        <v>165</v>
-      </c>
-      <c r="D160" t="s" s="76">
-        <v>238</v>
-      </c>
-      <c r="E160" s="74"/>
-      <c r="F160" s="74"/>
+      <c r="C160" t="s" s="80">
+        <v>174</v>
+      </c>
+      <c r="D160" t="s" s="78">
+        <v>230</v>
+      </c>
+      <c r="E160" s="76"/>
+      <c r="F160" s="76"/>
       <c r="G160" s="31"/>
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
@@ -7406,15 +7525,15 @@
       <c r="O160" s="4"/>
       <c r="P160" s="4"/>
     </row>
-    <row r="161" ht="38.7" customHeight="1">
-      <c r="A161" s="71"/>
+    <row r="161" ht="374.7" customHeight="1">
+      <c r="A161" s="73"/>
       <c r="B161" s="44"/>
-      <c r="C161" s="60"/>
-      <c r="D161" t="s" s="73">
-        <v>239</v>
-      </c>
-      <c r="E161" s="74"/>
-      <c r="F161" s="74"/>
+      <c r="C161" s="79"/>
+      <c r="D161" t="s" s="75">
+        <v>231</v>
+      </c>
+      <c r="E161" s="76"/>
+      <c r="F161" s="76"/>
       <c r="G161" s="31"/>
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
@@ -7427,16 +7546,16 @@
       <c r="P161" s="4"/>
     </row>
     <row r="162" ht="17.65" customHeight="1">
-      <c r="A162" s="71"/>
+      <c r="A162" s="73"/>
       <c r="B162" s="44"/>
-      <c r="C162" t="s" s="77">
-        <v>168</v>
-      </c>
-      <c r="D162" t="s" s="76">
-        <v>240</v>
-      </c>
-      <c r="E162" s="74"/>
-      <c r="F162" s="74"/>
+      <c r="C162" t="s" s="75">
+        <v>232</v>
+      </c>
+      <c r="D162" t="s" s="78">
+        <v>233</v>
+      </c>
+      <c r="E162" s="76"/>
+      <c r="F162" s="76"/>
       <c r="G162" s="31"/>
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
@@ -7448,15 +7567,17 @@
       <c r="O162" s="4"/>
       <c r="P162" s="4"/>
     </row>
-    <row r="163" ht="86.7" customHeight="1">
-      <c r="A163" s="71"/>
+    <row r="163" ht="26.7" customHeight="1">
+      <c r="A163" s="73"/>
       <c r="B163" s="44"/>
-      <c r="C163" s="60"/>
-      <c r="D163" t="s" s="73">
-        <v>241</v>
-      </c>
-      <c r="E163" s="74"/>
-      <c r="F163" s="74"/>
+      <c r="C163" t="s" s="80">
+        <v>159</v>
+      </c>
+      <c r="D163" t="s" s="78">
+        <v>234</v>
+      </c>
+      <c r="E163" s="76"/>
+      <c r="F163" s="76"/>
       <c r="G163" s="31"/>
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
@@ -7468,17 +7589,15 @@
       <c r="O163" s="4"/>
       <c r="P163" s="4"/>
     </row>
-    <row r="164" ht="17.65" customHeight="1">
-      <c r="A164" s="71"/>
+    <row r="164" ht="38.7" customHeight="1">
+      <c r="A164" s="73"/>
       <c r="B164" s="44"/>
-      <c r="C164" t="s" s="77">
-        <v>171</v>
-      </c>
-      <c r="D164" t="s" s="76">
-        <v>242</v>
-      </c>
-      <c r="E164" s="74"/>
-      <c r="F164" s="74"/>
+      <c r="C164" s="79"/>
+      <c r="D164" t="s" s="75">
+        <v>235</v>
+      </c>
+      <c r="E164" s="76"/>
+      <c r="F164" s="76"/>
       <c r="G164" s="31"/>
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
@@ -7490,15 +7609,17 @@
       <c r="O164" s="4"/>
       <c r="P164" s="4"/>
     </row>
-    <row r="165" ht="38.7" customHeight="1">
-      <c r="A165" s="71"/>
+    <row r="165" ht="26.7" customHeight="1">
+      <c r="A165" s="73"/>
       <c r="B165" s="44"/>
-      <c r="C165" s="60"/>
-      <c r="D165" t="s" s="73">
-        <v>243</v>
-      </c>
-      <c r="E165" s="74"/>
-      <c r="F165" s="74"/>
+      <c r="C165" t="s" s="80">
+        <v>162</v>
+      </c>
+      <c r="D165" t="s" s="78">
+        <v>236</v>
+      </c>
+      <c r="E165" s="76"/>
+      <c r="F165" s="76"/>
       <c r="G165" s="31"/>
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
@@ -7510,17 +7631,15 @@
       <c r="O165" s="4"/>
       <c r="P165" s="4"/>
     </row>
-    <row r="166" ht="17.65" customHeight="1">
-      <c r="A166" s="71"/>
+    <row r="166" ht="86.7" customHeight="1">
+      <c r="A166" s="73"/>
       <c r="B166" s="44"/>
-      <c r="C166" t="s" s="77">
-        <v>174</v>
-      </c>
-      <c r="D166" t="s" s="76">
-        <v>244</v>
-      </c>
-      <c r="E166" s="74"/>
-      <c r="F166" s="74"/>
+      <c r="C166" s="79"/>
+      <c r="D166" t="s" s="75">
+        <v>237</v>
+      </c>
+      <c r="E166" s="76"/>
+      <c r="F166" s="76"/>
       <c r="G166" s="31"/>
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
@@ -7532,15 +7651,17 @@
       <c r="O166" s="4"/>
       <c r="P166" s="4"/>
     </row>
-    <row r="167" ht="62.7" customHeight="1">
-      <c r="A167" s="71"/>
+    <row r="167" ht="26.7" customHeight="1">
+      <c r="A167" s="73"/>
       <c r="B167" s="44"/>
-      <c r="C167" s="60"/>
-      <c r="D167" t="s" s="73">
-        <v>245</v>
-      </c>
-      <c r="E167" s="74"/>
-      <c r="F167" s="74"/>
+      <c r="C167" t="s" s="80">
+        <v>165</v>
+      </c>
+      <c r="D167" t="s" s="78">
+        <v>238</v>
+      </c>
+      <c r="E167" s="76"/>
+      <c r="F167" s="76"/>
       <c r="G167" s="31"/>
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
@@ -7552,17 +7673,15 @@
       <c r="O167" s="4"/>
       <c r="P167" s="4"/>
     </row>
-    <row r="168" ht="17.65" customHeight="1">
-      <c r="A168" s="71"/>
+    <row r="168" ht="38.7" customHeight="1">
+      <c r="A168" s="73"/>
       <c r="B168" s="44"/>
-      <c r="C168" t="s" s="77">
-        <v>177</v>
-      </c>
-      <c r="D168" t="s" s="76">
-        <v>246</v>
-      </c>
-      <c r="E168" s="74"/>
-      <c r="F168" s="74"/>
+      <c r="C168" s="79"/>
+      <c r="D168" t="s" s="75">
+        <v>239</v>
+      </c>
+      <c r="E168" s="76"/>
+      <c r="F168" s="76"/>
       <c r="G168" s="31"/>
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
@@ -7574,15 +7693,17 @@
       <c r="O168" s="4"/>
       <c r="P168" s="4"/>
     </row>
-    <row r="169" ht="38.7" customHeight="1">
-      <c r="A169" s="71"/>
+    <row r="169" ht="17.65" customHeight="1">
+      <c r="A169" s="73"/>
       <c r="B169" s="44"/>
-      <c r="C169" s="60"/>
-      <c r="D169" t="s" s="73">
-        <v>247</v>
-      </c>
-      <c r="E169" s="74"/>
-      <c r="F169" s="74"/>
+      <c r="C169" t="s" s="80">
+        <v>168</v>
+      </c>
+      <c r="D169" t="s" s="78">
+        <v>240</v>
+      </c>
+      <c r="E169" s="76"/>
+      <c r="F169" s="76"/>
       <c r="G169" s="31"/>
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
@@ -7594,17 +7715,15 @@
       <c r="O169" s="4"/>
       <c r="P169" s="4"/>
     </row>
-    <row r="170" ht="17.65" customHeight="1">
-      <c r="A170" s="71"/>
+    <row r="170" ht="86.7" customHeight="1">
+      <c r="A170" s="73"/>
       <c r="B170" s="44"/>
-      <c r="C170" t="s" s="77">
-        <v>180</v>
-      </c>
-      <c r="D170" t="s" s="76">
-        <v>248</v>
-      </c>
-      <c r="E170" s="74"/>
-      <c r="F170" s="74"/>
+      <c r="C170" s="79"/>
+      <c r="D170" t="s" s="75">
+        <v>241</v>
+      </c>
+      <c r="E170" s="76"/>
+      <c r="F170" s="76"/>
       <c r="G170" s="31"/>
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
@@ -7616,15 +7735,17 @@
       <c r="O170" s="4"/>
       <c r="P170" s="4"/>
     </row>
-    <row r="171" ht="50.7" customHeight="1">
-      <c r="A171" s="71"/>
+    <row r="171" ht="17.65" customHeight="1">
+      <c r="A171" s="73"/>
       <c r="B171" s="44"/>
-      <c r="C171" s="60"/>
-      <c r="D171" t="s" s="73">
-        <v>249</v>
-      </c>
-      <c r="E171" s="74"/>
-      <c r="F171" s="74"/>
+      <c r="C171" t="s" s="80">
+        <v>171</v>
+      </c>
+      <c r="D171" t="s" s="78">
+        <v>242</v>
+      </c>
+      <c r="E171" s="76"/>
+      <c r="F171" s="76"/>
       <c r="G171" s="31"/>
       <c r="H171" s="3"/>
       <c r="I171" s="3"/>
@@ -7636,17 +7757,15 @@
       <c r="O171" s="4"/>
       <c r="P171" s="4"/>
     </row>
-    <row r="172" ht="17.65" customHeight="1">
-      <c r="A172" s="71"/>
+    <row r="172" ht="38.7" customHeight="1">
+      <c r="A172" s="73"/>
       <c r="B172" s="44"/>
-      <c r="C172" t="s" s="73">
-        <v>250</v>
-      </c>
-      <c r="D172" t="s" s="76">
-        <v>251</v>
-      </c>
-      <c r="E172" s="74"/>
-      <c r="F172" s="74"/>
+      <c r="C172" s="79"/>
+      <c r="D172" t="s" s="75">
+        <v>243</v>
+      </c>
+      <c r="E172" s="76"/>
+      <c r="F172" s="76"/>
       <c r="G172" s="31"/>
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
@@ -7659,16 +7778,16 @@
       <c r="P172" s="4"/>
     </row>
     <row r="173" ht="17.65" customHeight="1">
-      <c r="A173" s="71"/>
+      <c r="A173" s="73"/>
       <c r="B173" s="44"/>
-      <c r="C173" t="s" s="77">
-        <v>159</v>
-      </c>
-      <c r="D173" t="s" s="76">
-        <v>252</v>
-      </c>
-      <c r="E173" s="74"/>
-      <c r="F173" s="74"/>
+      <c r="C173" t="s" s="80">
+        <v>174</v>
+      </c>
+      <c r="D173" t="s" s="78">
+        <v>244</v>
+      </c>
+      <c r="E173" s="76"/>
+      <c r="F173" s="76"/>
       <c r="G173" s="31"/>
       <c r="H173" s="3"/>
       <c r="I173" s="3"/>
@@ -7680,15 +7799,15 @@
       <c r="O173" s="4"/>
       <c r="P173" s="4"/>
     </row>
-    <row r="174" ht="158.7" customHeight="1">
-      <c r="A174" s="71"/>
+    <row r="174" ht="62.7" customHeight="1">
+      <c r="A174" s="73"/>
       <c r="B174" s="44"/>
-      <c r="C174" s="60"/>
-      <c r="D174" t="s" s="73">
-        <v>253</v>
-      </c>
-      <c r="E174" s="74"/>
-      <c r="F174" s="74"/>
+      <c r="C174" s="79"/>
+      <c r="D174" t="s" s="75">
+        <v>245</v>
+      </c>
+      <c r="E174" s="76"/>
+      <c r="F174" s="76"/>
       <c r="G174" s="31"/>
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
@@ -7701,16 +7820,16 @@
       <c r="P174" s="4"/>
     </row>
     <row r="175" ht="17.65" customHeight="1">
-      <c r="A175" s="71"/>
+      <c r="A175" s="73"/>
       <c r="B175" s="44"/>
-      <c r="C175" t="s" s="77">
-        <v>162</v>
-      </c>
-      <c r="D175" t="s" s="76">
-        <v>254</v>
-      </c>
-      <c r="E175" s="74"/>
-      <c r="F175" s="74"/>
+      <c r="C175" t="s" s="80">
+        <v>177</v>
+      </c>
+      <c r="D175" t="s" s="78">
+        <v>246</v>
+      </c>
+      <c r="E175" s="76"/>
+      <c r="F175" s="76"/>
       <c r="G175" s="31"/>
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
@@ -7722,15 +7841,15 @@
       <c r="O175" s="4"/>
       <c r="P175" s="4"/>
     </row>
-    <row r="176" ht="50.7" customHeight="1">
-      <c r="A176" s="71"/>
+    <row r="176" ht="38.7" customHeight="1">
+      <c r="A176" s="73"/>
       <c r="B176" s="44"/>
-      <c r="C176" s="60"/>
-      <c r="D176" t="s" s="73">
-        <v>255</v>
-      </c>
-      <c r="E176" s="74"/>
-      <c r="F176" s="74"/>
+      <c r="C176" s="79"/>
+      <c r="D176" t="s" s="75">
+        <v>247</v>
+      </c>
+      <c r="E176" s="76"/>
+      <c r="F176" s="76"/>
       <c r="G176" s="31"/>
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
@@ -7743,16 +7862,16 @@
       <c r="P176" s="4"/>
     </row>
     <row r="177" ht="17.65" customHeight="1">
-      <c r="A177" s="71"/>
+      <c r="A177" s="73"/>
       <c r="B177" s="44"/>
-      <c r="C177" t="s" s="77">
-        <v>165</v>
-      </c>
-      <c r="D177" t="s" s="76">
-        <v>256</v>
-      </c>
-      <c r="E177" s="74"/>
-      <c r="F177" s="74"/>
+      <c r="C177" t="s" s="80">
+        <v>180</v>
+      </c>
+      <c r="D177" t="s" s="78">
+        <v>248</v>
+      </c>
+      <c r="E177" s="76"/>
+      <c r="F177" s="76"/>
       <c r="G177" s="31"/>
       <c r="H177" s="3"/>
       <c r="I177" s="3"/>
@@ -7764,15 +7883,15 @@
       <c r="O177" s="4"/>
       <c r="P177" s="4"/>
     </row>
-    <row r="178" ht="38.7" customHeight="1">
-      <c r="A178" s="71"/>
+    <row r="178" ht="50.7" customHeight="1">
+      <c r="A178" s="73"/>
       <c r="B178" s="44"/>
-      <c r="C178" s="60"/>
-      <c r="D178" t="s" s="73">
-        <v>257</v>
-      </c>
-      <c r="E178" s="74"/>
-      <c r="F178" s="74"/>
+      <c r="C178" s="79"/>
+      <c r="D178" t="s" s="75">
+        <v>249</v>
+      </c>
+      <c r="E178" s="76"/>
+      <c r="F178" s="76"/>
       <c r="G178" s="31"/>
       <c r="H178" s="3"/>
       <c r="I178" s="3"/>
@@ -7784,17 +7903,17 @@
       <c r="O178" s="4"/>
       <c r="P178" s="4"/>
     </row>
-    <row r="179" ht="26.7" customHeight="1">
-      <c r="A179" s="71"/>
+    <row r="179" ht="17.65" customHeight="1">
+      <c r="A179" s="73"/>
       <c r="B179" s="44"/>
-      <c r="C179" t="s" s="77">
-        <v>168</v>
-      </c>
-      <c r="D179" t="s" s="76">
-        <v>258</v>
-      </c>
-      <c r="E179" s="74"/>
-      <c r="F179" s="74"/>
+      <c r="C179" t="s" s="75">
+        <v>250</v>
+      </c>
+      <c r="D179" t="s" s="78">
+        <v>251</v>
+      </c>
+      <c r="E179" s="76"/>
+      <c r="F179" s="76"/>
       <c r="G179" s="31"/>
       <c r="H179" s="3"/>
       <c r="I179" s="3"/>
@@ -7806,15 +7925,17 @@
       <c r="O179" s="4"/>
       <c r="P179" s="4"/>
     </row>
-    <row r="180" ht="98.7" customHeight="1">
-      <c r="A180" s="71"/>
+    <row r="180" ht="17.65" customHeight="1">
+      <c r="A180" s="73"/>
       <c r="B180" s="44"/>
-      <c r="C180" s="60"/>
-      <c r="D180" t="s" s="73">
-        <v>259</v>
-      </c>
-      <c r="E180" s="74"/>
-      <c r="F180" s="74"/>
+      <c r="C180" t="s" s="80">
+        <v>159</v>
+      </c>
+      <c r="D180" t="s" s="78">
+        <v>252</v>
+      </c>
+      <c r="E180" s="76"/>
+      <c r="F180" s="76"/>
       <c r="G180" s="31"/>
       <c r="H180" s="3"/>
       <c r="I180" s="3"/>
@@ -7826,17 +7947,15 @@
       <c r="O180" s="4"/>
       <c r="P180" s="4"/>
     </row>
-    <row r="181" ht="17.65" customHeight="1">
-      <c r="A181" s="71"/>
+    <row r="181" ht="158.7" customHeight="1">
+      <c r="A181" s="73"/>
       <c r="B181" s="44"/>
-      <c r="C181" t="s" s="73">
-        <v>260</v>
-      </c>
-      <c r="D181" t="s" s="76">
-        <v>261</v>
-      </c>
-      <c r="E181" s="74"/>
-      <c r="F181" s="74"/>
+      <c r="C181" s="79"/>
+      <c r="D181" t="s" s="75">
+        <v>253</v>
+      </c>
+      <c r="E181" s="76"/>
+      <c r="F181" s="76"/>
       <c r="G181" s="31"/>
       <c r="H181" s="3"/>
       <c r="I181" s="3"/>
@@ -7849,16 +7968,16 @@
       <c r="P181" s="4"/>
     </row>
     <row r="182" ht="17.65" customHeight="1">
-      <c r="A182" s="71"/>
+      <c r="A182" s="73"/>
       <c r="B182" s="44"/>
-      <c r="C182" t="s" s="77">
-        <v>159</v>
-      </c>
-      <c r="D182" t="s" s="76">
-        <v>262</v>
-      </c>
-      <c r="E182" s="74"/>
-      <c r="F182" s="74"/>
+      <c r="C182" t="s" s="80">
+        <v>162</v>
+      </c>
+      <c r="D182" t="s" s="78">
+        <v>254</v>
+      </c>
+      <c r="E182" s="76"/>
+      <c r="F182" s="76"/>
       <c r="G182" s="31"/>
       <c r="H182" s="3"/>
       <c r="I182" s="3"/>
@@ -7870,15 +7989,15 @@
       <c r="O182" s="4"/>
       <c r="P182" s="4"/>
     </row>
-    <row r="183" ht="26.7" customHeight="1">
-      <c r="A183" s="71"/>
+    <row r="183" ht="50.7" customHeight="1">
+      <c r="A183" s="73"/>
       <c r="B183" s="44"/>
-      <c r="C183" s="60"/>
-      <c r="D183" t="s" s="73">
-        <v>263</v>
-      </c>
-      <c r="E183" s="74"/>
-      <c r="F183" s="74"/>
+      <c r="C183" s="79"/>
+      <c r="D183" t="s" s="75">
+        <v>255</v>
+      </c>
+      <c r="E183" s="76"/>
+      <c r="F183" s="76"/>
       <c r="G183" s="31"/>
       <c r="H183" s="3"/>
       <c r="I183" s="3"/>
@@ -7891,16 +8010,16 @@
       <c r="P183" s="4"/>
     </row>
     <row r="184" ht="17.65" customHeight="1">
-      <c r="A184" s="71"/>
+      <c r="A184" s="73"/>
       <c r="B184" s="44"/>
-      <c r="C184" t="s" s="77">
-        <v>162</v>
-      </c>
-      <c r="D184" t="s" s="76">
-        <v>264</v>
-      </c>
-      <c r="E184" s="74"/>
-      <c r="F184" s="74"/>
+      <c r="C184" t="s" s="80">
+        <v>165</v>
+      </c>
+      <c r="D184" t="s" s="78">
+        <v>256</v>
+      </c>
+      <c r="E184" s="76"/>
+      <c r="F184" s="76"/>
       <c r="G184" s="31"/>
       <c r="H184" s="3"/>
       <c r="I184" s="3"/>
@@ -7912,15 +8031,15 @@
       <c r="O184" s="4"/>
       <c r="P184" s="4"/>
     </row>
-    <row r="185" ht="50.7" customHeight="1">
-      <c r="A185" s="71"/>
+    <row r="185" ht="38.7" customHeight="1">
+      <c r="A185" s="73"/>
       <c r="B185" s="44"/>
-      <c r="C185" s="60"/>
-      <c r="D185" t="s" s="73">
-        <v>265</v>
-      </c>
-      <c r="E185" s="74"/>
-      <c r="F185" s="74"/>
+      <c r="C185" s="79"/>
+      <c r="D185" t="s" s="75">
+        <v>257</v>
+      </c>
+      <c r="E185" s="76"/>
+      <c r="F185" s="76"/>
       <c r="G185" s="31"/>
       <c r="H185" s="3"/>
       <c r="I185" s="3"/>
@@ -7932,17 +8051,17 @@
       <c r="O185" s="4"/>
       <c r="P185" s="4"/>
     </row>
-    <row r="186" ht="17.65" customHeight="1">
-      <c r="A186" s="71"/>
+    <row r="186" ht="26.7" customHeight="1">
+      <c r="A186" s="73"/>
       <c r="B186" s="44"/>
-      <c r="C186" t="s" s="77">
-        <v>165</v>
-      </c>
-      <c r="D186" t="s" s="76">
-        <v>266</v>
-      </c>
-      <c r="E186" s="74"/>
-      <c r="F186" s="74"/>
+      <c r="C186" t="s" s="80">
+        <v>168</v>
+      </c>
+      <c r="D186" t="s" s="78">
+        <v>258</v>
+      </c>
+      <c r="E186" s="76"/>
+      <c r="F186" s="76"/>
       <c r="G186" s="31"/>
       <c r="H186" s="3"/>
       <c r="I186" s="3"/>
@@ -7954,15 +8073,15 @@
       <c r="O186" s="4"/>
       <c r="P186" s="4"/>
     </row>
-    <row r="187" ht="62.7" customHeight="1">
-      <c r="A187" s="71"/>
+    <row r="187" ht="98.7" customHeight="1">
+      <c r="A187" s="73"/>
       <c r="B187" s="44"/>
-      <c r="C187" s="60"/>
-      <c r="D187" t="s" s="73">
-        <v>267</v>
-      </c>
-      <c r="E187" s="74"/>
-      <c r="F187" s="74"/>
+      <c r="C187" s="79"/>
+      <c r="D187" t="s" s="75">
+        <v>259</v>
+      </c>
+      <c r="E187" s="76"/>
+      <c r="F187" s="76"/>
       <c r="G187" s="31"/>
       <c r="H187" s="3"/>
       <c r="I187" s="3"/>
@@ -7975,16 +8094,16 @@
       <c r="P187" s="4"/>
     </row>
     <row r="188" ht="17.65" customHeight="1">
-      <c r="A188" s="71"/>
+      <c r="A188" s="73"/>
       <c r="B188" s="44"/>
-      <c r="C188" t="s" s="73">
-        <v>268</v>
-      </c>
-      <c r="D188" t="s" s="76">
-        <v>269</v>
-      </c>
-      <c r="E188" s="74"/>
-      <c r="F188" s="74"/>
+      <c r="C188" t="s" s="75">
+        <v>260</v>
+      </c>
+      <c r="D188" t="s" s="78">
+        <v>261</v>
+      </c>
+      <c r="E188" s="76"/>
+      <c r="F188" s="76"/>
       <c r="G188" s="31"/>
       <c r="H188" s="3"/>
       <c r="I188" s="3"/>
@@ -7996,17 +8115,17 @@
       <c r="O188" s="4"/>
       <c r="P188" s="4"/>
     </row>
-    <row r="189" ht="26.7" customHeight="1">
-      <c r="A189" s="71"/>
+    <row r="189" ht="17.65" customHeight="1">
+      <c r="A189" s="73"/>
       <c r="B189" s="44"/>
-      <c r="C189" t="s" s="77">
+      <c r="C189" t="s" s="80">
         <v>159</v>
       </c>
-      <c r="D189" t="s" s="76">
-        <v>270</v>
-      </c>
-      <c r="E189" s="74"/>
-      <c r="F189" s="74"/>
+      <c r="D189" t="s" s="78">
+        <v>262</v>
+      </c>
+      <c r="E189" s="76"/>
+      <c r="F189" s="76"/>
       <c r="G189" s="31"/>
       <c r="H189" s="3"/>
       <c r="I189" s="3"/>
@@ -8018,15 +8137,15 @@
       <c r="O189" s="4"/>
       <c r="P189" s="4"/>
     </row>
-    <row r="190" ht="86.7" customHeight="1">
-      <c r="A190" s="71"/>
+    <row r="190" ht="26.7" customHeight="1">
+      <c r="A190" s="73"/>
       <c r="B190" s="44"/>
-      <c r="C190" s="60"/>
-      <c r="D190" t="s" s="73">
-        <v>271</v>
-      </c>
-      <c r="E190" s="74"/>
-      <c r="F190" s="74"/>
+      <c r="C190" s="79"/>
+      <c r="D190" t="s" s="75">
+        <v>263</v>
+      </c>
+      <c r="E190" s="76"/>
+      <c r="F190" s="76"/>
       <c r="G190" s="31"/>
       <c r="H190" s="3"/>
       <c r="I190" s="3"/>
@@ -8038,17 +8157,17 @@
       <c r="O190" s="4"/>
       <c r="P190" s="4"/>
     </row>
-    <row r="191" ht="26.7" customHeight="1">
-      <c r="A191" s="71"/>
+    <row r="191" ht="17.65" customHeight="1">
+      <c r="A191" s="73"/>
       <c r="B191" s="44"/>
-      <c r="C191" t="s" s="77">
+      <c r="C191" t="s" s="80">
         <v>162</v>
       </c>
-      <c r="D191" t="s" s="76">
-        <v>272</v>
-      </c>
-      <c r="E191" s="74"/>
-      <c r="F191" s="74"/>
+      <c r="D191" t="s" s="78">
+        <v>264</v>
+      </c>
+      <c r="E191" s="76"/>
+      <c r="F191" s="76"/>
       <c r="G191" s="31"/>
       <c r="H191" s="3"/>
       <c r="I191" s="3"/>
@@ -8060,15 +8179,15 @@
       <c r="O191" s="4"/>
       <c r="P191" s="4"/>
     </row>
-    <row r="192" ht="74.7" customHeight="1">
-      <c r="A192" s="71"/>
+    <row r="192" ht="50.7" customHeight="1">
+      <c r="A192" s="73"/>
       <c r="B192" s="44"/>
-      <c r="C192" s="60"/>
-      <c r="D192" t="s" s="73">
-        <v>273</v>
-      </c>
-      <c r="E192" s="74"/>
-      <c r="F192" s="74"/>
+      <c r="C192" s="79"/>
+      <c r="D192" t="s" s="75">
+        <v>265</v>
+      </c>
+      <c r="E192" s="76"/>
+      <c r="F192" s="76"/>
       <c r="G192" s="31"/>
       <c r="H192" s="3"/>
       <c r="I192" s="3"/>
@@ -8080,17 +8199,17 @@
       <c r="O192" s="4"/>
       <c r="P192" s="4"/>
     </row>
-    <row r="193" ht="26.7" customHeight="1">
-      <c r="A193" s="71"/>
+    <row r="193" ht="17.65" customHeight="1">
+      <c r="A193" s="73"/>
       <c r="B193" s="44"/>
-      <c r="C193" t="s" s="77">
+      <c r="C193" t="s" s="80">
         <v>165</v>
       </c>
-      <c r="D193" t="s" s="76">
-        <v>274</v>
-      </c>
-      <c r="E193" s="74"/>
-      <c r="F193" s="74"/>
+      <c r="D193" t="s" s="78">
+        <v>266</v>
+      </c>
+      <c r="E193" s="76"/>
+      <c r="F193" s="76"/>
       <c r="G193" s="31"/>
       <c r="H193" s="3"/>
       <c r="I193" s="3"/>
@@ -8102,15 +8221,15 @@
       <c r="O193" s="4"/>
       <c r="P193" s="4"/>
     </row>
-    <row r="194" ht="158.7" customHeight="1">
-      <c r="A194" s="71"/>
+    <row r="194" ht="62.7" customHeight="1">
+      <c r="A194" s="73"/>
       <c r="B194" s="44"/>
-      <c r="C194" s="60"/>
-      <c r="D194" t="s" s="73">
-        <v>275</v>
-      </c>
-      <c r="E194" s="74"/>
-      <c r="F194" s="74"/>
+      <c r="C194" s="79"/>
+      <c r="D194" t="s" s="75">
+        <v>267</v>
+      </c>
+      <c r="E194" s="76"/>
+      <c r="F194" s="76"/>
       <c r="G194" s="31"/>
       <c r="H194" s="3"/>
       <c r="I194" s="3"/>
@@ -8123,16 +8242,16 @@
       <c r="P194" s="4"/>
     </row>
     <row r="195" ht="17.65" customHeight="1">
-      <c r="A195" s="71"/>
+      <c r="A195" s="73"/>
       <c r="B195" s="44"/>
-      <c r="C195" t="s" s="77">
-        <v>168</v>
-      </c>
-      <c r="D195" t="s" s="76">
-        <v>276</v>
-      </c>
-      <c r="E195" s="74"/>
-      <c r="F195" s="74"/>
+      <c r="C195" t="s" s="75">
+        <v>268</v>
+      </c>
+      <c r="D195" t="s" s="78">
+        <v>269</v>
+      </c>
+      <c r="E195" s="76"/>
+      <c r="F195" s="76"/>
       <c r="G195" s="31"/>
       <c r="H195" s="3"/>
       <c r="I195" s="3"/>
@@ -8144,15 +8263,17 @@
       <c r="O195" s="4"/>
       <c r="P195" s="4"/>
     </row>
-    <row r="196" ht="50.7" customHeight="1">
-      <c r="A196" s="71"/>
-      <c r="B196" s="51"/>
-      <c r="C196" s="60"/>
-      <c r="D196" t="s" s="73">
-        <v>277</v>
-      </c>
-      <c r="E196" s="74"/>
-      <c r="F196" s="74"/>
+    <row r="196" ht="26.7" customHeight="1">
+      <c r="A196" s="73"/>
+      <c r="B196" s="44"/>
+      <c r="C196" t="s" s="80">
+        <v>159</v>
+      </c>
+      <c r="D196" t="s" s="78">
+        <v>270</v>
+      </c>
+      <c r="E196" s="76"/>
+      <c r="F196" s="76"/>
       <c r="G196" s="31"/>
       <c r="H196" s="3"/>
       <c r="I196" s="3"/>
@@ -8164,21 +8285,15 @@
       <c r="O196" s="4"/>
       <c r="P196" s="4"/>
     </row>
-    <row r="197" ht="17.65" customHeight="1">
-      <c r="A197" s="78"/>
-      <c r="B197" t="s" s="79">
-        <v>278</v>
-      </c>
-      <c r="C197" t="s" s="80">
-        <v>8</v>
-      </c>
-      <c r="D197" t="s" s="80">
-        <v>279</v>
-      </c>
-      <c r="E197" t="s" s="81">
-        <v>280</v>
-      </c>
-      <c r="F197" s="82"/>
+    <row r="197" ht="86.7" customHeight="1">
+      <c r="A197" s="73"/>
+      <c r="B197" s="44"/>
+      <c r="C197" s="79"/>
+      <c r="D197" t="s" s="75">
+        <v>271</v>
+      </c>
+      <c r="E197" s="76"/>
+      <c r="F197" s="76"/>
       <c r="G197" s="31"/>
       <c r="H197" s="3"/>
       <c r="I197" s="3"/>
@@ -8190,19 +8305,17 @@
       <c r="O197" s="4"/>
       <c r="P197" s="4"/>
     </row>
-    <row r="198" ht="17.65" customHeight="1">
-      <c r="A198" s="78"/>
-      <c r="B198" s="68"/>
-      <c r="C198" t="s" s="83">
-        <v>114</v>
-      </c>
-      <c r="D198" t="s" s="84">
-        <v>281</v>
-      </c>
-      <c r="E198" t="s" s="81">
-        <v>282</v>
-      </c>
-      <c r="F198" s="82"/>
+    <row r="198" ht="26.7" customHeight="1">
+      <c r="A198" s="73"/>
+      <c r="B198" s="44"/>
+      <c r="C198" t="s" s="80">
+        <v>162</v>
+      </c>
+      <c r="D198" t="s" s="78">
+        <v>272</v>
+      </c>
+      <c r="E198" s="76"/>
+      <c r="F198" s="76"/>
       <c r="G198" s="31"/>
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
@@ -8214,17 +8327,15 @@
       <c r="O198" s="4"/>
       <c r="P198" s="4"/>
     </row>
-    <row r="199" ht="17.65" customHeight="1">
-      <c r="A199" s="78"/>
+    <row r="199" ht="74.7" customHeight="1">
+      <c r="A199" s="73"/>
       <c r="B199" s="44"/>
-      <c r="C199" s="60"/>
-      <c r="D199" t="s" s="80">
-        <v>283</v>
-      </c>
-      <c r="E199" t="s" s="81">
-        <v>284</v>
-      </c>
-      <c r="F199" s="82"/>
+      <c r="C199" s="79"/>
+      <c r="D199" t="s" s="75">
+        <v>273</v>
+      </c>
+      <c r="E199" s="76"/>
+      <c r="F199" s="76"/>
       <c r="G199" s="31"/>
       <c r="H199" s="3"/>
       <c r="I199" s="3"/>
@@ -8236,19 +8347,17 @@
       <c r="O199" s="4"/>
       <c r="P199" s="4"/>
     </row>
-    <row r="200" ht="17.65" customHeight="1">
-      <c r="A200" s="78"/>
+    <row r="200" ht="26.7" customHeight="1">
+      <c r="A200" s="73"/>
       <c r="B200" s="44"/>
-      <c r="C200" t="s" s="83">
-        <v>285</v>
-      </c>
-      <c r="D200" t="s" s="84">
-        <v>286</v>
-      </c>
-      <c r="E200" t="s" s="81">
-        <v>287</v>
-      </c>
-      <c r="F200" s="82"/>
+      <c r="C200" t="s" s="80">
+        <v>165</v>
+      </c>
+      <c r="D200" t="s" s="78">
+        <v>274</v>
+      </c>
+      <c r="E200" s="76"/>
+      <c r="F200" s="76"/>
       <c r="G200" s="31"/>
       <c r="H200" s="3"/>
       <c r="I200" s="3"/>
@@ -8260,17 +8369,15 @@
       <c r="O200" s="4"/>
       <c r="P200" s="4"/>
     </row>
-    <row r="201" ht="17.65" customHeight="1">
-      <c r="A201" s="78"/>
+    <row r="201" ht="158.7" customHeight="1">
+      <c r="A201" s="73"/>
       <c r="B201" s="44"/>
-      <c r="C201" s="60"/>
-      <c r="D201" t="s" s="80">
-        <v>288</v>
-      </c>
-      <c r="E201" t="s" s="80">
-        <v>288</v>
-      </c>
-      <c r="F201" s="82"/>
+      <c r="C201" s="79"/>
+      <c r="D201" t="s" s="75">
+        <v>275</v>
+      </c>
+      <c r="E201" s="76"/>
+      <c r="F201" s="76"/>
       <c r="G201" s="31"/>
       <c r="H201" s="3"/>
       <c r="I201" s="3"/>
@@ -8283,18 +8390,16 @@
       <c r="P201" s="4"/>
     </row>
     <row r="202" ht="17.65" customHeight="1">
-      <c r="A202" s="78"/>
+      <c r="A202" s="73"/>
       <c r="B202" s="44"/>
-      <c r="C202" t="s" s="83">
-        <v>289</v>
-      </c>
-      <c r="D202" t="s" s="84">
-        <v>290</v>
-      </c>
-      <c r="E202" t="s" s="81">
-        <v>291</v>
-      </c>
-      <c r="F202" s="82"/>
+      <c r="C202" t="s" s="80">
+        <v>168</v>
+      </c>
+      <c r="D202" t="s" s="78">
+        <v>276</v>
+      </c>
+      <c r="E202" s="76"/>
+      <c r="F202" s="76"/>
       <c r="G202" s="31"/>
       <c r="H202" s="3"/>
       <c r="I202" s="3"/>
@@ -8306,17 +8411,15 @@
       <c r="O202" s="4"/>
       <c r="P202" s="4"/>
     </row>
-    <row r="203" ht="17.65" customHeight="1">
-      <c r="A203" s="78"/>
-      <c r="B203" s="44"/>
-      <c r="C203" s="60"/>
-      <c r="D203" t="s" s="80">
-        <v>292</v>
-      </c>
-      <c r="E203" t="s" s="80">
-        <v>292</v>
-      </c>
-      <c r="F203" s="82"/>
+    <row r="203" ht="50.7" customHeight="1">
+      <c r="A203" s="73"/>
+      <c r="B203" s="51"/>
+      <c r="C203" s="79"/>
+      <c r="D203" t="s" s="75">
+        <v>277</v>
+      </c>
+      <c r="E203" s="76"/>
+      <c r="F203" s="76"/>
       <c r="G203" s="31"/>
       <c r="H203" s="3"/>
       <c r="I203" s="3"/>
@@ -8328,19 +8431,17 @@
       <c r="O203" s="4"/>
       <c r="P203" s="4"/>
     </row>
-    <row r="204" ht="17.65" customHeight="1">
-      <c r="A204" s="78"/>
-      <c r="B204" s="44"/>
-      <c r="C204" t="s" s="83">
-        <v>293</v>
-      </c>
-      <c r="D204" t="s" s="84">
-        <v>294</v>
-      </c>
-      <c r="E204" t="s" s="81">
-        <v>295</v>
-      </c>
-      <c r="F204" s="82"/>
+    <row r="204" ht="50.7" customHeight="1">
+      <c r="A204" s="73"/>
+      <c r="B204" s="81"/>
+      <c r="C204" t="s" s="82">
+        <v>110</v>
+      </c>
+      <c r="D204" t="s" s="75">
+        <v>111</v>
+      </c>
+      <c r="E204" s="76"/>
+      <c r="F204" s="76"/>
       <c r="G204" s="31"/>
       <c r="H204" s="3"/>
       <c r="I204" s="3"/>
@@ -8353,16 +8454,20 @@
       <c r="P204" s="4"/>
     </row>
     <row r="205" ht="17.65" customHeight="1">
-      <c r="A205" s="78"/>
-      <c r="B205" s="44"/>
-      <c r="C205" s="60"/>
-      <c r="D205" t="s" s="80">
-        <v>296</v>
-      </c>
-      <c r="E205" t="s" s="80">
-        <v>296</v>
-      </c>
-      <c r="F205" s="82"/>
+      <c r="A205" s="83"/>
+      <c r="B205" t="s" s="84">
+        <v>278</v>
+      </c>
+      <c r="C205" t="s" s="85">
+        <v>8</v>
+      </c>
+      <c r="D205" t="s" s="85">
+        <v>279</v>
+      </c>
+      <c r="E205" t="s" s="86">
+        <v>280</v>
+      </c>
+      <c r="F205" s="87"/>
       <c r="G205" s="31"/>
       <c r="H205" s="3"/>
       <c r="I205" s="3"/>
@@ -8375,18 +8480,18 @@
       <c r="P205" s="4"/>
     </row>
     <row r="206" ht="17.65" customHeight="1">
-      <c r="A206" s="78"/>
-      <c r="B206" s="44"/>
-      <c r="C206" t="s" s="83">
-        <v>297</v>
-      </c>
-      <c r="D206" t="s" s="84">
-        <v>298</v>
-      </c>
-      <c r="E206" t="s" s="81">
-        <v>299</v>
-      </c>
-      <c r="F206" s="82"/>
+      <c r="A206" s="83"/>
+      <c r="B206" s="69"/>
+      <c r="C206" t="s" s="88">
+        <v>154</v>
+      </c>
+      <c r="D206" t="s" s="89">
+        <v>281</v>
+      </c>
+      <c r="E206" t="s" s="86">
+        <v>282</v>
+      </c>
+      <c r="F206" s="87"/>
       <c r="G206" s="31"/>
       <c r="H206" s="3"/>
       <c r="I206" s="3"/>
@@ -8399,16 +8504,16 @@
       <c r="P206" s="4"/>
     </row>
     <row r="207" ht="17.65" customHeight="1">
-      <c r="A207" s="78"/>
+      <c r="A207" s="83"/>
       <c r="B207" s="44"/>
-      <c r="C207" s="60"/>
-      <c r="D207" t="s" s="80">
-        <v>300</v>
-      </c>
-      <c r="E207" t="s" s="80">
-        <v>300</v>
-      </c>
-      <c r="F207" s="82"/>
+      <c r="C207" s="79"/>
+      <c r="D207" t="s" s="85">
+        <v>283</v>
+      </c>
+      <c r="E207" t="s" s="86">
+        <v>284</v>
+      </c>
+      <c r="F207" s="87"/>
       <c r="G207" s="31"/>
       <c r="H207" s="3"/>
       <c r="I207" s="3"/>
@@ -8421,18 +8526,18 @@
       <c r="P207" s="4"/>
     </row>
     <row r="208" ht="17.65" customHeight="1">
-      <c r="A208" s="78"/>
+      <c r="A208" s="83"/>
       <c r="B208" s="44"/>
-      <c r="C208" t="s" s="80">
-        <v>301</v>
-      </c>
-      <c r="D208" t="s" s="84">
-        <v>302</v>
-      </c>
-      <c r="E208" t="s" s="81">
-        <v>303</v>
-      </c>
-      <c r="F208" s="82"/>
+      <c r="C208" t="s" s="88">
+        <v>285</v>
+      </c>
+      <c r="D208" t="s" s="89">
+        <v>286</v>
+      </c>
+      <c r="E208" t="s" s="86">
+        <v>287</v>
+      </c>
+      <c r="F208" s="87"/>
       <c r="G208" s="31"/>
       <c r="H208" s="3"/>
       <c r="I208" s="3"/>
@@ -8445,18 +8550,16 @@
       <c r="P208" s="4"/>
     </row>
     <row r="209" ht="17.65" customHeight="1">
-      <c r="A209" s="78"/>
+      <c r="A209" s="83"/>
       <c r="B209" s="44"/>
-      <c r="C209" t="s" s="80">
-        <v>304</v>
-      </c>
-      <c r="D209" t="s" s="80">
-        <v>305</v>
-      </c>
-      <c r="E209" t="s" s="81">
-        <v>306</v>
-      </c>
-      <c r="F209" s="82"/>
+      <c r="C209" s="79"/>
+      <c r="D209" t="s" s="85">
+        <v>288</v>
+      </c>
+      <c r="E209" t="s" s="85">
+        <v>288</v>
+      </c>
+      <c r="F209" s="87"/>
       <c r="G209" s="31"/>
       <c r="H209" s="3"/>
       <c r="I209" s="3"/>
@@ -8469,18 +8572,18 @@
       <c r="P209" s="4"/>
     </row>
     <row r="210" ht="17.65" customHeight="1">
-      <c r="A210" s="78"/>
+      <c r="A210" s="83"/>
       <c r="B210" s="44"/>
-      <c r="C210" t="s" s="85">
-        <v>307</v>
-      </c>
-      <c r="D210" t="s" s="80">
-        <v>308</v>
-      </c>
-      <c r="E210" t="s" s="81">
-        <v>309</v>
-      </c>
-      <c r="F210" s="82"/>
+      <c r="C210" t="s" s="88">
+        <v>289</v>
+      </c>
+      <c r="D210" t="s" s="89">
+        <v>290</v>
+      </c>
+      <c r="E210" t="s" s="86">
+        <v>291</v>
+      </c>
+      <c r="F210" s="87"/>
       <c r="G210" s="31"/>
       <c r="H210" s="3"/>
       <c r="I210" s="3"/>
@@ -8493,18 +8596,16 @@
       <c r="P210" s="4"/>
     </row>
     <row r="211" ht="17.65" customHeight="1">
-      <c r="A211" s="78"/>
+      <c r="A211" s="83"/>
       <c r="B211" s="44"/>
-      <c r="C211" t="s" s="80">
-        <v>310</v>
-      </c>
-      <c r="D211" t="s" s="80">
-        <v>311</v>
-      </c>
-      <c r="E211" t="s" s="81">
-        <v>312</v>
-      </c>
-      <c r="F211" s="82"/>
+      <c r="C211" s="79"/>
+      <c r="D211" t="s" s="85">
+        <v>292</v>
+      </c>
+      <c r="E211" t="s" s="85">
+        <v>292</v>
+      </c>
+      <c r="F211" s="87"/>
       <c r="G211" s="31"/>
       <c r="H211" s="3"/>
       <c r="I211" s="3"/>
@@ -8517,18 +8618,18 @@
       <c r="P211" s="4"/>
     </row>
     <row r="212" ht="17.65" customHeight="1">
-      <c r="A212" s="78"/>
+      <c r="A212" s="83"/>
       <c r="B212" s="44"/>
-      <c r="C212" t="s" s="85">
-        <v>307</v>
-      </c>
-      <c r="D212" t="s" s="80">
-        <v>313</v>
-      </c>
-      <c r="E212" t="s" s="81">
-        <v>314</v>
-      </c>
-      <c r="F212" s="82"/>
+      <c r="C212" t="s" s="88">
+        <v>293</v>
+      </c>
+      <c r="D212" t="s" s="89">
+        <v>294</v>
+      </c>
+      <c r="E212" t="s" s="86">
+        <v>295</v>
+      </c>
+      <c r="F212" s="87"/>
       <c r="G212" s="31"/>
       <c r="H212" s="3"/>
       <c r="I212" s="3"/>
@@ -8541,18 +8642,16 @@
       <c r="P212" s="4"/>
     </row>
     <row r="213" ht="17.65" customHeight="1">
-      <c r="A213" s="78"/>
+      <c r="A213" s="83"/>
       <c r="B213" s="44"/>
-      <c r="C213" t="s" s="80">
-        <v>315</v>
-      </c>
-      <c r="D213" t="s" s="80">
-        <v>316</v>
-      </c>
-      <c r="E213" t="s" s="81">
-        <v>317</v>
-      </c>
-      <c r="F213" s="82"/>
+      <c r="C213" s="79"/>
+      <c r="D213" t="s" s="85">
+        <v>296</v>
+      </c>
+      <c r="E213" t="s" s="85">
+        <v>296</v>
+      </c>
+      <c r="F213" s="87"/>
       <c r="G213" s="31"/>
       <c r="H213" s="3"/>
       <c r="I213" s="3"/>
@@ -8565,18 +8664,18 @@
       <c r="P213" s="4"/>
     </row>
     <row r="214" ht="17.65" customHeight="1">
-      <c r="A214" s="78"/>
+      <c r="A214" s="83"/>
       <c r="B214" s="44"/>
-      <c r="C214" t="s" s="85">
-        <v>318</v>
-      </c>
-      <c r="D214" t="s" s="80">
-        <v>319</v>
-      </c>
-      <c r="E214" t="s" s="81">
-        <v>320</v>
-      </c>
-      <c r="F214" s="82"/>
+      <c r="C214" t="s" s="88">
+        <v>297</v>
+      </c>
+      <c r="D214" t="s" s="89">
+        <v>298</v>
+      </c>
+      <c r="E214" t="s" s="86">
+        <v>299</v>
+      </c>
+      <c r="F214" s="87"/>
       <c r="G214" s="31"/>
       <c r="H214" s="3"/>
       <c r="I214" s="3"/>
@@ -8589,18 +8688,16 @@
       <c r="P214" s="4"/>
     </row>
     <row r="215" ht="17.65" customHeight="1">
-      <c r="A215" s="78"/>
+      <c r="A215" s="83"/>
       <c r="B215" s="44"/>
-      <c r="C215" t="s" s="85">
-        <v>321</v>
-      </c>
-      <c r="D215" t="s" s="80">
-        <v>322</v>
-      </c>
-      <c r="E215" t="s" s="81">
-        <v>291</v>
-      </c>
-      <c r="F215" s="82"/>
+      <c r="C215" s="79"/>
+      <c r="D215" t="s" s="85">
+        <v>300</v>
+      </c>
+      <c r="E215" t="s" s="85">
+        <v>300</v>
+      </c>
+      <c r="F215" s="87"/>
       <c r="G215" s="31"/>
       <c r="H215" s="3"/>
       <c r="I215" s="3"/>
@@ -8613,18 +8710,18 @@
       <c r="P215" s="4"/>
     </row>
     <row r="216" ht="17.65" customHeight="1">
-      <c r="A216" s="78"/>
+      <c r="A216" s="83"/>
       <c r="B216" s="44"/>
       <c r="C216" t="s" s="85">
-        <v>323</v>
-      </c>
-      <c r="D216" t="s" s="80">
-        <v>324</v>
-      </c>
-      <c r="E216" t="s" s="81">
-        <v>295</v>
-      </c>
-      <c r="F216" s="82"/>
+        <v>301</v>
+      </c>
+      <c r="D216" t="s" s="89">
+        <v>302</v>
+      </c>
+      <c r="E216" t="s" s="86">
+        <v>303</v>
+      </c>
+      <c r="F216" s="87"/>
       <c r="G216" s="31"/>
       <c r="H216" s="3"/>
       <c r="I216" s="3"/>
@@ -8637,18 +8734,18 @@
       <c r="P216" s="4"/>
     </row>
     <row r="217" ht="17.65" customHeight="1">
-      <c r="A217" s="78"/>
+      <c r="A217" s="83"/>
       <c r="B217" s="44"/>
       <c r="C217" t="s" s="85">
-        <v>325</v>
-      </c>
-      <c r="D217" t="s" s="80">
-        <v>326</v>
-      </c>
-      <c r="E217" t="s" s="81">
-        <v>327</v>
-      </c>
-      <c r="F217" s="82"/>
+        <v>304</v>
+      </c>
+      <c r="D217" t="s" s="85">
+        <v>305</v>
+      </c>
+      <c r="E217" t="s" s="86">
+        <v>306</v>
+      </c>
+      <c r="F217" s="87"/>
       <c r="G217" s="31"/>
       <c r="H217" s="3"/>
       <c r="I217" s="3"/>
@@ -8661,18 +8758,18 @@
       <c r="P217" s="4"/>
     </row>
     <row r="218" ht="17.65" customHeight="1">
-      <c r="A218" s="78"/>
+      <c r="A218" s="83"/>
       <c r="B218" s="44"/>
-      <c r="C218" t="s" s="85">
-        <v>328</v>
-      </c>
-      <c r="D218" t="s" s="80">
-        <v>329</v>
-      </c>
-      <c r="E218" t="s" s="81">
-        <v>330</v>
-      </c>
-      <c r="F218" s="82"/>
+      <c r="C218" t="s" s="90">
+        <v>307</v>
+      </c>
+      <c r="D218" t="s" s="85">
+        <v>308</v>
+      </c>
+      <c r="E218" t="s" s="86">
+        <v>309</v>
+      </c>
+      <c r="F218" s="87"/>
       <c r="G218" s="31"/>
       <c r="H218" s="3"/>
       <c r="I218" s="3"/>
@@ -8685,18 +8782,18 @@
       <c r="P218" s="4"/>
     </row>
     <row r="219" ht="17.65" customHeight="1">
-      <c r="A219" s="78"/>
+      <c r="A219" s="83"/>
       <c r="B219" s="44"/>
       <c r="C219" t="s" s="85">
-        <v>331</v>
-      </c>
-      <c r="D219" t="s" s="80">
-        <v>332</v>
-      </c>
-      <c r="E219" t="s" s="81">
-        <v>333</v>
-      </c>
-      <c r="F219" s="82"/>
+        <v>310</v>
+      </c>
+      <c r="D219" t="s" s="85">
+        <v>311</v>
+      </c>
+      <c r="E219" t="s" s="86">
+        <v>312</v>
+      </c>
+      <c r="F219" s="87"/>
       <c r="G219" s="31"/>
       <c r="H219" s="3"/>
       <c r="I219" s="3"/>
@@ -8709,18 +8806,18 @@
       <c r="P219" s="4"/>
     </row>
     <row r="220" ht="17.65" customHeight="1">
-      <c r="A220" s="78"/>
+      <c r="A220" s="83"/>
       <c r="B220" s="44"/>
-      <c r="C220" t="s" s="85">
+      <c r="C220" t="s" s="90">
         <v>307</v>
       </c>
-      <c r="D220" t="s" s="80">
-        <v>334</v>
-      </c>
-      <c r="E220" t="s" s="81">
-        <v>335</v>
-      </c>
-      <c r="F220" s="82"/>
+      <c r="D220" t="s" s="85">
+        <v>313</v>
+      </c>
+      <c r="E220" t="s" s="86">
+        <v>314</v>
+      </c>
+      <c r="F220" s="87"/>
       <c r="G220" s="31"/>
       <c r="H220" s="3"/>
       <c r="I220" s="3"/>
@@ -8733,18 +8830,18 @@
       <c r="P220" s="4"/>
     </row>
     <row r="221" ht="17.65" customHeight="1">
-      <c r="A221" s="78"/>
+      <c r="A221" s="83"/>
       <c r="B221" s="44"/>
-      <c r="C221" t="s" s="80">
-        <v>336</v>
-      </c>
-      <c r="D221" t="s" s="80">
-        <v>337</v>
-      </c>
-      <c r="E221" t="s" s="81">
-        <v>338</v>
-      </c>
-      <c r="F221" s="82"/>
+      <c r="C221" t="s" s="85">
+        <v>315</v>
+      </c>
+      <c r="D221" t="s" s="85">
+        <v>316</v>
+      </c>
+      <c r="E221" t="s" s="86">
+        <v>317</v>
+      </c>
+      <c r="F221" s="87"/>
       <c r="G221" s="31"/>
       <c r="H221" s="3"/>
       <c r="I221" s="3"/>
@@ -8757,16 +8854,18 @@
       <c r="P221" s="4"/>
     </row>
     <row r="222" ht="17.65" customHeight="1">
-      <c r="A222" s="78"/>
+      <c r="A222" s="83"/>
       <c r="B222" s="44"/>
-      <c r="C222" t="s" s="85">
-        <v>307</v>
-      </c>
-      <c r="D222" t="s" s="80">
-        <v>339</v>
-      </c>
-      <c r="E222" s="82"/>
-      <c r="F222" s="82"/>
+      <c r="C222" t="s" s="90">
+        <v>318</v>
+      </c>
+      <c r="D222" t="s" s="85">
+        <v>319</v>
+      </c>
+      <c r="E222" t="s" s="86">
+        <v>320</v>
+      </c>
+      <c r="F222" s="87"/>
       <c r="G222" s="31"/>
       <c r="H222" s="3"/>
       <c r="I222" s="3"/>
@@ -8779,16 +8878,18 @@
       <c r="P222" s="4"/>
     </row>
     <row r="223" ht="17.65" customHeight="1">
-      <c r="A223" s="78"/>
+      <c r="A223" s="83"/>
       <c r="B223" s="44"/>
-      <c r="C223" t="s" s="80">
-        <v>340</v>
-      </c>
-      <c r="D223" t="s" s="80">
-        <v>341</v>
-      </c>
-      <c r="E223" s="82"/>
-      <c r="F223" s="82"/>
+      <c r="C223" t="s" s="90">
+        <v>321</v>
+      </c>
+      <c r="D223" t="s" s="85">
+        <v>322</v>
+      </c>
+      <c r="E223" t="s" s="86">
+        <v>291</v>
+      </c>
+      <c r="F223" s="87"/>
       <c r="G223" s="31"/>
       <c r="H223" s="3"/>
       <c r="I223" s="3"/>
@@ -8801,16 +8902,18 @@
       <c r="P223" s="4"/>
     </row>
     <row r="224" ht="17.65" customHeight="1">
-      <c r="A224" s="78"/>
-      <c r="B224" s="51"/>
-      <c r="C224" t="s" s="80">
-        <v>342</v>
-      </c>
-      <c r="D224" t="s" s="80">
-        <v>343</v>
-      </c>
-      <c r="E224" s="82"/>
-      <c r="F224" s="82"/>
+      <c r="A224" s="83"/>
+      <c r="B224" s="44"/>
+      <c r="C224" t="s" s="90">
+        <v>323</v>
+      </c>
+      <c r="D224" t="s" s="85">
+        <v>324</v>
+      </c>
+      <c r="E224" t="s" s="86">
+        <v>295</v>
+      </c>
+      <c r="F224" s="87"/>
       <c r="G224" s="31"/>
       <c r="H224" s="3"/>
       <c r="I224" s="3"/>
@@ -8823,18 +8926,18 @@
       <c r="P224" s="4"/>
     </row>
     <row r="225" ht="17.65" customHeight="1">
-      <c r="A225" s="86"/>
-      <c r="B225" t="s" s="87">
-        <v>344</v>
-      </c>
-      <c r="C225" t="s" s="88">
-        <v>345</v>
-      </c>
-      <c r="D225" t="s" s="88">
-        <v>261</v>
-      </c>
-      <c r="E225" s="89"/>
-      <c r="F225" s="89"/>
+      <c r="A225" s="83"/>
+      <c r="B225" s="44"/>
+      <c r="C225" t="s" s="90">
+        <v>325</v>
+      </c>
+      <c r="D225" t="s" s="85">
+        <v>326</v>
+      </c>
+      <c r="E225" t="s" s="86">
+        <v>327</v>
+      </c>
+      <c r="F225" s="87"/>
       <c r="G225" s="31"/>
       <c r="H225" s="3"/>
       <c r="I225" s="3"/>
@@ -8847,16 +8950,18 @@
       <c r="P225" s="4"/>
     </row>
     <row r="226" ht="17.65" customHeight="1">
-      <c r="A226" s="86"/>
-      <c r="B226" s="68"/>
+      <c r="A226" s="83"/>
+      <c r="B226" s="44"/>
       <c r="C226" t="s" s="90">
-        <v>114</v>
-      </c>
-      <c r="D226" t="s" s="91">
-        <v>346</v>
-      </c>
-      <c r="E226" s="89"/>
-      <c r="F226" s="89"/>
+        <v>328</v>
+      </c>
+      <c r="D226" t="s" s="85">
+        <v>329</v>
+      </c>
+      <c r="E226" t="s" s="86">
+        <v>330</v>
+      </c>
+      <c r="F226" s="87"/>
       <c r="G226" s="31"/>
       <c r="H226" s="3"/>
       <c r="I226" s="3"/>
@@ -8869,14 +8974,18 @@
       <c r="P226" s="4"/>
     </row>
     <row r="227" ht="17.65" customHeight="1">
-      <c r="A227" s="86"/>
+      <c r="A227" s="83"/>
       <c r="B227" s="44"/>
-      <c r="C227" s="60"/>
-      <c r="D227" t="s" s="88">
-        <v>347</v>
-      </c>
-      <c r="E227" s="89"/>
-      <c r="F227" s="89"/>
+      <c r="C227" t="s" s="90">
+        <v>331</v>
+      </c>
+      <c r="D227" t="s" s="85">
+        <v>332</v>
+      </c>
+      <c r="E227" t="s" s="86">
+        <v>333</v>
+      </c>
+      <c r="F227" s="87"/>
       <c r="G227" s="31"/>
       <c r="H227" s="3"/>
       <c r="I227" s="3"/>
@@ -8889,16 +8998,18 @@
       <c r="P227" s="4"/>
     </row>
     <row r="228" ht="17.65" customHeight="1">
-      <c r="A228" s="86"/>
+      <c r="A228" s="83"/>
       <c r="B228" s="44"/>
       <c r="C228" t="s" s="90">
-        <v>117</v>
-      </c>
-      <c r="D228" t="s" s="91">
-        <v>348</v>
-      </c>
-      <c r="E228" s="89"/>
-      <c r="F228" s="89"/>
+        <v>307</v>
+      </c>
+      <c r="D228" t="s" s="85">
+        <v>334</v>
+      </c>
+      <c r="E228" t="s" s="86">
+        <v>335</v>
+      </c>
+      <c r="F228" s="87"/>
       <c r="G228" s="31"/>
       <c r="H228" s="3"/>
       <c r="I228" s="3"/>
@@ -8910,15 +9021,19 @@
       <c r="O228" s="4"/>
       <c r="P228" s="4"/>
     </row>
-    <row r="229" ht="26.7" customHeight="1">
-      <c r="A229" s="86"/>
+    <row r="229" ht="17.65" customHeight="1">
+      <c r="A229" s="83"/>
       <c r="B229" s="44"/>
-      <c r="C229" s="60"/>
-      <c r="D229" t="s" s="88">
-        <v>349</v>
-      </c>
-      <c r="E229" s="89"/>
-      <c r="F229" s="89"/>
+      <c r="C229" t="s" s="85">
+        <v>336</v>
+      </c>
+      <c r="D229" t="s" s="85">
+        <v>337</v>
+      </c>
+      <c r="E229" t="s" s="86">
+        <v>338</v>
+      </c>
+      <c r="F229" s="87"/>
       <c r="G229" s="31"/>
       <c r="H229" s="3"/>
       <c r="I229" s="3"/>
@@ -8931,16 +9046,16 @@
       <c r="P229" s="4"/>
     </row>
     <row r="230" ht="17.65" customHeight="1">
-      <c r="A230" s="86"/>
+      <c r="A230" s="83"/>
       <c r="B230" s="44"/>
       <c r="C230" t="s" s="90">
-        <v>350</v>
-      </c>
-      <c r="D230" t="s" s="91">
-        <v>351</v>
-      </c>
-      <c r="E230" s="89"/>
-      <c r="F230" s="89"/>
+        <v>307</v>
+      </c>
+      <c r="D230" t="s" s="85">
+        <v>339</v>
+      </c>
+      <c r="E230" s="87"/>
+      <c r="F230" s="87"/>
       <c r="G230" s="31"/>
       <c r="H230" s="3"/>
       <c r="I230" s="3"/>
@@ -8952,15 +9067,17 @@
       <c r="O230" s="4"/>
       <c r="P230" s="4"/>
     </row>
-    <row r="231" ht="26.7" customHeight="1">
-      <c r="A231" s="86"/>
+    <row r="231" ht="17.65" customHeight="1">
+      <c r="A231" s="83"/>
       <c r="B231" s="44"/>
-      <c r="C231" s="60"/>
-      <c r="D231" t="s" s="88">
-        <v>352</v>
-      </c>
-      <c r="E231" s="89"/>
-      <c r="F231" s="89"/>
+      <c r="C231" t="s" s="85">
+        <v>340</v>
+      </c>
+      <c r="D231" t="s" s="85">
+        <v>341</v>
+      </c>
+      <c r="E231" s="87"/>
+      <c r="F231" s="87"/>
       <c r="G231" s="31"/>
       <c r="H231" s="3"/>
       <c r="I231" s="3"/>
@@ -8973,16 +9090,16 @@
       <c r="P231" s="4"/>
     </row>
     <row r="232" ht="17.65" customHeight="1">
-      <c r="A232" s="86"/>
-      <c r="B232" s="44"/>
-      <c r="C232" t="s" s="92">
-        <v>353</v>
-      </c>
-      <c r="D232" t="s" s="91">
-        <v>354</v>
-      </c>
-      <c r="E232" s="89"/>
-      <c r="F232" s="89"/>
+      <c r="A232" s="83"/>
+      <c r="B232" s="51"/>
+      <c r="C232" t="s" s="85">
+        <v>342</v>
+      </c>
+      <c r="D232" t="s" s="85">
+        <v>343</v>
+      </c>
+      <c r="E232" s="87"/>
+      <c r="F232" s="87"/>
       <c r="G232" s="31"/>
       <c r="H232" s="3"/>
       <c r="I232" s="3"/>
@@ -8994,17 +9111,17 @@
       <c r="O232" s="4"/>
       <c r="P232" s="4"/>
     </row>
-    <row r="233" ht="38.7" customHeight="1">
-      <c r="A233" s="86"/>
-      <c r="B233" s="44"/>
-      <c r="C233" t="s" s="92">
-        <v>355</v>
-      </c>
-      <c r="D233" t="s" s="88">
-        <v>356</v>
-      </c>
-      <c r="E233" s="89"/>
-      <c r="F233" s="89"/>
+    <row r="233" ht="17.65" customHeight="1">
+      <c r="A233" s="83"/>
+      <c r="B233" s="91"/>
+      <c r="C233" t="s" s="85">
+        <v>110</v>
+      </c>
+      <c r="D233" t="s" s="85">
+        <v>111</v>
+      </c>
+      <c r="E233" s="87"/>
+      <c r="F233" s="87"/>
       <c r="G233" s="31"/>
       <c r="H233" s="3"/>
       <c r="I233" s="3"/>
@@ -9017,16 +9134,18 @@
       <c r="P233" s="4"/>
     </row>
     <row r="234" ht="17.65" customHeight="1">
-      <c r="A234" s="86"/>
-      <c r="B234" s="44"/>
-      <c r="C234" t="s" s="92">
-        <v>357</v>
-      </c>
-      <c r="D234" t="s" s="91">
-        <v>358</v>
-      </c>
-      <c r="E234" s="89"/>
-      <c r="F234" s="89"/>
+      <c r="A234" s="83"/>
+      <c r="B234" s="91"/>
+      <c r="C234" t="s" s="85">
+        <v>16</v>
+      </c>
+      <c r="D234" t="s" s="85">
+        <v>6</v>
+      </c>
+      <c r="E234" t="s" s="86">
+        <v>6</v>
+      </c>
+      <c r="F234" s="87"/>
       <c r="G234" s="31"/>
       <c r="H234" s="3"/>
       <c r="I234" s="3"/>
@@ -9039,16 +9158,18 @@
       <c r="P234" s="4"/>
     </row>
     <row r="235" ht="17.65" customHeight="1">
-      <c r="A235" s="86"/>
-      <c r="B235" s="44"/>
-      <c r="C235" t="s" s="92">
-        <v>359</v>
-      </c>
-      <c r="D235" t="s" s="88">
-        <v>360</v>
-      </c>
-      <c r="E235" s="89"/>
-      <c r="F235" s="89"/>
+      <c r="A235" s="83"/>
+      <c r="B235" s="91"/>
+      <c r="C235" t="s" s="85">
+        <v>17</v>
+      </c>
+      <c r="D235" t="s" s="85">
+        <v>18</v>
+      </c>
+      <c r="E235" t="s" s="86">
+        <v>18</v>
+      </c>
+      <c r="F235" s="87"/>
       <c r="G235" s="31"/>
       <c r="H235" s="3"/>
       <c r="I235" s="3"/>
@@ -9061,16 +9182,18 @@
       <c r="P235" s="4"/>
     </row>
     <row r="236" ht="17.65" customHeight="1">
-      <c r="A236" s="86"/>
-      <c r="B236" s="44"/>
-      <c r="C236" t="s" s="92">
-        <v>361</v>
-      </c>
-      <c r="D236" t="s" s="91">
-        <v>362</v>
-      </c>
-      <c r="E236" s="89"/>
-      <c r="F236" s="89"/>
+      <c r="A236" s="83"/>
+      <c r="B236" s="91"/>
+      <c r="C236" t="s" s="85">
+        <v>20</v>
+      </c>
+      <c r="D236" t="s" s="85">
+        <v>7</v>
+      </c>
+      <c r="E236" t="s" s="86">
+        <v>21</v>
+      </c>
+      <c r="F236" s="87"/>
       <c r="G236" s="31"/>
       <c r="H236" s="3"/>
       <c r="I236" s="3"/>
@@ -9082,17 +9205,19 @@
       <c r="O236" s="4"/>
       <c r="P236" s="4"/>
     </row>
-    <row r="237" ht="38.7" customHeight="1">
-      <c r="A237" s="86"/>
-      <c r="B237" s="44"/>
-      <c r="C237" t="s" s="92">
-        <v>363</v>
-      </c>
-      <c r="D237" t="s" s="88">
-        <v>364</v>
-      </c>
-      <c r="E237" s="89"/>
-      <c r="F237" s="89"/>
+    <row r="237" ht="17.65" customHeight="1">
+      <c r="A237" s="83"/>
+      <c r="B237" s="91"/>
+      <c r="C237" t="s" s="85">
+        <v>23</v>
+      </c>
+      <c r="D237" t="s" s="85">
+        <v>344</v>
+      </c>
+      <c r="E237" t="s" s="86">
+        <v>344</v>
+      </c>
+      <c r="F237" s="87"/>
       <c r="G237" s="31"/>
       <c r="H237" s="3"/>
       <c r="I237" s="3"/>
@@ -9104,17 +9229,19 @@
       <c r="O237" s="4"/>
       <c r="P237" s="4"/>
     </row>
-    <row r="238" ht="26.7" customHeight="1">
-      <c r="A238" s="86"/>
-      <c r="B238" s="44"/>
-      <c r="C238" t="s" s="92">
-        <v>365</v>
-      </c>
-      <c r="D238" t="s" s="91">
-        <v>366</v>
-      </c>
-      <c r="E238" s="89"/>
-      <c r="F238" s="89"/>
+    <row r="238" ht="17.65" customHeight="1">
+      <c r="A238" s="92"/>
+      <c r="B238" t="s" s="93">
+        <v>345</v>
+      </c>
+      <c r="C238" t="s" s="94">
+        <v>26</v>
+      </c>
+      <c r="D238" t="s" s="94">
+        <v>261</v>
+      </c>
+      <c r="E238" s="95"/>
+      <c r="F238" s="95"/>
       <c r="G238" s="31"/>
       <c r="H238" s="3"/>
       <c r="I238" s="3"/>
@@ -9126,17 +9253,17 @@
       <c r="O238" s="4"/>
       <c r="P238" s="4"/>
     </row>
-    <row r="239" ht="38.7" customHeight="1">
-      <c r="A239" s="86"/>
-      <c r="B239" s="44"/>
-      <c r="C239" t="s" s="92">
-        <v>367</v>
-      </c>
-      <c r="D239" t="s" s="88">
-        <v>368</v>
-      </c>
-      <c r="E239" s="89"/>
-      <c r="F239" s="89"/>
+    <row r="239" ht="17.65" customHeight="1">
+      <c r="A239" s="92"/>
+      <c r="B239" s="69"/>
+      <c r="C239" t="s" s="96">
+        <v>29</v>
+      </c>
+      <c r="D239" t="s" s="97">
+        <v>346</v>
+      </c>
+      <c r="E239" s="95"/>
+      <c r="F239" s="95"/>
       <c r="G239" s="31"/>
       <c r="H239" s="3"/>
       <c r="I239" s="3"/>
@@ -9148,17 +9275,17 @@
       <c r="O239" s="4"/>
       <c r="P239" s="4"/>
     </row>
-    <row r="240" ht="26.7" customHeight="1">
-      <c r="A240" s="86"/>
+    <row r="240" ht="17.65" customHeight="1">
+      <c r="A240" s="92"/>
       <c r="B240" s="44"/>
-      <c r="C240" t="s" s="92">
-        <v>369</v>
-      </c>
-      <c r="D240" t="s" s="91">
-        <v>370</v>
-      </c>
-      <c r="E240" s="89"/>
-      <c r="F240" s="89"/>
+      <c r="C240" t="s" s="47">
+        <v>32</v>
+      </c>
+      <c r="D240" t="s" s="94">
+        <v>347</v>
+      </c>
+      <c r="E240" s="95"/>
+      <c r="F240" s="95"/>
       <c r="G240" s="31"/>
       <c r="H240" s="3"/>
       <c r="I240" s="3"/>
@@ -9170,17 +9297,17 @@
       <c r="O240" s="4"/>
       <c r="P240" s="4"/>
     </row>
-    <row r="241" ht="38.7" customHeight="1">
-      <c r="A241" s="86"/>
+    <row r="241" ht="17.65" customHeight="1">
+      <c r="A241" s="92"/>
       <c r="B241" s="44"/>
-      <c r="C241" t="s" s="92">
-        <v>371</v>
-      </c>
-      <c r="D241" t="s" s="88">
-        <v>372</v>
-      </c>
-      <c r="E241" s="89"/>
-      <c r="F241" s="89"/>
+      <c r="C241" t="s" s="96">
+        <v>35</v>
+      </c>
+      <c r="D241" t="s" s="97">
+        <v>348</v>
+      </c>
+      <c r="E241" s="95"/>
+      <c r="F241" s="95"/>
       <c r="G241" s="31"/>
       <c r="H241" s="3"/>
       <c r="I241" s="3"/>
@@ -9193,16 +9320,16 @@
       <c r="P241" s="4"/>
     </row>
     <row r="242" ht="26.7" customHeight="1">
-      <c r="A242" s="86"/>
+      <c r="A242" s="92"/>
       <c r="B242" s="44"/>
-      <c r="C242" t="s" s="92">
-        <v>373</v>
-      </c>
-      <c r="D242" t="s" s="91">
-        <v>374</v>
-      </c>
-      <c r="E242" s="89"/>
-      <c r="F242" s="89"/>
+      <c r="C242" t="s" s="47">
+        <v>38</v>
+      </c>
+      <c r="D242" t="s" s="94">
+        <v>349</v>
+      </c>
+      <c r="E242" s="95"/>
+      <c r="F242" s="95"/>
       <c r="G242" s="31"/>
       <c r="H242" s="3"/>
       <c r="I242" s="3"/>
@@ -9214,17 +9341,17 @@
       <c r="O242" s="4"/>
       <c r="P242" s="4"/>
     </row>
-    <row r="243" ht="38.7" customHeight="1">
-      <c r="A243" s="86"/>
+    <row r="243" ht="17.65" customHeight="1">
+      <c r="A243" s="92"/>
       <c r="B243" s="44"/>
-      <c r="C243" t="s" s="92">
-        <v>375</v>
-      </c>
-      <c r="D243" t="s" s="88">
-        <v>376</v>
-      </c>
-      <c r="E243" s="89"/>
-      <c r="F243" s="89"/>
+      <c r="C243" t="s" s="96">
+        <v>47</v>
+      </c>
+      <c r="D243" t="s" s="97">
+        <v>350</v>
+      </c>
+      <c r="E243" s="95"/>
+      <c r="F243" s="95"/>
       <c r="G243" s="31"/>
       <c r="H243" s="3"/>
       <c r="I243" s="3"/>
@@ -9236,17 +9363,17 @@
       <c r="O243" s="4"/>
       <c r="P243" s="4"/>
     </row>
-    <row r="244" ht="17.65" customHeight="1">
-      <c r="A244" s="86"/>
+    <row r="244" ht="26.7" customHeight="1">
+      <c r="A244" s="92"/>
       <c r="B244" s="44"/>
-      <c r="C244" t="s" s="92">
-        <v>377</v>
-      </c>
-      <c r="D244" t="s" s="91">
-        <v>378</v>
-      </c>
-      <c r="E244" s="89"/>
-      <c r="F244" s="89"/>
+      <c r="C244" t="s" s="47">
+        <v>50</v>
+      </c>
+      <c r="D244" t="s" s="94">
+        <v>351</v>
+      </c>
+      <c r="E244" s="95"/>
+      <c r="F244" s="95"/>
       <c r="G244" s="31"/>
       <c r="H244" s="3"/>
       <c r="I244" s="3"/>
@@ -9258,17 +9385,17 @@
       <c r="O244" s="4"/>
       <c r="P244" s="4"/>
     </row>
-    <row r="245" ht="38.7" customHeight="1">
-      <c r="A245" s="86"/>
+    <row r="245" ht="17.65" customHeight="1">
+      <c r="A245" s="92"/>
       <c r="B245" s="44"/>
-      <c r="C245" t="s" s="92">
-        <v>379</v>
-      </c>
-      <c r="D245" t="s" s="88">
-        <v>380</v>
-      </c>
-      <c r="E245" s="89"/>
-      <c r="F245" s="89"/>
+      <c r="C245" t="s" s="98">
+        <v>352</v>
+      </c>
+      <c r="D245" t="s" s="97">
+        <v>353</v>
+      </c>
+      <c r="E245" s="95"/>
+      <c r="F245" s="95"/>
       <c r="G245" s="31"/>
       <c r="H245" s="3"/>
       <c r="I245" s="3"/>
@@ -9280,17 +9407,17 @@
       <c r="O245" s="4"/>
       <c r="P245" s="4"/>
     </row>
-    <row r="246" ht="17.65" customHeight="1">
-      <c r="A246" s="86"/>
+    <row r="246" ht="38.7" customHeight="1">
+      <c r="A246" s="92"/>
       <c r="B246" s="44"/>
-      <c r="C246" t="s" s="92">
-        <v>381</v>
-      </c>
-      <c r="D246" t="s" s="91">
-        <v>382</v>
-      </c>
-      <c r="E246" s="89"/>
-      <c r="F246" s="89"/>
+      <c r="C246" t="s" s="98">
+        <v>354</v>
+      </c>
+      <c r="D246" t="s" s="94">
+        <v>355</v>
+      </c>
+      <c r="E246" s="95"/>
+      <c r="F246" s="95"/>
       <c r="G246" s="31"/>
       <c r="H246" s="3"/>
       <c r="I246" s="3"/>
@@ -9302,17 +9429,17 @@
       <c r="O246" s="4"/>
       <c r="P246" s="4"/>
     </row>
-    <row r="247" ht="38.7" customHeight="1">
-      <c r="A247" s="86"/>
-      <c r="B247" s="51"/>
-      <c r="C247" t="s" s="92">
-        <v>383</v>
-      </c>
-      <c r="D247" t="s" s="88">
-        <v>384</v>
-      </c>
-      <c r="E247" s="89"/>
-      <c r="F247" s="89"/>
+    <row r="247" ht="17.65" customHeight="1">
+      <c r="A247" s="92"/>
+      <c r="B247" s="44"/>
+      <c r="C247" t="s" s="98">
+        <v>356</v>
+      </c>
+      <c r="D247" t="s" s="97">
+        <v>357</v>
+      </c>
+      <c r="E247" s="95"/>
+      <c r="F247" s="95"/>
       <c r="G247" s="31"/>
       <c r="H247" s="3"/>
       <c r="I247" s="3"/>
@@ -9325,18 +9452,16 @@
       <c r="P247" s="4"/>
     </row>
     <row r="248" ht="17.65" customHeight="1">
-      <c r="A248" s="93"/>
-      <c r="B248" t="s" s="94">
-        <v>385</v>
-      </c>
-      <c r="C248" t="s" s="95">
-        <v>8</v>
-      </c>
-      <c r="D248" t="s" s="95">
-        <v>386</v>
-      </c>
-      <c r="E248" s="96"/>
-      <c r="F248" s="96"/>
+      <c r="A248" s="92"/>
+      <c r="B248" s="44"/>
+      <c r="C248" t="s" s="98">
+        <v>358</v>
+      </c>
+      <c r="D248" t="s" s="94">
+        <v>359</v>
+      </c>
+      <c r="E248" s="95"/>
+      <c r="F248" s="95"/>
       <c r="G248" s="31"/>
       <c r="H248" s="3"/>
       <c r="I248" s="3"/>
@@ -9349,16 +9474,16 @@
       <c r="P248" s="4"/>
     </row>
     <row r="249" ht="17.65" customHeight="1">
-      <c r="A249" s="93"/>
-      <c r="B249" s="68"/>
-      <c r="C249" t="s" s="95">
-        <v>387</v>
-      </c>
-      <c r="D249" t="s" s="95">
-        <v>388</v>
-      </c>
-      <c r="E249" s="96"/>
-      <c r="F249" s="96"/>
+      <c r="A249" s="92"/>
+      <c r="B249" s="44"/>
+      <c r="C249" t="s" s="98">
+        <v>360</v>
+      </c>
+      <c r="D249" t="s" s="97">
+        <v>361</v>
+      </c>
+      <c r="E249" s="95"/>
+      <c r="F249" s="95"/>
       <c r="G249" s="31"/>
       <c r="H249" s="3"/>
       <c r="I249" s="3"/>
@@ -9370,17 +9495,17 @@
       <c r="O249" s="4"/>
       <c r="P249" s="4"/>
     </row>
-    <row r="250" ht="17.65" customHeight="1">
-      <c r="A250" s="93"/>
+    <row r="250" ht="38.7" customHeight="1">
+      <c r="A250" s="92"/>
       <c r="B250" s="44"/>
-      <c r="C250" t="s" s="95">
-        <v>350</v>
-      </c>
-      <c r="D250" t="s" s="97">
-        <v>389</v>
-      </c>
-      <c r="E250" s="96"/>
-      <c r="F250" s="96"/>
+      <c r="C250" t="s" s="98">
+        <v>362</v>
+      </c>
+      <c r="D250" t="s" s="94">
+        <v>363</v>
+      </c>
+      <c r="E250" s="95"/>
+      <c r="F250" s="95"/>
       <c r="G250" s="31"/>
       <c r="H250" s="3"/>
       <c r="I250" s="3"/>
@@ -9392,17 +9517,17 @@
       <c r="O250" s="4"/>
       <c r="P250" s="4"/>
     </row>
-    <row r="251" ht="170.7" customHeight="1">
-      <c r="A251" s="93"/>
+    <row r="251" ht="26.7" customHeight="1">
+      <c r="A251" s="92"/>
       <c r="B251" s="44"/>
-      <c r="C251" t="s" s="95">
-        <v>390</v>
-      </c>
-      <c r="D251" t="s" s="95">
-        <v>391</v>
-      </c>
-      <c r="E251" s="96"/>
-      <c r="F251" s="96"/>
+      <c r="C251" t="s" s="98">
+        <v>364</v>
+      </c>
+      <c r="D251" t="s" s="97">
+        <v>365</v>
+      </c>
+      <c r="E251" s="95"/>
+      <c r="F251" s="95"/>
       <c r="G251" s="31"/>
       <c r="H251" s="3"/>
       <c r="I251" s="3"/>
@@ -9414,17 +9539,17 @@
       <c r="O251" s="4"/>
       <c r="P251" s="4"/>
     </row>
-    <row r="252" ht="26.7" customHeight="1">
-      <c r="A252" s="93"/>
+    <row r="252" ht="38.7" customHeight="1">
+      <c r="A252" s="92"/>
       <c r="B252" s="44"/>
-      <c r="C252" t="s" s="95">
-        <v>392</v>
-      </c>
-      <c r="D252" t="s" s="97">
-        <v>393</v>
-      </c>
-      <c r="E252" s="96"/>
-      <c r="F252" s="96"/>
+      <c r="C252" t="s" s="98">
+        <v>366</v>
+      </c>
+      <c r="D252" t="s" s="94">
+        <v>367</v>
+      </c>
+      <c r="E252" s="95"/>
+      <c r="F252" s="95"/>
       <c r="G252" s="31"/>
       <c r="H252" s="3"/>
       <c r="I252" s="3"/>
@@ -9437,16 +9562,16 @@
       <c r="P252" s="4"/>
     </row>
     <row r="253" ht="26.7" customHeight="1">
-      <c r="A253" s="93"/>
+      <c r="A253" s="92"/>
       <c r="B253" s="44"/>
-      <c r="C253" t="s" s="95">
-        <v>394</v>
-      </c>
-      <c r="D253" t="s" s="95">
-        <v>395</v>
-      </c>
-      <c r="E253" s="96"/>
-      <c r="F253" s="96"/>
+      <c r="C253" t="s" s="98">
+        <v>368</v>
+      </c>
+      <c r="D253" t="s" s="97">
+        <v>369</v>
+      </c>
+      <c r="E253" s="95"/>
+      <c r="F253" s="95"/>
       <c r="G253" s="31"/>
       <c r="H253" s="3"/>
       <c r="I253" s="3"/>
@@ -9458,17 +9583,17 @@
       <c r="O253" s="4"/>
       <c r="P253" s="4"/>
     </row>
-    <row r="254" ht="17.65" customHeight="1">
-      <c r="A254" s="93"/>
+    <row r="254" ht="38.7" customHeight="1">
+      <c r="A254" s="92"/>
       <c r="B254" s="44"/>
-      <c r="C254" t="s" s="95">
-        <v>396</v>
-      </c>
-      <c r="D254" t="s" s="97">
-        <v>397</v>
-      </c>
-      <c r="E254" s="96"/>
-      <c r="F254" s="96"/>
+      <c r="C254" t="s" s="98">
+        <v>370</v>
+      </c>
+      <c r="D254" t="s" s="94">
+        <v>371</v>
+      </c>
+      <c r="E254" s="95"/>
+      <c r="F254" s="95"/>
       <c r="G254" s="31"/>
       <c r="H254" s="3"/>
       <c r="I254" s="3"/>
@@ -9480,17 +9605,17 @@
       <c r="O254" s="4"/>
       <c r="P254" s="4"/>
     </row>
-    <row r="255" ht="17.65" customHeight="1">
-      <c r="A255" s="93"/>
+    <row r="255" ht="26.7" customHeight="1">
+      <c r="A255" s="92"/>
       <c r="B255" s="44"/>
-      <c r="C255" t="s" s="95">
-        <v>398</v>
-      </c>
-      <c r="D255" t="s" s="95">
-        <v>399</v>
-      </c>
-      <c r="E255" s="96"/>
-      <c r="F255" s="96"/>
+      <c r="C255" t="s" s="98">
+        <v>372</v>
+      </c>
+      <c r="D255" t="s" s="97">
+        <v>373</v>
+      </c>
+      <c r="E255" s="95"/>
+      <c r="F255" s="95"/>
       <c r="G255" s="31"/>
       <c r="H255" s="3"/>
       <c r="I255" s="3"/>
@@ -9502,17 +9627,17 @@
       <c r="O255" s="4"/>
       <c r="P255" s="4"/>
     </row>
-    <row r="256" ht="17.65" customHeight="1">
-      <c r="A256" s="93"/>
+    <row r="256" ht="38.7" customHeight="1">
+      <c r="A256" s="92"/>
       <c r="B256" s="44"/>
-      <c r="C256" t="s" s="95">
-        <v>400</v>
-      </c>
-      <c r="D256" t="s" s="97">
-        <v>401</v>
-      </c>
-      <c r="E256" s="96"/>
-      <c r="F256" s="96"/>
+      <c r="C256" t="s" s="98">
+        <v>374</v>
+      </c>
+      <c r="D256" t="s" s="94">
+        <v>375</v>
+      </c>
+      <c r="E256" s="95"/>
+      <c r="F256" s="95"/>
       <c r="G256" s="31"/>
       <c r="H256" s="3"/>
       <c r="I256" s="3"/>
@@ -9525,16 +9650,16 @@
       <c r="P256" s="4"/>
     </row>
     <row r="257" ht="17.65" customHeight="1">
-      <c r="A257" s="93"/>
+      <c r="A257" s="92"/>
       <c r="B257" s="44"/>
-      <c r="C257" t="s" s="95">
-        <v>402</v>
-      </c>
-      <c r="D257" t="s" s="95">
-        <v>403</v>
-      </c>
-      <c r="E257" s="96"/>
-      <c r="F257" s="96"/>
+      <c r="C257" t="s" s="98">
+        <v>376</v>
+      </c>
+      <c r="D257" t="s" s="97">
+        <v>377</v>
+      </c>
+      <c r="E257" s="95"/>
+      <c r="F257" s="95"/>
       <c r="G257" s="31"/>
       <c r="H257" s="3"/>
       <c r="I257" s="3"/>
@@ -9546,17 +9671,17 @@
       <c r="O257" s="4"/>
       <c r="P257" s="4"/>
     </row>
-    <row r="258" ht="17.65" customHeight="1">
-      <c r="A258" s="93"/>
+    <row r="258" ht="38.7" customHeight="1">
+      <c r="A258" s="92"/>
       <c r="B258" s="44"/>
-      <c r="C258" t="s" s="95">
-        <v>404</v>
-      </c>
-      <c r="D258" t="s" s="97">
-        <v>405</v>
-      </c>
-      <c r="E258" s="96"/>
-      <c r="F258" s="96"/>
+      <c r="C258" t="s" s="98">
+        <v>378</v>
+      </c>
+      <c r="D258" t="s" s="94">
+        <v>379</v>
+      </c>
+      <c r="E258" s="95"/>
+      <c r="F258" s="95"/>
       <c r="G258" s="31"/>
       <c r="H258" s="3"/>
       <c r="I258" s="3"/>
@@ -9569,16 +9694,16 @@
       <c r="P258" s="4"/>
     </row>
     <row r="259" ht="17.65" customHeight="1">
-      <c r="A259" s="93"/>
+      <c r="A259" s="92"/>
       <c r="B259" s="44"/>
-      <c r="C259" t="s" s="95">
-        <v>406</v>
-      </c>
-      <c r="D259" t="s" s="95">
-        <v>407</v>
-      </c>
-      <c r="E259" s="96"/>
-      <c r="F259" s="96"/>
+      <c r="C259" t="s" s="98">
+        <v>380</v>
+      </c>
+      <c r="D259" t="s" s="97">
+        <v>381</v>
+      </c>
+      <c r="E259" s="95"/>
+      <c r="F259" s="95"/>
       <c r="G259" s="31"/>
       <c r="H259" s="3"/>
       <c r="I259" s="3"/>
@@ -9590,17 +9715,17 @@
       <c r="O259" s="4"/>
       <c r="P259" s="4"/>
     </row>
-    <row r="260" ht="17.65" customHeight="1">
-      <c r="A260" s="93"/>
-      <c r="B260" s="44"/>
-      <c r="C260" t="s" s="95">
-        <v>408</v>
-      </c>
-      <c r="D260" t="s" s="97">
-        <v>409</v>
-      </c>
-      <c r="E260" s="96"/>
-      <c r="F260" s="96"/>
+    <row r="260" ht="38.7" customHeight="1">
+      <c r="A260" s="92"/>
+      <c r="B260" s="51"/>
+      <c r="C260" t="s" s="98">
+        <v>382</v>
+      </c>
+      <c r="D260" t="s" s="94">
+        <v>383</v>
+      </c>
+      <c r="E260" s="95"/>
+      <c r="F260" s="95"/>
       <c r="G260" s="31"/>
       <c r="H260" s="3"/>
       <c r="I260" s="3"/>
@@ -9612,17 +9737,17 @@
       <c r="O260" s="4"/>
       <c r="P260" s="4"/>
     </row>
-    <row r="261" ht="17.65" customHeight="1">
-      <c r="A261" s="93"/>
-      <c r="B261" s="44"/>
-      <c r="C261" t="s" s="95">
-        <v>410</v>
-      </c>
-      <c r="D261" t="s" s="95">
-        <v>411</v>
-      </c>
-      <c r="E261" s="96"/>
-      <c r="F261" s="96"/>
+    <row r="261" ht="38.7" customHeight="1">
+      <c r="A261" s="92"/>
+      <c r="B261" s="99"/>
+      <c r="C261" t="s" s="98">
+        <v>110</v>
+      </c>
+      <c r="D261" t="s" s="94">
+        <v>111</v>
+      </c>
+      <c r="E261" s="95"/>
+      <c r="F261" s="95"/>
       <c r="G261" s="31"/>
       <c r="H261" s="3"/>
       <c r="I261" s="3"/>
@@ -9635,16 +9760,18 @@
       <c r="P261" s="4"/>
     </row>
     <row r="262" ht="17.65" customHeight="1">
-      <c r="A262" s="93"/>
-      <c r="B262" s="44"/>
-      <c r="C262" t="s" s="95">
-        <v>412</v>
-      </c>
-      <c r="D262" t="s" s="97">
-        <v>413</v>
-      </c>
-      <c r="E262" s="96"/>
-      <c r="F262" s="96"/>
+      <c r="A262" s="100"/>
+      <c r="B262" t="s" s="101">
+        <v>384</v>
+      </c>
+      <c r="C262" t="s" s="102">
+        <v>8</v>
+      </c>
+      <c r="D262" t="s" s="102">
+        <v>385</v>
+      </c>
+      <c r="E262" s="103"/>
+      <c r="F262" s="103"/>
       <c r="G262" s="31"/>
       <c r="H262" s="3"/>
       <c r="I262" s="3"/>
@@ -9656,17 +9783,17 @@
       <c r="O262" s="4"/>
       <c r="P262" s="4"/>
     </row>
-    <row r="263" ht="26.7" customHeight="1">
-      <c r="A263" s="93"/>
-      <c r="B263" s="44"/>
-      <c r="C263" t="s" s="95">
-        <v>414</v>
-      </c>
-      <c r="D263" t="s" s="95">
-        <v>415</v>
-      </c>
-      <c r="E263" s="96"/>
-      <c r="F263" s="96"/>
+    <row r="263" ht="17.65" customHeight="1">
+      <c r="A263" s="100"/>
+      <c r="B263" s="69"/>
+      <c r="C263" t="s" s="102">
+        <v>386</v>
+      </c>
+      <c r="D263" t="s" s="102">
+        <v>387</v>
+      </c>
+      <c r="E263" s="103"/>
+      <c r="F263" s="103"/>
       <c r="G263" s="31"/>
       <c r="H263" s="3"/>
       <c r="I263" s="3"/>
@@ -9679,16 +9806,16 @@
       <c r="P263" s="4"/>
     </row>
     <row r="264" ht="17.65" customHeight="1">
-      <c r="A264" s="93"/>
+      <c r="A264" s="100"/>
       <c r="B264" s="44"/>
-      <c r="C264" t="s" s="95">
-        <v>416</v>
-      </c>
-      <c r="D264" t="s" s="97">
-        <v>417</v>
-      </c>
-      <c r="E264" s="96"/>
-      <c r="F264" s="96"/>
+      <c r="C264" t="s" s="102">
+        <v>388</v>
+      </c>
+      <c r="D264" t="s" s="104">
+        <v>389</v>
+      </c>
+      <c r="E264" s="103"/>
+      <c r="F264" s="103"/>
       <c r="G264" s="31"/>
       <c r="H264" s="3"/>
       <c r="I264" s="3"/>
@@ -9700,17 +9827,17 @@
       <c r="O264" s="4"/>
       <c r="P264" s="4"/>
     </row>
-    <row r="265" ht="26.7" customHeight="1">
-      <c r="A265" s="93"/>
+    <row r="265" ht="170.7" customHeight="1">
+      <c r="A265" s="100"/>
       <c r="B265" s="44"/>
-      <c r="C265" t="s" s="95">
-        <v>418</v>
-      </c>
-      <c r="D265" t="s" s="95">
-        <v>419</v>
-      </c>
-      <c r="E265" s="96"/>
-      <c r="F265" s="96"/>
+      <c r="C265" t="s" s="102">
+        <v>390</v>
+      </c>
+      <c r="D265" t="s" s="102">
+        <v>391</v>
+      </c>
+      <c r="E265" s="103"/>
+      <c r="F265" s="103"/>
       <c r="G265" s="31"/>
       <c r="H265" s="3"/>
       <c r="I265" s="3"/>
@@ -9722,17 +9849,17 @@
       <c r="O265" s="4"/>
       <c r="P265" s="4"/>
     </row>
-    <row r="266" ht="17.65" customHeight="1">
-      <c r="A266" s="93"/>
+    <row r="266" ht="26.7" customHeight="1">
+      <c r="A266" s="100"/>
       <c r="B266" s="44"/>
-      <c r="C266" t="s" s="95">
-        <v>420</v>
-      </c>
-      <c r="D266" t="s" s="95">
-        <v>421</v>
-      </c>
-      <c r="E266" s="96"/>
-      <c r="F266" s="96"/>
+      <c r="C266" t="s" s="102">
+        <v>392</v>
+      </c>
+      <c r="D266" t="s" s="104">
+        <v>393</v>
+      </c>
+      <c r="E266" s="103"/>
+      <c r="F266" s="103"/>
       <c r="G266" s="31"/>
       <c r="H266" s="3"/>
       <c r="I266" s="3"/>
@@ -9744,17 +9871,17 @@
       <c r="O266" s="4"/>
       <c r="P266" s="4"/>
     </row>
-    <row r="267" ht="17.65" customHeight="1">
-      <c r="A267" s="93"/>
+    <row r="267" ht="26.7" customHeight="1">
+      <c r="A267" s="100"/>
       <c r="B267" s="44"/>
-      <c r="C267" t="s" s="95">
-        <v>422</v>
-      </c>
-      <c r="D267" t="s" s="97">
-        <v>423</v>
-      </c>
-      <c r="E267" s="96"/>
-      <c r="F267" s="96"/>
+      <c r="C267" t="s" s="102">
+        <v>394</v>
+      </c>
+      <c r="D267" t="s" s="102">
+        <v>395</v>
+      </c>
+      <c r="E267" s="103"/>
+      <c r="F267" s="103"/>
       <c r="G267" s="31"/>
       <c r="H267" s="3"/>
       <c r="I267" s="3"/>
@@ -9767,16 +9894,16 @@
       <c r="P267" s="4"/>
     </row>
     <row r="268" ht="17.65" customHeight="1">
-      <c r="A268" s="93"/>
-      <c r="B268" s="51"/>
-      <c r="C268" t="s" s="95">
-        <v>424</v>
-      </c>
-      <c r="D268" t="s" s="95">
-        <v>425</v>
-      </c>
-      <c r="E268" s="96"/>
-      <c r="F268" s="96"/>
+      <c r="A268" s="100"/>
+      <c r="B268" s="44"/>
+      <c r="C268" t="s" s="102">
+        <v>396</v>
+      </c>
+      <c r="D268" t="s" s="104">
+        <v>397</v>
+      </c>
+      <c r="E268" s="103"/>
+      <c r="F268" s="103"/>
       <c r="G268" s="31"/>
       <c r="H268" s="3"/>
       <c r="I268" s="3"/>
@@ -9789,18 +9916,16 @@
       <c r="P268" s="4"/>
     </row>
     <row r="269" ht="17.65" customHeight="1">
-      <c r="A269" s="98"/>
-      <c r="B269" t="s" s="99">
-        <v>426</v>
-      </c>
-      <c r="C269" t="s" s="100">
-        <v>8</v>
-      </c>
-      <c r="D269" t="s" s="100">
-        <v>324</v>
-      </c>
-      <c r="E269" s="101"/>
-      <c r="F269" s="101"/>
+      <c r="A269" s="100"/>
+      <c r="B269" s="44"/>
+      <c r="C269" t="s" s="102">
+        <v>398</v>
+      </c>
+      <c r="D269" t="s" s="102">
+        <v>399</v>
+      </c>
+      <c r="E269" s="103"/>
+      <c r="F269" s="103"/>
       <c r="G269" s="31"/>
       <c r="H269" s="3"/>
       <c r="I269" s="3"/>
@@ -9813,16 +9938,16 @@
       <c r="P269" s="4"/>
     </row>
     <row r="270" ht="17.65" customHeight="1">
-      <c r="A270" s="98"/>
-      <c r="B270" s="68"/>
-      <c r="C270" t="s" s="100">
-        <v>114</v>
-      </c>
-      <c r="D270" t="s" s="100">
-        <v>427</v>
-      </c>
-      <c r="E270" s="101"/>
-      <c r="F270" s="101"/>
+      <c r="A270" s="100"/>
+      <c r="B270" s="44"/>
+      <c r="C270" t="s" s="102">
+        <v>400</v>
+      </c>
+      <c r="D270" t="s" s="104">
+        <v>401</v>
+      </c>
+      <c r="E270" s="103"/>
+      <c r="F270" s="103"/>
       <c r="G270" s="31"/>
       <c r="H270" s="3"/>
       <c r="I270" s="3"/>
@@ -9835,16 +9960,16 @@
       <c r="P270" s="4"/>
     </row>
     <row r="271" ht="17.65" customHeight="1">
-      <c r="A271" s="98"/>
+      <c r="A271" s="100"/>
       <c r="B271" s="44"/>
-      <c r="C271" t="s" s="100">
-        <v>428</v>
-      </c>
-      <c r="D271" t="s" s="100">
-        <v>429</v>
-      </c>
-      <c r="E271" s="101"/>
-      <c r="F271" s="101"/>
+      <c r="C271" t="s" s="102">
+        <v>402</v>
+      </c>
+      <c r="D271" t="s" s="102">
+        <v>403</v>
+      </c>
+      <c r="E271" s="103"/>
+      <c r="F271" s="103"/>
       <c r="G271" s="31"/>
       <c r="H271" s="3"/>
       <c r="I271" s="3"/>
@@ -9857,16 +9982,16 @@
       <c r="P271" s="4"/>
     </row>
     <row r="272" ht="17.65" customHeight="1">
-      <c r="A272" s="98"/>
+      <c r="A272" s="100"/>
       <c r="B272" s="44"/>
-      <c r="C272" t="s" s="100">
-        <v>430</v>
-      </c>
-      <c r="D272" t="s" s="100">
-        <v>431</v>
-      </c>
-      <c r="E272" s="101"/>
-      <c r="F272" s="101"/>
+      <c r="C272" t="s" s="102">
+        <v>404</v>
+      </c>
+      <c r="D272" t="s" s="104">
+        <v>405</v>
+      </c>
+      <c r="E272" s="103"/>
+      <c r="F272" s="103"/>
       <c r="G272" s="31"/>
       <c r="H272" s="3"/>
       <c r="I272" s="3"/>
@@ -9879,16 +10004,16 @@
       <c r="P272" s="4"/>
     </row>
     <row r="273" ht="17.65" customHeight="1">
-      <c r="A273" s="98"/>
+      <c r="A273" s="100"/>
       <c r="B273" s="44"/>
-      <c r="C273" t="s" s="100">
-        <v>432</v>
-      </c>
-      <c r="D273" t="s" s="100">
-        <v>433</v>
-      </c>
-      <c r="E273" s="101"/>
-      <c r="F273" s="101"/>
+      <c r="C273" t="s" s="102">
+        <v>406</v>
+      </c>
+      <c r="D273" t="s" s="102">
+        <v>407</v>
+      </c>
+      <c r="E273" s="103"/>
+      <c r="F273" s="103"/>
       <c r="G273" s="31"/>
       <c r="H273" s="3"/>
       <c r="I273" s="3"/>
@@ -9901,16 +10026,16 @@
       <c r="P273" s="4"/>
     </row>
     <row r="274" ht="17.65" customHeight="1">
-      <c r="A274" s="98"/>
+      <c r="A274" s="100"/>
       <c r="B274" s="44"/>
-      <c r="C274" t="s" s="100">
-        <v>120</v>
-      </c>
-      <c r="D274" t="s" s="100">
-        <v>434</v>
-      </c>
-      <c r="E274" s="101"/>
-      <c r="F274" s="101"/>
+      <c r="C274" t="s" s="102">
+        <v>408</v>
+      </c>
+      <c r="D274" t="s" s="104">
+        <v>409</v>
+      </c>
+      <c r="E274" s="103"/>
+      <c r="F274" s="103"/>
       <c r="G274" s="31"/>
       <c r="H274" s="3"/>
       <c r="I274" s="3"/>
@@ -9922,17 +10047,17 @@
       <c r="O274" s="4"/>
       <c r="P274" s="4"/>
     </row>
-    <row r="275" ht="46.7" customHeight="1">
-      <c r="A275" s="98"/>
-      <c r="B275" s="51"/>
-      <c r="C275" t="s" s="100">
-        <v>307</v>
-      </c>
-      <c r="D275" t="s" s="100">
-        <v>435</v>
-      </c>
-      <c r="E275" s="101"/>
-      <c r="F275" s="101"/>
+    <row r="275" ht="17.65" customHeight="1">
+      <c r="A275" s="100"/>
+      <c r="B275" s="44"/>
+      <c r="C275" t="s" s="102">
+        <v>410</v>
+      </c>
+      <c r="D275" t="s" s="102">
+        <v>411</v>
+      </c>
+      <c r="E275" s="103"/>
+      <c r="F275" s="103"/>
       <c r="G275" s="31"/>
       <c r="H275" s="3"/>
       <c r="I275" s="3"/>
@@ -9945,18 +10070,16 @@
       <c r="P275" s="4"/>
     </row>
     <row r="276" ht="17.65" customHeight="1">
-      <c r="A276" s="102"/>
-      <c r="B276" t="s" s="103">
-        <v>436</v>
-      </c>
-      <c r="C276" t="s" s="104">
-        <v>437</v>
+      <c r="A276" s="100"/>
+      <c r="B276" s="44"/>
+      <c r="C276" t="s" s="102">
+        <v>412</v>
       </c>
       <c r="D276" t="s" s="104">
-        <v>27</v>
-      </c>
-      <c r="E276" s="105"/>
-      <c r="F276" s="105"/>
+        <v>413</v>
+      </c>
+      <c r="E276" s="103"/>
+      <c r="F276" s="103"/>
       <c r="G276" s="31"/>
       <c r="H276" s="3"/>
       <c r="I276" s="3"/>
@@ -9968,17 +10091,17 @@
       <c r="O276" s="4"/>
       <c r="P276" s="4"/>
     </row>
-    <row r="277" ht="17.65" customHeight="1">
-      <c r="A277" s="102"/>
-      <c r="B277" s="68"/>
-      <c r="C277" t="s" s="104">
-        <v>438</v>
-      </c>
-      <c r="D277" t="s" s="104">
-        <v>439</v>
-      </c>
-      <c r="E277" s="105"/>
-      <c r="F277" s="105"/>
+    <row r="277" ht="26.7" customHeight="1">
+      <c r="A277" s="100"/>
+      <c r="B277" s="44"/>
+      <c r="C277" t="s" s="102">
+        <v>414</v>
+      </c>
+      <c r="D277" t="s" s="102">
+        <v>415</v>
+      </c>
+      <c r="E277" s="103"/>
+      <c r="F277" s="103"/>
       <c r="G277" s="31"/>
       <c r="H277" s="3"/>
       <c r="I277" s="3"/>
@@ -9991,16 +10114,16 @@
       <c r="P277" s="4"/>
     </row>
     <row r="278" ht="17.65" customHeight="1">
-      <c r="A278" s="102"/>
+      <c r="A278" s="100"/>
       <c r="B278" s="44"/>
-      <c r="C278" t="s" s="104">
-        <v>440</v>
+      <c r="C278" t="s" s="102">
+        <v>416</v>
       </c>
       <c r="D278" t="s" s="104">
-        <v>140</v>
-      </c>
-      <c r="E278" s="105"/>
-      <c r="F278" s="105"/>
+        <v>417</v>
+      </c>
+      <c r="E278" s="103"/>
+      <c r="F278" s="103"/>
       <c r="G278" s="31"/>
       <c r="H278" s="3"/>
       <c r="I278" s="3"/>
@@ -10012,17 +10135,17 @@
       <c r="O278" s="4"/>
       <c r="P278" s="4"/>
     </row>
-    <row r="279" ht="17.65" customHeight="1">
-      <c r="A279" s="102"/>
+    <row r="279" ht="26.7" customHeight="1">
+      <c r="A279" s="100"/>
       <c r="B279" s="44"/>
-      <c r="C279" t="s" s="104">
-        <v>441</v>
-      </c>
-      <c r="D279" t="s" s="104">
-        <v>154</v>
-      </c>
-      <c r="E279" s="105"/>
-      <c r="F279" s="105"/>
+      <c r="C279" t="s" s="102">
+        <v>418</v>
+      </c>
+      <c r="D279" t="s" s="102">
+        <v>419</v>
+      </c>
+      <c r="E279" s="103"/>
+      <c r="F279" s="103"/>
       <c r="G279" s="31"/>
       <c r="H279" s="3"/>
       <c r="I279" s="3"/>
@@ -10035,16 +10158,16 @@
       <c r="P279" s="4"/>
     </row>
     <row r="280" ht="17.65" customHeight="1">
-      <c r="A280" s="102"/>
+      <c r="A280" s="100"/>
       <c r="B280" s="44"/>
-      <c r="C280" t="s" s="104">
-        <v>442</v>
-      </c>
-      <c r="D280" t="s" s="104">
-        <v>279</v>
-      </c>
-      <c r="E280" s="105"/>
-      <c r="F280" s="105"/>
+      <c r="C280" t="s" s="102">
+        <v>420</v>
+      </c>
+      <c r="D280" t="s" s="102">
+        <v>421</v>
+      </c>
+      <c r="E280" s="103"/>
+      <c r="F280" s="103"/>
       <c r="G280" s="31"/>
       <c r="H280" s="3"/>
       <c r="I280" s="3"/>
@@ -10057,16 +10180,16 @@
       <c r="P280" s="4"/>
     </row>
     <row r="281" ht="17.65" customHeight="1">
-      <c r="A281" s="102"/>
+      <c r="A281" s="100"/>
       <c r="B281" s="44"/>
-      <c r="C281" t="s" s="104">
-        <v>443</v>
+      <c r="C281" t="s" s="102">
+        <v>422</v>
       </c>
       <c r="D281" t="s" s="104">
-        <v>444</v>
-      </c>
-      <c r="E281" s="105"/>
-      <c r="F281" s="105"/>
+        <v>423</v>
+      </c>
+      <c r="E281" s="103"/>
+      <c r="F281" s="103"/>
       <c r="G281" s="31"/>
       <c r="H281" s="3"/>
       <c r="I281" s="3"/>
@@ -10079,16 +10202,16 @@
       <c r="P281" s="4"/>
     </row>
     <row r="282" ht="17.65" customHeight="1">
-      <c r="A282" s="102"/>
-      <c r="B282" s="44"/>
-      <c r="C282" t="s" s="104">
-        <v>445</v>
-      </c>
-      <c r="D282" t="s" s="104">
-        <v>446</v>
-      </c>
-      <c r="E282" s="105"/>
-      <c r="F282" s="105"/>
+      <c r="A282" s="100"/>
+      <c r="B282" s="51"/>
+      <c r="C282" t="s" s="102">
+        <v>424</v>
+      </c>
+      <c r="D282" t="s" s="102">
+        <v>425</v>
+      </c>
+      <c r="E282" s="103"/>
+      <c r="F282" s="103"/>
       <c r="G282" s="31"/>
       <c r="H282" s="3"/>
       <c r="I282" s="3"/>
@@ -10101,16 +10224,16 @@
       <c r="P282" s="4"/>
     </row>
     <row r="283" ht="17.65" customHeight="1">
-      <c r="A283" s="102"/>
-      <c r="B283" s="44"/>
-      <c r="C283" t="s" s="104">
-        <v>447</v>
-      </c>
-      <c r="D283" t="s" s="104">
-        <v>448</v>
-      </c>
-      <c r="E283" s="105"/>
-      <c r="F283" s="105"/>
+      <c r="A283" s="100"/>
+      <c r="B283" s="105"/>
+      <c r="C283" t="s" s="102">
+        <v>110</v>
+      </c>
+      <c r="D283" t="s" s="102">
+        <v>111</v>
+      </c>
+      <c r="E283" s="103"/>
+      <c r="F283" s="103"/>
       <c r="G283" s="31"/>
       <c r="H283" s="3"/>
       <c r="I283" s="3"/>
@@ -10123,16 +10246,18 @@
       <c r="P283" s="4"/>
     </row>
     <row r="284" ht="17.65" customHeight="1">
-      <c r="A284" s="102"/>
-      <c r="B284" s="44"/>
-      <c r="C284" t="s" s="104">
-        <v>449</v>
-      </c>
-      <c r="D284" t="s" s="104">
-        <v>450</v>
-      </c>
-      <c r="E284" s="105"/>
-      <c r="F284" s="105"/>
+      <c r="A284" s="106"/>
+      <c r="B284" t="s" s="107">
+        <v>426</v>
+      </c>
+      <c r="C284" t="s" s="108">
+        <v>8</v>
+      </c>
+      <c r="D284" t="s" s="108">
+        <v>324</v>
+      </c>
+      <c r="E284" s="109"/>
+      <c r="F284" s="109"/>
       <c r="G284" s="31"/>
       <c r="H284" s="3"/>
       <c r="I284" s="3"/>
@@ -10145,16 +10270,16 @@
       <c r="P284" s="4"/>
     </row>
     <row r="285" ht="17.65" customHeight="1">
-      <c r="A285" s="102"/>
-      <c r="B285" s="44"/>
-      <c r="C285" t="s" s="104">
-        <v>451</v>
-      </c>
-      <c r="D285" t="s" s="104">
-        <v>452</v>
-      </c>
-      <c r="E285" s="105"/>
-      <c r="F285" s="105"/>
+      <c r="A285" s="106"/>
+      <c r="B285" s="69"/>
+      <c r="C285" t="s" s="108">
+        <v>154</v>
+      </c>
+      <c r="D285" t="s" s="108">
+        <v>427</v>
+      </c>
+      <c r="E285" s="109"/>
+      <c r="F285" s="109"/>
       <c r="G285" s="31"/>
       <c r="H285" s="3"/>
       <c r="I285" s="3"/>
@@ -10167,16 +10292,16 @@
       <c r="P285" s="4"/>
     </row>
     <row r="286" ht="17.65" customHeight="1">
-      <c r="A286" s="102"/>
+      <c r="A286" s="106"/>
       <c r="B286" s="44"/>
-      <c r="C286" t="s" s="104">
-        <v>453</v>
-      </c>
-      <c r="D286" t="s" s="104">
-        <v>454</v>
-      </c>
-      <c r="E286" s="105"/>
-      <c r="F286" s="105"/>
+      <c r="C286" t="s" s="108">
+        <v>428</v>
+      </c>
+      <c r="D286" t="s" s="108">
+        <v>429</v>
+      </c>
+      <c r="E286" s="109"/>
+      <c r="F286" s="109"/>
       <c r="G286" s="31"/>
       <c r="H286" s="3"/>
       <c r="I286" s="3"/>
@@ -10189,16 +10314,16 @@
       <c r="P286" s="4"/>
     </row>
     <row r="287" ht="17.65" customHeight="1">
-      <c r="A287" s="102"/>
+      <c r="A287" s="106"/>
       <c r="B287" s="44"/>
-      <c r="C287" t="s" s="104">
-        <v>455</v>
-      </c>
-      <c r="D287" t="s" s="104">
-        <v>261</v>
-      </c>
-      <c r="E287" s="105"/>
-      <c r="F287" s="105"/>
+      <c r="C287" t="s" s="108">
+        <v>430</v>
+      </c>
+      <c r="D287" t="s" s="108">
+        <v>431</v>
+      </c>
+      <c r="E287" s="109"/>
+      <c r="F287" s="109"/>
       <c r="G287" s="31"/>
       <c r="H287" s="3"/>
       <c r="I287" s="3"/>
@@ -10211,16 +10336,16 @@
       <c r="P287" s="4"/>
     </row>
     <row r="288" ht="17.65" customHeight="1">
-      <c r="A288" s="102"/>
+      <c r="A288" s="106"/>
       <c r="B288" s="44"/>
-      <c r="C288" t="s" s="104">
-        <v>456</v>
-      </c>
-      <c r="D288" t="s" s="104">
-        <v>154</v>
-      </c>
-      <c r="E288" s="105"/>
-      <c r="F288" s="105"/>
+      <c r="C288" t="s" s="108">
+        <v>432</v>
+      </c>
+      <c r="D288" t="s" s="108">
+        <v>433</v>
+      </c>
+      <c r="E288" s="109"/>
+      <c r="F288" s="109"/>
       <c r="G288" s="31"/>
       <c r="H288" s="3"/>
       <c r="I288" s="3"/>
@@ -10233,16 +10358,16 @@
       <c r="P288" s="4"/>
     </row>
     <row r="289" ht="17.65" customHeight="1">
-      <c r="A289" s="102"/>
+      <c r="A289" s="106"/>
       <c r="B289" s="44"/>
-      <c r="C289" t="s" s="104">
-        <v>457</v>
-      </c>
-      <c r="D289" t="s" s="104">
-        <v>386</v>
-      </c>
-      <c r="E289" s="105"/>
-      <c r="F289" s="105"/>
+      <c r="C289" t="s" s="108">
+        <v>434</v>
+      </c>
+      <c r="D289" t="s" s="108">
+        <v>435</v>
+      </c>
+      <c r="E289" s="109"/>
+      <c r="F289" s="109"/>
       <c r="G289" s="31"/>
       <c r="H289" s="3"/>
       <c r="I289" s="3"/>
@@ -10254,17 +10379,17 @@
       <c r="O289" s="4"/>
       <c r="P289" s="4"/>
     </row>
-    <row r="290" ht="17.65" customHeight="1">
-      <c r="A290" s="102"/>
-      <c r="B290" s="44"/>
-      <c r="C290" t="s" s="104">
-        <v>458</v>
-      </c>
-      <c r="D290" t="s" s="104">
-        <v>324</v>
-      </c>
-      <c r="E290" s="105"/>
-      <c r="F290" s="105"/>
+    <row r="290" ht="46.7" customHeight="1">
+      <c r="A290" s="106"/>
+      <c r="B290" s="51"/>
+      <c r="C290" t="s" s="108">
+        <v>307</v>
+      </c>
+      <c r="D290" t="s" s="108">
+        <v>436</v>
+      </c>
+      <c r="E290" s="109"/>
+      <c r="F290" s="109"/>
       <c r="G290" s="31"/>
       <c r="H290" s="3"/>
       <c r="I290" s="3"/>
@@ -10276,17 +10401,17 @@
       <c r="O290" s="4"/>
       <c r="P290" s="4"/>
     </row>
-    <row r="291" ht="17.65" customHeight="1">
-      <c r="A291" s="102"/>
-      <c r="B291" s="44"/>
-      <c r="C291" t="s" s="104">
-        <v>459</v>
-      </c>
-      <c r="D291" t="s" s="104">
-        <v>460</v>
-      </c>
-      <c r="E291" s="105"/>
-      <c r="F291" s="105"/>
+    <row r="291" ht="46.7" customHeight="1">
+      <c r="A291" s="106"/>
+      <c r="B291" s="110"/>
+      <c r="C291" t="s" s="108">
+        <v>110</v>
+      </c>
+      <c r="D291" t="s" s="108">
+        <v>111</v>
+      </c>
+      <c r="E291" s="109"/>
+      <c r="F291" s="109"/>
       <c r="G291" s="31"/>
       <c r="H291" s="3"/>
       <c r="I291" s="3"/>
@@ -10299,16 +10424,18 @@
       <c r="P291" s="4"/>
     </row>
     <row r="292" ht="17.65" customHeight="1">
-      <c r="A292" s="102"/>
-      <c r="B292" s="44"/>
-      <c r="C292" t="s" s="104">
-        <v>461</v>
-      </c>
-      <c r="D292" t="s" s="104">
-        <v>462</v>
-      </c>
-      <c r="E292" s="105"/>
-      <c r="F292" s="105"/>
+      <c r="A292" s="111"/>
+      <c r="B292" t="s" s="112">
+        <v>437</v>
+      </c>
+      <c r="C292" t="s" s="113">
+        <v>438</v>
+      </c>
+      <c r="D292" t="s" s="113">
+        <v>27</v>
+      </c>
+      <c r="E292" s="114"/>
+      <c r="F292" s="114"/>
       <c r="G292" s="31"/>
       <c r="H292" s="3"/>
       <c r="I292" s="3"/>
@@ -10321,16 +10448,16 @@
       <c r="P292" s="4"/>
     </row>
     <row r="293" ht="17.65" customHeight="1">
-      <c r="A293" s="102"/>
-      <c r="B293" s="44"/>
-      <c r="C293" t="s" s="104">
-        <v>463</v>
-      </c>
-      <c r="D293" t="s" s="104">
-        <v>464</v>
-      </c>
-      <c r="E293" s="105"/>
-      <c r="F293" s="105"/>
+      <c r="A293" s="111"/>
+      <c r="B293" s="69"/>
+      <c r="C293" t="s" s="113">
+        <v>439</v>
+      </c>
+      <c r="D293" t="s" s="113">
+        <v>440</v>
+      </c>
+      <c r="E293" s="114"/>
+      <c r="F293" s="114"/>
       <c r="G293" s="31"/>
       <c r="H293" s="3"/>
       <c r="I293" s="3"/>
@@ -10343,16 +10470,16 @@
       <c r="P293" s="4"/>
     </row>
     <row r="294" ht="17.65" customHeight="1">
-      <c r="A294" s="102"/>
+      <c r="A294" s="111"/>
       <c r="B294" s="44"/>
-      <c r="C294" t="s" s="104">
-        <v>465</v>
-      </c>
-      <c r="D294" t="s" s="104">
-        <v>466</v>
-      </c>
-      <c r="E294" s="105"/>
-      <c r="F294" s="105"/>
+      <c r="C294" t="s" s="113">
+        <v>441</v>
+      </c>
+      <c r="D294" t="s" s="113">
+        <v>139</v>
+      </c>
+      <c r="E294" s="114"/>
+      <c r="F294" s="114"/>
       <c r="G294" s="31"/>
       <c r="H294" s="3"/>
       <c r="I294" s="3"/>
@@ -10365,16 +10492,16 @@
       <c r="P294" s="4"/>
     </row>
     <row r="295" ht="17.65" customHeight="1">
-      <c r="A295" s="102"/>
-      <c r="B295" s="51"/>
-      <c r="C295" t="s" s="104">
-        <v>120</v>
-      </c>
-      <c r="D295" t="s" s="104">
-        <v>109</v>
-      </c>
-      <c r="E295" s="105"/>
-      <c r="F295" s="105"/>
+      <c r="A295" s="111"/>
+      <c r="B295" s="44"/>
+      <c r="C295" t="s" s="113">
+        <v>442</v>
+      </c>
+      <c r="D295" t="s" s="113">
+        <v>153</v>
+      </c>
+      <c r="E295" s="114"/>
+      <c r="F295" s="114"/>
       <c r="G295" s="31"/>
       <c r="H295" s="3"/>
       <c r="I295" s="3"/>
@@ -10387,18 +10514,16 @@
       <c r="P295" s="4"/>
     </row>
     <row r="296" ht="17.65" customHeight="1">
-      <c r="A296" s="106"/>
-      <c r="B296" t="s" s="107">
-        <v>467</v>
-      </c>
-      <c r="C296" t="s" s="108">
-        <v>8</v>
-      </c>
-      <c r="D296" t="s" s="108">
-        <v>444</v>
-      </c>
-      <c r="E296" s="109"/>
-      <c r="F296" s="109"/>
+      <c r="A296" s="111"/>
+      <c r="B296" s="44"/>
+      <c r="C296" t="s" s="113">
+        <v>443</v>
+      </c>
+      <c r="D296" t="s" s="113">
+        <v>279</v>
+      </c>
+      <c r="E296" s="114"/>
+      <c r="F296" s="114"/>
       <c r="G296" s="31"/>
       <c r="H296" s="3"/>
       <c r="I296" s="3"/>
@@ -10411,16 +10536,16 @@
       <c r="P296" s="4"/>
     </row>
     <row r="297" ht="17.65" customHeight="1">
-      <c r="A297" s="106"/>
-      <c r="B297" s="68"/>
-      <c r="C297" t="s" s="108">
-        <v>114</v>
-      </c>
-      <c r="D297" t="s" s="108">
-        <v>468</v>
-      </c>
-      <c r="E297" s="109"/>
-      <c r="F297" s="109"/>
+      <c r="A297" s="111"/>
+      <c r="B297" s="44"/>
+      <c r="C297" t="s" s="113">
+        <v>444</v>
+      </c>
+      <c r="D297" t="s" s="113">
+        <v>445</v>
+      </c>
+      <c r="E297" s="114"/>
+      <c r="F297" s="114"/>
       <c r="G297" s="31"/>
       <c r="H297" s="3"/>
       <c r="I297" s="3"/>
@@ -10433,16 +10558,16 @@
       <c r="P297" s="4"/>
     </row>
     <row r="298" ht="17.65" customHeight="1">
-      <c r="A298" s="106"/>
+      <c r="A298" s="111"/>
       <c r="B298" s="44"/>
-      <c r="C298" t="s" s="110">
-        <v>120</v>
-      </c>
-      <c r="D298" t="s" s="111">
-        <v>469</v>
-      </c>
-      <c r="E298" s="109"/>
-      <c r="F298" s="109"/>
+      <c r="C298" t="s" s="113">
+        <v>446</v>
+      </c>
+      <c r="D298" t="s" s="113">
+        <v>447</v>
+      </c>
+      <c r="E298" s="114"/>
+      <c r="F298" s="114"/>
       <c r="G298" s="31"/>
       <c r="H298" s="3"/>
       <c r="I298" s="3"/>
@@ -10455,14 +10580,16 @@
       <c r="P298" s="4"/>
     </row>
     <row r="299" ht="17.65" customHeight="1">
-      <c r="A299" s="106"/>
+      <c r="A299" s="111"/>
       <c r="B299" s="44"/>
-      <c r="C299" s="60"/>
-      <c r="D299" t="s" s="108">
-        <v>109</v>
-      </c>
-      <c r="E299" s="109"/>
-      <c r="F299" s="109"/>
+      <c r="C299" t="s" s="113">
+        <v>448</v>
+      </c>
+      <c r="D299" t="s" s="113">
+        <v>449</v>
+      </c>
+      <c r="E299" s="114"/>
+      <c r="F299" s="114"/>
       <c r="G299" s="31"/>
       <c r="H299" s="3"/>
       <c r="I299" s="3"/>
@@ -10475,16 +10602,16 @@
       <c r="P299" s="4"/>
     </row>
     <row r="300" ht="17.65" customHeight="1">
-      <c r="A300" s="106"/>
+      <c r="A300" s="111"/>
       <c r="B300" s="44"/>
-      <c r="C300" t="s" s="108">
-        <v>470</v>
-      </c>
-      <c r="D300" t="s" s="108">
-        <v>471</v>
-      </c>
-      <c r="E300" s="109"/>
-      <c r="F300" s="109"/>
+      <c r="C300" t="s" s="113">
+        <v>450</v>
+      </c>
+      <c r="D300" t="s" s="113">
+        <v>451</v>
+      </c>
+      <c r="E300" s="114"/>
+      <c r="F300" s="114"/>
       <c r="G300" s="31"/>
       <c r="H300" s="3"/>
       <c r="I300" s="3"/>
@@ -10497,16 +10624,16 @@
       <c r="P300" s="4"/>
     </row>
     <row r="301" ht="17.65" customHeight="1">
-      <c r="A301" s="106"/>
+      <c r="A301" s="111"/>
       <c r="B301" s="44"/>
-      <c r="C301" t="s" s="108">
-        <v>472</v>
-      </c>
-      <c r="D301" t="s" s="108">
-        <v>473</v>
-      </c>
-      <c r="E301" s="109"/>
-      <c r="F301" s="109"/>
+      <c r="C301" t="s" s="113">
+        <v>452</v>
+      </c>
+      <c r="D301" t="s" s="113">
+        <v>453</v>
+      </c>
+      <c r="E301" s="114"/>
+      <c r="F301" s="114"/>
       <c r="G301" s="31"/>
       <c r="H301" s="3"/>
       <c r="I301" s="3"/>
@@ -10519,16 +10646,16 @@
       <c r="P301" s="4"/>
     </row>
     <row r="302" ht="17.65" customHeight="1">
-      <c r="A302" s="106"/>
+      <c r="A302" s="111"/>
       <c r="B302" s="44"/>
-      <c r="C302" t="s" s="108">
-        <v>120</v>
-      </c>
-      <c r="D302" t="s" s="108">
-        <v>474</v>
-      </c>
-      <c r="E302" s="109"/>
-      <c r="F302" s="109"/>
+      <c r="C302" t="s" s="113">
+        <v>454</v>
+      </c>
+      <c r="D302" t="s" s="113">
+        <v>455</v>
+      </c>
+      <c r="E302" s="114"/>
+      <c r="F302" s="114"/>
       <c r="G302" s="31"/>
       <c r="H302" s="3"/>
       <c r="I302" s="3"/>
@@ -10541,16 +10668,16 @@
       <c r="P302" s="4"/>
     </row>
     <row r="303" ht="17.65" customHeight="1">
-      <c r="A303" s="106"/>
+      <c r="A303" s="111"/>
       <c r="B303" s="44"/>
-      <c r="C303" t="s" s="108">
-        <v>475</v>
-      </c>
-      <c r="D303" t="s" s="108">
-        <v>476</v>
-      </c>
-      <c r="E303" s="109"/>
-      <c r="F303" s="109"/>
+      <c r="C303" t="s" s="113">
+        <v>456</v>
+      </c>
+      <c r="D303" t="s" s="113">
+        <v>261</v>
+      </c>
+      <c r="E303" s="114"/>
+      <c r="F303" s="114"/>
       <c r="G303" s="31"/>
       <c r="H303" s="3"/>
       <c r="I303" s="3"/>
@@ -10563,16 +10690,16 @@
       <c r="P303" s="4"/>
     </row>
     <row r="304" ht="17.65" customHeight="1">
-      <c r="A304" s="106"/>
+      <c r="A304" s="111"/>
       <c r="B304" s="44"/>
-      <c r="C304" t="s" s="108">
-        <v>120</v>
-      </c>
-      <c r="D304" t="s" s="108">
-        <v>477</v>
-      </c>
-      <c r="E304" s="109"/>
-      <c r="F304" s="109"/>
+      <c r="C304" t="s" s="113">
+        <v>457</v>
+      </c>
+      <c r="D304" t="s" s="113">
+        <v>153</v>
+      </c>
+      <c r="E304" s="114"/>
+      <c r="F304" s="114"/>
       <c r="G304" s="31"/>
       <c r="H304" s="3"/>
       <c r="I304" s="3"/>
@@ -10585,16 +10712,16 @@
       <c r="P304" s="4"/>
     </row>
     <row r="305" ht="17.65" customHeight="1">
-      <c r="A305" s="106"/>
+      <c r="A305" s="111"/>
       <c r="B305" s="44"/>
-      <c r="C305" t="s" s="110">
-        <v>478</v>
-      </c>
-      <c r="D305" t="s" s="108">
-        <v>479</v>
-      </c>
-      <c r="E305" s="109"/>
-      <c r="F305" s="109"/>
+      <c r="C305" t="s" s="113">
+        <v>458</v>
+      </c>
+      <c r="D305" t="s" s="113">
+        <v>385</v>
+      </c>
+      <c r="E305" s="114"/>
+      <c r="F305" s="114"/>
       <c r="G305" s="31"/>
       <c r="H305" s="3"/>
       <c r="I305" s="3"/>
@@ -10607,14 +10734,16 @@
       <c r="P305" s="4"/>
     </row>
     <row r="306" ht="17.65" customHeight="1">
-      <c r="A306" s="106"/>
+      <c r="A306" s="111"/>
       <c r="B306" s="44"/>
-      <c r="C306" s="60"/>
-      <c r="D306" t="s" s="108">
-        <v>480</v>
-      </c>
-      <c r="E306" s="109"/>
-      <c r="F306" s="109"/>
+      <c r="C306" t="s" s="113">
+        <v>459</v>
+      </c>
+      <c r="D306" t="s" s="113">
+        <v>324</v>
+      </c>
+      <c r="E306" s="114"/>
+      <c r="F306" s="114"/>
       <c r="G306" s="31"/>
       <c r="H306" s="3"/>
       <c r="I306" s="3"/>
@@ -10627,16 +10756,16 @@
       <c r="P306" s="4"/>
     </row>
     <row r="307" ht="17.65" customHeight="1">
-      <c r="A307" s="106"/>
+      <c r="A307" s="111"/>
       <c r="B307" s="44"/>
-      <c r="C307" t="s" s="110">
-        <v>481</v>
-      </c>
-      <c r="D307" t="s" s="108">
-        <v>482</v>
-      </c>
-      <c r="E307" s="109"/>
-      <c r="F307" s="109"/>
+      <c r="C307" t="s" s="113">
+        <v>460</v>
+      </c>
+      <c r="D307" t="s" s="113">
+        <v>461</v>
+      </c>
+      <c r="E307" s="114"/>
+      <c r="F307" s="114"/>
       <c r="G307" s="31"/>
       <c r="H307" s="3"/>
       <c r="I307" s="3"/>
@@ -10649,14 +10778,16 @@
       <c r="P307" s="4"/>
     </row>
     <row r="308" ht="17.65" customHeight="1">
-      <c r="A308" s="106"/>
+      <c r="A308" s="111"/>
       <c r="B308" s="44"/>
-      <c r="C308" s="60"/>
-      <c r="D308" t="s" s="108">
-        <v>483</v>
-      </c>
-      <c r="E308" s="109"/>
-      <c r="F308" s="109"/>
+      <c r="C308" t="s" s="113">
+        <v>462</v>
+      </c>
+      <c r="D308" t="s" s="113">
+        <v>463</v>
+      </c>
+      <c r="E308" s="114"/>
+      <c r="F308" s="114"/>
       <c r="G308" s="31"/>
       <c r="H308" s="3"/>
       <c r="I308" s="3"/>
@@ -10669,16 +10800,16 @@
       <c r="P308" s="4"/>
     </row>
     <row r="309" ht="17.65" customHeight="1">
-      <c r="A309" s="106"/>
+      <c r="A309" s="111"/>
       <c r="B309" s="44"/>
-      <c r="C309" t="s" s="110">
-        <v>484</v>
-      </c>
-      <c r="D309" t="s" s="108">
-        <v>485</v>
-      </c>
-      <c r="E309" s="109"/>
-      <c r="F309" s="109"/>
+      <c r="C309" t="s" s="113">
+        <v>464</v>
+      </c>
+      <c r="D309" t="s" s="113">
+        <v>465</v>
+      </c>
+      <c r="E309" s="114"/>
+      <c r="F309" s="114"/>
       <c r="G309" s="31"/>
       <c r="H309" s="3"/>
       <c r="I309" s="3"/>
@@ -10691,14 +10822,16 @@
       <c r="P309" s="4"/>
     </row>
     <row r="310" ht="17.65" customHeight="1">
-      <c r="A310" s="106"/>
+      <c r="A310" s="111"/>
       <c r="B310" s="44"/>
-      <c r="C310" s="60"/>
-      <c r="D310" t="s" s="108">
-        <v>486</v>
-      </c>
-      <c r="E310" s="109"/>
-      <c r="F310" s="109"/>
+      <c r="C310" t="s" s="113">
+        <v>466</v>
+      </c>
+      <c r="D310" t="s" s="113">
+        <v>467</v>
+      </c>
+      <c r="E310" s="114"/>
+      <c r="F310" s="114"/>
       <c r="G310" s="31"/>
       <c r="H310" s="3"/>
       <c r="I310" s="3"/>
@@ -10711,16 +10844,16 @@
       <c r="P310" s="4"/>
     </row>
     <row r="311" ht="17.65" customHeight="1">
-      <c r="A311" s="106"/>
-      <c r="B311" s="44"/>
-      <c r="C311" t="s" s="110">
-        <v>487</v>
-      </c>
-      <c r="D311" t="s" s="108">
-        <v>488</v>
-      </c>
-      <c r="E311" s="109"/>
-      <c r="F311" s="109"/>
+      <c r="A311" s="111"/>
+      <c r="B311" s="51"/>
+      <c r="C311" t="s" s="113">
+        <v>434</v>
+      </c>
+      <c r="D311" t="s" s="113">
+        <v>109</v>
+      </c>
+      <c r="E311" s="114"/>
+      <c r="F311" s="114"/>
       <c r="G311" s="31"/>
       <c r="H311" s="3"/>
       <c r="I311" s="3"/>
@@ -10733,14 +10866,16 @@
       <c r="P311" s="4"/>
     </row>
     <row r="312" ht="17.65" customHeight="1">
-      <c r="A312" s="106"/>
-      <c r="B312" s="44"/>
-      <c r="C312" s="60"/>
-      <c r="D312" t="s" s="108">
-        <v>489</v>
-      </c>
-      <c r="E312" s="109"/>
-      <c r="F312" s="109"/>
+      <c r="A312" s="111"/>
+      <c r="B312" s="115"/>
+      <c r="C312" t="s" s="113">
+        <v>110</v>
+      </c>
+      <c r="D312" t="s" s="113">
+        <v>111</v>
+      </c>
+      <c r="E312" s="114"/>
+      <c r="F312" s="114"/>
       <c r="G312" s="31"/>
       <c r="H312" s="3"/>
       <c r="I312" s="3"/>
@@ -10753,16 +10888,18 @@
       <c r="P312" s="4"/>
     </row>
     <row r="313" ht="17.65" customHeight="1">
-      <c r="A313" s="106"/>
-      <c r="B313" s="44"/>
-      <c r="C313" t="s" s="110">
-        <v>490</v>
-      </c>
-      <c r="D313" t="s" s="108">
-        <v>491</v>
-      </c>
-      <c r="E313" s="109"/>
-      <c r="F313" s="109"/>
+      <c r="A313" s="116"/>
+      <c r="B313" t="s" s="117">
+        <v>468</v>
+      </c>
+      <c r="C313" t="s" s="118">
+        <v>8</v>
+      </c>
+      <c r="D313" t="s" s="118">
+        <v>445</v>
+      </c>
+      <c r="E313" s="119"/>
+      <c r="F313" s="119"/>
       <c r="G313" s="31"/>
       <c r="H313" s="3"/>
       <c r="I313" s="3"/>
@@ -10775,14 +10912,16 @@
       <c r="P313" s="4"/>
     </row>
     <row r="314" ht="17.65" customHeight="1">
-      <c r="A314" s="106"/>
-      <c r="B314" s="44"/>
-      <c r="C314" s="60"/>
-      <c r="D314" t="s" s="108">
-        <v>492</v>
-      </c>
-      <c r="E314" s="109"/>
-      <c r="F314" s="109"/>
+      <c r="A314" s="116"/>
+      <c r="B314" s="69"/>
+      <c r="C314" t="s" s="118">
+        <v>154</v>
+      </c>
+      <c r="D314" t="s" s="118">
+        <v>469</v>
+      </c>
+      <c r="E314" s="119"/>
+      <c r="F314" s="119"/>
       <c r="G314" s="31"/>
       <c r="H314" s="3"/>
       <c r="I314" s="3"/>
@@ -10795,16 +10934,16 @@
       <c r="P314" s="4"/>
     </row>
     <row r="315" ht="17.65" customHeight="1">
-      <c r="A315" s="106"/>
+      <c r="A315" s="116"/>
       <c r="B315" s="44"/>
-      <c r="C315" t="s" s="110">
-        <v>493</v>
-      </c>
-      <c r="D315" t="s" s="108">
-        <v>494</v>
-      </c>
-      <c r="E315" s="109"/>
-      <c r="F315" s="109"/>
+      <c r="C315" t="s" s="120">
+        <v>434</v>
+      </c>
+      <c r="D315" t="s" s="121">
+        <v>470</v>
+      </c>
+      <c r="E315" s="119"/>
+      <c r="F315" s="119"/>
       <c r="G315" s="31"/>
       <c r="H315" s="3"/>
       <c r="I315" s="3"/>
@@ -10817,14 +10956,14 @@
       <c r="P315" s="4"/>
     </row>
     <row r="316" ht="17.65" customHeight="1">
-      <c r="A316" s="106"/>
+      <c r="A316" s="116"/>
       <c r="B316" s="44"/>
-      <c r="C316" s="60"/>
-      <c r="D316" t="s" s="108">
-        <v>495</v>
-      </c>
-      <c r="E316" s="109"/>
-      <c r="F316" s="109"/>
+      <c r="C316" s="79"/>
+      <c r="D316" t="s" s="118">
+        <v>109</v>
+      </c>
+      <c r="E316" s="119"/>
+      <c r="F316" s="119"/>
       <c r="G316" s="31"/>
       <c r="H316" s="3"/>
       <c r="I316" s="3"/>
@@ -10837,16 +10976,16 @@
       <c r="P316" s="4"/>
     </row>
     <row r="317" ht="17.65" customHeight="1">
-      <c r="A317" s="106"/>
+      <c r="A317" s="116"/>
       <c r="B317" s="44"/>
-      <c r="C317" t="s" s="110">
-        <v>496</v>
-      </c>
-      <c r="D317" t="s" s="108">
-        <v>497</v>
-      </c>
-      <c r="E317" s="109"/>
-      <c r="F317" s="109"/>
+      <c r="C317" t="s" s="118">
+        <v>471</v>
+      </c>
+      <c r="D317" t="s" s="118">
+        <v>472</v>
+      </c>
+      <c r="E317" s="119"/>
+      <c r="F317" s="119"/>
       <c r="G317" s="31"/>
       <c r="H317" s="3"/>
       <c r="I317" s="3"/>
@@ -10859,14 +10998,16 @@
       <c r="P317" s="4"/>
     </row>
     <row r="318" ht="17.65" customHeight="1">
-      <c r="A318" s="106"/>
+      <c r="A318" s="116"/>
       <c r="B318" s="44"/>
-      <c r="C318" s="60"/>
-      <c r="D318" t="s" s="108">
-        <v>498</v>
-      </c>
-      <c r="E318" s="109"/>
-      <c r="F318" s="109"/>
+      <c r="C318" t="s" s="118">
+        <v>473</v>
+      </c>
+      <c r="D318" t="s" s="118">
+        <v>474</v>
+      </c>
+      <c r="E318" s="119"/>
+      <c r="F318" s="119"/>
       <c r="G318" s="31"/>
       <c r="H318" s="3"/>
       <c r="I318" s="3"/>
@@ -10879,16 +11020,16 @@
       <c r="P318" s="4"/>
     </row>
     <row r="319" ht="17.65" customHeight="1">
-      <c r="A319" s="106"/>
+      <c r="A319" s="116"/>
       <c r="B319" s="44"/>
-      <c r="C319" t="s" s="110">
-        <v>499</v>
-      </c>
-      <c r="D319" t="s" s="108">
-        <v>500</v>
-      </c>
-      <c r="E319" s="109"/>
-      <c r="F319" s="109"/>
+      <c r="C319" t="s" s="118">
+        <v>434</v>
+      </c>
+      <c r="D319" t="s" s="118">
+        <v>475</v>
+      </c>
+      <c r="E319" s="119"/>
+      <c r="F319" s="119"/>
       <c r="G319" s="31"/>
       <c r="H319" s="3"/>
       <c r="I319" s="3"/>
@@ -10901,14 +11042,16 @@
       <c r="P319" s="4"/>
     </row>
     <row r="320" ht="17.65" customHeight="1">
-      <c r="A320" s="106"/>
+      <c r="A320" s="116"/>
       <c r="B320" s="44"/>
-      <c r="C320" s="60"/>
-      <c r="D320" t="s" s="108">
-        <v>501</v>
-      </c>
-      <c r="E320" s="109"/>
-      <c r="F320" s="109"/>
+      <c r="C320" t="s" s="118">
+        <v>476</v>
+      </c>
+      <c r="D320" t="s" s="118">
+        <v>477</v>
+      </c>
+      <c r="E320" s="119"/>
+      <c r="F320" s="119"/>
       <c r="G320" s="31"/>
       <c r="H320" s="3"/>
       <c r="I320" s="3"/>
@@ -10921,16 +11064,16 @@
       <c r="P320" s="4"/>
     </row>
     <row r="321" ht="17.65" customHeight="1">
-      <c r="A321" s="106"/>
+      <c r="A321" s="116"/>
       <c r="B321" s="44"/>
-      <c r="C321" t="s" s="110">
-        <v>502</v>
-      </c>
-      <c r="D321" t="s" s="108">
-        <v>503</v>
-      </c>
-      <c r="E321" s="109"/>
-      <c r="F321" s="109"/>
+      <c r="C321" t="s" s="118">
+        <v>434</v>
+      </c>
+      <c r="D321" t="s" s="118">
+        <v>478</v>
+      </c>
+      <c r="E321" s="119"/>
+      <c r="F321" s="119"/>
       <c r="G321" s="31"/>
       <c r="H321" s="3"/>
       <c r="I321" s="3"/>
@@ -10943,14 +11086,16 @@
       <c r="P321" s="4"/>
     </row>
     <row r="322" ht="17.65" customHeight="1">
-      <c r="A322" s="106"/>
+      <c r="A322" s="116"/>
       <c r="B322" s="44"/>
-      <c r="C322" s="60"/>
-      <c r="D322" t="s" s="108">
-        <v>504</v>
-      </c>
-      <c r="E322" s="109"/>
-      <c r="F322" s="109"/>
+      <c r="C322" t="s" s="120">
+        <v>479</v>
+      </c>
+      <c r="D322" t="s" s="118">
+        <v>480</v>
+      </c>
+      <c r="E322" s="119"/>
+      <c r="F322" s="119"/>
       <c r="G322" s="31"/>
       <c r="H322" s="3"/>
       <c r="I322" s="3"/>
@@ -10963,16 +11108,14 @@
       <c r="P322" s="4"/>
     </row>
     <row r="323" ht="17.65" customHeight="1">
-      <c r="A323" s="106"/>
+      <c r="A323" s="116"/>
       <c r="B323" s="44"/>
-      <c r="C323" t="s" s="110">
-        <v>505</v>
-      </c>
-      <c r="D323" t="s" s="108">
-        <v>506</v>
-      </c>
-      <c r="E323" s="109"/>
-      <c r="F323" s="109"/>
+      <c r="C323" s="79"/>
+      <c r="D323" t="s" s="118">
+        <v>481</v>
+      </c>
+      <c r="E323" s="119"/>
+      <c r="F323" s="119"/>
       <c r="G323" s="31"/>
       <c r="H323" s="3"/>
       <c r="I323" s="3"/>
@@ -10985,14 +11128,16 @@
       <c r="P323" s="4"/>
     </row>
     <row r="324" ht="17.65" customHeight="1">
-      <c r="A324" s="106"/>
+      <c r="A324" s="116"/>
       <c r="B324" s="44"/>
-      <c r="C324" s="60"/>
-      <c r="D324" t="s" s="108">
-        <v>507</v>
-      </c>
-      <c r="E324" s="109"/>
-      <c r="F324" s="109"/>
+      <c r="C324" t="s" s="120">
+        <v>482</v>
+      </c>
+      <c r="D324" t="s" s="118">
+        <v>483</v>
+      </c>
+      <c r="E324" s="119"/>
+      <c r="F324" s="119"/>
       <c r="G324" s="31"/>
       <c r="H324" s="3"/>
       <c r="I324" s="3"/>
@@ -11005,16 +11150,14 @@
       <c r="P324" s="4"/>
     </row>
     <row r="325" ht="17.65" customHeight="1">
-      <c r="A325" s="106"/>
+      <c r="A325" s="116"/>
       <c r="B325" s="44"/>
-      <c r="C325" t="s" s="110">
-        <v>508</v>
-      </c>
-      <c r="D325" t="s" s="108">
-        <v>509</v>
-      </c>
-      <c r="E325" s="109"/>
-      <c r="F325" s="109"/>
+      <c r="C325" s="79"/>
+      <c r="D325" t="s" s="118">
+        <v>484</v>
+      </c>
+      <c r="E325" s="119"/>
+      <c r="F325" s="119"/>
       <c r="G325" s="31"/>
       <c r="H325" s="3"/>
       <c r="I325" s="3"/>
@@ -11027,14 +11170,16 @@
       <c r="P325" s="4"/>
     </row>
     <row r="326" ht="17.65" customHeight="1">
-      <c r="A326" s="106"/>
+      <c r="A326" s="116"/>
       <c r="B326" s="44"/>
-      <c r="C326" s="60"/>
-      <c r="D326" t="s" s="108">
-        <v>510</v>
-      </c>
-      <c r="E326" s="109"/>
-      <c r="F326" s="109"/>
+      <c r="C326" t="s" s="120">
+        <v>485</v>
+      </c>
+      <c r="D326" t="s" s="118">
+        <v>486</v>
+      </c>
+      <c r="E326" s="119"/>
+      <c r="F326" s="119"/>
       <c r="G326" s="31"/>
       <c r="H326" s="3"/>
       <c r="I326" s="3"/>
@@ -11047,16 +11192,14 @@
       <c r="P326" s="4"/>
     </row>
     <row r="327" ht="17.65" customHeight="1">
-      <c r="A327" s="106"/>
+      <c r="A327" s="116"/>
       <c r="B327" s="44"/>
-      <c r="C327" t="s" s="110">
-        <v>511</v>
-      </c>
-      <c r="D327" t="s" s="108">
-        <v>512</v>
-      </c>
-      <c r="E327" s="109"/>
-      <c r="F327" s="109"/>
+      <c r="C327" s="79"/>
+      <c r="D327" t="s" s="118">
+        <v>487</v>
+      </c>
+      <c r="E327" s="119"/>
+      <c r="F327" s="119"/>
       <c r="G327" s="31"/>
       <c r="H327" s="3"/>
       <c r="I327" s="3"/>
@@ -11069,14 +11212,16 @@
       <c r="P327" s="4"/>
     </row>
     <row r="328" ht="17.65" customHeight="1">
-      <c r="A328" s="106"/>
+      <c r="A328" s="116"/>
       <c r="B328" s="44"/>
-      <c r="C328" s="60"/>
-      <c r="D328" t="s" s="108">
-        <v>513</v>
-      </c>
-      <c r="E328" s="109"/>
-      <c r="F328" s="109"/>
+      <c r="C328" t="s" s="120">
+        <v>488</v>
+      </c>
+      <c r="D328" t="s" s="118">
+        <v>489</v>
+      </c>
+      <c r="E328" s="119"/>
+      <c r="F328" s="119"/>
       <c r="G328" s="31"/>
       <c r="H328" s="3"/>
       <c r="I328" s="3"/>
@@ -11088,17 +11233,15 @@
       <c r="O328" s="4"/>
       <c r="P328" s="4"/>
     </row>
-    <row r="329" ht="26.7" customHeight="1">
-      <c r="A329" s="106"/>
-      <c r="B329" s="51"/>
-      <c r="C329" t="s" s="108">
-        <v>117</v>
-      </c>
-      <c r="D329" t="s" s="108">
-        <v>514</v>
-      </c>
-      <c r="E329" s="109"/>
-      <c r="F329" s="109"/>
+    <row r="329" ht="17.65" customHeight="1">
+      <c r="A329" s="116"/>
+      <c r="B329" s="44"/>
+      <c r="C329" s="79"/>
+      <c r="D329" t="s" s="118">
+        <v>490</v>
+      </c>
+      <c r="E329" s="119"/>
+      <c r="F329" s="119"/>
       <c r="G329" s="31"/>
       <c r="H329" s="3"/>
       <c r="I329" s="3"/>
@@ -11111,18 +11254,16 @@
       <c r="P329" s="4"/>
     </row>
     <row r="330" ht="17.65" customHeight="1">
-      <c r="A330" s="112"/>
-      <c r="B330" t="s" s="113">
-        <v>515</v>
-      </c>
-      <c r="C330" t="s" s="114">
-        <v>8</v>
-      </c>
-      <c r="D330" t="s" s="114">
-        <v>446</v>
-      </c>
-      <c r="E330" s="115"/>
-      <c r="F330" s="115"/>
+      <c r="A330" s="116"/>
+      <c r="B330" s="44"/>
+      <c r="C330" t="s" s="120">
+        <v>491</v>
+      </c>
+      <c r="D330" t="s" s="118">
+        <v>492</v>
+      </c>
+      <c r="E330" s="119"/>
+      <c r="F330" s="119"/>
       <c r="G330" s="31"/>
       <c r="H330" s="3"/>
       <c r="I330" s="3"/>
@@ -11135,16 +11276,14 @@
       <c r="P330" s="4"/>
     </row>
     <row r="331" ht="17.65" customHeight="1">
-      <c r="A331" s="112"/>
-      <c r="B331" s="68"/>
-      <c r="C331" t="s" s="114">
-        <v>114</v>
-      </c>
-      <c r="D331" t="s" s="114">
-        <v>516</v>
-      </c>
-      <c r="E331" s="115"/>
-      <c r="F331" s="115"/>
+      <c r="A331" s="116"/>
+      <c r="B331" s="44"/>
+      <c r="C331" s="79"/>
+      <c r="D331" t="s" s="118">
+        <v>493</v>
+      </c>
+      <c r="E331" s="119"/>
+      <c r="F331" s="119"/>
       <c r="G331" s="31"/>
       <c r="H331" s="3"/>
       <c r="I331" s="3"/>
@@ -11157,16 +11296,16 @@
       <c r="P331" s="4"/>
     </row>
     <row r="332" ht="17.65" customHeight="1">
-      <c r="A332" s="112"/>
+      <c r="A332" s="116"/>
       <c r="B332" s="44"/>
-      <c r="C332" t="s" s="114">
-        <v>470</v>
-      </c>
-      <c r="D332" t="s" s="114">
-        <v>471</v>
-      </c>
-      <c r="E332" s="115"/>
-      <c r="F332" s="115"/>
+      <c r="C332" t="s" s="120">
+        <v>494</v>
+      </c>
+      <c r="D332" t="s" s="118">
+        <v>495</v>
+      </c>
+      <c r="E332" s="119"/>
+      <c r="F332" s="119"/>
       <c r="G332" s="31"/>
       <c r="H332" s="3"/>
       <c r="I332" s="3"/>
@@ -11179,16 +11318,14 @@
       <c r="P332" s="4"/>
     </row>
     <row r="333" ht="17.65" customHeight="1">
-      <c r="A333" s="112"/>
+      <c r="A333" s="116"/>
       <c r="B333" s="44"/>
-      <c r="C333" t="s" s="116">
-        <v>120</v>
-      </c>
-      <c r="D333" t="s" s="117">
-        <v>517</v>
-      </c>
-      <c r="E333" s="115"/>
-      <c r="F333" s="115"/>
+      <c r="C333" s="79"/>
+      <c r="D333" t="s" s="118">
+        <v>496</v>
+      </c>
+      <c r="E333" s="119"/>
+      <c r="F333" s="119"/>
       <c r="G333" s="31"/>
       <c r="H333" s="3"/>
       <c r="I333" s="3"/>
@@ -11201,14 +11338,16 @@
       <c r="P333" s="4"/>
     </row>
     <row r="334" ht="17.65" customHeight="1">
-      <c r="A334" s="112"/>
+      <c r="A334" s="116"/>
       <c r="B334" s="44"/>
-      <c r="C334" s="60"/>
-      <c r="D334" t="s" s="114">
-        <v>518</v>
-      </c>
-      <c r="E334" s="115"/>
-      <c r="F334" s="115"/>
+      <c r="C334" t="s" s="120">
+        <v>497</v>
+      </c>
+      <c r="D334" t="s" s="118">
+        <v>498</v>
+      </c>
+      <c r="E334" s="119"/>
+      <c r="F334" s="119"/>
       <c r="G334" s="31"/>
       <c r="H334" s="3"/>
       <c r="I334" s="3"/>
@@ -11221,16 +11360,14 @@
       <c r="P334" s="4"/>
     </row>
     <row r="335" ht="17.65" customHeight="1">
-      <c r="A335" s="112"/>
+      <c r="A335" s="116"/>
       <c r="B335" s="44"/>
-      <c r="C335" t="s" s="114">
-        <v>117</v>
-      </c>
-      <c r="D335" t="s" s="114">
-        <v>519</v>
-      </c>
-      <c r="E335" s="115"/>
-      <c r="F335" s="115"/>
+      <c r="C335" s="79"/>
+      <c r="D335" t="s" s="118">
+        <v>499</v>
+      </c>
+      <c r="E335" s="119"/>
+      <c r="F335" s="119"/>
       <c r="G335" s="31"/>
       <c r="H335" s="3"/>
       <c r="I335" s="3"/>
@@ -11243,16 +11380,16 @@
       <c r="P335" s="4"/>
     </row>
     <row r="336" ht="17.65" customHeight="1">
-      <c r="A336" s="112"/>
+      <c r="A336" s="116"/>
       <c r="B336" s="44"/>
-      <c r="C336" t="s" s="114">
-        <v>120</v>
-      </c>
-      <c r="D336" t="s" s="114">
-        <v>520</v>
-      </c>
-      <c r="E336" s="115"/>
-      <c r="F336" s="115"/>
+      <c r="C336" t="s" s="120">
+        <v>500</v>
+      </c>
+      <c r="D336" t="s" s="118">
+        <v>501</v>
+      </c>
+      <c r="E336" s="119"/>
+      <c r="F336" s="119"/>
       <c r="G336" s="31"/>
       <c r="H336" s="3"/>
       <c r="I336" s="3"/>
@@ -11265,16 +11402,14 @@
       <c r="P336" s="4"/>
     </row>
     <row r="337" ht="17.65" customHeight="1">
-      <c r="A337" s="112"/>
+      <c r="A337" s="116"/>
       <c r="B337" s="44"/>
-      <c r="C337" t="s" s="114">
-        <v>123</v>
-      </c>
-      <c r="D337" t="s" s="114">
-        <v>521</v>
-      </c>
-      <c r="E337" s="115"/>
-      <c r="F337" s="115"/>
+      <c r="C337" s="79"/>
+      <c r="D337" t="s" s="118">
+        <v>502</v>
+      </c>
+      <c r="E337" s="119"/>
+      <c r="F337" s="119"/>
       <c r="G337" s="31"/>
       <c r="H337" s="3"/>
       <c r="I337" s="3"/>
@@ -11286,17 +11421,17 @@
       <c r="O337" s="4"/>
       <c r="P337" s="4"/>
     </row>
-    <row r="338" ht="26.7" customHeight="1">
-      <c r="A338" s="112"/>
-      <c r="B338" s="51"/>
-      <c r="C338" t="s" s="114">
-        <v>522</v>
-      </c>
-      <c r="D338" t="s" s="114">
-        <v>523</v>
-      </c>
-      <c r="E338" s="115"/>
-      <c r="F338" s="115"/>
+    <row r="338" ht="17.65" customHeight="1">
+      <c r="A338" s="116"/>
+      <c r="B338" s="44"/>
+      <c r="C338" t="s" s="120">
+        <v>503</v>
+      </c>
+      <c r="D338" t="s" s="118">
+        <v>504</v>
+      </c>
+      <c r="E338" s="119"/>
+      <c r="F338" s="119"/>
       <c r="G338" s="31"/>
       <c r="H338" s="3"/>
       <c r="I338" s="3"/>
@@ -11309,16 +11444,14 @@
       <c r="P338" s="4"/>
     </row>
     <row r="339" ht="17.65" customHeight="1">
-      <c r="A339" s="118"/>
-      <c r="B339" t="s" s="119">
-        <v>524</v>
-      </c>
-      <c r="C339" t="s" s="120">
-        <v>525</v>
-      </c>
-      <c r="D339" s="121"/>
-      <c r="E339" s="122"/>
-      <c r="F339" s="122"/>
+      <c r="A339" s="116"/>
+      <c r="B339" s="44"/>
+      <c r="C339" s="79"/>
+      <c r="D339" t="s" s="118">
+        <v>505</v>
+      </c>
+      <c r="E339" s="119"/>
+      <c r="F339" s="119"/>
       <c r="G339" s="31"/>
       <c r="H339" s="3"/>
       <c r="I339" s="3"/>
@@ -11330,13 +11463,17 @@
       <c r="O339" s="4"/>
       <c r="P339" s="4"/>
     </row>
-    <row r="340" ht="15" customHeight="1">
-      <c r="A340" s="118"/>
-      <c r="B340" s="68"/>
-      <c r="C340" s="123"/>
-      <c r="D340" s="124"/>
-      <c r="E340" s="122"/>
-      <c r="F340" s="122"/>
+    <row r="340" ht="17.65" customHeight="1">
+      <c r="A340" s="116"/>
+      <c r="B340" s="44"/>
+      <c r="C340" t="s" s="120">
+        <v>506</v>
+      </c>
+      <c r="D340" t="s" s="118">
+        <v>507</v>
+      </c>
+      <c r="E340" s="119"/>
+      <c r="F340" s="119"/>
       <c r="G340" s="31"/>
       <c r="H340" s="3"/>
       <c r="I340" s="3"/>
@@ -11348,13 +11485,15 @@
       <c r="O340" s="4"/>
       <c r="P340" s="4"/>
     </row>
-    <row r="341" ht="15" customHeight="1">
-      <c r="A341" s="118"/>
+    <row r="341" ht="17.65" customHeight="1">
+      <c r="A341" s="116"/>
       <c r="B341" s="44"/>
-      <c r="C341" s="125"/>
-      <c r="D341" s="124"/>
-      <c r="E341" s="122"/>
-      <c r="F341" s="122"/>
+      <c r="C341" s="79"/>
+      <c r="D341" t="s" s="118">
+        <v>508</v>
+      </c>
+      <c r="E341" s="119"/>
+      <c r="F341" s="119"/>
       <c r="G341" s="31"/>
       <c r="H341" s="3"/>
       <c r="I341" s="3"/>
@@ -11366,13 +11505,17 @@
       <c r="O341" s="4"/>
       <c r="P341" s="4"/>
     </row>
-    <row r="342" ht="15" customHeight="1">
-      <c r="A342" s="118"/>
+    <row r="342" ht="17.65" customHeight="1">
+      <c r="A342" s="116"/>
       <c r="B342" s="44"/>
-      <c r="C342" s="125"/>
-      <c r="D342" s="124"/>
-      <c r="E342" s="122"/>
-      <c r="F342" s="122"/>
+      <c r="C342" t="s" s="120">
+        <v>509</v>
+      </c>
+      <c r="D342" t="s" s="118">
+        <v>510</v>
+      </c>
+      <c r="E342" s="119"/>
+      <c r="F342" s="119"/>
       <c r="G342" s="31"/>
       <c r="H342" s="3"/>
       <c r="I342" s="3"/>
@@ -11384,13 +11527,15 @@
       <c r="O342" s="4"/>
       <c r="P342" s="4"/>
     </row>
-    <row r="343" ht="15" customHeight="1">
-      <c r="A343" s="118"/>
+    <row r="343" ht="17.65" customHeight="1">
+      <c r="A343" s="116"/>
       <c r="B343" s="44"/>
-      <c r="C343" s="125"/>
-      <c r="D343" s="124"/>
-      <c r="E343" s="122"/>
-      <c r="F343" s="122"/>
+      <c r="C343" s="79"/>
+      <c r="D343" t="s" s="118">
+        <v>511</v>
+      </c>
+      <c r="E343" s="119"/>
+      <c r="F343" s="119"/>
       <c r="G343" s="31"/>
       <c r="H343" s="3"/>
       <c r="I343" s="3"/>
@@ -11402,13 +11547,17 @@
       <c r="O343" s="4"/>
       <c r="P343" s="4"/>
     </row>
-    <row r="344" ht="15" customHeight="1">
-      <c r="A344" s="118"/>
-      <c r="B344" s="51"/>
-      <c r="C344" s="126"/>
-      <c r="D344" s="127"/>
-      <c r="E344" s="122"/>
-      <c r="F344" s="122"/>
+    <row r="344" ht="17.65" customHeight="1">
+      <c r="A344" s="116"/>
+      <c r="B344" s="44"/>
+      <c r="C344" t="s" s="120">
+        <v>512</v>
+      </c>
+      <c r="D344" t="s" s="118">
+        <v>513</v>
+      </c>
+      <c r="E344" s="119"/>
+      <c r="F344" s="119"/>
       <c r="G344" s="31"/>
       <c r="H344" s="3"/>
       <c r="I344" s="3"/>
@@ -11421,18 +11570,14 @@
       <c r="P344" s="4"/>
     </row>
     <row r="345" ht="17.65" customHeight="1">
-      <c r="A345" s="128"/>
-      <c r="B345" t="s" s="129">
-        <v>526</v>
-      </c>
-      <c r="C345" t="s" s="130">
-        <v>527</v>
-      </c>
-      <c r="D345" t="s" s="130">
-        <v>528</v>
-      </c>
-      <c r="E345" s="131"/>
-      <c r="F345" s="131"/>
+      <c r="A345" s="116"/>
+      <c r="B345" s="44"/>
+      <c r="C345" s="79"/>
+      <c r="D345" t="s" s="118">
+        <v>514</v>
+      </c>
+      <c r="E345" s="119"/>
+      <c r="F345" s="119"/>
       <c r="G345" s="31"/>
       <c r="H345" s="3"/>
       <c r="I345" s="3"/>
@@ -11445,16 +11590,16 @@
       <c r="P345" s="4"/>
     </row>
     <row r="346" ht="26.7" customHeight="1">
-      <c r="A346" s="128"/>
-      <c r="B346" s="68"/>
-      <c r="C346" t="s" s="130">
-        <v>529</v>
-      </c>
-      <c r="D346" t="s" s="130">
-        <v>530</v>
-      </c>
-      <c r="E346" s="131"/>
-      <c r="F346" s="131"/>
+      <c r="A346" s="116"/>
+      <c r="B346" s="51"/>
+      <c r="C346" t="s" s="118">
+        <v>515</v>
+      </c>
+      <c r="D346" t="s" s="118">
+        <v>516</v>
+      </c>
+      <c r="E346" s="119"/>
+      <c r="F346" s="119"/>
       <c r="G346" s="31"/>
       <c r="H346" s="3"/>
       <c r="I346" s="3"/>
@@ -11467,16 +11612,16 @@
       <c r="P346" s="4"/>
     </row>
     <row r="347" ht="26.7" customHeight="1">
-      <c r="A347" s="128"/>
-      <c r="B347" s="44"/>
-      <c r="C347" t="s" s="130">
-        <v>337</v>
-      </c>
-      <c r="D347" t="s" s="130">
-        <v>531</v>
-      </c>
-      <c r="E347" s="131"/>
-      <c r="F347" s="131"/>
+      <c r="A347" s="116"/>
+      <c r="B347" s="122"/>
+      <c r="C347" t="s" s="118">
+        <v>110</v>
+      </c>
+      <c r="D347" t="s" s="118">
+        <v>111</v>
+      </c>
+      <c r="E347" s="119"/>
+      <c r="F347" s="119"/>
       <c r="G347" s="31"/>
       <c r="H347" s="3"/>
       <c r="I347" s="3"/>
@@ -11489,16 +11634,18 @@
       <c r="P347" s="4"/>
     </row>
     <row r="348" ht="17.65" customHeight="1">
-      <c r="A348" s="128"/>
-      <c r="B348" s="44"/>
-      <c r="C348" t="s" s="130">
-        <v>532</v>
-      </c>
-      <c r="D348" t="s" s="130">
-        <v>533</v>
-      </c>
-      <c r="E348" s="131"/>
-      <c r="F348" s="131"/>
+      <c r="A348" s="123"/>
+      <c r="B348" t="s" s="124">
+        <v>517</v>
+      </c>
+      <c r="C348" t="s" s="125">
+        <v>8</v>
+      </c>
+      <c r="D348" t="s" s="125">
+        <v>447</v>
+      </c>
+      <c r="E348" s="126"/>
+      <c r="F348" s="126"/>
       <c r="G348" s="31"/>
       <c r="H348" s="3"/>
       <c r="I348" s="3"/>
@@ -11511,16 +11658,16 @@
       <c r="P348" s="4"/>
     </row>
     <row r="349" ht="17.65" customHeight="1">
-      <c r="A349" s="128"/>
-      <c r="B349" s="44"/>
-      <c r="C349" t="s" s="130">
-        <v>534</v>
-      </c>
-      <c r="D349" t="s" s="132">
-        <v>535</v>
-      </c>
-      <c r="E349" s="131"/>
-      <c r="F349" s="131"/>
+      <c r="A349" s="123"/>
+      <c r="B349" s="69"/>
+      <c r="C349" t="s" s="125">
+        <v>154</v>
+      </c>
+      <c r="D349" t="s" s="125">
+        <v>518</v>
+      </c>
+      <c r="E349" s="126"/>
+      <c r="F349" s="126"/>
       <c r="G349" s="31"/>
       <c r="H349" s="3"/>
       <c r="I349" s="3"/>
@@ -11533,16 +11680,16 @@
       <c r="P349" s="4"/>
     </row>
     <row r="350" ht="17.65" customHeight="1">
-      <c r="A350" s="128"/>
+      <c r="A350" s="123"/>
       <c r="B350" s="44"/>
-      <c r="C350" t="s" s="130">
-        <v>536</v>
-      </c>
-      <c r="D350" t="s" s="130">
-        <v>537</v>
-      </c>
-      <c r="E350" s="131"/>
-      <c r="F350" s="131"/>
+      <c r="C350" t="s" s="125">
+        <v>471</v>
+      </c>
+      <c r="D350" t="s" s="125">
+        <v>472</v>
+      </c>
+      <c r="E350" s="126"/>
+      <c r="F350" s="126"/>
       <c r="G350" s="31"/>
       <c r="H350" s="3"/>
       <c r="I350" s="3"/>
@@ -11555,16 +11702,16 @@
       <c r="P350" s="4"/>
     </row>
     <row r="351" ht="17.65" customHeight="1">
-      <c r="A351" s="128"/>
+      <c r="A351" s="123"/>
       <c r="B351" s="44"/>
-      <c r="C351" t="s" s="130">
-        <v>538</v>
-      </c>
-      <c r="D351" t="s" s="130">
-        <v>539</v>
-      </c>
-      <c r="E351" s="131"/>
-      <c r="F351" s="131"/>
+      <c r="C351" t="s" s="127">
+        <v>434</v>
+      </c>
+      <c r="D351" t="s" s="128">
+        <v>519</v>
+      </c>
+      <c r="E351" s="126"/>
+      <c r="F351" s="126"/>
       <c r="G351" s="31"/>
       <c r="H351" s="3"/>
       <c r="I351" s="3"/>
@@ -11577,16 +11724,14 @@
       <c r="P351" s="4"/>
     </row>
     <row r="352" ht="17.65" customHeight="1">
-      <c r="A352" s="128"/>
-      <c r="B352" s="51"/>
-      <c r="C352" t="s" s="130">
-        <v>540</v>
-      </c>
-      <c r="D352" t="s" s="130">
-        <v>541</v>
-      </c>
-      <c r="E352" s="131"/>
-      <c r="F352" s="131"/>
+      <c r="A352" s="123"/>
+      <c r="B352" s="44"/>
+      <c r="C352" s="79"/>
+      <c r="D352" t="s" s="125">
+        <v>520</v>
+      </c>
+      <c r="E352" s="126"/>
+      <c r="F352" s="126"/>
       <c r="G352" s="31"/>
       <c r="H352" s="3"/>
       <c r="I352" s="3"/>
@@ -11598,14 +11743,18 @@
       <c r="O352" s="4"/>
       <c r="P352" s="4"/>
     </row>
-    <row r="353" ht="15" customHeight="1">
-      <c r="A353" s="11"/>
-      <c r="B353" s="133"/>
-      <c r="C353" s="133"/>
-      <c r="D353" s="133"/>
-      <c r="E353" s="133"/>
-      <c r="F353" s="133"/>
-      <c r="G353" s="3"/>
+    <row r="353" ht="17.65" customHeight="1">
+      <c r="A353" s="123"/>
+      <c r="B353" s="44"/>
+      <c r="C353" t="s" s="125">
+        <v>515</v>
+      </c>
+      <c r="D353" t="s" s="125">
+        <v>521</v>
+      </c>
+      <c r="E353" s="126"/>
+      <c r="F353" s="126"/>
+      <c r="G353" s="31"/>
       <c r="H353" s="3"/>
       <c r="I353" s="3"/>
       <c r="J353" s="3"/>
@@ -11616,107 +11765,510 @@
       <c r="O353" s="4"/>
       <c r="P353" s="4"/>
     </row>
+    <row r="354" ht="17.65" customHeight="1">
+      <c r="A354" s="123"/>
+      <c r="B354" s="44"/>
+      <c r="C354" t="s" s="125">
+        <v>434</v>
+      </c>
+      <c r="D354" t="s" s="125">
+        <v>522</v>
+      </c>
+      <c r="E354" s="126"/>
+      <c r="F354" s="126"/>
+      <c r="G354" s="31"/>
+      <c r="H354" s="3"/>
+      <c r="I354" s="3"/>
+      <c r="J354" s="3"/>
+      <c r="K354" s="3"/>
+      <c r="L354" s="3"/>
+      <c r="M354" s="3"/>
+      <c r="N354" s="3"/>
+      <c r="O354" s="4"/>
+      <c r="P354" s="4"/>
+    </row>
+    <row r="355" ht="17.65" customHeight="1">
+      <c r="A355" s="123"/>
+      <c r="B355" s="44"/>
+      <c r="C355" t="s" s="125">
+        <v>523</v>
+      </c>
+      <c r="D355" t="s" s="125">
+        <v>524</v>
+      </c>
+      <c r="E355" s="126"/>
+      <c r="F355" s="126"/>
+      <c r="G355" s="31"/>
+      <c r="H355" s="3"/>
+      <c r="I355" s="3"/>
+      <c r="J355" s="3"/>
+      <c r="K355" s="3"/>
+      <c r="L355" s="3"/>
+      <c r="M355" s="3"/>
+      <c r="N355" s="3"/>
+      <c r="O355" s="4"/>
+      <c r="P355" s="4"/>
+    </row>
+    <row r="356" ht="26.7" customHeight="1">
+      <c r="A356" s="123"/>
+      <c r="B356" s="51"/>
+      <c r="C356" t="s" s="125">
+        <v>525</v>
+      </c>
+      <c r="D356" t="s" s="125">
+        <v>526</v>
+      </c>
+      <c r="E356" s="126"/>
+      <c r="F356" s="126"/>
+      <c r="G356" s="31"/>
+      <c r="H356" s="3"/>
+      <c r="I356" s="3"/>
+      <c r="J356" s="3"/>
+      <c r="K356" s="3"/>
+      <c r="L356" s="3"/>
+      <c r="M356" s="3"/>
+      <c r="N356" s="3"/>
+      <c r="O356" s="4"/>
+      <c r="P356" s="4"/>
+    </row>
+    <row r="357" ht="26.7" customHeight="1">
+      <c r="A357" s="123"/>
+      <c r="B357" s="129"/>
+      <c r="C357" t="s" s="125">
+        <v>110</v>
+      </c>
+      <c r="D357" t="s" s="125">
+        <v>111</v>
+      </c>
+      <c r="E357" s="126"/>
+      <c r="F357" s="126"/>
+      <c r="G357" s="31"/>
+      <c r="H357" s="3"/>
+      <c r="I357" s="3"/>
+      <c r="J357" s="3"/>
+      <c r="K357" s="3"/>
+      <c r="L357" s="3"/>
+      <c r="M357" s="3"/>
+      <c r="N357" s="3"/>
+      <c r="O357" s="4"/>
+      <c r="P357" s="4"/>
+    </row>
+    <row r="358" ht="17.65" customHeight="1">
+      <c r="A358" s="130"/>
+      <c r="B358" t="s" s="131">
+        <v>527</v>
+      </c>
+      <c r="C358" t="s" s="132">
+        <v>528</v>
+      </c>
+      <c r="D358" s="133"/>
+      <c r="E358" s="134"/>
+      <c r="F358" s="134"/>
+      <c r="G358" s="31"/>
+      <c r="H358" s="3"/>
+      <c r="I358" s="3"/>
+      <c r="J358" s="3"/>
+      <c r="K358" s="3"/>
+      <c r="L358" s="3"/>
+      <c r="M358" s="3"/>
+      <c r="N358" s="3"/>
+      <c r="O358" s="4"/>
+      <c r="P358" s="4"/>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="A359" s="130"/>
+      <c r="B359" s="69"/>
+      <c r="C359" s="135"/>
+      <c r="D359" s="136"/>
+      <c r="E359" s="134"/>
+      <c r="F359" s="134"/>
+      <c r="G359" s="31"/>
+      <c r="H359" s="3"/>
+      <c r="I359" s="3"/>
+      <c r="J359" s="3"/>
+      <c r="K359" s="3"/>
+      <c r="L359" s="3"/>
+      <c r="M359" s="3"/>
+      <c r="N359" s="3"/>
+      <c r="O359" s="4"/>
+      <c r="P359" s="4"/>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="A360" s="130"/>
+      <c r="B360" s="44"/>
+      <c r="C360" s="137"/>
+      <c r="D360" s="136"/>
+      <c r="E360" s="134"/>
+      <c r="F360" s="134"/>
+      <c r="G360" s="31"/>
+      <c r="H360" s="3"/>
+      <c r="I360" s="3"/>
+      <c r="J360" s="3"/>
+      <c r="K360" s="3"/>
+      <c r="L360" s="3"/>
+      <c r="M360" s="3"/>
+      <c r="N360" s="3"/>
+      <c r="O360" s="4"/>
+      <c r="P360" s="4"/>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="A361" s="130"/>
+      <c r="B361" s="44"/>
+      <c r="C361" s="137"/>
+      <c r="D361" s="136"/>
+      <c r="E361" s="134"/>
+      <c r="F361" s="134"/>
+      <c r="G361" s="31"/>
+      <c r="H361" s="3"/>
+      <c r="I361" s="3"/>
+      <c r="J361" s="3"/>
+      <c r="K361" s="3"/>
+      <c r="L361" s="3"/>
+      <c r="M361" s="3"/>
+      <c r="N361" s="3"/>
+      <c r="O361" s="4"/>
+      <c r="P361" s="4"/>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="A362" s="130"/>
+      <c r="B362" s="44"/>
+      <c r="C362" s="137"/>
+      <c r="D362" s="136"/>
+      <c r="E362" s="134"/>
+      <c r="F362" s="134"/>
+      <c r="G362" s="31"/>
+      <c r="H362" s="3"/>
+      <c r="I362" s="3"/>
+      <c r="J362" s="3"/>
+      <c r="K362" s="3"/>
+      <c r="L362" s="3"/>
+      <c r="M362" s="3"/>
+      <c r="N362" s="3"/>
+      <c r="O362" s="4"/>
+      <c r="P362" s="4"/>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="A363" s="130"/>
+      <c r="B363" s="51"/>
+      <c r="C363" s="138"/>
+      <c r="D363" s="139"/>
+      <c r="E363" s="134"/>
+      <c r="F363" s="134"/>
+      <c r="G363" s="31"/>
+      <c r="H363" s="3"/>
+      <c r="I363" s="3"/>
+      <c r="J363" s="3"/>
+      <c r="K363" s="3"/>
+      <c r="L363" s="3"/>
+      <c r="M363" s="3"/>
+      <c r="N363" s="3"/>
+      <c r="O363" s="4"/>
+      <c r="P363" s="4"/>
+    </row>
+    <row r="364" ht="17.65" customHeight="1">
+      <c r="A364" s="140"/>
+      <c r="B364" t="s" s="141">
+        <v>529</v>
+      </c>
+      <c r="C364" t="s" s="142">
+        <v>530</v>
+      </c>
+      <c r="D364" t="s" s="142">
+        <v>531</v>
+      </c>
+      <c r="E364" s="143"/>
+      <c r="F364" s="143"/>
+      <c r="G364" s="31"/>
+      <c r="H364" s="3"/>
+      <c r="I364" s="3"/>
+      <c r="J364" s="3"/>
+      <c r="K364" s="3"/>
+      <c r="L364" s="3"/>
+      <c r="M364" s="3"/>
+      <c r="N364" s="3"/>
+      <c r="O364" s="4"/>
+      <c r="P364" s="4"/>
+    </row>
+    <row r="365" ht="26.7" customHeight="1">
+      <c r="A365" s="140"/>
+      <c r="B365" s="69"/>
+      <c r="C365" t="s" s="142">
+        <v>532</v>
+      </c>
+      <c r="D365" t="s" s="142">
+        <v>533</v>
+      </c>
+      <c r="E365" s="143"/>
+      <c r="F365" s="143"/>
+      <c r="G365" s="31"/>
+      <c r="H365" s="3"/>
+      <c r="I365" s="3"/>
+      <c r="J365" s="3"/>
+      <c r="K365" s="3"/>
+      <c r="L365" s="3"/>
+      <c r="M365" s="3"/>
+      <c r="N365" s="3"/>
+      <c r="O365" s="4"/>
+      <c r="P365" s="4"/>
+    </row>
+    <row r="366" ht="26.7" customHeight="1">
+      <c r="A366" s="140"/>
+      <c r="B366" s="44"/>
+      <c r="C366" t="s" s="142">
+        <v>337</v>
+      </c>
+      <c r="D366" t="s" s="142">
+        <v>534</v>
+      </c>
+      <c r="E366" s="143"/>
+      <c r="F366" s="143"/>
+      <c r="G366" s="31"/>
+      <c r="H366" s="3"/>
+      <c r="I366" s="3"/>
+      <c r="J366" s="3"/>
+      <c r="K366" s="3"/>
+      <c r="L366" s="3"/>
+      <c r="M366" s="3"/>
+      <c r="N366" s="3"/>
+      <c r="O366" s="4"/>
+      <c r="P366" s="4"/>
+    </row>
+    <row r="367" ht="17.65" customHeight="1">
+      <c r="A367" s="140"/>
+      <c r="B367" s="44"/>
+      <c r="C367" t="s" s="142">
+        <v>535</v>
+      </c>
+      <c r="D367" t="s" s="142">
+        <v>536</v>
+      </c>
+      <c r="E367" s="143"/>
+      <c r="F367" s="143"/>
+      <c r="G367" s="31"/>
+      <c r="H367" s="3"/>
+      <c r="I367" s="3"/>
+      <c r="J367" s="3"/>
+      <c r="K367" s="3"/>
+      <c r="L367" s="3"/>
+      <c r="M367" s="3"/>
+      <c r="N367" s="3"/>
+      <c r="O367" s="4"/>
+      <c r="P367" s="4"/>
+    </row>
+    <row r="368" ht="17.65" customHeight="1">
+      <c r="A368" s="140"/>
+      <c r="B368" s="44"/>
+      <c r="C368" t="s" s="142">
+        <v>537</v>
+      </c>
+      <c r="D368" t="s" s="144">
+        <v>538</v>
+      </c>
+      <c r="E368" s="143"/>
+      <c r="F368" s="143"/>
+      <c r="G368" s="31"/>
+      <c r="H368" s="3"/>
+      <c r="I368" s="3"/>
+      <c r="J368" s="3"/>
+      <c r="K368" s="3"/>
+      <c r="L368" s="3"/>
+      <c r="M368" s="3"/>
+      <c r="N368" s="3"/>
+      <c r="O368" s="4"/>
+      <c r="P368" s="4"/>
+    </row>
+    <row r="369" ht="17.65" customHeight="1">
+      <c r="A369" s="140"/>
+      <c r="B369" s="44"/>
+      <c r="C369" t="s" s="142">
+        <v>539</v>
+      </c>
+      <c r="D369" t="s" s="142">
+        <v>540</v>
+      </c>
+      <c r="E369" s="143"/>
+      <c r="F369" s="143"/>
+      <c r="G369" s="31"/>
+      <c r="H369" s="3"/>
+      <c r="I369" s="3"/>
+      <c r="J369" s="3"/>
+      <c r="K369" s="3"/>
+      <c r="L369" s="3"/>
+      <c r="M369" s="3"/>
+      <c r="N369" s="3"/>
+      <c r="O369" s="4"/>
+      <c r="P369" s="4"/>
+    </row>
+    <row r="370" ht="17.65" customHeight="1">
+      <c r="A370" s="140"/>
+      <c r="B370" s="44"/>
+      <c r="C370" t="s" s="142">
+        <v>541</v>
+      </c>
+      <c r="D370" t="s" s="142">
+        <v>542</v>
+      </c>
+      <c r="E370" s="143"/>
+      <c r="F370" s="143"/>
+      <c r="G370" s="31"/>
+      <c r="H370" s="3"/>
+      <c r="I370" s="3"/>
+      <c r="J370" s="3"/>
+      <c r="K370" s="3"/>
+      <c r="L370" s="3"/>
+      <c r="M370" s="3"/>
+      <c r="N370" s="3"/>
+      <c r="O370" s="4"/>
+      <c r="P370" s="4"/>
+    </row>
+    <row r="371" ht="17.65" customHeight="1">
+      <c r="A371" s="140"/>
+      <c r="B371" s="51"/>
+      <c r="C371" t="s" s="142">
+        <v>543</v>
+      </c>
+      <c r="D371" t="s" s="142">
+        <v>544</v>
+      </c>
+      <c r="E371" s="143"/>
+      <c r="F371" s="143"/>
+      <c r="G371" s="31"/>
+      <c r="H371" s="3"/>
+      <c r="I371" s="3"/>
+      <c r="J371" s="3"/>
+      <c r="K371" s="3"/>
+      <c r="L371" s="3"/>
+      <c r="M371" s="3"/>
+      <c r="N371" s="3"/>
+      <c r="O371" s="4"/>
+      <c r="P371" s="4"/>
+    </row>
+    <row r="372" ht="17.65" customHeight="1">
+      <c r="A372" s="140"/>
+      <c r="B372" s="145"/>
+      <c r="C372" t="s" s="142">
+        <v>110</v>
+      </c>
+      <c r="D372" t="s" s="142">
+        <v>545</v>
+      </c>
+      <c r="E372" t="s" s="146">
+        <v>112</v>
+      </c>
+      <c r="F372" t="s" s="146">
+        <v>112</v>
+      </c>
+      <c r="G372" s="31"/>
+      <c r="H372" s="3"/>
+      <c r="I372" s="3"/>
+      <c r="J372" s="3"/>
+      <c r="K372" s="3"/>
+      <c r="L372" s="3"/>
+      <c r="M372" s="3"/>
+      <c r="N372" s="3"/>
+      <c r="O372" s="4"/>
+      <c r="P372" s="4"/>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="A373" s="11"/>
+      <c r="B373" s="147"/>
+      <c r="C373" s="147"/>
+      <c r="D373" s="148"/>
+      <c r="E373" s="147"/>
+      <c r="F373" s="147"/>
+      <c r="G373" s="3"/>
+      <c r="H373" s="3"/>
+      <c r="I373" s="3"/>
+      <c r="J373" s="3"/>
+      <c r="K373" s="3"/>
+      <c r="L373" s="3"/>
+      <c r="M373" s="3"/>
+      <c r="N373" s="3"/>
+      <c r="O373" s="4"/>
+      <c r="P373" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="99">
-    <mergeCell ref="B339:B344"/>
-    <mergeCell ref="C315:C316"/>
+  <mergeCells count="80">
+    <mergeCell ref="B364:B371"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="C342:C343"/>
+    <mergeCell ref="C326:C327"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="B262:B282"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="C340:C341"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="C112:C113"/>
     <mergeCell ref="C118:C119"/>
-    <mergeCell ref="C193:C194"/>
-    <mergeCell ref="B197:B224"/>
+    <mergeCell ref="C212:C213"/>
+    <mergeCell ref="B313:B346"/>
+    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="C322:C323"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="C324:C325"/>
+    <mergeCell ref="B84:B98"/>
+    <mergeCell ref="C177:C178"/>
+    <mergeCell ref="C351:C352"/>
+    <mergeCell ref="C210:C211"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="B23:B54"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="C338:C339"/>
+    <mergeCell ref="C191:C192"/>
+    <mergeCell ref="B292:B311"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="B358:B363"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="C344:C345"/>
+    <mergeCell ref="B348:B356"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="C156:C157"/>
+    <mergeCell ref="C175:C176"/>
+    <mergeCell ref="C182:C183"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="C336:C337"/>
     <mergeCell ref="C198:C199"/>
     <mergeCell ref="C101:C102"/>
-    <mergeCell ref="C298:C299"/>
-    <mergeCell ref="B296:B329"/>
-    <mergeCell ref="C195:C196"/>
+    <mergeCell ref="C358:D363"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="C334:C335"/>
+    <mergeCell ref="C193:C194"/>
+    <mergeCell ref="B100:B203"/>
+    <mergeCell ref="C196:C197"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B284:B290"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="C186:C187"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="C317:C318"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="C208:C209"/>
+    <mergeCell ref="C330:C331"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="C214:C215"/>
+    <mergeCell ref="C167:C168"/>
     <mergeCell ref="C120:C121"/>
-    <mergeCell ref="C189:C190"/>
-    <mergeCell ref="C313:C314"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="B23:B54"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="C311:C312"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="B269:B275"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="B225:B247"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="C321:C322"/>
+    <mergeCell ref="C200:C201"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="C332:C333"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="C328:C329"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="B238:B260"/>
+    <mergeCell ref="C315:C316"/>
     <mergeCell ref="C127:C128"/>
-    <mergeCell ref="C156:C157"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C179:C180"/>
-    <mergeCell ref="C177:C178"/>
-    <mergeCell ref="C191:C192"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="C173:C174"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="B93:B196"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="C186:C187"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="C149:C150"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="B330:B338"/>
-    <mergeCell ref="C182:C183"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="C226:C227"/>
-    <mergeCell ref="C323:C324"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="C230:C231"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="C327:C328"/>
-    <mergeCell ref="C184:C185"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C228:C229"/>
-    <mergeCell ref="C325:C326"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="C319:C320"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="C339:D344"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="C333:C334"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="B276:B295"/>
-    <mergeCell ref="C175:C176"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="B78:B92"/>
-    <mergeCell ref="C309:C310"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="C307:C308"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="C305:C306"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="C202:C203"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="C204:C205"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="B248:B268"/>
-    <mergeCell ref="B345:B352"/>
-    <mergeCell ref="C200:C201"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="B205:B232"/>
+    <mergeCell ref="C104:C105"/>
     <mergeCell ref="C206:C207"/>
-    <mergeCell ref="C162:C163"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/do_not_delete/usa-translations.xlsx
+++ b/do_not_delete/usa-translations.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="547">
   <si>
     <t>ofo.com copy deck for translations: USA</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t>Unique bicycle identification number</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
   <si>
     <t>bike_description_front_wheel</t>
@@ -3976,7 +3979,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P373"/>
+  <dimension ref="A1:P374"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -4952,7 +4955,9 @@
       <c r="D43" t="s" s="41">
         <v>87</v>
       </c>
-      <c r="E43" s="43"/>
+      <c r="E43" t="s" s="42">
+        <v>88</v>
+      </c>
       <c r="F43" s="43"/>
       <c r="G43" s="31"/>
       <c r="H43" s="3"/>
@@ -4969,12 +4974,14 @@
       <c r="A44" s="39"/>
       <c r="B44" s="44"/>
       <c r="C44" t="s" s="50">
+        <v>89</v>
+      </c>
+      <c r="D44" t="s" s="41">
+        <v>90</v>
+      </c>
+      <c r="E44" t="s" s="42">
         <v>88</v>
       </c>
-      <c r="D44" t="s" s="41">
-        <v>89</v>
-      </c>
-      <c r="E44" s="43"/>
       <c r="F44" s="43"/>
       <c r="G44" s="31"/>
       <c r="H44" s="3"/>
@@ -4991,12 +4998,14 @@
       <c r="A45" s="39"/>
       <c r="B45" s="44"/>
       <c r="C45" t="s" s="50">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D45" t="s" s="41">
-        <v>91</v>
-      </c>
-      <c r="E45" s="43"/>
+        <v>92</v>
+      </c>
+      <c r="E45" t="s" s="42">
+        <v>88</v>
+      </c>
       <c r="F45" s="43"/>
       <c r="G45" s="31"/>
       <c r="H45" s="3"/>
@@ -5013,12 +5022,14 @@
       <c r="A46" s="39"/>
       <c r="B46" s="44"/>
       <c r="C46" t="s" s="50">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D46" t="s" s="41">
-        <v>93</v>
-      </c>
-      <c r="E46" s="43"/>
+        <v>94</v>
+      </c>
+      <c r="E46" t="s" s="42">
+        <v>88</v>
+      </c>
       <c r="F46" s="43"/>
       <c r="G46" s="31"/>
       <c r="H46" s="3"/>
@@ -5035,12 +5046,14 @@
       <c r="A47" s="39"/>
       <c r="B47" s="44"/>
       <c r="C47" t="s" s="50">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D47" t="s" s="41">
-        <v>95</v>
-      </c>
-      <c r="E47" s="43"/>
+        <v>96</v>
+      </c>
+      <c r="E47" t="s" s="42">
+        <v>88</v>
+      </c>
       <c r="F47" s="43"/>
       <c r="G47" s="31"/>
       <c r="H47" s="3"/>
@@ -5057,12 +5070,14 @@
       <c r="A48" s="39"/>
       <c r="B48" s="44"/>
       <c r="C48" t="s" s="50">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D48" t="s" s="41">
-        <v>97</v>
-      </c>
-      <c r="E48" s="43"/>
+        <v>98</v>
+      </c>
+      <c r="E48" t="s" s="42">
+        <v>88</v>
+      </c>
       <c r="F48" s="43"/>
       <c r="G48" s="31"/>
       <c r="H48" s="3"/>
@@ -5079,12 +5094,14 @@
       <c r="A49" s="39"/>
       <c r="B49" s="44"/>
       <c r="C49" t="s" s="50">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D49" t="s" s="41">
-        <v>99</v>
-      </c>
-      <c r="E49" s="43"/>
+        <v>100</v>
+      </c>
+      <c r="E49" t="s" s="42">
+        <v>88</v>
+      </c>
       <c r="F49" s="43"/>
       <c r="G49" s="31"/>
       <c r="H49" s="3"/>
@@ -5101,12 +5118,14 @@
       <c r="A50" s="39"/>
       <c r="B50" s="44"/>
       <c r="C50" t="s" s="50">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D50" t="s" s="41">
-        <v>101</v>
-      </c>
-      <c r="E50" s="43"/>
+        <v>102</v>
+      </c>
+      <c r="E50" t="s" s="42">
+        <v>88</v>
+      </c>
       <c r="F50" s="43"/>
       <c r="G50" s="31"/>
       <c r="H50" s="3"/>
@@ -5123,12 +5142,14 @@
       <c r="A51" s="39"/>
       <c r="B51" s="44"/>
       <c r="C51" t="s" s="50">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D51" t="s" s="41">
-        <v>103</v>
-      </c>
-      <c r="E51" s="43"/>
+        <v>104</v>
+      </c>
+      <c r="E51" t="s" s="42">
+        <v>88</v>
+      </c>
       <c r="F51" s="43"/>
       <c r="G51" s="31"/>
       <c r="H51" s="3"/>
@@ -5145,12 +5166,14 @@
       <c r="A52" s="39"/>
       <c r="B52" s="44"/>
       <c r="C52" t="s" s="41">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D52" t="s" s="46">
-        <v>105</v>
-      </c>
-      <c r="E52" s="43"/>
+        <v>106</v>
+      </c>
+      <c r="E52" t="s" s="42">
+        <v>88</v>
+      </c>
       <c r="F52" s="43"/>
       <c r="G52" s="31"/>
       <c r="H52" s="3"/>
@@ -5167,12 +5190,14 @@
       <c r="A53" s="39"/>
       <c r="B53" s="44"/>
       <c r="C53" t="s" s="45">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D53" t="s" s="46">
-        <v>107</v>
-      </c>
-      <c r="E53" s="43"/>
+        <v>108</v>
+      </c>
+      <c r="E53" t="s" s="42">
+        <v>88</v>
+      </c>
       <c r="F53" s="43"/>
       <c r="G53" s="31"/>
       <c r="H53" s="3"/>
@@ -5189,12 +5214,14 @@
       <c r="A54" s="39"/>
       <c r="B54" s="51"/>
       <c r="C54" t="s" s="47">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D54" t="s" s="41">
-        <v>109</v>
-      </c>
-      <c r="E54" s="43"/>
+        <v>110</v>
+      </c>
+      <c r="E54" t="s" s="42">
+        <v>88</v>
+      </c>
       <c r="F54" s="43"/>
       <c r="G54" s="31"/>
       <c r="H54" s="3"/>
@@ -5211,16 +5238,16 @@
       <c r="A55" s="52"/>
       <c r="B55" s="53"/>
       <c r="C55" t="s" s="37">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D55" t="s" s="37">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E55" t="s" s="37">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F55" t="s" s="37">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G55" s="31"/>
       <c r="H55" s="3"/>
@@ -5312,7 +5339,7 @@
     <row r="59" ht="14.7" customHeight="1">
       <c r="A59" s="32"/>
       <c r="B59" t="s" s="36">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C59" t="s" s="37">
         <v>20</v>
@@ -5340,19 +5367,19 @@
     <row r="60" ht="26.7" customHeight="1">
       <c r="A60" s="38"/>
       <c r="B60" t="s" s="36">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C60" t="s" s="37">
         <v>23</v>
       </c>
       <c r="D60" t="s" s="37">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E60" t="s" s="37">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F60" t="s" s="37">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G60" s="31"/>
       <c r="H60" s="3"/>
@@ -5372,9 +5399,11 @@
         <v>29</v>
       </c>
       <c r="D61" t="s" s="57">
-        <v>116</v>
-      </c>
-      <c r="E61" s="58"/>
+        <v>117</v>
+      </c>
+      <c r="E61" t="s" s="42">
+        <v>88</v>
+      </c>
       <c r="F61" s="58"/>
       <c r="G61" s="31"/>
       <c r="H61" s="3"/>
@@ -5394,9 +5423,11 @@
         <v>32</v>
       </c>
       <c r="D62" t="s" s="60">
-        <v>117</v>
-      </c>
-      <c r="E62" s="58"/>
+        <v>118</v>
+      </c>
+      <c r="E62" t="s" s="42">
+        <v>88</v>
+      </c>
       <c r="F62" s="58"/>
       <c r="G62" s="31"/>
       <c r="H62" s="3"/>
@@ -5416,9 +5447,11 @@
         <v>35</v>
       </c>
       <c r="D63" t="s" s="57">
-        <v>118</v>
-      </c>
-      <c r="E63" s="58"/>
+        <v>119</v>
+      </c>
+      <c r="E63" t="s" s="42">
+        <v>88</v>
+      </c>
       <c r="F63" s="58"/>
       <c r="G63" s="31"/>
       <c r="H63" s="3"/>
@@ -5438,9 +5471,11 @@
         <v>38</v>
       </c>
       <c r="D64" t="s" s="60">
-        <v>119</v>
-      </c>
-      <c r="E64" s="58"/>
+        <v>120</v>
+      </c>
+      <c r="E64" t="s" s="42">
+        <v>88</v>
+      </c>
       <c r="F64" s="58"/>
       <c r="G64" s="31"/>
       <c r="H64" s="3"/>
@@ -5460,9 +5495,11 @@
         <v>41</v>
       </c>
       <c r="D65" t="s" s="57">
-        <v>120</v>
-      </c>
-      <c r="E65" s="61"/>
+        <v>121</v>
+      </c>
+      <c r="E65" t="s" s="42">
+        <v>88</v>
+      </c>
       <c r="F65" s="61"/>
       <c r="G65" s="31"/>
       <c r="H65" s="3"/>
@@ -5482,9 +5519,11 @@
         <v>44</v>
       </c>
       <c r="D66" t="s" s="60">
-        <v>121</v>
-      </c>
-      <c r="E66" s="61"/>
+        <v>122</v>
+      </c>
+      <c r="E66" t="s" s="42">
+        <v>88</v>
+      </c>
       <c r="F66" s="61"/>
       <c r="G66" s="31"/>
       <c r="H66" s="3"/>
@@ -5504,9 +5543,11 @@
         <v>47</v>
       </c>
       <c r="D67" t="s" s="57">
-        <v>122</v>
-      </c>
-      <c r="E67" s="58"/>
+        <v>123</v>
+      </c>
+      <c r="E67" t="s" s="42">
+        <v>88</v>
+      </c>
       <c r="F67" s="58"/>
       <c r="G67" s="31"/>
       <c r="H67" s="3"/>
@@ -5526,9 +5567,11 @@
         <v>50</v>
       </c>
       <c r="D68" t="s" s="60">
-        <v>123</v>
-      </c>
-      <c r="E68" s="58"/>
+        <v>124</v>
+      </c>
+      <c r="E68" t="s" s="42">
+        <v>88</v>
+      </c>
       <c r="F68" s="58"/>
       <c r="G68" s="31"/>
       <c r="H68" s="3"/>
@@ -5548,9 +5591,11 @@
         <v>77</v>
       </c>
       <c r="D69" t="s" s="57">
-        <v>124</v>
-      </c>
-      <c r="E69" s="58"/>
+        <v>125</v>
+      </c>
+      <c r="E69" t="s" s="42">
+        <v>88</v>
+      </c>
       <c r="F69" s="58"/>
       <c r="G69" s="31"/>
       <c r="H69" s="3"/>
@@ -5570,9 +5615,11 @@
         <v>80</v>
       </c>
       <c r="D70" t="s" s="60">
-        <v>125</v>
-      </c>
-      <c r="E70" s="58"/>
+        <v>126</v>
+      </c>
+      <c r="E70" t="s" s="42">
+        <v>88</v>
+      </c>
       <c r="F70" s="58"/>
       <c r="G70" s="31"/>
       <c r="H70" s="3"/>
@@ -5592,9 +5639,11 @@
         <v>83</v>
       </c>
       <c r="D71" t="s" s="57">
-        <v>126</v>
-      </c>
-      <c r="E71" s="58"/>
+        <v>127</v>
+      </c>
+      <c r="E71" t="s" s="42">
+        <v>88</v>
+      </c>
       <c r="F71" s="58"/>
       <c r="G71" s="31"/>
       <c r="H71" s="3"/>
@@ -5611,12 +5660,14 @@
       <c r="A72" s="54"/>
       <c r="B72" s="59"/>
       <c r="C72" t="s" s="47">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D72" t="s" s="60">
-        <v>128</v>
-      </c>
-      <c r="E72" s="58"/>
+        <v>129</v>
+      </c>
+      <c r="E72" t="s" s="42">
+        <v>88</v>
+      </c>
       <c r="F72" s="58"/>
       <c r="G72" s="31"/>
       <c r="H72" s="3"/>
@@ -5633,12 +5684,14 @@
       <c r="A73" s="54"/>
       <c r="B73" s="59"/>
       <c r="C73" t="s" s="56">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D73" t="s" s="57">
-        <v>129</v>
-      </c>
-      <c r="E73" s="58"/>
+        <v>130</v>
+      </c>
+      <c r="E73" t="s" s="42">
+        <v>88</v>
+      </c>
       <c r="F73" s="58"/>
       <c r="G73" s="31"/>
       <c r="H73" s="3"/>
@@ -5655,12 +5708,14 @@
       <c r="A74" s="54"/>
       <c r="B74" s="59"/>
       <c r="C74" t="s" s="47">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D74" t="s" s="60">
-        <v>131</v>
-      </c>
-      <c r="E74" s="58"/>
+        <v>132</v>
+      </c>
+      <c r="E74" t="s" s="42">
+        <v>88</v>
+      </c>
       <c r="F74" s="58"/>
       <c r="G74" s="31"/>
       <c r="H74" s="3"/>
@@ -5677,12 +5732,14 @@
       <c r="A75" s="54"/>
       <c r="B75" s="59"/>
       <c r="C75" t="s" s="56">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D75" t="s" s="57">
-        <v>133</v>
-      </c>
-      <c r="E75" s="58"/>
+        <v>134</v>
+      </c>
+      <c r="E75" t="s" s="42">
+        <v>88</v>
+      </c>
       <c r="F75" s="58"/>
       <c r="G75" s="31"/>
       <c r="H75" s="3"/>
@@ -5699,12 +5756,14 @@
       <c r="A76" s="54"/>
       <c r="B76" s="59"/>
       <c r="C76" t="s" s="47">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D76" t="s" s="60">
-        <v>135</v>
-      </c>
-      <c r="E76" s="58"/>
+        <v>136</v>
+      </c>
+      <c r="E76" t="s" s="42">
+        <v>88</v>
+      </c>
       <c r="F76" s="58"/>
       <c r="G76" s="31"/>
       <c r="H76" s="3"/>
@@ -5721,12 +5780,14 @@
       <c r="A77" s="54"/>
       <c r="B77" s="59"/>
       <c r="C77" t="s" s="56">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D77" t="s" s="57">
-        <v>136</v>
-      </c>
-      <c r="E77" s="58"/>
+        <v>137</v>
+      </c>
+      <c r="E77" t="s" s="42">
+        <v>88</v>
+      </c>
       <c r="F77" s="58"/>
       <c r="G77" s="31"/>
       <c r="H77" s="3"/>
@@ -5743,12 +5804,14 @@
       <c r="A78" s="54"/>
       <c r="B78" s="62"/>
       <c r="C78" t="s" s="47">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D78" t="s" s="60">
-        <v>121</v>
-      </c>
-      <c r="E78" s="58"/>
+        <v>122</v>
+      </c>
+      <c r="E78" t="s" s="42">
+        <v>88</v>
+      </c>
       <c r="F78" s="58"/>
       <c r="G78" s="31"/>
       <c r="H78" s="3"/>
@@ -5765,10 +5828,10 @@
       <c r="A79" s="54"/>
       <c r="B79" s="63"/>
       <c r="C79" t="s" s="60">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D79" t="s" s="60">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E79" t="s" s="64">
         <v>112</v>
@@ -5788,14 +5851,10 @@
     <row r="80" ht="17.65" customHeight="1">
       <c r="A80" s="54"/>
       <c r="B80" s="63"/>
-      <c r="C80" t="s" s="60">
-        <v>16</v>
-      </c>
-      <c r="D80" t="s" s="60">
-        <v>6</v>
-      </c>
+      <c r="C80" s="60"/>
+      <c r="D80" s="60"/>
       <c r="E80" t="s" s="64">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="F80" s="58"/>
       <c r="G80" s="31"/>
@@ -5813,13 +5872,13 @@
       <c r="A81" s="54"/>
       <c r="B81" s="63"/>
       <c r="C81" t="s" s="60">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D81" t="s" s="60">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E81" t="s" s="64">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F81" s="58"/>
       <c r="G81" s="31"/>
@@ -5837,13 +5896,13 @@
       <c r="A82" s="54"/>
       <c r="B82" s="63"/>
       <c r="C82" t="s" s="60">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D82" t="s" s="60">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E82" t="s" s="64">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F82" s="58"/>
       <c r="G82" s="31"/>
@@ -5861,12 +5920,14 @@
       <c r="A83" s="54"/>
       <c r="B83" s="63"/>
       <c r="C83" t="s" s="60">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D83" t="s" s="60">
-        <v>137</v>
-      </c>
-      <c r="E83" s="64"/>
+        <v>7</v>
+      </c>
+      <c r="E83" t="s" s="64">
+        <v>21</v>
+      </c>
       <c r="F83" s="58"/>
       <c r="G83" s="31"/>
       <c r="H83" s="3"/>
@@ -5880,18 +5941,16 @@
       <c r="P83" s="4"/>
     </row>
     <row r="84" ht="17.65" customHeight="1">
-      <c r="A84" s="65"/>
-      <c r="B84" t="s" s="66">
+      <c r="A84" s="54"/>
+      <c r="B84" s="63"/>
+      <c r="C84" t="s" s="60">
+        <v>23</v>
+      </c>
+      <c r="D84" t="s" s="60">
         <v>138</v>
       </c>
-      <c r="C84" t="s" s="67">
-        <v>26</v>
-      </c>
-      <c r="D84" t="s" s="67">
-        <v>139</v>
-      </c>
-      <c r="E84" s="68"/>
-      <c r="F84" s="68"/>
+      <c r="E84" s="64"/>
+      <c r="F84" s="58"/>
       <c r="G84" s="31"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
@@ -5905,11 +5964,13 @@
     </row>
     <row r="85" ht="17.65" customHeight="1">
       <c r="A85" s="65"/>
-      <c r="B85" s="69"/>
-      <c r="C85" t="s" s="70">
-        <v>29</v>
-      </c>
-      <c r="D85" t="s" s="71">
+      <c r="B85" t="s" s="66">
+        <v>139</v>
+      </c>
+      <c r="C85" t="s" s="67">
+        <v>26</v>
+      </c>
+      <c r="D85" t="s" s="67">
         <v>140</v>
       </c>
       <c r="E85" s="68"/>
@@ -5925,13 +5986,13 @@
       <c r="O85" s="4"/>
       <c r="P85" s="4"/>
     </row>
-    <row r="86" ht="26.7" customHeight="1">
+    <row r="86" ht="17.65" customHeight="1">
       <c r="A86" s="65"/>
-      <c r="B86" s="44"/>
-      <c r="C86" t="s" s="47">
-        <v>32</v>
-      </c>
-      <c r="D86" t="s" s="67">
+      <c r="B86" s="69"/>
+      <c r="C86" t="s" s="70">
+        <v>29</v>
+      </c>
+      <c r="D86" t="s" s="71">
         <v>141</v>
       </c>
       <c r="E86" s="68"/>
@@ -5947,13 +6008,13 @@
       <c r="O86" s="4"/>
       <c r="P86" s="4"/>
     </row>
-    <row r="87" ht="17.65" customHeight="1">
+    <row r="87" ht="26.7" customHeight="1">
       <c r="A87" s="65"/>
       <c r="B87" s="44"/>
-      <c r="C87" t="s" s="70">
-        <v>35</v>
-      </c>
-      <c r="D87" t="s" s="71">
+      <c r="C87" t="s" s="47">
+        <v>32</v>
+      </c>
+      <c r="D87" t="s" s="67">
         <v>142</v>
       </c>
       <c r="E87" s="68"/>
@@ -5969,13 +6030,13 @@
       <c r="O87" s="4"/>
       <c r="P87" s="4"/>
     </row>
-    <row r="88" ht="50.7" customHeight="1">
+    <row r="88" ht="17.65" customHeight="1">
       <c r="A88" s="65"/>
       <c r="B88" s="44"/>
-      <c r="C88" t="s" s="47">
-        <v>38</v>
-      </c>
-      <c r="D88" t="s" s="67">
+      <c r="C88" t="s" s="70">
+        <v>35</v>
+      </c>
+      <c r="D88" t="s" s="71">
         <v>143</v>
       </c>
       <c r="E88" s="68"/>
@@ -5991,13 +6052,13 @@
       <c r="O88" s="4"/>
       <c r="P88" s="4"/>
     </row>
-    <row r="89" ht="17.65" customHeight="1">
+    <row r="89" ht="50.7" customHeight="1">
       <c r="A89" s="65"/>
       <c r="B89" s="44"/>
-      <c r="C89" t="s" s="70">
-        <v>41</v>
-      </c>
-      <c r="D89" t="s" s="71">
+      <c r="C89" t="s" s="47">
+        <v>38</v>
+      </c>
+      <c r="D89" t="s" s="67">
         <v>144</v>
       </c>
       <c r="E89" s="68"/>
@@ -6016,11 +6077,11 @@
     <row r="90" ht="17.65" customHeight="1">
       <c r="A90" s="65"/>
       <c r="B90" s="44"/>
-      <c r="C90" t="s" s="47">
-        <v>44</v>
-      </c>
-      <c r="D90" t="s" s="67">
-        <v>121</v>
+      <c r="C90" t="s" s="70">
+        <v>41</v>
+      </c>
+      <c r="D90" t="s" s="71">
+        <v>145</v>
       </c>
       <c r="E90" s="68"/>
       <c r="F90" s="68"/>
@@ -6035,14 +6096,14 @@
       <c r="O90" s="4"/>
       <c r="P90" s="4"/>
     </row>
-    <row r="91" ht="26.7" customHeight="1">
+    <row r="91" ht="17.65" customHeight="1">
       <c r="A91" s="65"/>
       <c r="B91" s="44"/>
-      <c r="C91" t="s" s="70">
-        <v>47</v>
-      </c>
-      <c r="D91" t="s" s="71">
-        <v>145</v>
+      <c r="C91" t="s" s="47">
+        <v>44</v>
+      </c>
+      <c r="D91" t="s" s="67">
+        <v>122</v>
       </c>
       <c r="E91" s="68"/>
       <c r="F91" s="68"/>
@@ -6057,13 +6118,13 @@
       <c r="O91" s="4"/>
       <c r="P91" s="4"/>
     </row>
-    <row r="92" ht="62.7" customHeight="1">
+    <row r="92" ht="26.7" customHeight="1">
       <c r="A92" s="65"/>
       <c r="B92" s="44"/>
-      <c r="C92" t="s" s="47">
-        <v>50</v>
-      </c>
-      <c r="D92" t="s" s="67">
+      <c r="C92" t="s" s="70">
+        <v>47</v>
+      </c>
+      <c r="D92" t="s" s="71">
         <v>146</v>
       </c>
       <c r="E92" s="68"/>
@@ -6079,13 +6140,13 @@
       <c r="O92" s="4"/>
       <c r="P92" s="4"/>
     </row>
-    <row r="93" ht="17.65" customHeight="1">
+    <row r="93" ht="62.7" customHeight="1">
       <c r="A93" s="65"/>
       <c r="B93" s="44"/>
-      <c r="C93" t="s" s="70">
-        <v>77</v>
-      </c>
-      <c r="D93" t="s" s="71">
+      <c r="C93" t="s" s="47">
+        <v>50</v>
+      </c>
+      <c r="D93" t="s" s="67">
         <v>147</v>
       </c>
       <c r="E93" s="68"/>
@@ -6101,13 +6162,13 @@
       <c r="O93" s="4"/>
       <c r="P93" s="4"/>
     </row>
-    <row r="94" ht="50.7" customHeight="1">
+    <row r="94" ht="17.65" customHeight="1">
       <c r="A94" s="65"/>
       <c r="B94" s="44"/>
-      <c r="C94" t="s" s="47">
-        <v>80</v>
-      </c>
-      <c r="D94" t="s" s="67">
+      <c r="C94" t="s" s="70">
+        <v>77</v>
+      </c>
+      <c r="D94" t="s" s="71">
         <v>148</v>
       </c>
       <c r="E94" s="68"/>
@@ -6123,13 +6184,13 @@
       <c r="O94" s="4"/>
       <c r="P94" s="4"/>
     </row>
-    <row r="95" ht="17.65" customHeight="1">
+    <row r="95" ht="50.7" customHeight="1">
       <c r="A95" s="65"/>
       <c r="B95" s="44"/>
-      <c r="C95" t="s" s="70">
-        <v>83</v>
-      </c>
-      <c r="D95" t="s" s="71">
+      <c r="C95" t="s" s="47">
+        <v>80</v>
+      </c>
+      <c r="D95" t="s" s="67">
         <v>149</v>
       </c>
       <c r="E95" s="68"/>
@@ -6145,13 +6206,13 @@
       <c r="O95" s="4"/>
       <c r="P95" s="4"/>
     </row>
-    <row r="96" ht="50.7" customHeight="1">
+    <row r="96" ht="17.65" customHeight="1">
       <c r="A96" s="65"/>
       <c r="B96" s="44"/>
-      <c r="C96" t="s" s="47">
-        <v>127</v>
-      </c>
-      <c r="D96" t="s" s="67">
+      <c r="C96" t="s" s="70">
+        <v>83</v>
+      </c>
+      <c r="D96" t="s" s="71">
         <v>150</v>
       </c>
       <c r="E96" s="68"/>
@@ -6167,13 +6228,13 @@
       <c r="O96" s="4"/>
       <c r="P96" s="4"/>
     </row>
-    <row r="97" ht="17.65" customHeight="1">
+    <row r="97" ht="50.7" customHeight="1">
       <c r="A97" s="65"/>
       <c r="B97" s="44"/>
-      <c r="C97" t="s" s="70">
-        <v>106</v>
-      </c>
-      <c r="D97" t="s" s="71">
+      <c r="C97" t="s" s="47">
+        <v>128</v>
+      </c>
+      <c r="D97" t="s" s="67">
         <v>151</v>
       </c>
       <c r="E97" s="68"/>
@@ -6191,12 +6252,12 @@
     </row>
     <row r="98" ht="17.65" customHeight="1">
       <c r="A98" s="65"/>
-      <c r="B98" s="51"/>
-      <c r="C98" t="s" s="47">
-        <v>108</v>
-      </c>
-      <c r="D98" t="s" s="67">
-        <v>121</v>
+      <c r="B98" s="44"/>
+      <c r="C98" t="s" s="70">
+        <v>107</v>
+      </c>
+      <c r="D98" t="s" s="71">
+        <v>152</v>
       </c>
       <c r="E98" s="68"/>
       <c r="F98" s="68"/>
@@ -6213,12 +6274,12 @@
     </row>
     <row r="99" ht="17.65" customHeight="1">
       <c r="A99" s="65"/>
-      <c r="B99" s="72"/>
-      <c r="C99" t="s" s="67">
-        <v>110</v>
+      <c r="B99" s="51"/>
+      <c r="C99" t="s" s="47">
+        <v>109</v>
       </c>
       <c r="D99" t="s" s="67">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E99" s="68"/>
       <c r="F99" s="68"/>
@@ -6234,18 +6295,16 @@
       <c r="P99" s="4"/>
     </row>
     <row r="100" ht="17.65" customHeight="1">
-      <c r="A100" s="73"/>
-      <c r="B100" t="s" s="74">
-        <v>152</v>
-      </c>
-      <c r="C100" t="s" s="75">
-        <v>8</v>
-      </c>
-      <c r="D100" t="s" s="75">
-        <v>153</v>
-      </c>
-      <c r="E100" s="76"/>
-      <c r="F100" s="76"/>
+      <c r="A100" s="65"/>
+      <c r="B100" s="72"/>
+      <c r="C100" t="s" s="67">
+        <v>111</v>
+      </c>
+      <c r="D100" t="s" s="67">
+        <v>112</v>
+      </c>
+      <c r="E100" s="68"/>
+      <c r="F100" s="68"/>
       <c r="G100" s="31"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
@@ -6259,12 +6318,14 @@
     </row>
     <row r="101" ht="17.65" customHeight="1">
       <c r="A101" s="73"/>
-      <c r="B101" s="69"/>
-      <c r="C101" t="s" s="77">
+      <c r="B101" t="s" s="74">
+        <v>153</v>
+      </c>
+      <c r="C101" t="s" s="75">
+        <v>8</v>
+      </c>
+      <c r="D101" t="s" s="75">
         <v>154</v>
-      </c>
-      <c r="D101" t="s" s="78">
-        <v>155</v>
       </c>
       <c r="E101" s="76"/>
       <c r="F101" s="76"/>
@@ -6281,9 +6342,11 @@
     </row>
     <row r="102" ht="17.65" customHeight="1">
       <c r="A102" s="73"/>
-      <c r="B102" s="44"/>
-      <c r="C102" s="79"/>
-      <c r="D102" t="s" s="75">
+      <c r="B102" s="69"/>
+      <c r="C102" t="s" s="77">
+        <v>155</v>
+      </c>
+      <c r="D102" t="s" s="78">
         <v>156</v>
       </c>
       <c r="E102" s="76"/>
@@ -6302,11 +6365,9 @@
     <row r="103" ht="17.65" customHeight="1">
       <c r="A103" s="73"/>
       <c r="B103" s="44"/>
-      <c r="C103" t="s" s="75">
+      <c r="C103" s="79"/>
+      <c r="D103" t="s" s="75">
         <v>157</v>
-      </c>
-      <c r="D103" t="s" s="78">
-        <v>158</v>
       </c>
       <c r="E103" s="76"/>
       <c r="F103" s="76"/>
@@ -6321,14 +6382,14 @@
       <c r="O103" s="4"/>
       <c r="P103" s="4"/>
     </row>
-    <row r="104" ht="26.7" customHeight="1">
+    <row r="104" ht="17.65" customHeight="1">
       <c r="A104" s="73"/>
       <c r="B104" s="44"/>
-      <c r="C104" t="s" s="80">
+      <c r="C104" t="s" s="75">
+        <v>158</v>
+      </c>
+      <c r="D104" t="s" s="78">
         <v>159</v>
-      </c>
-      <c r="D104" t="s" s="78">
-        <v>160</v>
       </c>
       <c r="E104" s="76"/>
       <c r="F104" s="76"/>
@@ -6343,11 +6404,13 @@
       <c r="O104" s="4"/>
       <c r="P104" s="4"/>
     </row>
-    <row r="105" ht="62.7" customHeight="1">
+    <row r="105" ht="26.7" customHeight="1">
       <c r="A105" s="73"/>
       <c r="B105" s="44"/>
-      <c r="C105" s="79"/>
-      <c r="D105" t="s" s="75">
+      <c r="C105" t="s" s="80">
+        <v>160</v>
+      </c>
+      <c r="D105" t="s" s="78">
         <v>161</v>
       </c>
       <c r="E105" s="76"/>
@@ -6363,14 +6426,12 @@
       <c r="O105" s="4"/>
       <c r="P105" s="4"/>
     </row>
-    <row r="106" ht="26.7" customHeight="1">
+    <row r="106" ht="62.7" customHeight="1">
       <c r="A106" s="73"/>
       <c r="B106" s="44"/>
-      <c r="C106" t="s" s="80">
+      <c r="C106" s="79"/>
+      <c r="D106" t="s" s="75">
         <v>162</v>
-      </c>
-      <c r="D106" t="s" s="78">
-        <v>163</v>
       </c>
       <c r="E106" s="76"/>
       <c r="F106" s="76"/>
@@ -6385,11 +6446,13 @@
       <c r="O106" s="4"/>
       <c r="P106" s="4"/>
     </row>
-    <row r="107" ht="182.7" customHeight="1">
+    <row r="107" ht="26.7" customHeight="1">
       <c r="A107" s="73"/>
       <c r="B107" s="44"/>
-      <c r="C107" s="79"/>
-      <c r="D107" t="s" s="75">
+      <c r="C107" t="s" s="80">
+        <v>163</v>
+      </c>
+      <c r="D107" t="s" s="78">
         <v>164</v>
       </c>
       <c r="E107" s="76"/>
@@ -6405,14 +6468,12 @@
       <c r="O107" s="4"/>
       <c r="P107" s="4"/>
     </row>
-    <row r="108" ht="26.7" customHeight="1">
+    <row r="108" ht="182.7" customHeight="1">
       <c r="A108" s="73"/>
       <c r="B108" s="44"/>
-      <c r="C108" t="s" s="80">
+      <c r="C108" s="79"/>
+      <c r="D108" t="s" s="75">
         <v>165</v>
-      </c>
-      <c r="D108" t="s" s="78">
-        <v>166</v>
       </c>
       <c r="E108" s="76"/>
       <c r="F108" s="76"/>
@@ -6427,11 +6488,13 @@
       <c r="O108" s="4"/>
       <c r="P108" s="4"/>
     </row>
-    <row r="109" ht="38.7" customHeight="1">
+    <row r="109" ht="26.7" customHeight="1">
       <c r="A109" s="73"/>
       <c r="B109" s="44"/>
-      <c r="C109" s="79"/>
-      <c r="D109" t="s" s="75">
+      <c r="C109" t="s" s="80">
+        <v>166</v>
+      </c>
+      <c r="D109" t="s" s="78">
         <v>167</v>
       </c>
       <c r="E109" s="76"/>
@@ -6447,14 +6510,12 @@
       <c r="O109" s="4"/>
       <c r="P109" s="4"/>
     </row>
-    <row r="110" ht="26.7" customHeight="1">
+    <row r="110" ht="38.7" customHeight="1">
       <c r="A110" s="73"/>
       <c r="B110" s="44"/>
-      <c r="C110" t="s" s="80">
+      <c r="C110" s="79"/>
+      <c r="D110" t="s" s="75">
         <v>168</v>
-      </c>
-      <c r="D110" t="s" s="78">
-        <v>169</v>
       </c>
       <c r="E110" s="76"/>
       <c r="F110" s="76"/>
@@ -6469,11 +6530,13 @@
       <c r="O110" s="4"/>
       <c r="P110" s="4"/>
     </row>
-    <row r="111" ht="50.7" customHeight="1">
+    <row r="111" ht="26.7" customHeight="1">
       <c r="A111" s="73"/>
       <c r="B111" s="44"/>
-      <c r="C111" s="79"/>
-      <c r="D111" t="s" s="75">
+      <c r="C111" t="s" s="80">
+        <v>169</v>
+      </c>
+      <c r="D111" t="s" s="78">
         <v>170</v>
       </c>
       <c r="E111" s="76"/>
@@ -6489,14 +6552,12 @@
       <c r="O111" s="4"/>
       <c r="P111" s="4"/>
     </row>
-    <row r="112" ht="26.7" customHeight="1">
+    <row r="112" ht="50.7" customHeight="1">
       <c r="A112" s="73"/>
       <c r="B112" s="44"/>
-      <c r="C112" t="s" s="80">
+      <c r="C112" s="79"/>
+      <c r="D112" t="s" s="75">
         <v>171</v>
-      </c>
-      <c r="D112" t="s" s="78">
-        <v>172</v>
       </c>
       <c r="E112" s="76"/>
       <c r="F112" s="76"/>
@@ -6511,11 +6572,13 @@
       <c r="O112" s="4"/>
       <c r="P112" s="4"/>
     </row>
-    <row r="113" ht="74.7" customHeight="1">
+    <row r="113" ht="26.7" customHeight="1">
       <c r="A113" s="73"/>
       <c r="B113" s="44"/>
-      <c r="C113" s="79"/>
-      <c r="D113" t="s" s="75">
+      <c r="C113" t="s" s="80">
+        <v>172</v>
+      </c>
+      <c r="D113" t="s" s="78">
         <v>173</v>
       </c>
       <c r="E113" s="76"/>
@@ -6531,14 +6594,12 @@
       <c r="O113" s="4"/>
       <c r="P113" s="4"/>
     </row>
-    <row r="114" ht="38.7" customHeight="1">
+    <row r="114" ht="74.7" customHeight="1">
       <c r="A114" s="73"/>
       <c r="B114" s="44"/>
-      <c r="C114" t="s" s="80">
+      <c r="C114" s="79"/>
+      <c r="D114" t="s" s="75">
         <v>174</v>
-      </c>
-      <c r="D114" t="s" s="78">
-        <v>175</v>
       </c>
       <c r="E114" s="76"/>
       <c r="F114" s="76"/>
@@ -6553,11 +6614,13 @@
       <c r="O114" s="4"/>
       <c r="P114" s="4"/>
     </row>
-    <row r="115" ht="62.7" customHeight="1">
+    <row r="115" ht="38.7" customHeight="1">
       <c r="A115" s="73"/>
       <c r="B115" s="44"/>
-      <c r="C115" s="79"/>
-      <c r="D115" t="s" s="75">
+      <c r="C115" t="s" s="80">
+        <v>175</v>
+      </c>
+      <c r="D115" t="s" s="78">
         <v>176</v>
       </c>
       <c r="E115" s="76"/>
@@ -6573,14 +6636,12 @@
       <c r="O115" s="4"/>
       <c r="P115" s="4"/>
     </row>
-    <row r="116" ht="26.7" customHeight="1">
+    <row r="116" ht="62.7" customHeight="1">
       <c r="A116" s="73"/>
       <c r="B116" s="44"/>
-      <c r="C116" t="s" s="80">
+      <c r="C116" s="79"/>
+      <c r="D116" t="s" s="75">
         <v>177</v>
-      </c>
-      <c r="D116" t="s" s="78">
-        <v>178</v>
       </c>
       <c r="E116" s="76"/>
       <c r="F116" s="76"/>
@@ -6595,11 +6656,13 @@
       <c r="O116" s="4"/>
       <c r="P116" s="4"/>
     </row>
-    <row r="117" ht="74.7" customHeight="1">
+    <row r="117" ht="26.7" customHeight="1">
       <c r="A117" s="73"/>
       <c r="B117" s="44"/>
-      <c r="C117" s="79"/>
-      <c r="D117" t="s" s="75">
+      <c r="C117" t="s" s="80">
+        <v>178</v>
+      </c>
+      <c r="D117" t="s" s="78">
         <v>179</v>
       </c>
       <c r="E117" s="76"/>
@@ -6615,14 +6678,12 @@
       <c r="O117" s="4"/>
       <c r="P117" s="4"/>
     </row>
-    <row r="118" ht="26.7" customHeight="1">
+    <row r="118" ht="74.7" customHeight="1">
       <c r="A118" s="73"/>
       <c r="B118" s="44"/>
-      <c r="C118" t="s" s="80">
+      <c r="C118" s="79"/>
+      <c r="D118" t="s" s="75">
         <v>180</v>
-      </c>
-      <c r="D118" t="s" s="78">
-        <v>181</v>
       </c>
       <c r="E118" s="76"/>
       <c r="F118" s="76"/>
@@ -6637,11 +6698,13 @@
       <c r="O118" s="4"/>
       <c r="P118" s="4"/>
     </row>
-    <row r="119" ht="86.7" customHeight="1">
+    <row r="119" ht="26.7" customHeight="1">
       <c r="A119" s="73"/>
       <c r="B119" s="44"/>
-      <c r="C119" s="79"/>
-      <c r="D119" t="s" s="75">
+      <c r="C119" t="s" s="80">
+        <v>181</v>
+      </c>
+      <c r="D119" t="s" s="78">
         <v>182</v>
       </c>
       <c r="E119" s="76"/>
@@ -6657,14 +6720,12 @@
       <c r="O119" s="4"/>
       <c r="P119" s="4"/>
     </row>
-    <row r="120" ht="17.65" customHeight="1">
+    <row r="120" ht="86.7" customHeight="1">
       <c r="A120" s="73"/>
       <c r="B120" s="44"/>
-      <c r="C120" t="s" s="80">
+      <c r="C120" s="79"/>
+      <c r="D120" t="s" s="75">
         <v>183</v>
-      </c>
-      <c r="D120" t="s" s="78">
-        <v>184</v>
       </c>
       <c r="E120" s="76"/>
       <c r="F120" s="76"/>
@@ -6679,11 +6740,13 @@
       <c r="O120" s="4"/>
       <c r="P120" s="4"/>
     </row>
-    <row r="121" ht="62.7" customHeight="1">
+    <row r="121" ht="17.65" customHeight="1">
       <c r="A121" s="73"/>
       <c r="B121" s="44"/>
-      <c r="C121" s="79"/>
-      <c r="D121" t="s" s="75">
+      <c r="C121" t="s" s="80">
+        <v>184</v>
+      </c>
+      <c r="D121" t="s" s="78">
         <v>185</v>
       </c>
       <c r="E121" s="76"/>
@@ -6699,14 +6762,12 @@
       <c r="O121" s="4"/>
       <c r="P121" s="4"/>
     </row>
-    <row r="122" ht="17.65" customHeight="1">
+    <row r="122" ht="62.7" customHeight="1">
       <c r="A122" s="73"/>
       <c r="B122" s="44"/>
-      <c r="C122" t="s" s="75">
+      <c r="C122" s="79"/>
+      <c r="D122" t="s" s="75">
         <v>186</v>
-      </c>
-      <c r="D122" t="s" s="78">
-        <v>187</v>
       </c>
       <c r="E122" s="76"/>
       <c r="F122" s="76"/>
@@ -6724,8 +6785,8 @@
     <row r="123" ht="17.65" customHeight="1">
       <c r="A123" s="73"/>
       <c r="B123" s="44"/>
-      <c r="C123" t="s" s="80">
-        <v>159</v>
+      <c r="C123" t="s" s="75">
+        <v>187</v>
       </c>
       <c r="D123" t="s" s="78">
         <v>188</v>
@@ -6743,11 +6804,13 @@
       <c r="O123" s="4"/>
       <c r="P123" s="4"/>
     </row>
-    <row r="124" ht="50.7" customHeight="1">
+    <row r="124" ht="17.65" customHeight="1">
       <c r="A124" s="73"/>
       <c r="B124" s="44"/>
-      <c r="C124" s="79"/>
-      <c r="D124" t="s" s="75">
+      <c r="C124" t="s" s="80">
+        <v>160</v>
+      </c>
+      <c r="D124" t="s" s="78">
         <v>189</v>
       </c>
       <c r="E124" s="76"/>
@@ -6763,13 +6826,11 @@
       <c r="O124" s="4"/>
       <c r="P124" s="4"/>
     </row>
-    <row r="125" ht="17.65" customHeight="1">
+    <row r="125" ht="50.7" customHeight="1">
       <c r="A125" s="73"/>
       <c r="B125" s="44"/>
-      <c r="C125" t="s" s="80">
-        <v>162</v>
-      </c>
-      <c r="D125" t="s" s="78">
+      <c r="C125" s="79"/>
+      <c r="D125" t="s" s="75">
         <v>190</v>
       </c>
       <c r="E125" s="76"/>
@@ -6785,11 +6846,13 @@
       <c r="O125" s="4"/>
       <c r="P125" s="4"/>
     </row>
-    <row r="126" ht="38.7" customHeight="1">
+    <row r="126" ht="17.65" customHeight="1">
       <c r="A126" s="73"/>
       <c r="B126" s="44"/>
-      <c r="C126" s="79"/>
-      <c r="D126" t="s" s="75">
+      <c r="C126" t="s" s="80">
+        <v>163</v>
+      </c>
+      <c r="D126" t="s" s="78">
         <v>191</v>
       </c>
       <c r="E126" s="76"/>
@@ -6805,13 +6868,11 @@
       <c r="O126" s="4"/>
       <c r="P126" s="4"/>
     </row>
-    <row r="127" ht="17.65" customHeight="1">
+    <row r="127" ht="38.7" customHeight="1">
       <c r="A127" s="73"/>
       <c r="B127" s="44"/>
-      <c r="C127" t="s" s="80">
-        <v>165</v>
-      </c>
-      <c r="D127" t="s" s="78">
+      <c r="C127" s="79"/>
+      <c r="D127" t="s" s="75">
         <v>192</v>
       </c>
       <c r="E127" s="76"/>
@@ -6827,11 +6888,13 @@
       <c r="O127" s="4"/>
       <c r="P127" s="4"/>
     </row>
-    <row r="128" ht="26.7" customHeight="1">
+    <row r="128" ht="17.65" customHeight="1">
       <c r="A128" s="73"/>
       <c r="B128" s="44"/>
-      <c r="C128" s="79"/>
-      <c r="D128" t="s" s="75">
+      <c r="C128" t="s" s="80">
+        <v>166</v>
+      </c>
+      <c r="D128" t="s" s="78">
         <v>193</v>
       </c>
       <c r="E128" s="76"/>
@@ -6847,13 +6910,11 @@
       <c r="O128" s="4"/>
       <c r="P128" s="4"/>
     </row>
-    <row r="129" ht="17.65" customHeight="1">
+    <row r="129" ht="26.7" customHeight="1">
       <c r="A129" s="73"/>
       <c r="B129" s="44"/>
-      <c r="C129" t="s" s="80">
-        <v>168</v>
-      </c>
-      <c r="D129" t="s" s="78">
+      <c r="C129" s="79"/>
+      <c r="D129" t="s" s="75">
         <v>194</v>
       </c>
       <c r="E129" s="76"/>
@@ -6869,11 +6930,13 @@
       <c r="O129" s="4"/>
       <c r="P129" s="4"/>
     </row>
-    <row r="130" ht="110.7" customHeight="1">
+    <row r="130" ht="17.65" customHeight="1">
       <c r="A130" s="73"/>
       <c r="B130" s="44"/>
-      <c r="C130" s="79"/>
-      <c r="D130" t="s" s="75">
+      <c r="C130" t="s" s="80">
+        <v>169</v>
+      </c>
+      <c r="D130" t="s" s="78">
         <v>195</v>
       </c>
       <c r="E130" s="76"/>
@@ -6889,13 +6952,11 @@
       <c r="O130" s="4"/>
       <c r="P130" s="4"/>
     </row>
-    <row r="131" ht="17.65" customHeight="1">
+    <row r="131" ht="110.7" customHeight="1">
       <c r="A131" s="73"/>
       <c r="B131" s="44"/>
-      <c r="C131" t="s" s="80">
-        <v>171</v>
-      </c>
-      <c r="D131" t="s" s="78">
+      <c r="C131" s="79"/>
+      <c r="D131" t="s" s="75">
         <v>196</v>
       </c>
       <c r="E131" s="76"/>
@@ -6911,11 +6972,13 @@
       <c r="O131" s="4"/>
       <c r="P131" s="4"/>
     </row>
-    <row r="132" ht="26.7" customHeight="1">
+    <row r="132" ht="17.65" customHeight="1">
       <c r="A132" s="73"/>
       <c r="B132" s="44"/>
-      <c r="C132" s="79"/>
-      <c r="D132" t="s" s="75">
+      <c r="C132" t="s" s="80">
+        <v>172</v>
+      </c>
+      <c r="D132" t="s" s="78">
         <v>197</v>
       </c>
       <c r="E132" s="76"/>
@@ -6931,14 +6994,12 @@
       <c r="O132" s="4"/>
       <c r="P132" s="4"/>
     </row>
-    <row r="133" ht="17.65" customHeight="1">
+    <row r="133" ht="26.7" customHeight="1">
       <c r="A133" s="73"/>
       <c r="B133" s="44"/>
-      <c r="C133" t="s" s="75">
+      <c r="C133" s="79"/>
+      <c r="D133" t="s" s="75">
         <v>198</v>
-      </c>
-      <c r="D133" t="s" s="78">
-        <v>199</v>
       </c>
       <c r="E133" s="76"/>
       <c r="F133" s="76"/>
@@ -6956,8 +7017,8 @@
     <row r="134" ht="17.65" customHeight="1">
       <c r="A134" s="73"/>
       <c r="B134" s="44"/>
-      <c r="C134" t="s" s="80">
-        <v>159</v>
+      <c r="C134" t="s" s="75">
+        <v>199</v>
       </c>
       <c r="D134" t="s" s="78">
         <v>200</v>
@@ -6975,11 +7036,13 @@
       <c r="O134" s="4"/>
       <c r="P134" s="4"/>
     </row>
-    <row r="135" ht="98.7" customHeight="1">
+    <row r="135" ht="17.65" customHeight="1">
       <c r="A135" s="73"/>
       <c r="B135" s="44"/>
-      <c r="C135" s="79"/>
-      <c r="D135" t="s" s="75">
+      <c r="C135" t="s" s="80">
+        <v>160</v>
+      </c>
+      <c r="D135" t="s" s="78">
         <v>201</v>
       </c>
       <c r="E135" s="76"/>
@@ -6995,14 +7058,12 @@
       <c r="O135" s="4"/>
       <c r="P135" s="4"/>
     </row>
-    <row r="136" ht="17.65" customHeight="1">
+    <row r="136" ht="98.7" customHeight="1">
       <c r="A136" s="73"/>
       <c r="B136" s="44"/>
-      <c r="C136" t="s" s="75">
+      <c r="C136" s="79"/>
+      <c r="D136" t="s" s="75">
         <v>202</v>
-      </c>
-      <c r="D136" t="s" s="78">
-        <v>203</v>
       </c>
       <c r="E136" s="76"/>
       <c r="F136" s="76"/>
@@ -7020,8 +7081,8 @@
     <row r="137" ht="17.65" customHeight="1">
       <c r="A137" s="73"/>
       <c r="B137" s="44"/>
-      <c r="C137" t="s" s="80">
-        <v>159</v>
+      <c r="C137" t="s" s="75">
+        <v>203</v>
       </c>
       <c r="D137" t="s" s="78">
         <v>204</v>
@@ -7039,11 +7100,13 @@
       <c r="O137" s="4"/>
       <c r="P137" s="4"/>
     </row>
-    <row r="138" ht="38.7" customHeight="1">
+    <row r="138" ht="17.65" customHeight="1">
       <c r="A138" s="73"/>
       <c r="B138" s="44"/>
-      <c r="C138" s="79"/>
-      <c r="D138" t="s" s="75">
+      <c r="C138" t="s" s="80">
+        <v>160</v>
+      </c>
+      <c r="D138" t="s" s="78">
         <v>205</v>
       </c>
       <c r="E138" s="76"/>
@@ -7059,13 +7122,11 @@
       <c r="O138" s="4"/>
       <c r="P138" s="4"/>
     </row>
-    <row r="139" ht="17.65" customHeight="1">
+    <row r="139" ht="38.7" customHeight="1">
       <c r="A139" s="73"/>
       <c r="B139" s="44"/>
-      <c r="C139" t="s" s="80">
-        <v>162</v>
-      </c>
-      <c r="D139" t="s" s="78">
+      <c r="C139" s="79"/>
+      <c r="D139" t="s" s="75">
         <v>206</v>
       </c>
       <c r="E139" s="76"/>
@@ -7081,11 +7142,13 @@
       <c r="O139" s="4"/>
       <c r="P139" s="4"/>
     </row>
-    <row r="140" ht="62.7" customHeight="1">
+    <row r="140" ht="17.65" customHeight="1">
       <c r="A140" s="73"/>
       <c r="B140" s="44"/>
-      <c r="C140" s="79"/>
-      <c r="D140" t="s" s="75">
+      <c r="C140" t="s" s="80">
+        <v>163</v>
+      </c>
+      <c r="D140" t="s" s="78">
         <v>207</v>
       </c>
       <c r="E140" s="76"/>
@@ -7101,14 +7164,12 @@
       <c r="O140" s="4"/>
       <c r="P140" s="4"/>
     </row>
-    <row r="141" ht="17.65" customHeight="1">
+    <row r="141" ht="62.7" customHeight="1">
       <c r="A141" s="73"/>
       <c r="B141" s="44"/>
-      <c r="C141" t="s" s="75">
+      <c r="C141" s="79"/>
+      <c r="D141" t="s" s="75">
         <v>208</v>
-      </c>
-      <c r="D141" t="s" s="78">
-        <v>209</v>
       </c>
       <c r="E141" s="76"/>
       <c r="F141" s="76"/>
@@ -7126,8 +7187,8 @@
     <row r="142" ht="17.65" customHeight="1">
       <c r="A142" s="73"/>
       <c r="B142" s="44"/>
-      <c r="C142" t="s" s="80">
-        <v>159</v>
+      <c r="C142" t="s" s="75">
+        <v>209</v>
       </c>
       <c r="D142" t="s" s="78">
         <v>210</v>
@@ -7145,11 +7206,13 @@
       <c r="O142" s="4"/>
       <c r="P142" s="4"/>
     </row>
-    <row r="143" ht="26.7" customHeight="1">
+    <row r="143" ht="17.65" customHeight="1">
       <c r="A143" s="73"/>
       <c r="B143" s="44"/>
-      <c r="C143" s="79"/>
-      <c r="D143" t="s" s="75">
+      <c r="C143" t="s" s="80">
+        <v>160</v>
+      </c>
+      <c r="D143" t="s" s="78">
         <v>211</v>
       </c>
       <c r="E143" s="76"/>
@@ -7165,13 +7228,11 @@
       <c r="O143" s="4"/>
       <c r="P143" s="4"/>
     </row>
-    <row r="144" ht="17.65" customHeight="1">
+    <row r="144" ht="26.7" customHeight="1">
       <c r="A144" s="73"/>
       <c r="B144" s="44"/>
-      <c r="C144" t="s" s="80">
-        <v>162</v>
-      </c>
-      <c r="D144" t="s" s="78">
+      <c r="C144" s="79"/>
+      <c r="D144" t="s" s="75">
         <v>212</v>
       </c>
       <c r="E144" s="76"/>
@@ -7187,11 +7248,13 @@
       <c r="O144" s="4"/>
       <c r="P144" s="4"/>
     </row>
-    <row r="145" ht="50.7" customHeight="1">
+    <row r="145" ht="17.65" customHeight="1">
       <c r="A145" s="73"/>
       <c r="B145" s="44"/>
-      <c r="C145" s="79"/>
-      <c r="D145" t="s" s="75">
+      <c r="C145" t="s" s="80">
+        <v>163</v>
+      </c>
+      <c r="D145" t="s" s="78">
         <v>213</v>
       </c>
       <c r="E145" s="76"/>
@@ -7207,14 +7270,12 @@
       <c r="O145" s="4"/>
       <c r="P145" s="4"/>
     </row>
-    <row r="146" ht="17.65" customHeight="1">
+    <row r="146" ht="50.7" customHeight="1">
       <c r="A146" s="73"/>
       <c r="B146" s="44"/>
-      <c r="C146" t="s" s="75">
+      <c r="C146" s="79"/>
+      <c r="D146" t="s" s="75">
         <v>214</v>
-      </c>
-      <c r="D146" t="s" s="78">
-        <v>215</v>
       </c>
       <c r="E146" s="76"/>
       <c r="F146" s="76"/>
@@ -7232,8 +7293,8 @@
     <row r="147" ht="17.65" customHeight="1">
       <c r="A147" s="73"/>
       <c r="B147" s="44"/>
-      <c r="C147" t="s" s="80">
-        <v>159</v>
+      <c r="C147" t="s" s="75">
+        <v>215</v>
       </c>
       <c r="D147" t="s" s="78">
         <v>216</v>
@@ -7251,11 +7312,13 @@
       <c r="O147" s="4"/>
       <c r="P147" s="4"/>
     </row>
-    <row r="148" ht="122.7" customHeight="1">
+    <row r="148" ht="17.65" customHeight="1">
       <c r="A148" s="73"/>
       <c r="B148" s="44"/>
-      <c r="C148" s="79"/>
-      <c r="D148" t="s" s="75">
+      <c r="C148" t="s" s="80">
+        <v>160</v>
+      </c>
+      <c r="D148" t="s" s="78">
         <v>217</v>
       </c>
       <c r="E148" s="76"/>
@@ -7271,14 +7334,12 @@
       <c r="O148" s="4"/>
       <c r="P148" s="4"/>
     </row>
-    <row r="149" ht="17.65" customHeight="1">
+    <row r="149" ht="122.7" customHeight="1">
       <c r="A149" s="73"/>
       <c r="B149" s="44"/>
-      <c r="C149" t="s" s="75">
+      <c r="C149" s="79"/>
+      <c r="D149" t="s" s="75">
         <v>218</v>
-      </c>
-      <c r="D149" t="s" s="78">
-        <v>219</v>
       </c>
       <c r="E149" s="76"/>
       <c r="F149" s="76"/>
@@ -7296,8 +7357,8 @@
     <row r="150" ht="17.65" customHeight="1">
       <c r="A150" s="73"/>
       <c r="B150" s="44"/>
-      <c r="C150" t="s" s="80">
-        <v>159</v>
+      <c r="C150" t="s" s="75">
+        <v>219</v>
       </c>
       <c r="D150" t="s" s="78">
         <v>220</v>
@@ -7318,8 +7379,10 @@
     <row r="151" ht="17.65" customHeight="1">
       <c r="A151" s="73"/>
       <c r="B151" s="44"/>
-      <c r="C151" s="79"/>
-      <c r="D151" t="s" s="75">
+      <c r="C151" t="s" s="80">
+        <v>160</v>
+      </c>
+      <c r="D151" t="s" s="78">
         <v>221</v>
       </c>
       <c r="E151" s="76"/>
@@ -7338,10 +7401,8 @@
     <row r="152" ht="17.65" customHeight="1">
       <c r="A152" s="73"/>
       <c r="B152" s="44"/>
-      <c r="C152" t="s" s="80">
-        <v>162</v>
-      </c>
-      <c r="D152" t="s" s="78">
+      <c r="C152" s="79"/>
+      <c r="D152" t="s" s="75">
         <v>222</v>
       </c>
       <c r="E152" s="76"/>
@@ -7357,11 +7418,13 @@
       <c r="O152" s="4"/>
       <c r="P152" s="4"/>
     </row>
-    <row r="153" ht="122.7" customHeight="1">
+    <row r="153" ht="17.65" customHeight="1">
       <c r="A153" s="73"/>
       <c r="B153" s="44"/>
-      <c r="C153" s="79"/>
-      <c r="D153" t="s" s="75">
+      <c r="C153" t="s" s="80">
+        <v>163</v>
+      </c>
+      <c r="D153" t="s" s="78">
         <v>223</v>
       </c>
       <c r="E153" s="76"/>
@@ -7377,13 +7440,11 @@
       <c r="O153" s="4"/>
       <c r="P153" s="4"/>
     </row>
-    <row r="154" ht="17.65" customHeight="1">
+    <row r="154" ht="122.7" customHeight="1">
       <c r="A154" s="73"/>
       <c r="B154" s="44"/>
-      <c r="C154" t="s" s="80">
-        <v>165</v>
-      </c>
-      <c r="D154" t="s" s="78">
+      <c r="C154" s="79"/>
+      <c r="D154" t="s" s="75">
         <v>224</v>
       </c>
       <c r="E154" s="76"/>
@@ -7399,11 +7460,13 @@
       <c r="O154" s="4"/>
       <c r="P154" s="4"/>
     </row>
-    <row r="155" ht="50.7" customHeight="1">
+    <row r="155" ht="17.65" customHeight="1">
       <c r="A155" s="73"/>
       <c r="B155" s="44"/>
-      <c r="C155" s="79"/>
-      <c r="D155" t="s" s="75">
+      <c r="C155" t="s" s="80">
+        <v>166</v>
+      </c>
+      <c r="D155" t="s" s="78">
         <v>225</v>
       </c>
       <c r="E155" s="76"/>
@@ -7419,13 +7482,11 @@
       <c r="O155" s="4"/>
       <c r="P155" s="4"/>
     </row>
-    <row r="156" ht="17.65" customHeight="1">
+    <row r="156" ht="50.7" customHeight="1">
       <c r="A156" s="73"/>
       <c r="B156" s="44"/>
-      <c r="C156" t="s" s="80">
-        <v>168</v>
-      </c>
-      <c r="D156" t="s" s="78">
+      <c r="C156" s="79"/>
+      <c r="D156" t="s" s="75">
         <v>226</v>
       </c>
       <c r="E156" s="76"/>
@@ -7441,11 +7502,13 @@
       <c r="O156" s="4"/>
       <c r="P156" s="4"/>
     </row>
-    <row r="157" ht="74.7" customHeight="1">
+    <row r="157" ht="17.65" customHeight="1">
       <c r="A157" s="73"/>
       <c r="B157" s="44"/>
-      <c r="C157" s="79"/>
-      <c r="D157" t="s" s="75">
+      <c r="C157" t="s" s="80">
+        <v>169</v>
+      </c>
+      <c r="D157" t="s" s="78">
         <v>227</v>
       </c>
       <c r="E157" s="76"/>
@@ -7461,13 +7524,11 @@
       <c r="O157" s="4"/>
       <c r="P157" s="4"/>
     </row>
-    <row r="158" ht="26.7" customHeight="1">
+    <row r="158" ht="74.7" customHeight="1">
       <c r="A158" s="73"/>
       <c r="B158" s="44"/>
-      <c r="C158" t="s" s="80">
-        <v>171</v>
-      </c>
-      <c r="D158" t="s" s="78">
+      <c r="C158" s="79"/>
+      <c r="D158" t="s" s="75">
         <v>228</v>
       </c>
       <c r="E158" s="76"/>
@@ -7483,11 +7544,13 @@
       <c r="O158" s="4"/>
       <c r="P158" s="4"/>
     </row>
-    <row r="159" ht="122.7" customHeight="1">
+    <row r="159" ht="26.7" customHeight="1">
       <c r="A159" s="73"/>
       <c r="B159" s="44"/>
-      <c r="C159" s="79"/>
-      <c r="D159" t="s" s="75">
+      <c r="C159" t="s" s="80">
+        <v>172</v>
+      </c>
+      <c r="D159" t="s" s="78">
         <v>229</v>
       </c>
       <c r="E159" s="76"/>
@@ -7503,13 +7566,11 @@
       <c r="O159" s="4"/>
       <c r="P159" s="4"/>
     </row>
-    <row r="160" ht="17.65" customHeight="1">
+    <row r="160" ht="122.7" customHeight="1">
       <c r="A160" s="73"/>
       <c r="B160" s="44"/>
-      <c r="C160" t="s" s="80">
-        <v>174</v>
-      </c>
-      <c r="D160" t="s" s="78">
+      <c r="C160" s="79"/>
+      <c r="D160" t="s" s="75">
         <v>230</v>
       </c>
       <c r="E160" s="76"/>
@@ -7525,11 +7586,13 @@
       <c r="O160" s="4"/>
       <c r="P160" s="4"/>
     </row>
-    <row r="161" ht="374.7" customHeight="1">
+    <row r="161" ht="17.65" customHeight="1">
       <c r="A161" s="73"/>
       <c r="B161" s="44"/>
-      <c r="C161" s="79"/>
-      <c r="D161" t="s" s="75">
+      <c r="C161" t="s" s="80">
+        <v>175</v>
+      </c>
+      <c r="D161" t="s" s="78">
         <v>231</v>
       </c>
       <c r="E161" s="76"/>
@@ -7545,14 +7608,12 @@
       <c r="O161" s="4"/>
       <c r="P161" s="4"/>
     </row>
-    <row r="162" ht="17.65" customHeight="1">
+    <row r="162" ht="374.7" customHeight="1">
       <c r="A162" s="73"/>
       <c r="B162" s="44"/>
-      <c r="C162" t="s" s="75">
+      <c r="C162" s="79"/>
+      <c r="D162" t="s" s="75">
         <v>232</v>
-      </c>
-      <c r="D162" t="s" s="78">
-        <v>233</v>
       </c>
       <c r="E162" s="76"/>
       <c r="F162" s="76"/>
@@ -7567,11 +7628,11 @@
       <c r="O162" s="4"/>
       <c r="P162" s="4"/>
     </row>
-    <row r="163" ht="26.7" customHeight="1">
+    <row r="163" ht="17.65" customHeight="1">
       <c r="A163" s="73"/>
       <c r="B163" s="44"/>
-      <c r="C163" t="s" s="80">
-        <v>159</v>
+      <c r="C163" t="s" s="75">
+        <v>233</v>
       </c>
       <c r="D163" t="s" s="78">
         <v>234</v>
@@ -7589,11 +7650,13 @@
       <c r="O163" s="4"/>
       <c r="P163" s="4"/>
     </row>
-    <row r="164" ht="38.7" customHeight="1">
+    <row r="164" ht="26.7" customHeight="1">
       <c r="A164" s="73"/>
       <c r="B164" s="44"/>
-      <c r="C164" s="79"/>
-      <c r="D164" t="s" s="75">
+      <c r="C164" t="s" s="80">
+        <v>160</v>
+      </c>
+      <c r="D164" t="s" s="78">
         <v>235</v>
       </c>
       <c r="E164" s="76"/>
@@ -7609,13 +7672,11 @@
       <c r="O164" s="4"/>
       <c r="P164" s="4"/>
     </row>
-    <row r="165" ht="26.7" customHeight="1">
+    <row r="165" ht="38.7" customHeight="1">
       <c r="A165" s="73"/>
       <c r="B165" s="44"/>
-      <c r="C165" t="s" s="80">
-        <v>162</v>
-      </c>
-      <c r="D165" t="s" s="78">
+      <c r="C165" s="79"/>
+      <c r="D165" t="s" s="75">
         <v>236</v>
       </c>
       <c r="E165" s="76"/>
@@ -7631,11 +7692,13 @@
       <c r="O165" s="4"/>
       <c r="P165" s="4"/>
     </row>
-    <row r="166" ht="86.7" customHeight="1">
+    <row r="166" ht="26.7" customHeight="1">
       <c r="A166" s="73"/>
       <c r="B166" s="44"/>
-      <c r="C166" s="79"/>
-      <c r="D166" t="s" s="75">
+      <c r="C166" t="s" s="80">
+        <v>163</v>
+      </c>
+      <c r="D166" t="s" s="78">
         <v>237</v>
       </c>
       <c r="E166" s="76"/>
@@ -7651,13 +7714,11 @@
       <c r="O166" s="4"/>
       <c r="P166" s="4"/>
     </row>
-    <row r="167" ht="26.7" customHeight="1">
+    <row r="167" ht="86.7" customHeight="1">
       <c r="A167" s="73"/>
       <c r="B167" s="44"/>
-      <c r="C167" t="s" s="80">
-        <v>165</v>
-      </c>
-      <c r="D167" t="s" s="78">
+      <c r="C167" s="79"/>
+      <c r="D167" t="s" s="75">
         <v>238</v>
       </c>
       <c r="E167" s="76"/>
@@ -7673,11 +7734,13 @@
       <c r="O167" s="4"/>
       <c r="P167" s="4"/>
     </row>
-    <row r="168" ht="38.7" customHeight="1">
+    <row r="168" ht="26.7" customHeight="1">
       <c r="A168" s="73"/>
       <c r="B168" s="44"/>
-      <c r="C168" s="79"/>
-      <c r="D168" t="s" s="75">
+      <c r="C168" t="s" s="80">
+        <v>166</v>
+      </c>
+      <c r="D168" t="s" s="78">
         <v>239</v>
       </c>
       <c r="E168" s="76"/>
@@ -7693,13 +7756,11 @@
       <c r="O168" s="4"/>
       <c r="P168" s="4"/>
     </row>
-    <row r="169" ht="17.65" customHeight="1">
+    <row r="169" ht="38.7" customHeight="1">
       <c r="A169" s="73"/>
       <c r="B169" s="44"/>
-      <c r="C169" t="s" s="80">
-        <v>168</v>
-      </c>
-      <c r="D169" t="s" s="78">
+      <c r="C169" s="79"/>
+      <c r="D169" t="s" s="75">
         <v>240</v>
       </c>
       <c r="E169" s="76"/>
@@ -7715,11 +7776,13 @@
       <c r="O169" s="4"/>
       <c r="P169" s="4"/>
     </row>
-    <row r="170" ht="86.7" customHeight="1">
+    <row r="170" ht="17.65" customHeight="1">
       <c r="A170" s="73"/>
       <c r="B170" s="44"/>
-      <c r="C170" s="79"/>
-      <c r="D170" t="s" s="75">
+      <c r="C170" t="s" s="80">
+        <v>169</v>
+      </c>
+      <c r="D170" t="s" s="78">
         <v>241</v>
       </c>
       <c r="E170" s="76"/>
@@ -7735,13 +7798,11 @@
       <c r="O170" s="4"/>
       <c r="P170" s="4"/>
     </row>
-    <row r="171" ht="17.65" customHeight="1">
+    <row r="171" ht="86.7" customHeight="1">
       <c r="A171" s="73"/>
       <c r="B171" s="44"/>
-      <c r="C171" t="s" s="80">
-        <v>171</v>
-      </c>
-      <c r="D171" t="s" s="78">
+      <c r="C171" s="79"/>
+      <c r="D171" t="s" s="75">
         <v>242</v>
       </c>
       <c r="E171" s="76"/>
@@ -7757,11 +7818,13 @@
       <c r="O171" s="4"/>
       <c r="P171" s="4"/>
     </row>
-    <row r="172" ht="38.7" customHeight="1">
+    <row r="172" ht="17.65" customHeight="1">
       <c r="A172" s="73"/>
       <c r="B172" s="44"/>
-      <c r="C172" s="79"/>
-      <c r="D172" t="s" s="75">
+      <c r="C172" t="s" s="80">
+        <v>172</v>
+      </c>
+      <c r="D172" t="s" s="78">
         <v>243</v>
       </c>
       <c r="E172" s="76"/>
@@ -7777,13 +7840,11 @@
       <c r="O172" s="4"/>
       <c r="P172" s="4"/>
     </row>
-    <row r="173" ht="17.65" customHeight="1">
+    <row r="173" ht="38.7" customHeight="1">
       <c r="A173" s="73"/>
       <c r="B173" s="44"/>
-      <c r="C173" t="s" s="80">
-        <v>174</v>
-      </c>
-      <c r="D173" t="s" s="78">
+      <c r="C173" s="79"/>
+      <c r="D173" t="s" s="75">
         <v>244</v>
       </c>
       <c r="E173" s="76"/>
@@ -7799,11 +7860,13 @@
       <c r="O173" s="4"/>
       <c r="P173" s="4"/>
     </row>
-    <row r="174" ht="62.7" customHeight="1">
+    <row r="174" ht="17.65" customHeight="1">
       <c r="A174" s="73"/>
       <c r="B174" s="44"/>
-      <c r="C174" s="79"/>
-      <c r="D174" t="s" s="75">
+      <c r="C174" t="s" s="80">
+        <v>175</v>
+      </c>
+      <c r="D174" t="s" s="78">
         <v>245</v>
       </c>
       <c r="E174" s="76"/>
@@ -7819,13 +7882,11 @@
       <c r="O174" s="4"/>
       <c r="P174" s="4"/>
     </row>
-    <row r="175" ht="17.65" customHeight="1">
+    <row r="175" ht="62.7" customHeight="1">
       <c r="A175" s="73"/>
       <c r="B175" s="44"/>
-      <c r="C175" t="s" s="80">
-        <v>177</v>
-      </c>
-      <c r="D175" t="s" s="78">
+      <c r="C175" s="79"/>
+      <c r="D175" t="s" s="75">
         <v>246</v>
       </c>
       <c r="E175" s="76"/>
@@ -7841,11 +7902,13 @@
       <c r="O175" s="4"/>
       <c r="P175" s="4"/>
     </row>
-    <row r="176" ht="38.7" customHeight="1">
+    <row r="176" ht="17.65" customHeight="1">
       <c r="A176" s="73"/>
       <c r="B176" s="44"/>
-      <c r="C176" s="79"/>
-      <c r="D176" t="s" s="75">
+      <c r="C176" t="s" s="80">
+        <v>178</v>
+      </c>
+      <c r="D176" t="s" s="78">
         <v>247</v>
       </c>
       <c r="E176" s="76"/>
@@ -7861,13 +7924,11 @@
       <c r="O176" s="4"/>
       <c r="P176" s="4"/>
     </row>
-    <row r="177" ht="17.65" customHeight="1">
+    <row r="177" ht="38.7" customHeight="1">
       <c r="A177" s="73"/>
       <c r="B177" s="44"/>
-      <c r="C177" t="s" s="80">
-        <v>180</v>
-      </c>
-      <c r="D177" t="s" s="78">
+      <c r="C177" s="79"/>
+      <c r="D177" t="s" s="75">
         <v>248</v>
       </c>
       <c r="E177" s="76"/>
@@ -7883,11 +7944,13 @@
       <c r="O177" s="4"/>
       <c r="P177" s="4"/>
     </row>
-    <row r="178" ht="50.7" customHeight="1">
+    <row r="178" ht="17.65" customHeight="1">
       <c r="A178" s="73"/>
       <c r="B178" s="44"/>
-      <c r="C178" s="79"/>
-      <c r="D178" t="s" s="75">
+      <c r="C178" t="s" s="80">
+        <v>181</v>
+      </c>
+      <c r="D178" t="s" s="78">
         <v>249</v>
       </c>
       <c r="E178" s="76"/>
@@ -7903,14 +7966,12 @@
       <c r="O178" s="4"/>
       <c r="P178" s="4"/>
     </row>
-    <row r="179" ht="17.65" customHeight="1">
+    <row r="179" ht="50.7" customHeight="1">
       <c r="A179" s="73"/>
       <c r="B179" s="44"/>
-      <c r="C179" t="s" s="75">
+      <c r="C179" s="79"/>
+      <c r="D179" t="s" s="75">
         <v>250</v>
-      </c>
-      <c r="D179" t="s" s="78">
-        <v>251</v>
       </c>
       <c r="E179" s="76"/>
       <c r="F179" s="76"/>
@@ -7928,8 +7989,8 @@
     <row r="180" ht="17.65" customHeight="1">
       <c r="A180" s="73"/>
       <c r="B180" s="44"/>
-      <c r="C180" t="s" s="80">
-        <v>159</v>
+      <c r="C180" t="s" s="75">
+        <v>251</v>
       </c>
       <c r="D180" t="s" s="78">
         <v>252</v>
@@ -7947,11 +8008,13 @@
       <c r="O180" s="4"/>
       <c r="P180" s="4"/>
     </row>
-    <row r="181" ht="158.7" customHeight="1">
+    <row r="181" ht="17.65" customHeight="1">
       <c r="A181" s="73"/>
       <c r="B181" s="44"/>
-      <c r="C181" s="79"/>
-      <c r="D181" t="s" s="75">
+      <c r="C181" t="s" s="80">
+        <v>160</v>
+      </c>
+      <c r="D181" t="s" s="78">
         <v>253</v>
       </c>
       <c r="E181" s="76"/>
@@ -7967,13 +8030,11 @@
       <c r="O181" s="4"/>
       <c r="P181" s="4"/>
     </row>
-    <row r="182" ht="17.65" customHeight="1">
+    <row r="182" ht="158.7" customHeight="1">
       <c r="A182" s="73"/>
       <c r="B182" s="44"/>
-      <c r="C182" t="s" s="80">
-        <v>162</v>
-      </c>
-      <c r="D182" t="s" s="78">
+      <c r="C182" s="79"/>
+      <c r="D182" t="s" s="75">
         <v>254</v>
       </c>
       <c r="E182" s="76"/>
@@ -7989,11 +8050,13 @@
       <c r="O182" s="4"/>
       <c r="P182" s="4"/>
     </row>
-    <row r="183" ht="50.7" customHeight="1">
+    <row r="183" ht="17.65" customHeight="1">
       <c r="A183" s="73"/>
       <c r="B183" s="44"/>
-      <c r="C183" s="79"/>
-      <c r="D183" t="s" s="75">
+      <c r="C183" t="s" s="80">
+        <v>163</v>
+      </c>
+      <c r="D183" t="s" s="78">
         <v>255</v>
       </c>
       <c r="E183" s="76"/>
@@ -8009,13 +8072,11 @@
       <c r="O183" s="4"/>
       <c r="P183" s="4"/>
     </row>
-    <row r="184" ht="17.65" customHeight="1">
+    <row r="184" ht="50.7" customHeight="1">
       <c r="A184" s="73"/>
       <c r="B184" s="44"/>
-      <c r="C184" t="s" s="80">
-        <v>165</v>
-      </c>
-      <c r="D184" t="s" s="78">
+      <c r="C184" s="79"/>
+      <c r="D184" t="s" s="75">
         <v>256</v>
       </c>
       <c r="E184" s="76"/>
@@ -8031,11 +8092,13 @@
       <c r="O184" s="4"/>
       <c r="P184" s="4"/>
     </row>
-    <row r="185" ht="38.7" customHeight="1">
+    <row r="185" ht="17.65" customHeight="1">
       <c r="A185" s="73"/>
       <c r="B185" s="44"/>
-      <c r="C185" s="79"/>
-      <c r="D185" t="s" s="75">
+      <c r="C185" t="s" s="80">
+        <v>166</v>
+      </c>
+      <c r="D185" t="s" s="78">
         <v>257</v>
       </c>
       <c r="E185" s="76"/>
@@ -8051,13 +8114,11 @@
       <c r="O185" s="4"/>
       <c r="P185" s="4"/>
     </row>
-    <row r="186" ht="26.7" customHeight="1">
+    <row r="186" ht="38.7" customHeight="1">
       <c r="A186" s="73"/>
       <c r="B186" s="44"/>
-      <c r="C186" t="s" s="80">
-        <v>168</v>
-      </c>
-      <c r="D186" t="s" s="78">
+      <c r="C186" s="79"/>
+      <c r="D186" t="s" s="75">
         <v>258</v>
       </c>
       <c r="E186" s="76"/>
@@ -8073,11 +8134,13 @@
       <c r="O186" s="4"/>
       <c r="P186" s="4"/>
     </row>
-    <row r="187" ht="98.7" customHeight="1">
+    <row r="187" ht="26.7" customHeight="1">
       <c r="A187" s="73"/>
       <c r="B187" s="44"/>
-      <c r="C187" s="79"/>
-      <c r="D187" t="s" s="75">
+      <c r="C187" t="s" s="80">
+        <v>169</v>
+      </c>
+      <c r="D187" t="s" s="78">
         <v>259</v>
       </c>
       <c r="E187" s="76"/>
@@ -8093,14 +8156,12 @@
       <c r="O187" s="4"/>
       <c r="P187" s="4"/>
     </row>
-    <row r="188" ht="17.65" customHeight="1">
+    <row r="188" ht="98.7" customHeight="1">
       <c r="A188" s="73"/>
       <c r="B188" s="44"/>
-      <c r="C188" t="s" s="75">
+      <c r="C188" s="79"/>
+      <c r="D188" t="s" s="75">
         <v>260</v>
-      </c>
-      <c r="D188" t="s" s="78">
-        <v>261</v>
       </c>
       <c r="E188" s="76"/>
       <c r="F188" s="76"/>
@@ -8118,8 +8179,8 @@
     <row r="189" ht="17.65" customHeight="1">
       <c r="A189" s="73"/>
       <c r="B189" s="44"/>
-      <c r="C189" t="s" s="80">
-        <v>159</v>
+      <c r="C189" t="s" s="75">
+        <v>261</v>
       </c>
       <c r="D189" t="s" s="78">
         <v>262</v>
@@ -8137,11 +8198,13 @@
       <c r="O189" s="4"/>
       <c r="P189" s="4"/>
     </row>
-    <row r="190" ht="26.7" customHeight="1">
+    <row r="190" ht="17.65" customHeight="1">
       <c r="A190" s="73"/>
       <c r="B190" s="44"/>
-      <c r="C190" s="79"/>
-      <c r="D190" t="s" s="75">
+      <c r="C190" t="s" s="80">
+        <v>160</v>
+      </c>
+      <c r="D190" t="s" s="78">
         <v>263</v>
       </c>
       <c r="E190" s="76"/>
@@ -8157,13 +8220,11 @@
       <c r="O190" s="4"/>
       <c r="P190" s="4"/>
     </row>
-    <row r="191" ht="17.65" customHeight="1">
+    <row r="191" ht="26.7" customHeight="1">
       <c r="A191" s="73"/>
       <c r="B191" s="44"/>
-      <c r="C191" t="s" s="80">
-        <v>162</v>
-      </c>
-      <c r="D191" t="s" s="78">
+      <c r="C191" s="79"/>
+      <c r="D191" t="s" s="75">
         <v>264</v>
       </c>
       <c r="E191" s="76"/>
@@ -8179,11 +8240,13 @@
       <c r="O191" s="4"/>
       <c r="P191" s="4"/>
     </row>
-    <row r="192" ht="50.7" customHeight="1">
+    <row r="192" ht="17.65" customHeight="1">
       <c r="A192" s="73"/>
       <c r="B192" s="44"/>
-      <c r="C192" s="79"/>
-      <c r="D192" t="s" s="75">
+      <c r="C192" t="s" s="80">
+        <v>163</v>
+      </c>
+      <c r="D192" t="s" s="78">
         <v>265</v>
       </c>
       <c r="E192" s="76"/>
@@ -8199,13 +8262,11 @@
       <c r="O192" s="4"/>
       <c r="P192" s="4"/>
     </row>
-    <row r="193" ht="17.65" customHeight="1">
+    <row r="193" ht="50.7" customHeight="1">
       <c r="A193" s="73"/>
       <c r="B193" s="44"/>
-      <c r="C193" t="s" s="80">
-        <v>165</v>
-      </c>
-      <c r="D193" t="s" s="78">
+      <c r="C193" s="79"/>
+      <c r="D193" t="s" s="75">
         <v>266</v>
       </c>
       <c r="E193" s="76"/>
@@ -8221,11 +8282,13 @@
       <c r="O193" s="4"/>
       <c r="P193" s="4"/>
     </row>
-    <row r="194" ht="62.7" customHeight="1">
+    <row r="194" ht="17.65" customHeight="1">
       <c r="A194" s="73"/>
       <c r="B194" s="44"/>
-      <c r="C194" s="79"/>
-      <c r="D194" t="s" s="75">
+      <c r="C194" t="s" s="80">
+        <v>166</v>
+      </c>
+      <c r="D194" t="s" s="78">
         <v>267</v>
       </c>
       <c r="E194" s="76"/>
@@ -8241,14 +8304,12 @@
       <c r="O194" s="4"/>
       <c r="P194" s="4"/>
     </row>
-    <row r="195" ht="17.65" customHeight="1">
+    <row r="195" ht="62.7" customHeight="1">
       <c r="A195" s="73"/>
       <c r="B195" s="44"/>
-      <c r="C195" t="s" s="75">
+      <c r="C195" s="79"/>
+      <c r="D195" t="s" s="75">
         <v>268</v>
-      </c>
-      <c r="D195" t="s" s="78">
-        <v>269</v>
       </c>
       <c r="E195" s="76"/>
       <c r="F195" s="76"/>
@@ -8263,11 +8324,11 @@
       <c r="O195" s="4"/>
       <c r="P195" s="4"/>
     </row>
-    <row r="196" ht="26.7" customHeight="1">
+    <row r="196" ht="17.65" customHeight="1">
       <c r="A196" s="73"/>
       <c r="B196" s="44"/>
-      <c r="C196" t="s" s="80">
-        <v>159</v>
+      <c r="C196" t="s" s="75">
+        <v>269</v>
       </c>
       <c r="D196" t="s" s="78">
         <v>270</v>
@@ -8285,11 +8346,13 @@
       <c r="O196" s="4"/>
       <c r="P196" s="4"/>
     </row>
-    <row r="197" ht="86.7" customHeight="1">
+    <row r="197" ht="26.7" customHeight="1">
       <c r="A197" s="73"/>
       <c r="B197" s="44"/>
-      <c r="C197" s="79"/>
-      <c r="D197" t="s" s="75">
+      <c r="C197" t="s" s="80">
+        <v>160</v>
+      </c>
+      <c r="D197" t="s" s="78">
         <v>271</v>
       </c>
       <c r="E197" s="76"/>
@@ -8305,13 +8368,11 @@
       <c r="O197" s="4"/>
       <c r="P197" s="4"/>
     </row>
-    <row r="198" ht="26.7" customHeight="1">
+    <row r="198" ht="86.7" customHeight="1">
       <c r="A198" s="73"/>
       <c r="B198" s="44"/>
-      <c r="C198" t="s" s="80">
-        <v>162</v>
-      </c>
-      <c r="D198" t="s" s="78">
+      <c r="C198" s="79"/>
+      <c r="D198" t="s" s="75">
         <v>272</v>
       </c>
       <c r="E198" s="76"/>
@@ -8327,11 +8388,13 @@
       <c r="O198" s="4"/>
       <c r="P198" s="4"/>
     </row>
-    <row r="199" ht="74.7" customHeight="1">
+    <row r="199" ht="26.7" customHeight="1">
       <c r="A199" s="73"/>
       <c r="B199" s="44"/>
-      <c r="C199" s="79"/>
-      <c r="D199" t="s" s="75">
+      <c r="C199" t="s" s="80">
+        <v>163</v>
+      </c>
+      <c r="D199" t="s" s="78">
         <v>273</v>
       </c>
       <c r="E199" s="76"/>
@@ -8347,13 +8410,11 @@
       <c r="O199" s="4"/>
       <c r="P199" s="4"/>
     </row>
-    <row r="200" ht="26.7" customHeight="1">
+    <row r="200" ht="74.7" customHeight="1">
       <c r="A200" s="73"/>
       <c r="B200" s="44"/>
-      <c r="C200" t="s" s="80">
-        <v>165</v>
-      </c>
-      <c r="D200" t="s" s="78">
+      <c r="C200" s="79"/>
+      <c r="D200" t="s" s="75">
         <v>274</v>
       </c>
       <c r="E200" s="76"/>
@@ -8369,11 +8430,13 @@
       <c r="O200" s="4"/>
       <c r="P200" s="4"/>
     </row>
-    <row r="201" ht="158.7" customHeight="1">
+    <row r="201" ht="26.7" customHeight="1">
       <c r="A201" s="73"/>
       <c r="B201" s="44"/>
-      <c r="C201" s="79"/>
-      <c r="D201" t="s" s="75">
+      <c r="C201" t="s" s="80">
+        <v>166</v>
+      </c>
+      <c r="D201" t="s" s="78">
         <v>275</v>
       </c>
       <c r="E201" s="76"/>
@@ -8389,13 +8452,11 @@
       <c r="O201" s="4"/>
       <c r="P201" s="4"/>
     </row>
-    <row r="202" ht="17.65" customHeight="1">
+    <row r="202" ht="158.7" customHeight="1">
       <c r="A202" s="73"/>
       <c r="B202" s="44"/>
-      <c r="C202" t="s" s="80">
-        <v>168</v>
-      </c>
-      <c r="D202" t="s" s="78">
+      <c r="C202" s="79"/>
+      <c r="D202" t="s" s="75">
         <v>276</v>
       </c>
       <c r="E202" s="76"/>
@@ -8411,11 +8472,13 @@
       <c r="O202" s="4"/>
       <c r="P202" s="4"/>
     </row>
-    <row r="203" ht="50.7" customHeight="1">
+    <row r="203" ht="17.65" customHeight="1">
       <c r="A203" s="73"/>
-      <c r="B203" s="51"/>
-      <c r="C203" s="79"/>
-      <c r="D203" t="s" s="75">
+      <c r="B203" s="44"/>
+      <c r="C203" t="s" s="80">
+        <v>169</v>
+      </c>
+      <c r="D203" t="s" s="78">
         <v>277</v>
       </c>
       <c r="E203" s="76"/>
@@ -8433,12 +8496,10 @@
     </row>
     <row r="204" ht="50.7" customHeight="1">
       <c r="A204" s="73"/>
-      <c r="B204" s="81"/>
-      <c r="C204" t="s" s="82">
-        <v>110</v>
-      </c>
+      <c r="B204" s="51"/>
+      <c r="C204" s="79"/>
       <c r="D204" t="s" s="75">
-        <v>111</v>
+        <v>278</v>
       </c>
       <c r="E204" s="76"/>
       <c r="F204" s="76"/>
@@ -8453,21 +8514,17 @@
       <c r="O204" s="4"/>
       <c r="P204" s="4"/>
     </row>
-    <row r="205" ht="17.65" customHeight="1">
-      <c r="A205" s="83"/>
-      <c r="B205" t="s" s="84">
-        <v>278</v>
-      </c>
-      <c r="C205" t="s" s="85">
-        <v>8</v>
-      </c>
-      <c r="D205" t="s" s="85">
-        <v>279</v>
-      </c>
-      <c r="E205" t="s" s="86">
-        <v>280</v>
-      </c>
-      <c r="F205" s="87"/>
+    <row r="205" ht="50.7" customHeight="1">
+      <c r="A205" s="73"/>
+      <c r="B205" s="81"/>
+      <c r="C205" t="s" s="82">
+        <v>111</v>
+      </c>
+      <c r="D205" t="s" s="75">
+        <v>112</v>
+      </c>
+      <c r="E205" s="76"/>
+      <c r="F205" s="76"/>
       <c r="G205" s="31"/>
       <c r="H205" s="3"/>
       <c r="I205" s="3"/>
@@ -8481,15 +8538,17 @@
     </row>
     <row r="206" ht="17.65" customHeight="1">
       <c r="A206" s="83"/>
-      <c r="B206" s="69"/>
-      <c r="C206" t="s" s="88">
-        <v>154</v>
-      </c>
-      <c r="D206" t="s" s="89">
+      <c r="B206" t="s" s="84">
+        <v>279</v>
+      </c>
+      <c r="C206" t="s" s="85">
+        <v>8</v>
+      </c>
+      <c r="D206" t="s" s="85">
+        <v>280</v>
+      </c>
+      <c r="E206" t="s" s="86">
         <v>281</v>
-      </c>
-      <c r="E206" t="s" s="86">
-        <v>282</v>
       </c>
       <c r="F206" s="87"/>
       <c r="G206" s="31"/>
@@ -8505,13 +8564,15 @@
     </row>
     <row r="207" ht="17.65" customHeight="1">
       <c r="A207" s="83"/>
-      <c r="B207" s="44"/>
-      <c r="C207" s="79"/>
-      <c r="D207" t="s" s="85">
+      <c r="B207" s="69"/>
+      <c r="C207" t="s" s="88">
+        <v>155</v>
+      </c>
+      <c r="D207" t="s" s="89">
+        <v>282</v>
+      </c>
+      <c r="E207" t="s" s="86">
         <v>283</v>
-      </c>
-      <c r="E207" t="s" s="86">
-        <v>284</v>
       </c>
       <c r="F207" s="87"/>
       <c r="G207" s="31"/>
@@ -8528,14 +8589,12 @@
     <row r="208" ht="17.65" customHeight="1">
       <c r="A208" s="83"/>
       <c r="B208" s="44"/>
-      <c r="C208" t="s" s="88">
+      <c r="C208" s="79"/>
+      <c r="D208" t="s" s="85">
+        <v>284</v>
+      </c>
+      <c r="E208" t="s" s="86">
         <v>285</v>
-      </c>
-      <c r="D208" t="s" s="89">
-        <v>286</v>
-      </c>
-      <c r="E208" t="s" s="86">
-        <v>287</v>
       </c>
       <c r="F208" s="87"/>
       <c r="G208" s="31"/>
@@ -8552,11 +8611,13 @@
     <row r="209" ht="17.65" customHeight="1">
       <c r="A209" s="83"/>
       <c r="B209" s="44"/>
-      <c r="C209" s="79"/>
-      <c r="D209" t="s" s="85">
-        <v>288</v>
-      </c>
-      <c r="E209" t="s" s="85">
+      <c r="C209" t="s" s="88">
+        <v>286</v>
+      </c>
+      <c r="D209" t="s" s="89">
+        <v>287</v>
+      </c>
+      <c r="E209" t="s" s="86">
         <v>288</v>
       </c>
       <c r="F209" s="87"/>
@@ -8574,14 +8635,12 @@
     <row r="210" ht="17.65" customHeight="1">
       <c r="A210" s="83"/>
       <c r="B210" s="44"/>
-      <c r="C210" t="s" s="88">
+      <c r="C210" s="79"/>
+      <c r="D210" t="s" s="85">
         <v>289</v>
       </c>
-      <c r="D210" t="s" s="89">
-        <v>290</v>
-      </c>
-      <c r="E210" t="s" s="86">
-        <v>291</v>
+      <c r="E210" t="s" s="85">
+        <v>289</v>
       </c>
       <c r="F210" s="87"/>
       <c r="G210" s="31"/>
@@ -8598,11 +8657,13 @@
     <row r="211" ht="17.65" customHeight="1">
       <c r="A211" s="83"/>
       <c r="B211" s="44"/>
-      <c r="C211" s="79"/>
-      <c r="D211" t="s" s="85">
-        <v>292</v>
-      </c>
-      <c r="E211" t="s" s="85">
+      <c r="C211" t="s" s="88">
+        <v>290</v>
+      </c>
+      <c r="D211" t="s" s="89">
+        <v>291</v>
+      </c>
+      <c r="E211" t="s" s="86">
         <v>292</v>
       </c>
       <c r="F211" s="87"/>
@@ -8620,14 +8681,12 @@
     <row r="212" ht="17.65" customHeight="1">
       <c r="A212" s="83"/>
       <c r="B212" s="44"/>
-      <c r="C212" t="s" s="88">
+      <c r="C212" s="79"/>
+      <c r="D212" t="s" s="85">
         <v>293</v>
       </c>
-      <c r="D212" t="s" s="89">
-        <v>294</v>
-      </c>
-      <c r="E212" t="s" s="86">
-        <v>295</v>
+      <c r="E212" t="s" s="85">
+        <v>293</v>
       </c>
       <c r="F212" s="87"/>
       <c r="G212" s="31"/>
@@ -8644,11 +8703,13 @@
     <row r="213" ht="17.65" customHeight="1">
       <c r="A213" s="83"/>
       <c r="B213" s="44"/>
-      <c r="C213" s="79"/>
-      <c r="D213" t="s" s="85">
-        <v>296</v>
-      </c>
-      <c r="E213" t="s" s="85">
+      <c r="C213" t="s" s="88">
+        <v>294</v>
+      </c>
+      <c r="D213" t="s" s="89">
+        <v>295</v>
+      </c>
+      <c r="E213" t="s" s="86">
         <v>296</v>
       </c>
       <c r="F213" s="87"/>
@@ -8666,14 +8727,12 @@
     <row r="214" ht="17.65" customHeight="1">
       <c r="A214" s="83"/>
       <c r="B214" s="44"/>
-      <c r="C214" t="s" s="88">
+      <c r="C214" s="79"/>
+      <c r="D214" t="s" s="85">
         <v>297</v>
       </c>
-      <c r="D214" t="s" s="89">
-        <v>298</v>
-      </c>
-      <c r="E214" t="s" s="86">
-        <v>299</v>
+      <c r="E214" t="s" s="85">
+        <v>297</v>
       </c>
       <c r="F214" s="87"/>
       <c r="G214" s="31"/>
@@ -8690,11 +8749,13 @@
     <row r="215" ht="17.65" customHeight="1">
       <c r="A215" s="83"/>
       <c r="B215" s="44"/>
-      <c r="C215" s="79"/>
-      <c r="D215" t="s" s="85">
-        <v>300</v>
-      </c>
-      <c r="E215" t="s" s="85">
+      <c r="C215" t="s" s="88">
+        <v>298</v>
+      </c>
+      <c r="D215" t="s" s="89">
+        <v>299</v>
+      </c>
+      <c r="E215" t="s" s="86">
         <v>300</v>
       </c>
       <c r="F215" s="87"/>
@@ -8712,14 +8773,12 @@
     <row r="216" ht="17.65" customHeight="1">
       <c r="A216" s="83"/>
       <c r="B216" s="44"/>
-      <c r="C216" t="s" s="85">
+      <c r="C216" s="79"/>
+      <c r="D216" t="s" s="85">
         <v>301</v>
       </c>
-      <c r="D216" t="s" s="89">
-        <v>302</v>
-      </c>
-      <c r="E216" t="s" s="86">
-        <v>303</v>
+      <c r="E216" t="s" s="85">
+        <v>301</v>
       </c>
       <c r="F216" s="87"/>
       <c r="G216" s="31"/>
@@ -8737,13 +8796,13 @@
       <c r="A217" s="83"/>
       <c r="B217" s="44"/>
       <c r="C217" t="s" s="85">
+        <v>302</v>
+      </c>
+      <c r="D217" t="s" s="89">
+        <v>303</v>
+      </c>
+      <c r="E217" t="s" s="86">
         <v>304</v>
-      </c>
-      <c r="D217" t="s" s="85">
-        <v>305</v>
-      </c>
-      <c r="E217" t="s" s="86">
-        <v>306</v>
       </c>
       <c r="F217" s="87"/>
       <c r="G217" s="31"/>
@@ -8760,14 +8819,14 @@
     <row r="218" ht="17.65" customHeight="1">
       <c r="A218" s="83"/>
       <c r="B218" s="44"/>
-      <c r="C218" t="s" s="90">
+      <c r="C218" t="s" s="85">
+        <v>305</v>
+      </c>
+      <c r="D218" t="s" s="85">
+        <v>306</v>
+      </c>
+      <c r="E218" t="s" s="86">
         <v>307</v>
-      </c>
-      <c r="D218" t="s" s="85">
-        <v>308</v>
-      </c>
-      <c r="E218" t="s" s="86">
-        <v>309</v>
       </c>
       <c r="F218" s="87"/>
       <c r="G218" s="31"/>
@@ -8784,14 +8843,14 @@
     <row r="219" ht="17.65" customHeight="1">
       <c r="A219" s="83"/>
       <c r="B219" s="44"/>
-      <c r="C219" t="s" s="85">
+      <c r="C219" t="s" s="90">
+        <v>308</v>
+      </c>
+      <c r="D219" t="s" s="85">
+        <v>309</v>
+      </c>
+      <c r="E219" t="s" s="86">
         <v>310</v>
-      </c>
-      <c r="D219" t="s" s="85">
-        <v>311</v>
-      </c>
-      <c r="E219" t="s" s="86">
-        <v>312</v>
       </c>
       <c r="F219" s="87"/>
       <c r="G219" s="31"/>
@@ -8808,14 +8867,14 @@
     <row r="220" ht="17.65" customHeight="1">
       <c r="A220" s="83"/>
       <c r="B220" s="44"/>
-      <c r="C220" t="s" s="90">
-        <v>307</v>
+      <c r="C220" t="s" s="85">
+        <v>311</v>
       </c>
       <c r="D220" t="s" s="85">
+        <v>312</v>
+      </c>
+      <c r="E220" t="s" s="86">
         <v>313</v>
-      </c>
-      <c r="E220" t="s" s="86">
-        <v>314</v>
       </c>
       <c r="F220" s="87"/>
       <c r="G220" s="31"/>
@@ -8832,14 +8891,14 @@
     <row r="221" ht="17.65" customHeight="1">
       <c r="A221" s="83"/>
       <c r="B221" s="44"/>
-      <c r="C221" t="s" s="85">
+      <c r="C221" t="s" s="90">
+        <v>308</v>
+      </c>
+      <c r="D221" t="s" s="85">
+        <v>314</v>
+      </c>
+      <c r="E221" t="s" s="86">
         <v>315</v>
-      </c>
-      <c r="D221" t="s" s="85">
-        <v>316</v>
-      </c>
-      <c r="E221" t="s" s="86">
-        <v>317</v>
       </c>
       <c r="F221" s="87"/>
       <c r="G221" s="31"/>
@@ -8856,14 +8915,14 @@
     <row r="222" ht="17.65" customHeight="1">
       <c r="A222" s="83"/>
       <c r="B222" s="44"/>
-      <c r="C222" t="s" s="90">
+      <c r="C222" t="s" s="85">
+        <v>316</v>
+      </c>
+      <c r="D222" t="s" s="85">
+        <v>317</v>
+      </c>
+      <c r="E222" t="s" s="86">
         <v>318</v>
-      </c>
-      <c r="D222" t="s" s="85">
-        <v>319</v>
-      </c>
-      <c r="E222" t="s" s="86">
-        <v>320</v>
       </c>
       <c r="F222" s="87"/>
       <c r="G222" s="31"/>
@@ -8881,13 +8940,13 @@
       <c r="A223" s="83"/>
       <c r="B223" s="44"/>
       <c r="C223" t="s" s="90">
+        <v>319</v>
+      </c>
+      <c r="D223" t="s" s="85">
+        <v>320</v>
+      </c>
+      <c r="E223" t="s" s="86">
         <v>321</v>
-      </c>
-      <c r="D223" t="s" s="85">
-        <v>322</v>
-      </c>
-      <c r="E223" t="s" s="86">
-        <v>291</v>
       </c>
       <c r="F223" s="87"/>
       <c r="G223" s="31"/>
@@ -8905,13 +8964,13 @@
       <c r="A224" s="83"/>
       <c r="B224" s="44"/>
       <c r="C224" t="s" s="90">
+        <v>322</v>
+      </c>
+      <c r="D224" t="s" s="85">
         <v>323</v>
       </c>
-      <c r="D224" t="s" s="85">
-        <v>324</v>
-      </c>
       <c r="E224" t="s" s="86">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F224" s="87"/>
       <c r="G224" s="31"/>
@@ -8929,13 +8988,13 @@
       <c r="A225" s="83"/>
       <c r="B225" s="44"/>
       <c r="C225" t="s" s="90">
+        <v>324</v>
+      </c>
+      <c r="D225" t="s" s="85">
         <v>325</v>
       </c>
-      <c r="D225" t="s" s="85">
-        <v>326</v>
-      </c>
       <c r="E225" t="s" s="86">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="F225" s="87"/>
       <c r="G225" s="31"/>
@@ -8953,13 +9012,13 @@
       <c r="A226" s="83"/>
       <c r="B226" s="44"/>
       <c r="C226" t="s" s="90">
+        <v>326</v>
+      </c>
+      <c r="D226" t="s" s="85">
+        <v>327</v>
+      </c>
+      <c r="E226" t="s" s="86">
         <v>328</v>
-      </c>
-      <c r="D226" t="s" s="85">
-        <v>329</v>
-      </c>
-      <c r="E226" t="s" s="86">
-        <v>330</v>
       </c>
       <c r="F226" s="87"/>
       <c r="G226" s="31"/>
@@ -8977,13 +9036,13 @@
       <c r="A227" s="83"/>
       <c r="B227" s="44"/>
       <c r="C227" t="s" s="90">
+        <v>329</v>
+      </c>
+      <c r="D227" t="s" s="85">
+        <v>330</v>
+      </c>
+      <c r="E227" t="s" s="86">
         <v>331</v>
-      </c>
-      <c r="D227" t="s" s="85">
-        <v>332</v>
-      </c>
-      <c r="E227" t="s" s="86">
-        <v>333</v>
       </c>
       <c r="F227" s="87"/>
       <c r="G227" s="31"/>
@@ -9001,13 +9060,13 @@
       <c r="A228" s="83"/>
       <c r="B228" s="44"/>
       <c r="C228" t="s" s="90">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="D228" t="s" s="85">
+        <v>333</v>
+      </c>
+      <c r="E228" t="s" s="86">
         <v>334</v>
-      </c>
-      <c r="E228" t="s" s="86">
-        <v>335</v>
       </c>
       <c r="F228" s="87"/>
       <c r="G228" s="31"/>
@@ -9024,14 +9083,14 @@
     <row r="229" ht="17.65" customHeight="1">
       <c r="A229" s="83"/>
       <c r="B229" s="44"/>
-      <c r="C229" t="s" s="85">
+      <c r="C229" t="s" s="90">
+        <v>308</v>
+      </c>
+      <c r="D229" t="s" s="85">
+        <v>335</v>
+      </c>
+      <c r="E229" t="s" s="86">
         <v>336</v>
-      </c>
-      <c r="D229" t="s" s="85">
-        <v>337</v>
-      </c>
-      <c r="E229" t="s" s="86">
-        <v>338</v>
       </c>
       <c r="F229" s="87"/>
       <c r="G229" s="31"/>
@@ -9048,13 +9107,15 @@
     <row r="230" ht="17.65" customHeight="1">
       <c r="A230" s="83"/>
       <c r="B230" s="44"/>
-      <c r="C230" t="s" s="90">
-        <v>307</v>
+      <c r="C230" t="s" s="85">
+        <v>337</v>
       </c>
       <c r="D230" t="s" s="85">
+        <v>338</v>
+      </c>
+      <c r="E230" t="s" s="86">
         <v>339</v>
       </c>
-      <c r="E230" s="87"/>
       <c r="F230" s="87"/>
       <c r="G230" s="31"/>
       <c r="H230" s="3"/>
@@ -9070,11 +9131,11 @@
     <row r="231" ht="17.65" customHeight="1">
       <c r="A231" s="83"/>
       <c r="B231" s="44"/>
-      <c r="C231" t="s" s="85">
+      <c r="C231" t="s" s="90">
+        <v>308</v>
+      </c>
+      <c r="D231" t="s" s="85">
         <v>340</v>
-      </c>
-      <c r="D231" t="s" s="85">
-        <v>341</v>
       </c>
       <c r="E231" s="87"/>
       <c r="F231" s="87"/>
@@ -9091,12 +9152,12 @@
     </row>
     <row r="232" ht="17.65" customHeight="1">
       <c r="A232" s="83"/>
-      <c r="B232" s="51"/>
+      <c r="B232" s="44"/>
       <c r="C232" t="s" s="85">
+        <v>341</v>
+      </c>
+      <c r="D232" t="s" s="85">
         <v>342</v>
-      </c>
-      <c r="D232" t="s" s="85">
-        <v>343</v>
       </c>
       <c r="E232" s="87"/>
       <c r="F232" s="87"/>
@@ -9113,12 +9174,12 @@
     </row>
     <row r="233" ht="17.65" customHeight="1">
       <c r="A233" s="83"/>
-      <c r="B233" s="91"/>
+      <c r="B233" s="51"/>
       <c r="C233" t="s" s="85">
-        <v>110</v>
+        <v>343</v>
       </c>
       <c r="D233" t="s" s="85">
-        <v>111</v>
+        <v>344</v>
       </c>
       <c r="E233" s="87"/>
       <c r="F233" s="87"/>
@@ -9137,14 +9198,12 @@
       <c r="A234" s="83"/>
       <c r="B234" s="91"/>
       <c r="C234" t="s" s="85">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="D234" t="s" s="85">
-        <v>6</v>
-      </c>
-      <c r="E234" t="s" s="86">
-        <v>6</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="E234" s="87"/>
       <c r="F234" s="87"/>
       <c r="G234" s="31"/>
       <c r="H234" s="3"/>
@@ -9161,13 +9220,13 @@
       <c r="A235" s="83"/>
       <c r="B235" s="91"/>
       <c r="C235" t="s" s="85">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D235" t="s" s="85">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E235" t="s" s="86">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F235" s="87"/>
       <c r="G235" s="31"/>
@@ -9185,13 +9244,13 @@
       <c r="A236" s="83"/>
       <c r="B236" s="91"/>
       <c r="C236" t="s" s="85">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D236" t="s" s="85">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E236" t="s" s="86">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F236" s="87"/>
       <c r="G236" s="31"/>
@@ -9209,13 +9268,13 @@
       <c r="A237" s="83"/>
       <c r="B237" s="91"/>
       <c r="C237" t="s" s="85">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D237" t="s" s="85">
-        <v>344</v>
+        <v>7</v>
       </c>
       <c r="E237" t="s" s="86">
-        <v>344</v>
+        <v>21</v>
       </c>
       <c r="F237" s="87"/>
       <c r="G237" s="31"/>
@@ -9230,18 +9289,18 @@
       <c r="P237" s="4"/>
     </row>
     <row r="238" ht="17.65" customHeight="1">
-      <c r="A238" s="92"/>
-      <c r="B238" t="s" s="93">
+      <c r="A238" s="83"/>
+      <c r="B238" s="91"/>
+      <c r="C238" t="s" s="85">
+        <v>23</v>
+      </c>
+      <c r="D238" t="s" s="85">
         <v>345</v>
       </c>
-      <c r="C238" t="s" s="94">
-        <v>26</v>
-      </c>
-      <c r="D238" t="s" s="94">
-        <v>261</v>
-      </c>
-      <c r="E238" s="95"/>
-      <c r="F238" s="95"/>
+      <c r="E238" t="s" s="86">
+        <v>345</v>
+      </c>
+      <c r="F238" s="87"/>
       <c r="G238" s="31"/>
       <c r="H238" s="3"/>
       <c r="I238" s="3"/>
@@ -9255,12 +9314,14 @@
     </row>
     <row r="239" ht="17.65" customHeight="1">
       <c r="A239" s="92"/>
-      <c r="B239" s="69"/>
-      <c r="C239" t="s" s="96">
-        <v>29</v>
-      </c>
-      <c r="D239" t="s" s="97">
+      <c r="B239" t="s" s="93">
         <v>346</v>
+      </c>
+      <c r="C239" t="s" s="94">
+        <v>26</v>
+      </c>
+      <c r="D239" t="s" s="94">
+        <v>262</v>
       </c>
       <c r="E239" s="95"/>
       <c r="F239" s="95"/>
@@ -9277,11 +9338,11 @@
     </row>
     <row r="240" ht="17.65" customHeight="1">
       <c r="A240" s="92"/>
-      <c r="B240" s="44"/>
-      <c r="C240" t="s" s="47">
-        <v>32</v>
-      </c>
-      <c r="D240" t="s" s="94">
+      <c r="B240" s="69"/>
+      <c r="C240" t="s" s="96">
+        <v>29</v>
+      </c>
+      <c r="D240" t="s" s="97">
         <v>347</v>
       </c>
       <c r="E240" s="95"/>
@@ -9300,10 +9361,10 @@
     <row r="241" ht="17.65" customHeight="1">
       <c r="A241" s="92"/>
       <c r="B241" s="44"/>
-      <c r="C241" t="s" s="96">
-        <v>35</v>
-      </c>
-      <c r="D241" t="s" s="97">
+      <c r="C241" t="s" s="47">
+        <v>32</v>
+      </c>
+      <c r="D241" t="s" s="94">
         <v>348</v>
       </c>
       <c r="E241" s="95"/>
@@ -9319,13 +9380,13 @@
       <c r="O241" s="4"/>
       <c r="P241" s="4"/>
     </row>
-    <row r="242" ht="26.7" customHeight="1">
+    <row r="242" ht="17.65" customHeight="1">
       <c r="A242" s="92"/>
       <c r="B242" s="44"/>
-      <c r="C242" t="s" s="47">
-        <v>38</v>
-      </c>
-      <c r="D242" t="s" s="94">
+      <c r="C242" t="s" s="96">
+        <v>35</v>
+      </c>
+      <c r="D242" t="s" s="97">
         <v>349</v>
       </c>
       <c r="E242" s="95"/>
@@ -9341,13 +9402,13 @@
       <c r="O242" s="4"/>
       <c r="P242" s="4"/>
     </row>
-    <row r="243" ht="17.65" customHeight="1">
+    <row r="243" ht="26.7" customHeight="1">
       <c r="A243" s="92"/>
       <c r="B243" s="44"/>
-      <c r="C243" t="s" s="96">
-        <v>47</v>
-      </c>
-      <c r="D243" t="s" s="97">
+      <c r="C243" t="s" s="47">
+        <v>38</v>
+      </c>
+      <c r="D243" t="s" s="94">
         <v>350</v>
       </c>
       <c r="E243" s="95"/>
@@ -9363,13 +9424,13 @@
       <c r="O243" s="4"/>
       <c r="P243" s="4"/>
     </row>
-    <row r="244" ht="26.7" customHeight="1">
+    <row r="244" ht="17.65" customHeight="1">
       <c r="A244" s="92"/>
       <c r="B244" s="44"/>
-      <c r="C244" t="s" s="47">
-        <v>50</v>
-      </c>
-      <c r="D244" t="s" s="94">
+      <c r="C244" t="s" s="96">
+        <v>47</v>
+      </c>
+      <c r="D244" t="s" s="97">
         <v>351</v>
       </c>
       <c r="E244" s="95"/>
@@ -9385,14 +9446,14 @@
       <c r="O244" s="4"/>
       <c r="P244" s="4"/>
     </row>
-    <row r="245" ht="17.65" customHeight="1">
+    <row r="245" ht="26.7" customHeight="1">
       <c r="A245" s="92"/>
       <c r="B245" s="44"/>
-      <c r="C245" t="s" s="98">
+      <c r="C245" t="s" s="47">
+        <v>50</v>
+      </c>
+      <c r="D245" t="s" s="94">
         <v>352</v>
-      </c>
-      <c r="D245" t="s" s="97">
-        <v>353</v>
       </c>
       <c r="E245" s="95"/>
       <c r="F245" s="95"/>
@@ -9407,14 +9468,14 @@
       <c r="O245" s="4"/>
       <c r="P245" s="4"/>
     </row>
-    <row r="246" ht="38.7" customHeight="1">
+    <row r="246" ht="17.65" customHeight="1">
       <c r="A246" s="92"/>
       <c r="B246" s="44"/>
       <c r="C246" t="s" s="98">
+        <v>353</v>
+      </c>
+      <c r="D246" t="s" s="97">
         <v>354</v>
-      </c>
-      <c r="D246" t="s" s="94">
-        <v>355</v>
       </c>
       <c r="E246" s="95"/>
       <c r="F246" s="95"/>
@@ -9429,14 +9490,14 @@
       <c r="O246" s="4"/>
       <c r="P246" s="4"/>
     </row>
-    <row r="247" ht="17.65" customHeight="1">
+    <row r="247" ht="38.7" customHeight="1">
       <c r="A247" s="92"/>
       <c r="B247" s="44"/>
       <c r="C247" t="s" s="98">
+        <v>355</v>
+      </c>
+      <c r="D247" t="s" s="94">
         <v>356</v>
-      </c>
-      <c r="D247" t="s" s="97">
-        <v>357</v>
       </c>
       <c r="E247" s="95"/>
       <c r="F247" s="95"/>
@@ -9455,10 +9516,10 @@
       <c r="A248" s="92"/>
       <c r="B248" s="44"/>
       <c r="C248" t="s" s="98">
+        <v>357</v>
+      </c>
+      <c r="D248" t="s" s="97">
         <v>358</v>
-      </c>
-      <c r="D248" t="s" s="94">
-        <v>359</v>
       </c>
       <c r="E248" s="95"/>
       <c r="F248" s="95"/>
@@ -9477,10 +9538,10 @@
       <c r="A249" s="92"/>
       <c r="B249" s="44"/>
       <c r="C249" t="s" s="98">
+        <v>359</v>
+      </c>
+      <c r="D249" t="s" s="94">
         <v>360</v>
-      </c>
-      <c r="D249" t="s" s="97">
-        <v>361</v>
       </c>
       <c r="E249" s="95"/>
       <c r="F249" s="95"/>
@@ -9495,14 +9556,14 @@
       <c r="O249" s="4"/>
       <c r="P249" s="4"/>
     </row>
-    <row r="250" ht="38.7" customHeight="1">
+    <row r="250" ht="17.65" customHeight="1">
       <c r="A250" s="92"/>
       <c r="B250" s="44"/>
       <c r="C250" t="s" s="98">
+        <v>361</v>
+      </c>
+      <c r="D250" t="s" s="97">
         <v>362</v>
-      </c>
-      <c r="D250" t="s" s="94">
-        <v>363</v>
       </c>
       <c r="E250" s="95"/>
       <c r="F250" s="95"/>
@@ -9517,14 +9578,14 @@
       <c r="O250" s="4"/>
       <c r="P250" s="4"/>
     </row>
-    <row r="251" ht="26.7" customHeight="1">
+    <row r="251" ht="38.7" customHeight="1">
       <c r="A251" s="92"/>
       <c r="B251" s="44"/>
       <c r="C251" t="s" s="98">
+        <v>363</v>
+      </c>
+      <c r="D251" t="s" s="94">
         <v>364</v>
-      </c>
-      <c r="D251" t="s" s="97">
-        <v>365</v>
       </c>
       <c r="E251" s="95"/>
       <c r="F251" s="95"/>
@@ -9539,14 +9600,14 @@
       <c r="O251" s="4"/>
       <c r="P251" s="4"/>
     </row>
-    <row r="252" ht="38.7" customHeight="1">
+    <row r="252" ht="26.7" customHeight="1">
       <c r="A252" s="92"/>
       <c r="B252" s="44"/>
       <c r="C252" t="s" s="98">
+        <v>365</v>
+      </c>
+      <c r="D252" t="s" s="97">
         <v>366</v>
-      </c>
-      <c r="D252" t="s" s="94">
-        <v>367</v>
       </c>
       <c r="E252" s="95"/>
       <c r="F252" s="95"/>
@@ -9561,14 +9622,14 @@
       <c r="O252" s="4"/>
       <c r="P252" s="4"/>
     </row>
-    <row r="253" ht="26.7" customHeight="1">
+    <row r="253" ht="38.7" customHeight="1">
       <c r="A253" s="92"/>
       <c r="B253" s="44"/>
       <c r="C253" t="s" s="98">
+        <v>367</v>
+      </c>
+      <c r="D253" t="s" s="94">
         <v>368</v>
-      </c>
-      <c r="D253" t="s" s="97">
-        <v>369</v>
       </c>
       <c r="E253" s="95"/>
       <c r="F253" s="95"/>
@@ -9583,14 +9644,14 @@
       <c r="O253" s="4"/>
       <c r="P253" s="4"/>
     </row>
-    <row r="254" ht="38.7" customHeight="1">
+    <row r="254" ht="26.7" customHeight="1">
       <c r="A254" s="92"/>
       <c r="B254" s="44"/>
       <c r="C254" t="s" s="98">
+        <v>369</v>
+      </c>
+      <c r="D254" t="s" s="97">
         <v>370</v>
-      </c>
-      <c r="D254" t="s" s="94">
-        <v>371</v>
       </c>
       <c r="E254" s="95"/>
       <c r="F254" s="95"/>
@@ -9605,14 +9666,14 @@
       <c r="O254" s="4"/>
       <c r="P254" s="4"/>
     </row>
-    <row r="255" ht="26.7" customHeight="1">
+    <row r="255" ht="38.7" customHeight="1">
       <c r="A255" s="92"/>
       <c r="B255" s="44"/>
       <c r="C255" t="s" s="98">
+        <v>371</v>
+      </c>
+      <c r="D255" t="s" s="94">
         <v>372</v>
-      </c>
-      <c r="D255" t="s" s="97">
-        <v>373</v>
       </c>
       <c r="E255" s="95"/>
       <c r="F255" s="95"/>
@@ -9627,14 +9688,14 @@
       <c r="O255" s="4"/>
       <c r="P255" s="4"/>
     </row>
-    <row r="256" ht="38.7" customHeight="1">
+    <row r="256" ht="26.7" customHeight="1">
       <c r="A256" s="92"/>
       <c r="B256" s="44"/>
       <c r="C256" t="s" s="98">
+        <v>373</v>
+      </c>
+      <c r="D256" t="s" s="97">
         <v>374</v>
-      </c>
-      <c r="D256" t="s" s="94">
-        <v>375</v>
       </c>
       <c r="E256" s="95"/>
       <c r="F256" s="95"/>
@@ -9649,14 +9710,14 @@
       <c r="O256" s="4"/>
       <c r="P256" s="4"/>
     </row>
-    <row r="257" ht="17.65" customHeight="1">
+    <row r="257" ht="38.7" customHeight="1">
       <c r="A257" s="92"/>
       <c r="B257" s="44"/>
       <c r="C257" t="s" s="98">
+        <v>375</v>
+      </c>
+      <c r="D257" t="s" s="94">
         <v>376</v>
-      </c>
-      <c r="D257" t="s" s="97">
-        <v>377</v>
       </c>
       <c r="E257" s="95"/>
       <c r="F257" s="95"/>
@@ -9671,14 +9732,14 @@
       <c r="O257" s="4"/>
       <c r="P257" s="4"/>
     </row>
-    <row r="258" ht="38.7" customHeight="1">
+    <row r="258" ht="17.65" customHeight="1">
       <c r="A258" s="92"/>
       <c r="B258" s="44"/>
       <c r="C258" t="s" s="98">
+        <v>377</v>
+      </c>
+      <c r="D258" t="s" s="97">
         <v>378</v>
-      </c>
-      <c r="D258" t="s" s="94">
-        <v>379</v>
       </c>
       <c r="E258" s="95"/>
       <c r="F258" s="95"/>
@@ -9693,14 +9754,14 @@
       <c r="O258" s="4"/>
       <c r="P258" s="4"/>
     </row>
-    <row r="259" ht="17.65" customHeight="1">
+    <row r="259" ht="38.7" customHeight="1">
       <c r="A259" s="92"/>
       <c r="B259" s="44"/>
       <c r="C259" t="s" s="98">
+        <v>379</v>
+      </c>
+      <c r="D259" t="s" s="94">
         <v>380</v>
-      </c>
-      <c r="D259" t="s" s="97">
-        <v>381</v>
       </c>
       <c r="E259" s="95"/>
       <c r="F259" s="95"/>
@@ -9715,14 +9776,14 @@
       <c r="O259" s="4"/>
       <c r="P259" s="4"/>
     </row>
-    <row r="260" ht="38.7" customHeight="1">
+    <row r="260" ht="17.65" customHeight="1">
       <c r="A260" s="92"/>
-      <c r="B260" s="51"/>
+      <c r="B260" s="44"/>
       <c r="C260" t="s" s="98">
+        <v>381</v>
+      </c>
+      <c r="D260" t="s" s="97">
         <v>382</v>
-      </c>
-      <c r="D260" t="s" s="94">
-        <v>383</v>
       </c>
       <c r="E260" s="95"/>
       <c r="F260" s="95"/>
@@ -9739,12 +9800,12 @@
     </row>
     <row r="261" ht="38.7" customHeight="1">
       <c r="A261" s="92"/>
-      <c r="B261" s="99"/>
+      <c r="B261" s="51"/>
       <c r="C261" t="s" s="98">
-        <v>110</v>
+        <v>383</v>
       </c>
       <c r="D261" t="s" s="94">
-        <v>111</v>
+        <v>384</v>
       </c>
       <c r="E261" s="95"/>
       <c r="F261" s="95"/>
@@ -9759,19 +9820,17 @@
       <c r="O261" s="4"/>
       <c r="P261" s="4"/>
     </row>
-    <row r="262" ht="17.65" customHeight="1">
-      <c r="A262" s="100"/>
-      <c r="B262" t="s" s="101">
-        <v>384</v>
-      </c>
-      <c r="C262" t="s" s="102">
-        <v>8</v>
-      </c>
-      <c r="D262" t="s" s="102">
-        <v>385</v>
-      </c>
-      <c r="E262" s="103"/>
-      <c r="F262" s="103"/>
+    <row r="262" ht="38.7" customHeight="1">
+      <c r="A262" s="92"/>
+      <c r="B262" s="99"/>
+      <c r="C262" t="s" s="98">
+        <v>111</v>
+      </c>
+      <c r="D262" t="s" s="94">
+        <v>112</v>
+      </c>
+      <c r="E262" s="95"/>
+      <c r="F262" s="95"/>
       <c r="G262" s="31"/>
       <c r="H262" s="3"/>
       <c r="I262" s="3"/>
@@ -9785,12 +9844,14 @@
     </row>
     <row r="263" ht="17.65" customHeight="1">
       <c r="A263" s="100"/>
-      <c r="B263" s="69"/>
+      <c r="B263" t="s" s="101">
+        <v>385</v>
+      </c>
       <c r="C263" t="s" s="102">
+        <v>8</v>
+      </c>
+      <c r="D263" t="s" s="102">
         <v>386</v>
-      </c>
-      <c r="D263" t="s" s="102">
-        <v>387</v>
       </c>
       <c r="E263" s="103"/>
       <c r="F263" s="103"/>
@@ -9807,12 +9868,12 @@
     </row>
     <row r="264" ht="17.65" customHeight="1">
       <c r="A264" s="100"/>
-      <c r="B264" s="44"/>
+      <c r="B264" s="69"/>
       <c r="C264" t="s" s="102">
+        <v>387</v>
+      </c>
+      <c r="D264" t="s" s="102">
         <v>388</v>
-      </c>
-      <c r="D264" t="s" s="104">
-        <v>389</v>
       </c>
       <c r="E264" s="103"/>
       <c r="F264" s="103"/>
@@ -9827,14 +9888,14 @@
       <c r="O264" s="4"/>
       <c r="P264" s="4"/>
     </row>
-    <row r="265" ht="170.7" customHeight="1">
+    <row r="265" ht="17.65" customHeight="1">
       <c r="A265" s="100"/>
       <c r="B265" s="44"/>
       <c r="C265" t="s" s="102">
+        <v>389</v>
+      </c>
+      <c r="D265" t="s" s="104">
         <v>390</v>
-      </c>
-      <c r="D265" t="s" s="102">
-        <v>391</v>
       </c>
       <c r="E265" s="103"/>
       <c r="F265" s="103"/>
@@ -9849,14 +9910,14 @@
       <c r="O265" s="4"/>
       <c r="P265" s="4"/>
     </row>
-    <row r="266" ht="26.7" customHeight="1">
+    <row r="266" ht="170.7" customHeight="1">
       <c r="A266" s="100"/>
       <c r="B266" s="44"/>
       <c r="C266" t="s" s="102">
+        <v>391</v>
+      </c>
+      <c r="D266" t="s" s="102">
         <v>392</v>
-      </c>
-      <c r="D266" t="s" s="104">
-        <v>393</v>
       </c>
       <c r="E266" s="103"/>
       <c r="F266" s="103"/>
@@ -9875,10 +9936,10 @@
       <c r="A267" s="100"/>
       <c r="B267" s="44"/>
       <c r="C267" t="s" s="102">
+        <v>393</v>
+      </c>
+      <c r="D267" t="s" s="104">
         <v>394</v>
-      </c>
-      <c r="D267" t="s" s="102">
-        <v>395</v>
       </c>
       <c r="E267" s="103"/>
       <c r="F267" s="103"/>
@@ -9893,14 +9954,14 @@
       <c r="O267" s="4"/>
       <c r="P267" s="4"/>
     </row>
-    <row r="268" ht="17.65" customHeight="1">
+    <row r="268" ht="26.7" customHeight="1">
       <c r="A268" s="100"/>
       <c r="B268" s="44"/>
       <c r="C268" t="s" s="102">
+        <v>395</v>
+      </c>
+      <c r="D268" t="s" s="102">
         <v>396</v>
-      </c>
-      <c r="D268" t="s" s="104">
-        <v>397</v>
       </c>
       <c r="E268" s="103"/>
       <c r="F268" s="103"/>
@@ -9919,10 +9980,10 @@
       <c r="A269" s="100"/>
       <c r="B269" s="44"/>
       <c r="C269" t="s" s="102">
+        <v>397</v>
+      </c>
+      <c r="D269" t="s" s="104">
         <v>398</v>
-      </c>
-      <c r="D269" t="s" s="102">
-        <v>399</v>
       </c>
       <c r="E269" s="103"/>
       <c r="F269" s="103"/>
@@ -9941,10 +10002,10 @@
       <c r="A270" s="100"/>
       <c r="B270" s="44"/>
       <c r="C270" t="s" s="102">
+        <v>399</v>
+      </c>
+      <c r="D270" t="s" s="102">
         <v>400</v>
-      </c>
-      <c r="D270" t="s" s="104">
-        <v>401</v>
       </c>
       <c r="E270" s="103"/>
       <c r="F270" s="103"/>
@@ -9963,10 +10024,10 @@
       <c r="A271" s="100"/>
       <c r="B271" s="44"/>
       <c r="C271" t="s" s="102">
+        <v>401</v>
+      </c>
+      <c r="D271" t="s" s="104">
         <v>402</v>
-      </c>
-      <c r="D271" t="s" s="102">
-        <v>403</v>
       </c>
       <c r="E271" s="103"/>
       <c r="F271" s="103"/>
@@ -9985,10 +10046,10 @@
       <c r="A272" s="100"/>
       <c r="B272" s="44"/>
       <c r="C272" t="s" s="102">
+        <v>403</v>
+      </c>
+      <c r="D272" t="s" s="102">
         <v>404</v>
-      </c>
-      <c r="D272" t="s" s="104">
-        <v>405</v>
       </c>
       <c r="E272" s="103"/>
       <c r="F272" s="103"/>
@@ -10007,10 +10068,10 @@
       <c r="A273" s="100"/>
       <c r="B273" s="44"/>
       <c r="C273" t="s" s="102">
+        <v>405</v>
+      </c>
+      <c r="D273" t="s" s="104">
         <v>406</v>
-      </c>
-      <c r="D273" t="s" s="102">
-        <v>407</v>
       </c>
       <c r="E273" s="103"/>
       <c r="F273" s="103"/>
@@ -10029,10 +10090,10 @@
       <c r="A274" s="100"/>
       <c r="B274" s="44"/>
       <c r="C274" t="s" s="102">
+        <v>407</v>
+      </c>
+      <c r="D274" t="s" s="102">
         <v>408</v>
-      </c>
-      <c r="D274" t="s" s="104">
-        <v>409</v>
       </c>
       <c r="E274" s="103"/>
       <c r="F274" s="103"/>
@@ -10051,10 +10112,10 @@
       <c r="A275" s="100"/>
       <c r="B275" s="44"/>
       <c r="C275" t="s" s="102">
+        <v>409</v>
+      </c>
+      <c r="D275" t="s" s="104">
         <v>410</v>
-      </c>
-      <c r="D275" t="s" s="102">
-        <v>411</v>
       </c>
       <c r="E275" s="103"/>
       <c r="F275" s="103"/>
@@ -10073,10 +10134,10 @@
       <c r="A276" s="100"/>
       <c r="B276" s="44"/>
       <c r="C276" t="s" s="102">
+        <v>411</v>
+      </c>
+      <c r="D276" t="s" s="102">
         <v>412</v>
-      </c>
-      <c r="D276" t="s" s="104">
-        <v>413</v>
       </c>
       <c r="E276" s="103"/>
       <c r="F276" s="103"/>
@@ -10091,14 +10152,14 @@
       <c r="O276" s="4"/>
       <c r="P276" s="4"/>
     </row>
-    <row r="277" ht="26.7" customHeight="1">
+    <row r="277" ht="17.65" customHeight="1">
       <c r="A277" s="100"/>
       <c r="B277" s="44"/>
       <c r="C277" t="s" s="102">
+        <v>413</v>
+      </c>
+      <c r="D277" t="s" s="104">
         <v>414</v>
-      </c>
-      <c r="D277" t="s" s="102">
-        <v>415</v>
       </c>
       <c r="E277" s="103"/>
       <c r="F277" s="103"/>
@@ -10113,14 +10174,14 @@
       <c r="O277" s="4"/>
       <c r="P277" s="4"/>
     </row>
-    <row r="278" ht="17.65" customHeight="1">
+    <row r="278" ht="26.7" customHeight="1">
       <c r="A278" s="100"/>
       <c r="B278" s="44"/>
       <c r="C278" t="s" s="102">
+        <v>415</v>
+      </c>
+      <c r="D278" t="s" s="102">
         <v>416</v>
-      </c>
-      <c r="D278" t="s" s="104">
-        <v>417</v>
       </c>
       <c r="E278" s="103"/>
       <c r="F278" s="103"/>
@@ -10135,14 +10196,14 @@
       <c r="O278" s="4"/>
       <c r="P278" s="4"/>
     </row>
-    <row r="279" ht="26.7" customHeight="1">
+    <row r="279" ht="17.65" customHeight="1">
       <c r="A279" s="100"/>
       <c r="B279" s="44"/>
       <c r="C279" t="s" s="102">
+        <v>417</v>
+      </c>
+      <c r="D279" t="s" s="104">
         <v>418</v>
-      </c>
-      <c r="D279" t="s" s="102">
-        <v>419</v>
       </c>
       <c r="E279" s="103"/>
       <c r="F279" s="103"/>
@@ -10157,14 +10218,14 @@
       <c r="O279" s="4"/>
       <c r="P279" s="4"/>
     </row>
-    <row r="280" ht="17.65" customHeight="1">
+    <row r="280" ht="26.7" customHeight="1">
       <c r="A280" s="100"/>
       <c r="B280" s="44"/>
       <c r="C280" t="s" s="102">
+        <v>419</v>
+      </c>
+      <c r="D280" t="s" s="102">
         <v>420</v>
-      </c>
-      <c r="D280" t="s" s="102">
-        <v>421</v>
       </c>
       <c r="E280" s="103"/>
       <c r="F280" s="103"/>
@@ -10183,10 +10244,10 @@
       <c r="A281" s="100"/>
       <c r="B281" s="44"/>
       <c r="C281" t="s" s="102">
+        <v>421</v>
+      </c>
+      <c r="D281" t="s" s="102">
         <v>422</v>
-      </c>
-      <c r="D281" t="s" s="104">
-        <v>423</v>
       </c>
       <c r="E281" s="103"/>
       <c r="F281" s="103"/>
@@ -10203,12 +10264,12 @@
     </row>
     <row r="282" ht="17.65" customHeight="1">
       <c r="A282" s="100"/>
-      <c r="B282" s="51"/>
+      <c r="B282" s="44"/>
       <c r="C282" t="s" s="102">
+        <v>423</v>
+      </c>
+      <c r="D282" t="s" s="104">
         <v>424</v>
-      </c>
-      <c r="D282" t="s" s="102">
-        <v>425</v>
       </c>
       <c r="E282" s="103"/>
       <c r="F282" s="103"/>
@@ -10225,12 +10286,12 @@
     </row>
     <row r="283" ht="17.65" customHeight="1">
       <c r="A283" s="100"/>
-      <c r="B283" s="105"/>
+      <c r="B283" s="51"/>
       <c r="C283" t="s" s="102">
-        <v>110</v>
+        <v>425</v>
       </c>
       <c r="D283" t="s" s="102">
-        <v>111</v>
+        <v>426</v>
       </c>
       <c r="E283" s="103"/>
       <c r="F283" s="103"/>
@@ -10246,18 +10307,16 @@
       <c r="P283" s="4"/>
     </row>
     <row r="284" ht="17.65" customHeight="1">
-      <c r="A284" s="106"/>
-      <c r="B284" t="s" s="107">
-        <v>426</v>
-      </c>
-      <c r="C284" t="s" s="108">
-        <v>8</v>
-      </c>
-      <c r="D284" t="s" s="108">
-        <v>324</v>
-      </c>
-      <c r="E284" s="109"/>
-      <c r="F284" s="109"/>
+      <c r="A284" s="100"/>
+      <c r="B284" s="105"/>
+      <c r="C284" t="s" s="102">
+        <v>111</v>
+      </c>
+      <c r="D284" t="s" s="102">
+        <v>112</v>
+      </c>
+      <c r="E284" s="103"/>
+      <c r="F284" s="103"/>
       <c r="G284" s="31"/>
       <c r="H284" s="3"/>
       <c r="I284" s="3"/>
@@ -10271,12 +10330,14 @@
     </row>
     <row r="285" ht="17.65" customHeight="1">
       <c r="A285" s="106"/>
-      <c r="B285" s="69"/>
+      <c r="B285" t="s" s="107">
+        <v>427</v>
+      </c>
       <c r="C285" t="s" s="108">
-        <v>154</v>
+        <v>8</v>
       </c>
       <c r="D285" t="s" s="108">
-        <v>427</v>
+        <v>325</v>
       </c>
       <c r="E285" s="109"/>
       <c r="F285" s="109"/>
@@ -10293,12 +10354,12 @@
     </row>
     <row r="286" ht="17.65" customHeight="1">
       <c r="A286" s="106"/>
-      <c r="B286" s="44"/>
+      <c r="B286" s="69"/>
       <c r="C286" t="s" s="108">
+        <v>155</v>
+      </c>
+      <c r="D286" t="s" s="108">
         <v>428</v>
-      </c>
-      <c r="D286" t="s" s="108">
-        <v>429</v>
       </c>
       <c r="E286" s="109"/>
       <c r="F286" s="109"/>
@@ -10317,10 +10378,10 @@
       <c r="A287" s="106"/>
       <c r="B287" s="44"/>
       <c r="C287" t="s" s="108">
+        <v>429</v>
+      </c>
+      <c r="D287" t="s" s="108">
         <v>430</v>
-      </c>
-      <c r="D287" t="s" s="108">
-        <v>431</v>
       </c>
       <c r="E287" s="109"/>
       <c r="F287" s="109"/>
@@ -10339,10 +10400,10 @@
       <c r="A288" s="106"/>
       <c r="B288" s="44"/>
       <c r="C288" t="s" s="108">
+        <v>431</v>
+      </c>
+      <c r="D288" t="s" s="108">
         <v>432</v>
-      </c>
-      <c r="D288" t="s" s="108">
-        <v>433</v>
       </c>
       <c r="E288" s="109"/>
       <c r="F288" s="109"/>
@@ -10361,10 +10422,10 @@
       <c r="A289" s="106"/>
       <c r="B289" s="44"/>
       <c r="C289" t="s" s="108">
+        <v>433</v>
+      </c>
+      <c r="D289" t="s" s="108">
         <v>434</v>
-      </c>
-      <c r="D289" t="s" s="108">
-        <v>435</v>
       </c>
       <c r="E289" s="109"/>
       <c r="F289" s="109"/>
@@ -10379,11 +10440,11 @@
       <c r="O289" s="4"/>
       <c r="P289" s="4"/>
     </row>
-    <row r="290" ht="46.7" customHeight="1">
+    <row r="290" ht="17.65" customHeight="1">
       <c r="A290" s="106"/>
-      <c r="B290" s="51"/>
+      <c r="B290" s="44"/>
       <c r="C290" t="s" s="108">
-        <v>307</v>
+        <v>435</v>
       </c>
       <c r="D290" t="s" s="108">
         <v>436</v>
@@ -10403,12 +10464,12 @@
     </row>
     <row r="291" ht="46.7" customHeight="1">
       <c r="A291" s="106"/>
-      <c r="B291" s="110"/>
+      <c r="B291" s="51"/>
       <c r="C291" t="s" s="108">
-        <v>110</v>
+        <v>308</v>
       </c>
       <c r="D291" t="s" s="108">
-        <v>111</v>
+        <v>437</v>
       </c>
       <c r="E291" s="109"/>
       <c r="F291" s="109"/>
@@ -10423,19 +10484,17 @@
       <c r="O291" s="4"/>
       <c r="P291" s="4"/>
     </row>
-    <row r="292" ht="17.65" customHeight="1">
-      <c r="A292" s="111"/>
-      <c r="B292" t="s" s="112">
-        <v>437</v>
-      </c>
-      <c r="C292" t="s" s="113">
-        <v>438</v>
-      </c>
-      <c r="D292" t="s" s="113">
-        <v>27</v>
-      </c>
-      <c r="E292" s="114"/>
-      <c r="F292" s="114"/>
+    <row r="292" ht="46.7" customHeight="1">
+      <c r="A292" s="106"/>
+      <c r="B292" s="110"/>
+      <c r="C292" t="s" s="108">
+        <v>111</v>
+      </c>
+      <c r="D292" t="s" s="108">
+        <v>112</v>
+      </c>
+      <c r="E292" s="109"/>
+      <c r="F292" s="109"/>
       <c r="G292" s="31"/>
       <c r="H292" s="3"/>
       <c r="I292" s="3"/>
@@ -10449,12 +10508,14 @@
     </row>
     <row r="293" ht="17.65" customHeight="1">
       <c r="A293" s="111"/>
-      <c r="B293" s="69"/>
+      <c r="B293" t="s" s="112">
+        <v>438</v>
+      </c>
       <c r="C293" t="s" s="113">
         <v>439</v>
       </c>
       <c r="D293" t="s" s="113">
-        <v>440</v>
+        <v>27</v>
       </c>
       <c r="E293" s="114"/>
       <c r="F293" s="114"/>
@@ -10471,12 +10532,12 @@
     </row>
     <row r="294" ht="17.65" customHeight="1">
       <c r="A294" s="111"/>
-      <c r="B294" s="44"/>
+      <c r="B294" s="69"/>
       <c r="C294" t="s" s="113">
+        <v>440</v>
+      </c>
+      <c r="D294" t="s" s="113">
         <v>441</v>
-      </c>
-      <c r="D294" t="s" s="113">
-        <v>139</v>
       </c>
       <c r="E294" s="114"/>
       <c r="F294" s="114"/>
@@ -10498,7 +10559,7 @@
         <v>442</v>
       </c>
       <c r="D295" t="s" s="113">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="E295" s="114"/>
       <c r="F295" s="114"/>
@@ -10520,7 +10581,7 @@
         <v>443</v>
       </c>
       <c r="D296" t="s" s="113">
-        <v>279</v>
+        <v>154</v>
       </c>
       <c r="E296" s="114"/>
       <c r="F296" s="114"/>
@@ -10542,7 +10603,7 @@
         <v>444</v>
       </c>
       <c r="D297" t="s" s="113">
-        <v>445</v>
+        <v>280</v>
       </c>
       <c r="E297" s="114"/>
       <c r="F297" s="114"/>
@@ -10561,10 +10622,10 @@
       <c r="A298" s="111"/>
       <c r="B298" s="44"/>
       <c r="C298" t="s" s="113">
+        <v>445</v>
+      </c>
+      <c r="D298" t="s" s="113">
         <v>446</v>
-      </c>
-      <c r="D298" t="s" s="113">
-        <v>447</v>
       </c>
       <c r="E298" s="114"/>
       <c r="F298" s="114"/>
@@ -10583,10 +10644,10 @@
       <c r="A299" s="111"/>
       <c r="B299" s="44"/>
       <c r="C299" t="s" s="113">
+        <v>447</v>
+      </c>
+      <c r="D299" t="s" s="113">
         <v>448</v>
-      </c>
-      <c r="D299" t="s" s="113">
-        <v>449</v>
       </c>
       <c r="E299" s="114"/>
       <c r="F299" s="114"/>
@@ -10605,10 +10666,10 @@
       <c r="A300" s="111"/>
       <c r="B300" s="44"/>
       <c r="C300" t="s" s="113">
+        <v>449</v>
+      </c>
+      <c r="D300" t="s" s="113">
         <v>450</v>
-      </c>
-      <c r="D300" t="s" s="113">
-        <v>451</v>
       </c>
       <c r="E300" s="114"/>
       <c r="F300" s="114"/>
@@ -10627,10 +10688,10 @@
       <c r="A301" s="111"/>
       <c r="B301" s="44"/>
       <c r="C301" t="s" s="113">
+        <v>451</v>
+      </c>
+      <c r="D301" t="s" s="113">
         <v>452</v>
-      </c>
-      <c r="D301" t="s" s="113">
-        <v>453</v>
       </c>
       <c r="E301" s="114"/>
       <c r="F301" s="114"/>
@@ -10649,10 +10710,10 @@
       <c r="A302" s="111"/>
       <c r="B302" s="44"/>
       <c r="C302" t="s" s="113">
+        <v>453</v>
+      </c>
+      <c r="D302" t="s" s="113">
         <v>454</v>
-      </c>
-      <c r="D302" t="s" s="113">
-        <v>455</v>
       </c>
       <c r="E302" s="114"/>
       <c r="F302" s="114"/>
@@ -10671,10 +10732,10 @@
       <c r="A303" s="111"/>
       <c r="B303" s="44"/>
       <c r="C303" t="s" s="113">
+        <v>455</v>
+      </c>
+      <c r="D303" t="s" s="113">
         <v>456</v>
-      </c>
-      <c r="D303" t="s" s="113">
-        <v>261</v>
       </c>
       <c r="E303" s="114"/>
       <c r="F303" s="114"/>
@@ -10696,7 +10757,7 @@
         <v>457</v>
       </c>
       <c r="D304" t="s" s="113">
-        <v>153</v>
+        <v>262</v>
       </c>
       <c r="E304" s="114"/>
       <c r="F304" s="114"/>
@@ -10718,7 +10779,7 @@
         <v>458</v>
       </c>
       <c r="D305" t="s" s="113">
-        <v>385</v>
+        <v>154</v>
       </c>
       <c r="E305" s="114"/>
       <c r="F305" s="114"/>
@@ -10740,7 +10801,7 @@
         <v>459</v>
       </c>
       <c r="D306" t="s" s="113">
-        <v>324</v>
+        <v>386</v>
       </c>
       <c r="E306" s="114"/>
       <c r="F306" s="114"/>
@@ -10762,7 +10823,7 @@
         <v>460</v>
       </c>
       <c r="D307" t="s" s="113">
-        <v>461</v>
+        <v>325</v>
       </c>
       <c r="E307" s="114"/>
       <c r="F307" s="114"/>
@@ -10781,10 +10842,10 @@
       <c r="A308" s="111"/>
       <c r="B308" s="44"/>
       <c r="C308" t="s" s="113">
+        <v>461</v>
+      </c>
+      <c r="D308" t="s" s="113">
         <v>462</v>
-      </c>
-      <c r="D308" t="s" s="113">
-        <v>463</v>
       </c>
       <c r="E308" s="114"/>
       <c r="F308" s="114"/>
@@ -10803,10 +10864,10 @@
       <c r="A309" s="111"/>
       <c r="B309" s="44"/>
       <c r="C309" t="s" s="113">
+        <v>463</v>
+      </c>
+      <c r="D309" t="s" s="113">
         <v>464</v>
-      </c>
-      <c r="D309" t="s" s="113">
-        <v>465</v>
       </c>
       <c r="E309" s="114"/>
       <c r="F309" s="114"/>
@@ -10825,10 +10886,10 @@
       <c r="A310" s="111"/>
       <c r="B310" s="44"/>
       <c r="C310" t="s" s="113">
+        <v>465</v>
+      </c>
+      <c r="D310" t="s" s="113">
         <v>466</v>
-      </c>
-      <c r="D310" t="s" s="113">
-        <v>467</v>
       </c>
       <c r="E310" s="114"/>
       <c r="F310" s="114"/>
@@ -10845,12 +10906,12 @@
     </row>
     <row r="311" ht="17.65" customHeight="1">
       <c r="A311" s="111"/>
-      <c r="B311" s="51"/>
+      <c r="B311" s="44"/>
       <c r="C311" t="s" s="113">
-        <v>434</v>
+        <v>467</v>
       </c>
       <c r="D311" t="s" s="113">
-        <v>109</v>
+        <v>468</v>
       </c>
       <c r="E311" s="114"/>
       <c r="F311" s="114"/>
@@ -10867,12 +10928,12 @@
     </row>
     <row r="312" ht="17.65" customHeight="1">
       <c r="A312" s="111"/>
-      <c r="B312" s="115"/>
+      <c r="B312" s="51"/>
       <c r="C312" t="s" s="113">
+        <v>435</v>
+      </c>
+      <c r="D312" t="s" s="113">
         <v>110</v>
-      </c>
-      <c r="D312" t="s" s="113">
-        <v>111</v>
       </c>
       <c r="E312" s="114"/>
       <c r="F312" s="114"/>
@@ -10888,18 +10949,16 @@
       <c r="P312" s="4"/>
     </row>
     <row r="313" ht="17.65" customHeight="1">
-      <c r="A313" s="116"/>
-      <c r="B313" t="s" s="117">
-        <v>468</v>
-      </c>
-      <c r="C313" t="s" s="118">
-        <v>8</v>
-      </c>
-      <c r="D313" t="s" s="118">
-        <v>445</v>
-      </c>
-      <c r="E313" s="119"/>
-      <c r="F313" s="119"/>
+      <c r="A313" s="111"/>
+      <c r="B313" s="115"/>
+      <c r="C313" t="s" s="113">
+        <v>111</v>
+      </c>
+      <c r="D313" t="s" s="113">
+        <v>112</v>
+      </c>
+      <c r="E313" s="114"/>
+      <c r="F313" s="114"/>
       <c r="G313" s="31"/>
       <c r="H313" s="3"/>
       <c r="I313" s="3"/>
@@ -10913,12 +10972,14 @@
     </row>
     <row r="314" ht="17.65" customHeight="1">
       <c r="A314" s="116"/>
-      <c r="B314" s="69"/>
+      <c r="B314" t="s" s="117">
+        <v>469</v>
+      </c>
       <c r="C314" t="s" s="118">
-        <v>154</v>
+        <v>8</v>
       </c>
       <c r="D314" t="s" s="118">
-        <v>469</v>
+        <v>446</v>
       </c>
       <c r="E314" s="119"/>
       <c r="F314" s="119"/>
@@ -10935,11 +10996,11 @@
     </row>
     <row r="315" ht="17.65" customHeight="1">
       <c r="A315" s="116"/>
-      <c r="B315" s="44"/>
-      <c r="C315" t="s" s="120">
-        <v>434</v>
-      </c>
-      <c r="D315" t="s" s="121">
+      <c r="B315" s="69"/>
+      <c r="C315" t="s" s="118">
+        <v>155</v>
+      </c>
+      <c r="D315" t="s" s="118">
         <v>470</v>
       </c>
       <c r="E315" s="119"/>
@@ -10958,9 +11019,11 @@
     <row r="316" ht="17.65" customHeight="1">
       <c r="A316" s="116"/>
       <c r="B316" s="44"/>
-      <c r="C316" s="79"/>
-      <c r="D316" t="s" s="118">
-        <v>109</v>
+      <c r="C316" t="s" s="120">
+        <v>435</v>
+      </c>
+      <c r="D316" t="s" s="121">
+        <v>471</v>
       </c>
       <c r="E316" s="119"/>
       <c r="F316" s="119"/>
@@ -10978,11 +11041,9 @@
     <row r="317" ht="17.65" customHeight="1">
       <c r="A317" s="116"/>
       <c r="B317" s="44"/>
-      <c r="C317" t="s" s="118">
-        <v>471</v>
-      </c>
+      <c r="C317" s="79"/>
       <c r="D317" t="s" s="118">
-        <v>472</v>
+        <v>110</v>
       </c>
       <c r="E317" s="119"/>
       <c r="F317" s="119"/>
@@ -11001,10 +11062,10 @@
       <c r="A318" s="116"/>
       <c r="B318" s="44"/>
       <c r="C318" t="s" s="118">
+        <v>472</v>
+      </c>
+      <c r="D318" t="s" s="118">
         <v>473</v>
-      </c>
-      <c r="D318" t="s" s="118">
-        <v>474</v>
       </c>
       <c r="E318" s="119"/>
       <c r="F318" s="119"/>
@@ -11023,7 +11084,7 @@
       <c r="A319" s="116"/>
       <c r="B319" s="44"/>
       <c r="C319" t="s" s="118">
-        <v>434</v>
+        <v>474</v>
       </c>
       <c r="D319" t="s" s="118">
         <v>475</v>
@@ -11045,10 +11106,10 @@
       <c r="A320" s="116"/>
       <c r="B320" s="44"/>
       <c r="C320" t="s" s="118">
+        <v>435</v>
+      </c>
+      <c r="D320" t="s" s="118">
         <v>476</v>
-      </c>
-      <c r="D320" t="s" s="118">
-        <v>477</v>
       </c>
       <c r="E320" s="119"/>
       <c r="F320" s="119"/>
@@ -11067,7 +11128,7 @@
       <c r="A321" s="116"/>
       <c r="B321" s="44"/>
       <c r="C321" t="s" s="118">
-        <v>434</v>
+        <v>477</v>
       </c>
       <c r="D321" t="s" s="118">
         <v>478</v>
@@ -11088,11 +11149,11 @@
     <row r="322" ht="17.65" customHeight="1">
       <c r="A322" s="116"/>
       <c r="B322" s="44"/>
-      <c r="C322" t="s" s="120">
+      <c r="C322" t="s" s="118">
+        <v>435</v>
+      </c>
+      <c r="D322" t="s" s="118">
         <v>479</v>
-      </c>
-      <c r="D322" t="s" s="118">
-        <v>480</v>
       </c>
       <c r="E322" s="119"/>
       <c r="F322" s="119"/>
@@ -11110,7 +11171,9 @@
     <row r="323" ht="17.65" customHeight="1">
       <c r="A323" s="116"/>
       <c r="B323" s="44"/>
-      <c r="C323" s="79"/>
+      <c r="C323" t="s" s="120">
+        <v>480</v>
+      </c>
       <c r="D323" t="s" s="118">
         <v>481</v>
       </c>
@@ -11130,11 +11193,9 @@
     <row r="324" ht="17.65" customHeight="1">
       <c r="A324" s="116"/>
       <c r="B324" s="44"/>
-      <c r="C324" t="s" s="120">
+      <c r="C324" s="79"/>
+      <c r="D324" t="s" s="118">
         <v>482</v>
-      </c>
-      <c r="D324" t="s" s="118">
-        <v>483</v>
       </c>
       <c r="E324" s="119"/>
       <c r="F324" s="119"/>
@@ -11152,7 +11213,9 @@
     <row r="325" ht="17.65" customHeight="1">
       <c r="A325" s="116"/>
       <c r="B325" s="44"/>
-      <c r="C325" s="79"/>
+      <c r="C325" t="s" s="120">
+        <v>483</v>
+      </c>
       <c r="D325" t="s" s="118">
         <v>484</v>
       </c>
@@ -11172,11 +11235,9 @@
     <row r="326" ht="17.65" customHeight="1">
       <c r="A326" s="116"/>
       <c r="B326" s="44"/>
-      <c r="C326" t="s" s="120">
+      <c r="C326" s="79"/>
+      <c r="D326" t="s" s="118">
         <v>485</v>
-      </c>
-      <c r="D326" t="s" s="118">
-        <v>486</v>
       </c>
       <c r="E326" s="119"/>
       <c r="F326" s="119"/>
@@ -11194,7 +11255,9 @@
     <row r="327" ht="17.65" customHeight="1">
       <c r="A327" s="116"/>
       <c r="B327" s="44"/>
-      <c r="C327" s="79"/>
+      <c r="C327" t="s" s="120">
+        <v>486</v>
+      </c>
       <c r="D327" t="s" s="118">
         <v>487</v>
       </c>
@@ -11214,11 +11277,9 @@
     <row r="328" ht="17.65" customHeight="1">
       <c r="A328" s="116"/>
       <c r="B328" s="44"/>
-      <c r="C328" t="s" s="120">
+      <c r="C328" s="79"/>
+      <c r="D328" t="s" s="118">
         <v>488</v>
-      </c>
-      <c r="D328" t="s" s="118">
-        <v>489</v>
       </c>
       <c r="E328" s="119"/>
       <c r="F328" s="119"/>
@@ -11236,7 +11297,9 @@
     <row r="329" ht="17.65" customHeight="1">
       <c r="A329" s="116"/>
       <c r="B329" s="44"/>
-      <c r="C329" s="79"/>
+      <c r="C329" t="s" s="120">
+        <v>489</v>
+      </c>
       <c r="D329" t="s" s="118">
         <v>490</v>
       </c>
@@ -11256,11 +11319,9 @@
     <row r="330" ht="17.65" customHeight="1">
       <c r="A330" s="116"/>
       <c r="B330" s="44"/>
-      <c r="C330" t="s" s="120">
+      <c r="C330" s="79"/>
+      <c r="D330" t="s" s="118">
         <v>491</v>
-      </c>
-      <c r="D330" t="s" s="118">
-        <v>492</v>
       </c>
       <c r="E330" s="119"/>
       <c r="F330" s="119"/>
@@ -11278,7 +11339,9 @@
     <row r="331" ht="17.65" customHeight="1">
       <c r="A331" s="116"/>
       <c r="B331" s="44"/>
-      <c r="C331" s="79"/>
+      <c r="C331" t="s" s="120">
+        <v>492</v>
+      </c>
       <c r="D331" t="s" s="118">
         <v>493</v>
       </c>
@@ -11298,11 +11361,9 @@
     <row r="332" ht="17.65" customHeight="1">
       <c r="A332" s="116"/>
       <c r="B332" s="44"/>
-      <c r="C332" t="s" s="120">
+      <c r="C332" s="79"/>
+      <c r="D332" t="s" s="118">
         <v>494</v>
-      </c>
-      <c r="D332" t="s" s="118">
-        <v>495</v>
       </c>
       <c r="E332" s="119"/>
       <c r="F332" s="119"/>
@@ -11320,7 +11381,9 @@
     <row r="333" ht="17.65" customHeight="1">
       <c r="A333" s="116"/>
       <c r="B333" s="44"/>
-      <c r="C333" s="79"/>
+      <c r="C333" t="s" s="120">
+        <v>495</v>
+      </c>
       <c r="D333" t="s" s="118">
         <v>496</v>
       </c>
@@ -11340,11 +11403,9 @@
     <row r="334" ht="17.65" customHeight="1">
       <c r="A334" s="116"/>
       <c r="B334" s="44"/>
-      <c r="C334" t="s" s="120">
+      <c r="C334" s="79"/>
+      <c r="D334" t="s" s="118">
         <v>497</v>
-      </c>
-      <c r="D334" t="s" s="118">
-        <v>498</v>
       </c>
       <c r="E334" s="119"/>
       <c r="F334" s="119"/>
@@ -11362,7 +11423,9 @@
     <row r="335" ht="17.65" customHeight="1">
       <c r="A335" s="116"/>
       <c r="B335" s="44"/>
-      <c r="C335" s="79"/>
+      <c r="C335" t="s" s="120">
+        <v>498</v>
+      </c>
       <c r="D335" t="s" s="118">
         <v>499</v>
       </c>
@@ -11382,11 +11445,9 @@
     <row r="336" ht="17.65" customHeight="1">
       <c r="A336" s="116"/>
       <c r="B336" s="44"/>
-      <c r="C336" t="s" s="120">
+      <c r="C336" s="79"/>
+      <c r="D336" t="s" s="118">
         <v>500</v>
-      </c>
-      <c r="D336" t="s" s="118">
-        <v>501</v>
       </c>
       <c r="E336" s="119"/>
       <c r="F336" s="119"/>
@@ -11404,7 +11465,9 @@
     <row r="337" ht="17.65" customHeight="1">
       <c r="A337" s="116"/>
       <c r="B337" s="44"/>
-      <c r="C337" s="79"/>
+      <c r="C337" t="s" s="120">
+        <v>501</v>
+      </c>
       <c r="D337" t="s" s="118">
         <v>502</v>
       </c>
@@ -11424,11 +11487,9 @@
     <row r="338" ht="17.65" customHeight="1">
       <c r="A338" s="116"/>
       <c r="B338" s="44"/>
-      <c r="C338" t="s" s="120">
+      <c r="C338" s="79"/>
+      <c r="D338" t="s" s="118">
         <v>503</v>
-      </c>
-      <c r="D338" t="s" s="118">
-        <v>504</v>
       </c>
       <c r="E338" s="119"/>
       <c r="F338" s="119"/>
@@ -11446,7 +11507,9 @@
     <row r="339" ht="17.65" customHeight="1">
       <c r="A339" s="116"/>
       <c r="B339" s="44"/>
-      <c r="C339" s="79"/>
+      <c r="C339" t="s" s="120">
+        <v>504</v>
+      </c>
       <c r="D339" t="s" s="118">
         <v>505</v>
       </c>
@@ -11466,11 +11529,9 @@
     <row r="340" ht="17.65" customHeight="1">
       <c r="A340" s="116"/>
       <c r="B340" s="44"/>
-      <c r="C340" t="s" s="120">
+      <c r="C340" s="79"/>
+      <c r="D340" t="s" s="118">
         <v>506</v>
-      </c>
-      <c r="D340" t="s" s="118">
-        <v>507</v>
       </c>
       <c r="E340" s="119"/>
       <c r="F340" s="119"/>
@@ -11488,7 +11549,9 @@
     <row r="341" ht="17.65" customHeight="1">
       <c r="A341" s="116"/>
       <c r="B341" s="44"/>
-      <c r="C341" s="79"/>
+      <c r="C341" t="s" s="120">
+        <v>507</v>
+      </c>
       <c r="D341" t="s" s="118">
         <v>508</v>
       </c>
@@ -11508,11 +11571,9 @@
     <row r="342" ht="17.65" customHeight="1">
       <c r="A342" s="116"/>
       <c r="B342" s="44"/>
-      <c r="C342" t="s" s="120">
+      <c r="C342" s="79"/>
+      <c r="D342" t="s" s="118">
         <v>509</v>
-      </c>
-      <c r="D342" t="s" s="118">
-        <v>510</v>
       </c>
       <c r="E342" s="119"/>
       <c r="F342" s="119"/>
@@ -11530,7 +11591,9 @@
     <row r="343" ht="17.65" customHeight="1">
       <c r="A343" s="116"/>
       <c r="B343" s="44"/>
-      <c r="C343" s="79"/>
+      <c r="C343" t="s" s="120">
+        <v>510</v>
+      </c>
       <c r="D343" t="s" s="118">
         <v>511</v>
       </c>
@@ -11550,11 +11613,9 @@
     <row r="344" ht="17.65" customHeight="1">
       <c r="A344" s="116"/>
       <c r="B344" s="44"/>
-      <c r="C344" t="s" s="120">
+      <c r="C344" s="79"/>
+      <c r="D344" t="s" s="118">
         <v>512</v>
-      </c>
-      <c r="D344" t="s" s="118">
-        <v>513</v>
       </c>
       <c r="E344" s="119"/>
       <c r="F344" s="119"/>
@@ -11572,7 +11633,9 @@
     <row r="345" ht="17.65" customHeight="1">
       <c r="A345" s="116"/>
       <c r="B345" s="44"/>
-      <c r="C345" s="79"/>
+      <c r="C345" t="s" s="120">
+        <v>513</v>
+      </c>
       <c r="D345" t="s" s="118">
         <v>514</v>
       </c>
@@ -11589,14 +11652,12 @@
       <c r="O345" s="4"/>
       <c r="P345" s="4"/>
     </row>
-    <row r="346" ht="26.7" customHeight="1">
+    <row r="346" ht="17.65" customHeight="1">
       <c r="A346" s="116"/>
-      <c r="B346" s="51"/>
-      <c r="C346" t="s" s="118">
+      <c r="B346" s="44"/>
+      <c r="C346" s="79"/>
+      <c r="D346" t="s" s="118">
         <v>515</v>
-      </c>
-      <c r="D346" t="s" s="118">
-        <v>516</v>
       </c>
       <c r="E346" s="119"/>
       <c r="F346" s="119"/>
@@ -11613,12 +11674,12 @@
     </row>
     <row r="347" ht="26.7" customHeight="1">
       <c r="A347" s="116"/>
-      <c r="B347" s="122"/>
+      <c r="B347" s="51"/>
       <c r="C347" t="s" s="118">
-        <v>110</v>
+        <v>516</v>
       </c>
       <c r="D347" t="s" s="118">
-        <v>111</v>
+        <v>517</v>
       </c>
       <c r="E347" s="119"/>
       <c r="F347" s="119"/>
@@ -11633,19 +11694,17 @@
       <c r="O347" s="4"/>
       <c r="P347" s="4"/>
     </row>
-    <row r="348" ht="17.65" customHeight="1">
-      <c r="A348" s="123"/>
-      <c r="B348" t="s" s="124">
-        <v>517</v>
-      </c>
-      <c r="C348" t="s" s="125">
-        <v>8</v>
-      </c>
-      <c r="D348" t="s" s="125">
-        <v>447</v>
-      </c>
-      <c r="E348" s="126"/>
-      <c r="F348" s="126"/>
+    <row r="348" ht="26.7" customHeight="1">
+      <c r="A348" s="116"/>
+      <c r="B348" s="122"/>
+      <c r="C348" t="s" s="118">
+        <v>111</v>
+      </c>
+      <c r="D348" t="s" s="118">
+        <v>112</v>
+      </c>
+      <c r="E348" s="119"/>
+      <c r="F348" s="119"/>
       <c r="G348" s="31"/>
       <c r="H348" s="3"/>
       <c r="I348" s="3"/>
@@ -11659,12 +11718,14 @@
     </row>
     <row r="349" ht="17.65" customHeight="1">
       <c r="A349" s="123"/>
-      <c r="B349" s="69"/>
+      <c r="B349" t="s" s="124">
+        <v>518</v>
+      </c>
       <c r="C349" t="s" s="125">
-        <v>154</v>
+        <v>8</v>
       </c>
       <c r="D349" t="s" s="125">
-        <v>518</v>
+        <v>448</v>
       </c>
       <c r="E349" s="126"/>
       <c r="F349" s="126"/>
@@ -11681,12 +11742,12 @@
     </row>
     <row r="350" ht="17.65" customHeight="1">
       <c r="A350" s="123"/>
-      <c r="B350" s="44"/>
+      <c r="B350" s="69"/>
       <c r="C350" t="s" s="125">
-        <v>471</v>
+        <v>155</v>
       </c>
       <c r="D350" t="s" s="125">
-        <v>472</v>
+        <v>519</v>
       </c>
       <c r="E350" s="126"/>
       <c r="F350" s="126"/>
@@ -11704,11 +11765,11 @@
     <row r="351" ht="17.65" customHeight="1">
       <c r="A351" s="123"/>
       <c r="B351" s="44"/>
-      <c r="C351" t="s" s="127">
-        <v>434</v>
-      </c>
-      <c r="D351" t="s" s="128">
-        <v>519</v>
+      <c r="C351" t="s" s="125">
+        <v>472</v>
+      </c>
+      <c r="D351" t="s" s="125">
+        <v>473</v>
       </c>
       <c r="E351" s="126"/>
       <c r="F351" s="126"/>
@@ -11726,8 +11787,10 @@
     <row r="352" ht="17.65" customHeight="1">
       <c r="A352" s="123"/>
       <c r="B352" s="44"/>
-      <c r="C352" s="79"/>
-      <c r="D352" t="s" s="125">
+      <c r="C352" t="s" s="127">
+        <v>435</v>
+      </c>
+      <c r="D352" t="s" s="128">
         <v>520</v>
       </c>
       <c r="E352" s="126"/>
@@ -11746,9 +11809,7 @@
     <row r="353" ht="17.65" customHeight="1">
       <c r="A353" s="123"/>
       <c r="B353" s="44"/>
-      <c r="C353" t="s" s="125">
-        <v>515</v>
-      </c>
+      <c r="C353" s="79"/>
       <c r="D353" t="s" s="125">
         <v>521</v>
       </c>
@@ -11769,7 +11830,7 @@
       <c r="A354" s="123"/>
       <c r="B354" s="44"/>
       <c r="C354" t="s" s="125">
-        <v>434</v>
+        <v>516</v>
       </c>
       <c r="D354" t="s" s="125">
         <v>522</v>
@@ -11791,10 +11852,10 @@
       <c r="A355" s="123"/>
       <c r="B355" s="44"/>
       <c r="C355" t="s" s="125">
+        <v>435</v>
+      </c>
+      <c r="D355" t="s" s="125">
         <v>523</v>
-      </c>
-      <c r="D355" t="s" s="125">
-        <v>524</v>
       </c>
       <c r="E355" s="126"/>
       <c r="F355" s="126"/>
@@ -11809,14 +11870,14 @@
       <c r="O355" s="4"/>
       <c r="P355" s="4"/>
     </row>
-    <row r="356" ht="26.7" customHeight="1">
+    <row r="356" ht="17.65" customHeight="1">
       <c r="A356" s="123"/>
-      <c r="B356" s="51"/>
+      <c r="B356" s="44"/>
       <c r="C356" t="s" s="125">
+        <v>524</v>
+      </c>
+      <c r="D356" t="s" s="125">
         <v>525</v>
-      </c>
-      <c r="D356" t="s" s="125">
-        <v>526</v>
       </c>
       <c r="E356" s="126"/>
       <c r="F356" s="126"/>
@@ -11833,12 +11894,12 @@
     </row>
     <row r="357" ht="26.7" customHeight="1">
       <c r="A357" s="123"/>
-      <c r="B357" s="129"/>
+      <c r="B357" s="51"/>
       <c r="C357" t="s" s="125">
-        <v>110</v>
+        <v>526</v>
       </c>
       <c r="D357" t="s" s="125">
-        <v>111</v>
+        <v>527</v>
       </c>
       <c r="E357" s="126"/>
       <c r="F357" s="126"/>
@@ -11853,17 +11914,17 @@
       <c r="O357" s="4"/>
       <c r="P357" s="4"/>
     </row>
-    <row r="358" ht="17.65" customHeight="1">
-      <c r="A358" s="130"/>
-      <c r="B358" t="s" s="131">
-        <v>527</v>
-      </c>
-      <c r="C358" t="s" s="132">
-        <v>528</v>
-      </c>
-      <c r="D358" s="133"/>
-      <c r="E358" s="134"/>
-      <c r="F358" s="134"/>
+    <row r="358" ht="26.7" customHeight="1">
+      <c r="A358" s="123"/>
+      <c r="B358" s="129"/>
+      <c r="C358" t="s" s="125">
+        <v>111</v>
+      </c>
+      <c r="D358" t="s" s="125">
+        <v>112</v>
+      </c>
+      <c r="E358" s="126"/>
+      <c r="F358" s="126"/>
       <c r="G358" s="31"/>
       <c r="H358" s="3"/>
       <c r="I358" s="3"/>
@@ -11875,11 +11936,15 @@
       <c r="O358" s="4"/>
       <c r="P358" s="4"/>
     </row>
-    <row r="359" ht="15" customHeight="1">
+    <row r="359" ht="17.65" customHeight="1">
       <c r="A359" s="130"/>
-      <c r="B359" s="69"/>
-      <c r="C359" s="135"/>
-      <c r="D359" s="136"/>
+      <c r="B359" t="s" s="131">
+        <v>528</v>
+      </c>
+      <c r="C359" t="s" s="132">
+        <v>529</v>
+      </c>
+      <c r="D359" s="133"/>
       <c r="E359" s="134"/>
       <c r="F359" s="134"/>
       <c r="G359" s="31"/>
@@ -11895,8 +11960,8 @@
     </row>
     <row r="360" ht="15" customHeight="1">
       <c r="A360" s="130"/>
-      <c r="B360" s="44"/>
-      <c r="C360" s="137"/>
+      <c r="B360" s="69"/>
+      <c r="C360" s="135"/>
       <c r="D360" s="136"/>
       <c r="E360" s="134"/>
       <c r="F360" s="134"/>
@@ -11949,9 +12014,9 @@
     </row>
     <row r="363" ht="15" customHeight="1">
       <c r="A363" s="130"/>
-      <c r="B363" s="51"/>
-      <c r="C363" s="138"/>
-      <c r="D363" s="139"/>
+      <c r="B363" s="44"/>
+      <c r="C363" s="137"/>
+      <c r="D363" s="136"/>
       <c r="E363" s="134"/>
       <c r="F363" s="134"/>
       <c r="G363" s="31"/>
@@ -11965,19 +12030,13 @@
       <c r="O363" s="4"/>
       <c r="P363" s="4"/>
     </row>
-    <row r="364" ht="17.65" customHeight="1">
-      <c r="A364" s="140"/>
-      <c r="B364" t="s" s="141">
-        <v>529</v>
-      </c>
-      <c r="C364" t="s" s="142">
-        <v>530</v>
-      </c>
-      <c r="D364" t="s" s="142">
-        <v>531</v>
-      </c>
-      <c r="E364" s="143"/>
-      <c r="F364" s="143"/>
+    <row r="364" ht="15" customHeight="1">
+      <c r="A364" s="130"/>
+      <c r="B364" s="51"/>
+      <c r="C364" s="138"/>
+      <c r="D364" s="139"/>
+      <c r="E364" s="134"/>
+      <c r="F364" s="134"/>
       <c r="G364" s="31"/>
       <c r="H364" s="3"/>
       <c r="I364" s="3"/>
@@ -11989,14 +12048,16 @@
       <c r="O364" s="4"/>
       <c r="P364" s="4"/>
     </row>
-    <row r="365" ht="26.7" customHeight="1">
+    <row r="365" ht="17.65" customHeight="1">
       <c r="A365" s="140"/>
-      <c r="B365" s="69"/>
+      <c r="B365" t="s" s="141">
+        <v>530</v>
+      </c>
       <c r="C365" t="s" s="142">
+        <v>531</v>
+      </c>
+      <c r="D365" t="s" s="142">
         <v>532</v>
-      </c>
-      <c r="D365" t="s" s="142">
-        <v>533</v>
       </c>
       <c r="E365" s="143"/>
       <c r="F365" s="143"/>
@@ -12013,9 +12074,9 @@
     </row>
     <row r="366" ht="26.7" customHeight="1">
       <c r="A366" s="140"/>
-      <c r="B366" s="44"/>
+      <c r="B366" s="69"/>
       <c r="C366" t="s" s="142">
-        <v>337</v>
+        <v>533</v>
       </c>
       <c r="D366" t="s" s="142">
         <v>534</v>
@@ -12033,14 +12094,14 @@
       <c r="O366" s="4"/>
       <c r="P366" s="4"/>
     </row>
-    <row r="367" ht="17.65" customHeight="1">
+    <row r="367" ht="26.7" customHeight="1">
       <c r="A367" s="140"/>
       <c r="B367" s="44"/>
       <c r="C367" t="s" s="142">
+        <v>338</v>
+      </c>
+      <c r="D367" t="s" s="142">
         <v>535</v>
-      </c>
-      <c r="D367" t="s" s="142">
-        <v>536</v>
       </c>
       <c r="E367" s="143"/>
       <c r="F367" s="143"/>
@@ -12059,10 +12120,10 @@
       <c r="A368" s="140"/>
       <c r="B368" s="44"/>
       <c r="C368" t="s" s="142">
+        <v>536</v>
+      </c>
+      <c r="D368" t="s" s="142">
         <v>537</v>
-      </c>
-      <c r="D368" t="s" s="144">
-        <v>538</v>
       </c>
       <c r="E368" s="143"/>
       <c r="F368" s="143"/>
@@ -12081,10 +12142,10 @@
       <c r="A369" s="140"/>
       <c r="B369" s="44"/>
       <c r="C369" t="s" s="142">
+        <v>538</v>
+      </c>
+      <c r="D369" t="s" s="144">
         <v>539</v>
-      </c>
-      <c r="D369" t="s" s="142">
-        <v>540</v>
       </c>
       <c r="E369" s="143"/>
       <c r="F369" s="143"/>
@@ -12103,10 +12164,10 @@
       <c r="A370" s="140"/>
       <c r="B370" s="44"/>
       <c r="C370" t="s" s="142">
+        <v>540</v>
+      </c>
+      <c r="D370" t="s" s="142">
         <v>541</v>
-      </c>
-      <c r="D370" t="s" s="142">
-        <v>542</v>
       </c>
       <c r="E370" s="143"/>
       <c r="F370" s="143"/>
@@ -12123,12 +12184,12 @@
     </row>
     <row r="371" ht="17.65" customHeight="1">
       <c r="A371" s="140"/>
-      <c r="B371" s="51"/>
+      <c r="B371" s="44"/>
       <c r="C371" t="s" s="142">
+        <v>542</v>
+      </c>
+      <c r="D371" t="s" s="142">
         <v>543</v>
-      </c>
-      <c r="D371" t="s" s="142">
-        <v>544</v>
       </c>
       <c r="E371" s="143"/>
       <c r="F371" s="143"/>
@@ -12145,19 +12206,15 @@
     </row>
     <row r="372" ht="17.65" customHeight="1">
       <c r="A372" s="140"/>
-      <c r="B372" s="145"/>
+      <c r="B372" s="51"/>
       <c r="C372" t="s" s="142">
-        <v>110</v>
+        <v>544</v>
       </c>
       <c r="D372" t="s" s="142">
         <v>545</v>
       </c>
-      <c r="E372" t="s" s="146">
-        <v>112</v>
-      </c>
-      <c r="F372" t="s" s="146">
-        <v>112</v>
-      </c>
+      <c r="E372" s="143"/>
+      <c r="F372" s="143"/>
       <c r="G372" s="31"/>
       <c r="H372" s="3"/>
       <c r="I372" s="3"/>
@@ -12169,14 +12226,22 @@
       <c r="O372" s="4"/>
       <c r="P372" s="4"/>
     </row>
-    <row r="373" ht="15" customHeight="1">
-      <c r="A373" s="11"/>
-      <c r="B373" s="147"/>
-      <c r="C373" s="147"/>
-      <c r="D373" s="148"/>
-      <c r="E373" s="147"/>
-      <c r="F373" s="147"/>
-      <c r="G373" s="3"/>
+    <row r="373" ht="17.65" customHeight="1">
+      <c r="A373" s="140"/>
+      <c r="B373" s="145"/>
+      <c r="C373" t="s" s="142">
+        <v>111</v>
+      </c>
+      <c r="D373" t="s" s="142">
+        <v>546</v>
+      </c>
+      <c r="E373" t="s" s="146">
+        <v>113</v>
+      </c>
+      <c r="F373" t="s" s="146">
+        <v>113</v>
+      </c>
+      <c r="G373" s="31"/>
       <c r="H373" s="3"/>
       <c r="I373" s="3"/>
       <c r="J373" s="3"/>
@@ -12187,88 +12252,106 @@
       <c r="O373" s="4"/>
       <c r="P373" s="4"/>
     </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="A374" s="11"/>
+      <c r="B374" s="147"/>
+      <c r="C374" s="147"/>
+      <c r="D374" s="148"/>
+      <c r="E374" s="147"/>
+      <c r="F374" s="147"/>
+      <c r="G374" s="3"/>
+      <c r="H374" s="3"/>
+      <c r="I374" s="3"/>
+      <c r="J374" s="3"/>
+      <c r="K374" s="3"/>
+      <c r="L374" s="3"/>
+      <c r="M374" s="3"/>
+      <c r="N374" s="3"/>
+      <c r="O374" s="4"/>
+      <c r="P374" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="B364:B371"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="C342:C343"/>
-    <mergeCell ref="C326:C327"/>
-    <mergeCell ref="C169:C170"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="B262:B282"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="C340:C341"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="C212:C213"/>
-    <mergeCell ref="B313:B346"/>
-    <mergeCell ref="C165:C166"/>
-    <mergeCell ref="C322:C323"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="C173:C174"/>
-    <mergeCell ref="C324:C325"/>
-    <mergeCell ref="B84:B98"/>
-    <mergeCell ref="C177:C178"/>
-    <mergeCell ref="C351:C352"/>
-    <mergeCell ref="C210:C211"/>
-    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="B365:B372"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="C155:C156"/>
+    <mergeCell ref="C343:C344"/>
+    <mergeCell ref="C327:C328"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="B263:B283"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="C341:C342"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="C323:C324"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="C325:C326"/>
+    <mergeCell ref="B85:B99"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="C352:C353"/>
+    <mergeCell ref="C211:C212"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="C213:C214"/>
+    <mergeCell ref="B314:B347"/>
     <mergeCell ref="B23:B54"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="C338:C339"/>
-    <mergeCell ref="C191:C192"/>
-    <mergeCell ref="B292:B311"/>
-    <mergeCell ref="C184:C185"/>
-    <mergeCell ref="B358:B363"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="C344:C345"/>
-    <mergeCell ref="B348:B356"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="C156:C157"/>
-    <mergeCell ref="C175:C176"/>
-    <mergeCell ref="C182:C183"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="C336:C337"/>
-    <mergeCell ref="C198:C199"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="C358:D363"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="C334:C335"/>
-    <mergeCell ref="C193:C194"/>
-    <mergeCell ref="B100:B203"/>
-    <mergeCell ref="C196:C197"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="C339:C340"/>
+    <mergeCell ref="C185:C186"/>
+    <mergeCell ref="B359:B364"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="C345:C346"/>
+    <mergeCell ref="B349:B357"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="B285:B291"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="C187:C188"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="C181:C182"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="C337:C338"/>
+    <mergeCell ref="C199:C200"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="C359:D364"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="C335:C336"/>
+    <mergeCell ref="C194:C195"/>
+    <mergeCell ref="B101:B204"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="C203:C204"/>
+    <mergeCell ref="C331:C332"/>
+    <mergeCell ref="C190:C191"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B284:B290"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="C186:C187"/>
+    <mergeCell ref="C209:C210"/>
+    <mergeCell ref="C215:C216"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="C201:C202"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="C333:C334"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="C192:C193"/>
+    <mergeCell ref="B293:B312"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="C202:C203"/>
-    <mergeCell ref="C208:C209"/>
-    <mergeCell ref="C330:C331"/>
-    <mergeCell ref="C189:C190"/>
-    <mergeCell ref="C214:C215"/>
-    <mergeCell ref="C167:C168"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="C200:C201"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="C332:C333"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="C328:C329"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="B238:B260"/>
-    <mergeCell ref="C315:C316"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="B205:B232"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="C206:C207"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="C329:C330"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="B239:B261"/>
+    <mergeCell ref="C197:C198"/>
+    <mergeCell ref="C316:C317"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="B206:B233"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="C207:C208"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/do_not_delete/usa-translations.xlsx
+++ b/do_not_delete/usa-translations.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="548">
   <si>
     <t>ofo.com copy deck for translations: USA</t>
   </si>
@@ -426,6 +426,9 @@
   </si>
   <si>
     <t xml:space="preserve">give your city the gift of bike share                                                                       </t>
+  </si>
+  <si>
+    <t>create-stop</t>
   </si>
   <si>
     <t>CampusBenefitsPage</t>
@@ -1762,7 +1765,7 @@
     <t>Your Email:</t>
   </si>
   <si>
-    <t>new_language</t>
+    <t>next_language</t>
   </si>
 </sst>
 </file>
@@ -3979,7 +3982,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P374"/>
+  <dimension ref="A1:P373"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -5834,7 +5837,7 @@
         <v>112</v>
       </c>
       <c r="E79" t="s" s="64">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="F79" s="58"/>
       <c r="G79" s="31"/>
@@ -5851,10 +5854,14 @@
     <row r="80" ht="17.65" customHeight="1">
       <c r="A80" s="54"/>
       <c r="B80" s="63"/>
-      <c r="C80" s="60"/>
-      <c r="D80" s="60"/>
+      <c r="C80" t="s" s="60">
+        <v>16</v>
+      </c>
+      <c r="D80" t="s" s="60">
+        <v>6</v>
+      </c>
       <c r="E80" t="s" s="64">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="F80" s="58"/>
       <c r="G80" s="31"/>
@@ -5872,13 +5879,13 @@
       <c r="A81" s="54"/>
       <c r="B81" s="63"/>
       <c r="C81" t="s" s="60">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D81" t="s" s="60">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E81" t="s" s="64">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F81" s="58"/>
       <c r="G81" s="31"/>
@@ -5896,13 +5903,13 @@
       <c r="A82" s="54"/>
       <c r="B82" s="63"/>
       <c r="C82" t="s" s="60">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D82" t="s" s="60">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E82" t="s" s="64">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F82" s="58"/>
       <c r="G82" s="31"/>
@@ -5920,14 +5927,12 @@
       <c r="A83" s="54"/>
       <c r="B83" s="63"/>
       <c r="C83" t="s" s="60">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D83" t="s" s="60">
-        <v>7</v>
-      </c>
-      <c r="E83" t="s" s="64">
-        <v>21</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="E83" s="64"/>
       <c r="F83" s="58"/>
       <c r="G83" s="31"/>
       <c r="H83" s="3"/>
@@ -5941,16 +5946,18 @@
       <c r="P83" s="4"/>
     </row>
     <row r="84" ht="17.65" customHeight="1">
-      <c r="A84" s="54"/>
-      <c r="B84" s="63"/>
-      <c r="C84" t="s" s="60">
-        <v>23</v>
-      </c>
-      <c r="D84" t="s" s="60">
-        <v>138</v>
-      </c>
-      <c r="E84" s="64"/>
-      <c r="F84" s="58"/>
+      <c r="A84" s="65"/>
+      <c r="B84" t="s" s="66">
+        <v>140</v>
+      </c>
+      <c r="C84" t="s" s="67">
+        <v>26</v>
+      </c>
+      <c r="D84" t="s" s="67">
+        <v>141</v>
+      </c>
+      <c r="E84" s="68"/>
+      <c r="F84" s="68"/>
       <c r="G84" s="31"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
@@ -5964,14 +5971,12 @@
     </row>
     <row r="85" ht="17.65" customHeight="1">
       <c r="A85" s="65"/>
-      <c r="B85" t="s" s="66">
-        <v>139</v>
-      </c>
-      <c r="C85" t="s" s="67">
-        <v>26</v>
-      </c>
-      <c r="D85" t="s" s="67">
-        <v>140</v>
+      <c r="B85" s="69"/>
+      <c r="C85" t="s" s="70">
+        <v>29</v>
+      </c>
+      <c r="D85" t="s" s="71">
+        <v>142</v>
       </c>
       <c r="E85" s="68"/>
       <c r="F85" s="68"/>
@@ -5986,14 +5991,14 @@
       <c r="O85" s="4"/>
       <c r="P85" s="4"/>
     </row>
-    <row r="86" ht="17.65" customHeight="1">
+    <row r="86" ht="26.7" customHeight="1">
       <c r="A86" s="65"/>
-      <c r="B86" s="69"/>
-      <c r="C86" t="s" s="70">
-        <v>29</v>
-      </c>
-      <c r="D86" t="s" s="71">
-        <v>141</v>
+      <c r="B86" s="44"/>
+      <c r="C86" t="s" s="47">
+        <v>32</v>
+      </c>
+      <c r="D86" t="s" s="67">
+        <v>143</v>
       </c>
       <c r="E86" s="68"/>
       <c r="F86" s="68"/>
@@ -6008,14 +6013,14 @@
       <c r="O86" s="4"/>
       <c r="P86" s="4"/>
     </row>
-    <row r="87" ht="26.7" customHeight="1">
+    <row r="87" ht="17.65" customHeight="1">
       <c r="A87" s="65"/>
       <c r="B87" s="44"/>
-      <c r="C87" t="s" s="47">
-        <v>32</v>
-      </c>
-      <c r="D87" t="s" s="67">
-        <v>142</v>
+      <c r="C87" t="s" s="70">
+        <v>35</v>
+      </c>
+      <c r="D87" t="s" s="71">
+        <v>144</v>
       </c>
       <c r="E87" s="68"/>
       <c r="F87" s="68"/>
@@ -6030,14 +6035,14 @@
       <c r="O87" s="4"/>
       <c r="P87" s="4"/>
     </row>
-    <row r="88" ht="17.65" customHeight="1">
+    <row r="88" ht="50.7" customHeight="1">
       <c r="A88" s="65"/>
       <c r="B88" s="44"/>
-      <c r="C88" t="s" s="70">
-        <v>35</v>
-      </c>
-      <c r="D88" t="s" s="71">
-        <v>143</v>
+      <c r="C88" t="s" s="47">
+        <v>38</v>
+      </c>
+      <c r="D88" t="s" s="67">
+        <v>145</v>
       </c>
       <c r="E88" s="68"/>
       <c r="F88" s="68"/>
@@ -6052,14 +6057,14 @@
       <c r="O88" s="4"/>
       <c r="P88" s="4"/>
     </row>
-    <row r="89" ht="50.7" customHeight="1">
+    <row r="89" ht="17.65" customHeight="1">
       <c r="A89" s="65"/>
       <c r="B89" s="44"/>
-      <c r="C89" t="s" s="47">
-        <v>38</v>
-      </c>
-      <c r="D89" t="s" s="67">
-        <v>144</v>
+      <c r="C89" t="s" s="70">
+        <v>41</v>
+      </c>
+      <c r="D89" t="s" s="71">
+        <v>146</v>
       </c>
       <c r="E89" s="68"/>
       <c r="F89" s="68"/>
@@ -6077,11 +6082,11 @@
     <row r="90" ht="17.65" customHeight="1">
       <c r="A90" s="65"/>
       <c r="B90" s="44"/>
-      <c r="C90" t="s" s="70">
-        <v>41</v>
-      </c>
-      <c r="D90" t="s" s="71">
-        <v>145</v>
+      <c r="C90" t="s" s="47">
+        <v>44</v>
+      </c>
+      <c r="D90" t="s" s="67">
+        <v>122</v>
       </c>
       <c r="E90" s="68"/>
       <c r="F90" s="68"/>
@@ -6096,14 +6101,14 @@
       <c r="O90" s="4"/>
       <c r="P90" s="4"/>
     </row>
-    <row r="91" ht="17.65" customHeight="1">
+    <row r="91" ht="26.7" customHeight="1">
       <c r="A91" s="65"/>
       <c r="B91" s="44"/>
-      <c r="C91" t="s" s="47">
-        <v>44</v>
-      </c>
-      <c r="D91" t="s" s="67">
-        <v>122</v>
+      <c r="C91" t="s" s="70">
+        <v>47</v>
+      </c>
+      <c r="D91" t="s" s="71">
+        <v>147</v>
       </c>
       <c r="E91" s="68"/>
       <c r="F91" s="68"/>
@@ -6118,14 +6123,14 @@
       <c r="O91" s="4"/>
       <c r="P91" s="4"/>
     </row>
-    <row r="92" ht="26.7" customHeight="1">
+    <row r="92" ht="62.7" customHeight="1">
       <c r="A92" s="65"/>
       <c r="B92" s="44"/>
-      <c r="C92" t="s" s="70">
-        <v>47</v>
-      </c>
-      <c r="D92" t="s" s="71">
-        <v>146</v>
+      <c r="C92" t="s" s="47">
+        <v>50</v>
+      </c>
+      <c r="D92" t="s" s="67">
+        <v>148</v>
       </c>
       <c r="E92" s="68"/>
       <c r="F92" s="68"/>
@@ -6140,14 +6145,14 @@
       <c r="O92" s="4"/>
       <c r="P92" s="4"/>
     </row>
-    <row r="93" ht="62.7" customHeight="1">
+    <row r="93" ht="17.65" customHeight="1">
       <c r="A93" s="65"/>
       <c r="B93" s="44"/>
-      <c r="C93" t="s" s="47">
-        <v>50</v>
-      </c>
-      <c r="D93" t="s" s="67">
-        <v>147</v>
+      <c r="C93" t="s" s="70">
+        <v>77</v>
+      </c>
+      <c r="D93" t="s" s="71">
+        <v>149</v>
       </c>
       <c r="E93" s="68"/>
       <c r="F93" s="68"/>
@@ -6162,14 +6167,14 @@
       <c r="O93" s="4"/>
       <c r="P93" s="4"/>
     </row>
-    <row r="94" ht="17.65" customHeight="1">
+    <row r="94" ht="50.7" customHeight="1">
       <c r="A94" s="65"/>
       <c r="B94" s="44"/>
-      <c r="C94" t="s" s="70">
-        <v>77</v>
-      </c>
-      <c r="D94" t="s" s="71">
-        <v>148</v>
+      <c r="C94" t="s" s="47">
+        <v>80</v>
+      </c>
+      <c r="D94" t="s" s="67">
+        <v>150</v>
       </c>
       <c r="E94" s="68"/>
       <c r="F94" s="68"/>
@@ -6184,14 +6189,14 @@
       <c r="O94" s="4"/>
       <c r="P94" s="4"/>
     </row>
-    <row r="95" ht="50.7" customHeight="1">
+    <row r="95" ht="17.65" customHeight="1">
       <c r="A95" s="65"/>
       <c r="B95" s="44"/>
-      <c r="C95" t="s" s="47">
-        <v>80</v>
-      </c>
-      <c r="D95" t="s" s="67">
-        <v>149</v>
+      <c r="C95" t="s" s="70">
+        <v>83</v>
+      </c>
+      <c r="D95" t="s" s="71">
+        <v>151</v>
       </c>
       <c r="E95" s="68"/>
       <c r="F95" s="68"/>
@@ -6206,14 +6211,14 @@
       <c r="O95" s="4"/>
       <c r="P95" s="4"/>
     </row>
-    <row r="96" ht="17.65" customHeight="1">
+    <row r="96" ht="50.7" customHeight="1">
       <c r="A96" s="65"/>
       <c r="B96" s="44"/>
-      <c r="C96" t="s" s="70">
-        <v>83</v>
-      </c>
-      <c r="D96" t="s" s="71">
-        <v>150</v>
+      <c r="C96" t="s" s="47">
+        <v>128</v>
+      </c>
+      <c r="D96" t="s" s="67">
+        <v>152</v>
       </c>
       <c r="E96" s="68"/>
       <c r="F96" s="68"/>
@@ -6228,14 +6233,14 @@
       <c r="O96" s="4"/>
       <c r="P96" s="4"/>
     </row>
-    <row r="97" ht="50.7" customHeight="1">
+    <row r="97" ht="17.65" customHeight="1">
       <c r="A97" s="65"/>
       <c r="B97" s="44"/>
-      <c r="C97" t="s" s="47">
-        <v>128</v>
-      </c>
-      <c r="D97" t="s" s="67">
-        <v>151</v>
+      <c r="C97" t="s" s="70">
+        <v>107</v>
+      </c>
+      <c r="D97" t="s" s="71">
+        <v>153</v>
       </c>
       <c r="E97" s="68"/>
       <c r="F97" s="68"/>
@@ -6252,12 +6257,12 @@
     </row>
     <row r="98" ht="17.65" customHeight="1">
       <c r="A98" s="65"/>
-      <c r="B98" s="44"/>
-      <c r="C98" t="s" s="70">
-        <v>107</v>
-      </c>
-      <c r="D98" t="s" s="71">
-        <v>152</v>
+      <c r="B98" s="51"/>
+      <c r="C98" t="s" s="47">
+        <v>109</v>
+      </c>
+      <c r="D98" t="s" s="67">
+        <v>122</v>
       </c>
       <c r="E98" s="68"/>
       <c r="F98" s="68"/>
@@ -6274,12 +6279,12 @@
     </row>
     <row r="99" ht="17.65" customHeight="1">
       <c r="A99" s="65"/>
-      <c r="B99" s="51"/>
-      <c r="C99" t="s" s="47">
-        <v>109</v>
+      <c r="B99" s="72"/>
+      <c r="C99" t="s" s="67">
+        <v>111</v>
       </c>
       <c r="D99" t="s" s="67">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E99" s="68"/>
       <c r="F99" s="68"/>
@@ -6295,16 +6300,18 @@
       <c r="P99" s="4"/>
     </row>
     <row r="100" ht="17.65" customHeight="1">
-      <c r="A100" s="65"/>
-      <c r="B100" s="72"/>
-      <c r="C100" t="s" s="67">
-        <v>111</v>
-      </c>
-      <c r="D100" t="s" s="67">
-        <v>112</v>
-      </c>
-      <c r="E100" s="68"/>
-      <c r="F100" s="68"/>
+      <c r="A100" s="73"/>
+      <c r="B100" t="s" s="74">
+        <v>154</v>
+      </c>
+      <c r="C100" t="s" s="75">
+        <v>8</v>
+      </c>
+      <c r="D100" t="s" s="75">
+        <v>155</v>
+      </c>
+      <c r="E100" s="76"/>
+      <c r="F100" s="76"/>
       <c r="G100" s="31"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
@@ -6318,14 +6325,12 @@
     </row>
     <row r="101" ht="17.65" customHeight="1">
       <c r="A101" s="73"/>
-      <c r="B101" t="s" s="74">
-        <v>153</v>
-      </c>
-      <c r="C101" t="s" s="75">
-        <v>8</v>
-      </c>
-      <c r="D101" t="s" s="75">
-        <v>154</v>
+      <c r="B101" s="69"/>
+      <c r="C101" t="s" s="77">
+        <v>156</v>
+      </c>
+      <c r="D101" t="s" s="78">
+        <v>157</v>
       </c>
       <c r="E101" s="76"/>
       <c r="F101" s="76"/>
@@ -6342,12 +6347,10 @@
     </row>
     <row r="102" ht="17.65" customHeight="1">
       <c r="A102" s="73"/>
-      <c r="B102" s="69"/>
-      <c r="C102" t="s" s="77">
-        <v>155</v>
-      </c>
-      <c r="D102" t="s" s="78">
-        <v>156</v>
+      <c r="B102" s="44"/>
+      <c r="C102" s="79"/>
+      <c r="D102" t="s" s="75">
+        <v>158</v>
       </c>
       <c r="E102" s="76"/>
       <c r="F102" s="76"/>
@@ -6365,9 +6368,11 @@
     <row r="103" ht="17.65" customHeight="1">
       <c r="A103" s="73"/>
       <c r="B103" s="44"/>
-      <c r="C103" s="79"/>
-      <c r="D103" t="s" s="75">
-        <v>157</v>
+      <c r="C103" t="s" s="75">
+        <v>159</v>
+      </c>
+      <c r="D103" t="s" s="78">
+        <v>160</v>
       </c>
       <c r="E103" s="76"/>
       <c r="F103" s="76"/>
@@ -6382,14 +6387,14 @@
       <c r="O103" s="4"/>
       <c r="P103" s="4"/>
     </row>
-    <row r="104" ht="17.65" customHeight="1">
+    <row r="104" ht="26.7" customHeight="1">
       <c r="A104" s="73"/>
       <c r="B104" s="44"/>
-      <c r="C104" t="s" s="75">
-        <v>158</v>
+      <c r="C104" t="s" s="80">
+        <v>161</v>
       </c>
       <c r="D104" t="s" s="78">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E104" s="76"/>
       <c r="F104" s="76"/>
@@ -6404,14 +6409,12 @@
       <c r="O104" s="4"/>
       <c r="P104" s="4"/>
     </row>
-    <row r="105" ht="26.7" customHeight="1">
+    <row r="105" ht="62.7" customHeight="1">
       <c r="A105" s="73"/>
       <c r="B105" s="44"/>
-      <c r="C105" t="s" s="80">
-        <v>160</v>
-      </c>
-      <c r="D105" t="s" s="78">
-        <v>161</v>
+      <c r="C105" s="79"/>
+      <c r="D105" t="s" s="75">
+        <v>163</v>
       </c>
       <c r="E105" s="76"/>
       <c r="F105" s="76"/>
@@ -6426,12 +6429,14 @@
       <c r="O105" s="4"/>
       <c r="P105" s="4"/>
     </row>
-    <row r="106" ht="62.7" customHeight="1">
+    <row r="106" ht="26.7" customHeight="1">
       <c r="A106" s="73"/>
       <c r="B106" s="44"/>
-      <c r="C106" s="79"/>
-      <c r="D106" t="s" s="75">
-        <v>162</v>
+      <c r="C106" t="s" s="80">
+        <v>164</v>
+      </c>
+      <c r="D106" t="s" s="78">
+        <v>165</v>
       </c>
       <c r="E106" s="76"/>
       <c r="F106" s="76"/>
@@ -6446,14 +6451,12 @@
       <c r="O106" s="4"/>
       <c r="P106" s="4"/>
     </row>
-    <row r="107" ht="26.7" customHeight="1">
+    <row r="107" ht="182.7" customHeight="1">
       <c r="A107" s="73"/>
       <c r="B107" s="44"/>
-      <c r="C107" t="s" s="80">
-        <v>163</v>
-      </c>
-      <c r="D107" t="s" s="78">
-        <v>164</v>
+      <c r="C107" s="79"/>
+      <c r="D107" t="s" s="75">
+        <v>166</v>
       </c>
       <c r="E107" s="76"/>
       <c r="F107" s="76"/>
@@ -6468,12 +6471,14 @@
       <c r="O107" s="4"/>
       <c r="P107" s="4"/>
     </row>
-    <row r="108" ht="182.7" customHeight="1">
+    <row r="108" ht="26.7" customHeight="1">
       <c r="A108" s="73"/>
       <c r="B108" s="44"/>
-      <c r="C108" s="79"/>
-      <c r="D108" t="s" s="75">
-        <v>165</v>
+      <c r="C108" t="s" s="80">
+        <v>167</v>
+      </c>
+      <c r="D108" t="s" s="78">
+        <v>168</v>
       </c>
       <c r="E108" s="76"/>
       <c r="F108" s="76"/>
@@ -6488,14 +6493,12 @@
       <c r="O108" s="4"/>
       <c r="P108" s="4"/>
     </row>
-    <row r="109" ht="26.7" customHeight="1">
+    <row r="109" ht="38.7" customHeight="1">
       <c r="A109" s="73"/>
       <c r="B109" s="44"/>
-      <c r="C109" t="s" s="80">
-        <v>166</v>
-      </c>
-      <c r="D109" t="s" s="78">
-        <v>167</v>
+      <c r="C109" s="79"/>
+      <c r="D109" t="s" s="75">
+        <v>169</v>
       </c>
       <c r="E109" s="76"/>
       <c r="F109" s="76"/>
@@ -6510,12 +6513,14 @@
       <c r="O109" s="4"/>
       <c r="P109" s="4"/>
     </row>
-    <row r="110" ht="38.7" customHeight="1">
+    <row r="110" ht="26.7" customHeight="1">
       <c r="A110" s="73"/>
       <c r="B110" s="44"/>
-      <c r="C110" s="79"/>
-      <c r="D110" t="s" s="75">
-        <v>168</v>
+      <c r="C110" t="s" s="80">
+        <v>170</v>
+      </c>
+      <c r="D110" t="s" s="78">
+        <v>171</v>
       </c>
       <c r="E110" s="76"/>
       <c r="F110" s="76"/>
@@ -6530,14 +6535,12 @@
       <c r="O110" s="4"/>
       <c r="P110" s="4"/>
     </row>
-    <row r="111" ht="26.7" customHeight="1">
+    <row r="111" ht="50.7" customHeight="1">
       <c r="A111" s="73"/>
       <c r="B111" s="44"/>
-      <c r="C111" t="s" s="80">
-        <v>169</v>
-      </c>
-      <c r="D111" t="s" s="78">
-        <v>170</v>
+      <c r="C111" s="79"/>
+      <c r="D111" t="s" s="75">
+        <v>172</v>
       </c>
       <c r="E111" s="76"/>
       <c r="F111" s="76"/>
@@ -6552,12 +6555,14 @@
       <c r="O111" s="4"/>
       <c r="P111" s="4"/>
     </row>
-    <row r="112" ht="50.7" customHeight="1">
+    <row r="112" ht="26.7" customHeight="1">
       <c r="A112" s="73"/>
       <c r="B112" s="44"/>
-      <c r="C112" s="79"/>
-      <c r="D112" t="s" s="75">
-        <v>171</v>
+      <c r="C112" t="s" s="80">
+        <v>173</v>
+      </c>
+      <c r="D112" t="s" s="78">
+        <v>174</v>
       </c>
       <c r="E112" s="76"/>
       <c r="F112" s="76"/>
@@ -6572,14 +6577,12 @@
       <c r="O112" s="4"/>
       <c r="P112" s="4"/>
     </row>
-    <row r="113" ht="26.7" customHeight="1">
+    <row r="113" ht="74.7" customHeight="1">
       <c r="A113" s="73"/>
       <c r="B113" s="44"/>
-      <c r="C113" t="s" s="80">
-        <v>172</v>
-      </c>
-      <c r="D113" t="s" s="78">
-        <v>173</v>
+      <c r="C113" s="79"/>
+      <c r="D113" t="s" s="75">
+        <v>175</v>
       </c>
       <c r="E113" s="76"/>
       <c r="F113" s="76"/>
@@ -6594,12 +6597,14 @@
       <c r="O113" s="4"/>
       <c r="P113" s="4"/>
     </row>
-    <row r="114" ht="74.7" customHeight="1">
+    <row r="114" ht="38.7" customHeight="1">
       <c r="A114" s="73"/>
       <c r="B114" s="44"/>
-      <c r="C114" s="79"/>
-      <c r="D114" t="s" s="75">
-        <v>174</v>
+      <c r="C114" t="s" s="80">
+        <v>176</v>
+      </c>
+      <c r="D114" t="s" s="78">
+        <v>177</v>
       </c>
       <c r="E114" s="76"/>
       <c r="F114" s="76"/>
@@ -6614,14 +6619,12 @@
       <c r="O114" s="4"/>
       <c r="P114" s="4"/>
     </row>
-    <row r="115" ht="38.7" customHeight="1">
+    <row r="115" ht="62.7" customHeight="1">
       <c r="A115" s="73"/>
       <c r="B115" s="44"/>
-      <c r="C115" t="s" s="80">
-        <v>175</v>
-      </c>
-      <c r="D115" t="s" s="78">
-        <v>176</v>
+      <c r="C115" s="79"/>
+      <c r="D115" t="s" s="75">
+        <v>178</v>
       </c>
       <c r="E115" s="76"/>
       <c r="F115" s="76"/>
@@ -6636,12 +6639,14 @@
       <c r="O115" s="4"/>
       <c r="P115" s="4"/>
     </row>
-    <row r="116" ht="62.7" customHeight="1">
+    <row r="116" ht="26.7" customHeight="1">
       <c r="A116" s="73"/>
       <c r="B116" s="44"/>
-      <c r="C116" s="79"/>
-      <c r="D116" t="s" s="75">
-        <v>177</v>
+      <c r="C116" t="s" s="80">
+        <v>179</v>
+      </c>
+      <c r="D116" t="s" s="78">
+        <v>180</v>
       </c>
       <c r="E116" s="76"/>
       <c r="F116" s="76"/>
@@ -6656,14 +6661,12 @@
       <c r="O116" s="4"/>
       <c r="P116" s="4"/>
     </row>
-    <row r="117" ht="26.7" customHeight="1">
+    <row r="117" ht="74.7" customHeight="1">
       <c r="A117" s="73"/>
       <c r="B117" s="44"/>
-      <c r="C117" t="s" s="80">
-        <v>178</v>
-      </c>
-      <c r="D117" t="s" s="78">
-        <v>179</v>
+      <c r="C117" s="79"/>
+      <c r="D117" t="s" s="75">
+        <v>181</v>
       </c>
       <c r="E117" s="76"/>
       <c r="F117" s="76"/>
@@ -6678,12 +6681,14 @@
       <c r="O117" s="4"/>
       <c r="P117" s="4"/>
     </row>
-    <row r="118" ht="74.7" customHeight="1">
+    <row r="118" ht="26.7" customHeight="1">
       <c r="A118" s="73"/>
       <c r="B118" s="44"/>
-      <c r="C118" s="79"/>
-      <c r="D118" t="s" s="75">
-        <v>180</v>
+      <c r="C118" t="s" s="80">
+        <v>182</v>
+      </c>
+      <c r="D118" t="s" s="78">
+        <v>183</v>
       </c>
       <c r="E118" s="76"/>
       <c r="F118" s="76"/>
@@ -6698,14 +6703,12 @@
       <c r="O118" s="4"/>
       <c r="P118" s="4"/>
     </row>
-    <row r="119" ht="26.7" customHeight="1">
+    <row r="119" ht="86.7" customHeight="1">
       <c r="A119" s="73"/>
       <c r="B119" s="44"/>
-      <c r="C119" t="s" s="80">
-        <v>181</v>
-      </c>
-      <c r="D119" t="s" s="78">
-        <v>182</v>
+      <c r="C119" s="79"/>
+      <c r="D119" t="s" s="75">
+        <v>184</v>
       </c>
       <c r="E119" s="76"/>
       <c r="F119" s="76"/>
@@ -6720,12 +6723,14 @@
       <c r="O119" s="4"/>
       <c r="P119" s="4"/>
     </row>
-    <row r="120" ht="86.7" customHeight="1">
+    <row r="120" ht="17.65" customHeight="1">
       <c r="A120" s="73"/>
       <c r="B120" s="44"/>
-      <c r="C120" s="79"/>
-      <c r="D120" t="s" s="75">
-        <v>183</v>
+      <c r="C120" t="s" s="80">
+        <v>185</v>
+      </c>
+      <c r="D120" t="s" s="78">
+        <v>186</v>
       </c>
       <c r="E120" s="76"/>
       <c r="F120" s="76"/>
@@ -6740,14 +6745,12 @@
       <c r="O120" s="4"/>
       <c r="P120" s="4"/>
     </row>
-    <row r="121" ht="17.65" customHeight="1">
+    <row r="121" ht="62.7" customHeight="1">
       <c r="A121" s="73"/>
       <c r="B121" s="44"/>
-      <c r="C121" t="s" s="80">
-        <v>184</v>
-      </c>
-      <c r="D121" t="s" s="78">
-        <v>185</v>
+      <c r="C121" s="79"/>
+      <c r="D121" t="s" s="75">
+        <v>187</v>
       </c>
       <c r="E121" s="76"/>
       <c r="F121" s="76"/>
@@ -6762,12 +6765,14 @@
       <c r="O121" s="4"/>
       <c r="P121" s="4"/>
     </row>
-    <row r="122" ht="62.7" customHeight="1">
+    <row r="122" ht="17.65" customHeight="1">
       <c r="A122" s="73"/>
       <c r="B122" s="44"/>
-      <c r="C122" s="79"/>
-      <c r="D122" t="s" s="75">
-        <v>186</v>
+      <c r="C122" t="s" s="75">
+        <v>188</v>
+      </c>
+      <c r="D122" t="s" s="78">
+        <v>189</v>
       </c>
       <c r="E122" s="76"/>
       <c r="F122" s="76"/>
@@ -6785,11 +6790,11 @@
     <row r="123" ht="17.65" customHeight="1">
       <c r="A123" s="73"/>
       <c r="B123" s="44"/>
-      <c r="C123" t="s" s="75">
-        <v>187</v>
+      <c r="C123" t="s" s="80">
+        <v>161</v>
       </c>
       <c r="D123" t="s" s="78">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E123" s="76"/>
       <c r="F123" s="76"/>
@@ -6804,14 +6809,12 @@
       <c r="O123" s="4"/>
       <c r="P123" s="4"/>
     </row>
-    <row r="124" ht="17.65" customHeight="1">
+    <row r="124" ht="50.7" customHeight="1">
       <c r="A124" s="73"/>
       <c r="B124" s="44"/>
-      <c r="C124" t="s" s="80">
-        <v>160</v>
-      </c>
-      <c r="D124" t="s" s="78">
-        <v>189</v>
+      <c r="C124" s="79"/>
+      <c r="D124" t="s" s="75">
+        <v>191</v>
       </c>
       <c r="E124" s="76"/>
       <c r="F124" s="76"/>
@@ -6826,12 +6829,14 @@
       <c r="O124" s="4"/>
       <c r="P124" s="4"/>
     </row>
-    <row r="125" ht="50.7" customHeight="1">
+    <row r="125" ht="17.65" customHeight="1">
       <c r="A125" s="73"/>
       <c r="B125" s="44"/>
-      <c r="C125" s="79"/>
-      <c r="D125" t="s" s="75">
-        <v>190</v>
+      <c r="C125" t="s" s="80">
+        <v>164</v>
+      </c>
+      <c r="D125" t="s" s="78">
+        <v>192</v>
       </c>
       <c r="E125" s="76"/>
       <c r="F125" s="76"/>
@@ -6846,14 +6851,12 @@
       <c r="O125" s="4"/>
       <c r="P125" s="4"/>
     </row>
-    <row r="126" ht="17.65" customHeight="1">
+    <row r="126" ht="38.7" customHeight="1">
       <c r="A126" s="73"/>
       <c r="B126" s="44"/>
-      <c r="C126" t="s" s="80">
-        <v>163</v>
-      </c>
-      <c r="D126" t="s" s="78">
-        <v>191</v>
+      <c r="C126" s="79"/>
+      <c r="D126" t="s" s="75">
+        <v>193</v>
       </c>
       <c r="E126" s="76"/>
       <c r="F126" s="76"/>
@@ -6868,12 +6871,14 @@
       <c r="O126" s="4"/>
       <c r="P126" s="4"/>
     </row>
-    <row r="127" ht="38.7" customHeight="1">
+    <row r="127" ht="17.65" customHeight="1">
       <c r="A127" s="73"/>
       <c r="B127" s="44"/>
-      <c r="C127" s="79"/>
-      <c r="D127" t="s" s="75">
-        <v>192</v>
+      <c r="C127" t="s" s="80">
+        <v>167</v>
+      </c>
+      <c r="D127" t="s" s="78">
+        <v>194</v>
       </c>
       <c r="E127" s="76"/>
       <c r="F127" s="76"/>
@@ -6888,14 +6893,12 @@
       <c r="O127" s="4"/>
       <c r="P127" s="4"/>
     </row>
-    <row r="128" ht="17.65" customHeight="1">
+    <row r="128" ht="26.7" customHeight="1">
       <c r="A128" s="73"/>
       <c r="B128" s="44"/>
-      <c r="C128" t="s" s="80">
-        <v>166</v>
-      </c>
-      <c r="D128" t="s" s="78">
-        <v>193</v>
+      <c r="C128" s="79"/>
+      <c r="D128" t="s" s="75">
+        <v>195</v>
       </c>
       <c r="E128" s="76"/>
       <c r="F128" s="76"/>
@@ -6910,12 +6913,14 @@
       <c r="O128" s="4"/>
       <c r="P128" s="4"/>
     </row>
-    <row r="129" ht="26.7" customHeight="1">
+    <row r="129" ht="17.65" customHeight="1">
       <c r="A129" s="73"/>
       <c r="B129" s="44"/>
-      <c r="C129" s="79"/>
-      <c r="D129" t="s" s="75">
-        <v>194</v>
+      <c r="C129" t="s" s="80">
+        <v>170</v>
+      </c>
+      <c r="D129" t="s" s="78">
+        <v>196</v>
       </c>
       <c r="E129" s="76"/>
       <c r="F129" s="76"/>
@@ -6930,14 +6935,12 @@
       <c r="O129" s="4"/>
       <c r="P129" s="4"/>
     </row>
-    <row r="130" ht="17.65" customHeight="1">
+    <row r="130" ht="110.7" customHeight="1">
       <c r="A130" s="73"/>
       <c r="B130" s="44"/>
-      <c r="C130" t="s" s="80">
-        <v>169</v>
-      </c>
-      <c r="D130" t="s" s="78">
-        <v>195</v>
+      <c r="C130" s="79"/>
+      <c r="D130" t="s" s="75">
+        <v>197</v>
       </c>
       <c r="E130" s="76"/>
       <c r="F130" s="76"/>
@@ -6952,12 +6955,14 @@
       <c r="O130" s="4"/>
       <c r="P130" s="4"/>
     </row>
-    <row r="131" ht="110.7" customHeight="1">
+    <row r="131" ht="17.65" customHeight="1">
       <c r="A131" s="73"/>
       <c r="B131" s="44"/>
-      <c r="C131" s="79"/>
-      <c r="D131" t="s" s="75">
-        <v>196</v>
+      <c r="C131" t="s" s="80">
+        <v>173</v>
+      </c>
+      <c r="D131" t="s" s="78">
+        <v>198</v>
       </c>
       <c r="E131" s="76"/>
       <c r="F131" s="76"/>
@@ -6972,14 +6977,12 @@
       <c r="O131" s="4"/>
       <c r="P131" s="4"/>
     </row>
-    <row r="132" ht="17.65" customHeight="1">
+    <row r="132" ht="26.7" customHeight="1">
       <c r="A132" s="73"/>
       <c r="B132" s="44"/>
-      <c r="C132" t="s" s="80">
-        <v>172</v>
-      </c>
-      <c r="D132" t="s" s="78">
-        <v>197</v>
+      <c r="C132" s="79"/>
+      <c r="D132" t="s" s="75">
+        <v>199</v>
       </c>
       <c r="E132" s="76"/>
       <c r="F132" s="76"/>
@@ -6994,12 +6997,14 @@
       <c r="O132" s="4"/>
       <c r="P132" s="4"/>
     </row>
-    <row r="133" ht="26.7" customHeight="1">
+    <row r="133" ht="17.65" customHeight="1">
       <c r="A133" s="73"/>
       <c r="B133" s="44"/>
-      <c r="C133" s="79"/>
-      <c r="D133" t="s" s="75">
-        <v>198</v>
+      <c r="C133" t="s" s="75">
+        <v>200</v>
+      </c>
+      <c r="D133" t="s" s="78">
+        <v>201</v>
       </c>
       <c r="E133" s="76"/>
       <c r="F133" s="76"/>
@@ -7017,11 +7022,11 @@
     <row r="134" ht="17.65" customHeight="1">
       <c r="A134" s="73"/>
       <c r="B134" s="44"/>
-      <c r="C134" t="s" s="75">
-        <v>199</v>
+      <c r="C134" t="s" s="80">
+        <v>161</v>
       </c>
       <c r="D134" t="s" s="78">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E134" s="76"/>
       <c r="F134" s="76"/>
@@ -7036,14 +7041,12 @@
       <c r="O134" s="4"/>
       <c r="P134" s="4"/>
     </row>
-    <row r="135" ht="17.65" customHeight="1">
+    <row r="135" ht="98.7" customHeight="1">
       <c r="A135" s="73"/>
       <c r="B135" s="44"/>
-      <c r="C135" t="s" s="80">
-        <v>160</v>
-      </c>
-      <c r="D135" t="s" s="78">
-        <v>201</v>
+      <c r="C135" s="79"/>
+      <c r="D135" t="s" s="75">
+        <v>203</v>
       </c>
       <c r="E135" s="76"/>
       <c r="F135" s="76"/>
@@ -7058,12 +7061,14 @@
       <c r="O135" s="4"/>
       <c r="P135" s="4"/>
     </row>
-    <row r="136" ht="98.7" customHeight="1">
+    <row r="136" ht="17.65" customHeight="1">
       <c r="A136" s="73"/>
       <c r="B136" s="44"/>
-      <c r="C136" s="79"/>
-      <c r="D136" t="s" s="75">
-        <v>202</v>
+      <c r="C136" t="s" s="75">
+        <v>204</v>
+      </c>
+      <c r="D136" t="s" s="78">
+        <v>205</v>
       </c>
       <c r="E136" s="76"/>
       <c r="F136" s="76"/>
@@ -7081,11 +7086,11 @@
     <row r="137" ht="17.65" customHeight="1">
       <c r="A137" s="73"/>
       <c r="B137" s="44"/>
-      <c r="C137" t="s" s="75">
-        <v>203</v>
+      <c r="C137" t="s" s="80">
+        <v>161</v>
       </c>
       <c r="D137" t="s" s="78">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E137" s="76"/>
       <c r="F137" s="76"/>
@@ -7100,14 +7105,12 @@
       <c r="O137" s="4"/>
       <c r="P137" s="4"/>
     </row>
-    <row r="138" ht="17.65" customHeight="1">
+    <row r="138" ht="38.7" customHeight="1">
       <c r="A138" s="73"/>
       <c r="B138" s="44"/>
-      <c r="C138" t="s" s="80">
-        <v>160</v>
-      </c>
-      <c r="D138" t="s" s="78">
-        <v>205</v>
+      <c r="C138" s="79"/>
+      <c r="D138" t="s" s="75">
+        <v>207</v>
       </c>
       <c r="E138" s="76"/>
       <c r="F138" s="76"/>
@@ -7122,12 +7125,14 @@
       <c r="O138" s="4"/>
       <c r="P138" s="4"/>
     </row>
-    <row r="139" ht="38.7" customHeight="1">
+    <row r="139" ht="17.65" customHeight="1">
       <c r="A139" s="73"/>
       <c r="B139" s="44"/>
-      <c r="C139" s="79"/>
-      <c r="D139" t="s" s="75">
-        <v>206</v>
+      <c r="C139" t="s" s="80">
+        <v>164</v>
+      </c>
+      <c r="D139" t="s" s="78">
+        <v>208</v>
       </c>
       <c r="E139" s="76"/>
       <c r="F139" s="76"/>
@@ -7142,14 +7147,12 @@
       <c r="O139" s="4"/>
       <c r="P139" s="4"/>
     </row>
-    <row r="140" ht="17.65" customHeight="1">
+    <row r="140" ht="62.7" customHeight="1">
       <c r="A140" s="73"/>
       <c r="B140" s="44"/>
-      <c r="C140" t="s" s="80">
-        <v>163</v>
-      </c>
-      <c r="D140" t="s" s="78">
-        <v>207</v>
+      <c r="C140" s="79"/>
+      <c r="D140" t="s" s="75">
+        <v>209</v>
       </c>
       <c r="E140" s="76"/>
       <c r="F140" s="76"/>
@@ -7164,12 +7167,14 @@
       <c r="O140" s="4"/>
       <c r="P140" s="4"/>
     </row>
-    <row r="141" ht="62.7" customHeight="1">
+    <row r="141" ht="17.65" customHeight="1">
       <c r="A141" s="73"/>
       <c r="B141" s="44"/>
-      <c r="C141" s="79"/>
-      <c r="D141" t="s" s="75">
-        <v>208</v>
+      <c r="C141" t="s" s="75">
+        <v>210</v>
+      </c>
+      <c r="D141" t="s" s="78">
+        <v>211</v>
       </c>
       <c r="E141" s="76"/>
       <c r="F141" s="76"/>
@@ -7187,11 +7192,11 @@
     <row r="142" ht="17.65" customHeight="1">
       <c r="A142" s="73"/>
       <c r="B142" s="44"/>
-      <c r="C142" t="s" s="75">
-        <v>209</v>
+      <c r="C142" t="s" s="80">
+        <v>161</v>
       </c>
       <c r="D142" t="s" s="78">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E142" s="76"/>
       <c r="F142" s="76"/>
@@ -7206,14 +7211,12 @@
       <c r="O142" s="4"/>
       <c r="P142" s="4"/>
     </row>
-    <row r="143" ht="17.65" customHeight="1">
+    <row r="143" ht="26.7" customHeight="1">
       <c r="A143" s="73"/>
       <c r="B143" s="44"/>
-      <c r="C143" t="s" s="80">
-        <v>160</v>
-      </c>
-      <c r="D143" t="s" s="78">
-        <v>211</v>
+      <c r="C143" s="79"/>
+      <c r="D143" t="s" s="75">
+        <v>213</v>
       </c>
       <c r="E143" s="76"/>
       <c r="F143" s="76"/>
@@ -7228,12 +7231,14 @@
       <c r="O143" s="4"/>
       <c r="P143" s="4"/>
     </row>
-    <row r="144" ht="26.7" customHeight="1">
+    <row r="144" ht="17.65" customHeight="1">
       <c r="A144" s="73"/>
       <c r="B144" s="44"/>
-      <c r="C144" s="79"/>
-      <c r="D144" t="s" s="75">
-        <v>212</v>
+      <c r="C144" t="s" s="80">
+        <v>164</v>
+      </c>
+      <c r="D144" t="s" s="78">
+        <v>214</v>
       </c>
       <c r="E144" s="76"/>
       <c r="F144" s="76"/>
@@ -7248,14 +7253,12 @@
       <c r="O144" s="4"/>
       <c r="P144" s="4"/>
     </row>
-    <row r="145" ht="17.65" customHeight="1">
+    <row r="145" ht="50.7" customHeight="1">
       <c r="A145" s="73"/>
       <c r="B145" s="44"/>
-      <c r="C145" t="s" s="80">
-        <v>163</v>
-      </c>
-      <c r="D145" t="s" s="78">
-        <v>213</v>
+      <c r="C145" s="79"/>
+      <c r="D145" t="s" s="75">
+        <v>215</v>
       </c>
       <c r="E145" s="76"/>
       <c r="F145" s="76"/>
@@ -7270,12 +7273,14 @@
       <c r="O145" s="4"/>
       <c r="P145" s="4"/>
     </row>
-    <row r="146" ht="50.7" customHeight="1">
+    <row r="146" ht="17.65" customHeight="1">
       <c r="A146" s="73"/>
       <c r="B146" s="44"/>
-      <c r="C146" s="79"/>
-      <c r="D146" t="s" s="75">
-        <v>214</v>
+      <c r="C146" t="s" s="75">
+        <v>216</v>
+      </c>
+      <c r="D146" t="s" s="78">
+        <v>217</v>
       </c>
       <c r="E146" s="76"/>
       <c r="F146" s="76"/>
@@ -7293,11 +7298,11 @@
     <row r="147" ht="17.65" customHeight="1">
       <c r="A147" s="73"/>
       <c r="B147" s="44"/>
-      <c r="C147" t="s" s="75">
-        <v>215</v>
+      <c r="C147" t="s" s="80">
+        <v>161</v>
       </c>
       <c r="D147" t="s" s="78">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E147" s="76"/>
       <c r="F147" s="76"/>
@@ -7312,14 +7317,12 @@
       <c r="O147" s="4"/>
       <c r="P147" s="4"/>
     </row>
-    <row r="148" ht="17.65" customHeight="1">
+    <row r="148" ht="122.7" customHeight="1">
       <c r="A148" s="73"/>
       <c r="B148" s="44"/>
-      <c r="C148" t="s" s="80">
-        <v>160</v>
-      </c>
-      <c r="D148" t="s" s="78">
-        <v>217</v>
+      <c r="C148" s="79"/>
+      <c r="D148" t="s" s="75">
+        <v>219</v>
       </c>
       <c r="E148" s="76"/>
       <c r="F148" s="76"/>
@@ -7334,12 +7337,14 @@
       <c r="O148" s="4"/>
       <c r="P148" s="4"/>
     </row>
-    <row r="149" ht="122.7" customHeight="1">
+    <row r="149" ht="17.65" customHeight="1">
       <c r="A149" s="73"/>
       <c r="B149" s="44"/>
-      <c r="C149" s="79"/>
-      <c r="D149" t="s" s="75">
-        <v>218</v>
+      <c r="C149" t="s" s="75">
+        <v>220</v>
+      </c>
+      <c r="D149" t="s" s="78">
+        <v>221</v>
       </c>
       <c r="E149" s="76"/>
       <c r="F149" s="76"/>
@@ -7357,11 +7362,11 @@
     <row r="150" ht="17.65" customHeight="1">
       <c r="A150" s="73"/>
       <c r="B150" s="44"/>
-      <c r="C150" t="s" s="75">
-        <v>219</v>
+      <c r="C150" t="s" s="80">
+        <v>161</v>
       </c>
       <c r="D150" t="s" s="78">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E150" s="76"/>
       <c r="F150" s="76"/>
@@ -7379,11 +7384,9 @@
     <row r="151" ht="17.65" customHeight="1">
       <c r="A151" s="73"/>
       <c r="B151" s="44"/>
-      <c r="C151" t="s" s="80">
-        <v>160</v>
-      </c>
-      <c r="D151" t="s" s="78">
-        <v>221</v>
+      <c r="C151" s="79"/>
+      <c r="D151" t="s" s="75">
+        <v>223</v>
       </c>
       <c r="E151" s="76"/>
       <c r="F151" s="76"/>
@@ -7401,9 +7404,11 @@
     <row r="152" ht="17.65" customHeight="1">
       <c r="A152" s="73"/>
       <c r="B152" s="44"/>
-      <c r="C152" s="79"/>
-      <c r="D152" t="s" s="75">
-        <v>222</v>
+      <c r="C152" t="s" s="80">
+        <v>164</v>
+      </c>
+      <c r="D152" t="s" s="78">
+        <v>224</v>
       </c>
       <c r="E152" s="76"/>
       <c r="F152" s="76"/>
@@ -7418,14 +7423,12 @@
       <c r="O152" s="4"/>
       <c r="P152" s="4"/>
     </row>
-    <row r="153" ht="17.65" customHeight="1">
+    <row r="153" ht="122.7" customHeight="1">
       <c r="A153" s="73"/>
       <c r="B153" s="44"/>
-      <c r="C153" t="s" s="80">
-        <v>163</v>
-      </c>
-      <c r="D153" t="s" s="78">
-        <v>223</v>
+      <c r="C153" s="79"/>
+      <c r="D153" t="s" s="75">
+        <v>225</v>
       </c>
       <c r="E153" s="76"/>
       <c r="F153" s="76"/>
@@ -7440,12 +7443,14 @@
       <c r="O153" s="4"/>
       <c r="P153" s="4"/>
     </row>
-    <row r="154" ht="122.7" customHeight="1">
+    <row r="154" ht="17.65" customHeight="1">
       <c r="A154" s="73"/>
       <c r="B154" s="44"/>
-      <c r="C154" s="79"/>
-      <c r="D154" t="s" s="75">
-        <v>224</v>
+      <c r="C154" t="s" s="80">
+        <v>167</v>
+      </c>
+      <c r="D154" t="s" s="78">
+        <v>226</v>
       </c>
       <c r="E154" s="76"/>
       <c r="F154" s="76"/>
@@ -7460,14 +7465,12 @@
       <c r="O154" s="4"/>
       <c r="P154" s="4"/>
     </row>
-    <row r="155" ht="17.65" customHeight="1">
+    <row r="155" ht="50.7" customHeight="1">
       <c r="A155" s="73"/>
       <c r="B155" s="44"/>
-      <c r="C155" t="s" s="80">
-        <v>166</v>
-      </c>
-      <c r="D155" t="s" s="78">
-        <v>225</v>
+      <c r="C155" s="79"/>
+      <c r="D155" t="s" s="75">
+        <v>227</v>
       </c>
       <c r="E155" s="76"/>
       <c r="F155" s="76"/>
@@ -7482,12 +7485,14 @@
       <c r="O155" s="4"/>
       <c r="P155" s="4"/>
     </row>
-    <row r="156" ht="50.7" customHeight="1">
+    <row r="156" ht="17.65" customHeight="1">
       <c r="A156" s="73"/>
       <c r="B156" s="44"/>
-      <c r="C156" s="79"/>
-      <c r="D156" t="s" s="75">
-        <v>226</v>
+      <c r="C156" t="s" s="80">
+        <v>170</v>
+      </c>
+      <c r="D156" t="s" s="78">
+        <v>228</v>
       </c>
       <c r="E156" s="76"/>
       <c r="F156" s="76"/>
@@ -7502,14 +7507,12 @@
       <c r="O156" s="4"/>
       <c r="P156" s="4"/>
     </row>
-    <row r="157" ht="17.65" customHeight="1">
+    <row r="157" ht="74.7" customHeight="1">
       <c r="A157" s="73"/>
       <c r="B157" s="44"/>
-      <c r="C157" t="s" s="80">
-        <v>169</v>
-      </c>
-      <c r="D157" t="s" s="78">
-        <v>227</v>
+      <c r="C157" s="79"/>
+      <c r="D157" t="s" s="75">
+        <v>229</v>
       </c>
       <c r="E157" s="76"/>
       <c r="F157" s="76"/>
@@ -7524,12 +7527,14 @@
       <c r="O157" s="4"/>
       <c r="P157" s="4"/>
     </row>
-    <row r="158" ht="74.7" customHeight="1">
+    <row r="158" ht="26.7" customHeight="1">
       <c r="A158" s="73"/>
       <c r="B158" s="44"/>
-      <c r="C158" s="79"/>
-      <c r="D158" t="s" s="75">
-        <v>228</v>
+      <c r="C158" t="s" s="80">
+        <v>173</v>
+      </c>
+      <c r="D158" t="s" s="78">
+        <v>230</v>
       </c>
       <c r="E158" s="76"/>
       <c r="F158" s="76"/>
@@ -7544,14 +7549,12 @@
       <c r="O158" s="4"/>
       <c r="P158" s="4"/>
     </row>
-    <row r="159" ht="26.7" customHeight="1">
+    <row r="159" ht="122.7" customHeight="1">
       <c r="A159" s="73"/>
       <c r="B159" s="44"/>
-      <c r="C159" t="s" s="80">
-        <v>172</v>
-      </c>
-      <c r="D159" t="s" s="78">
-        <v>229</v>
+      <c r="C159" s="79"/>
+      <c r="D159" t="s" s="75">
+        <v>231</v>
       </c>
       <c r="E159" s="76"/>
       <c r="F159" s="76"/>
@@ -7566,12 +7569,14 @@
       <c r="O159" s="4"/>
       <c r="P159" s="4"/>
     </row>
-    <row r="160" ht="122.7" customHeight="1">
+    <row r="160" ht="17.65" customHeight="1">
       <c r="A160" s="73"/>
       <c r="B160" s="44"/>
-      <c r="C160" s="79"/>
-      <c r="D160" t="s" s="75">
-        <v>230</v>
+      <c r="C160" t="s" s="80">
+        <v>176</v>
+      </c>
+      <c r="D160" t="s" s="78">
+        <v>232</v>
       </c>
       <c r="E160" s="76"/>
       <c r="F160" s="76"/>
@@ -7586,14 +7591,12 @@
       <c r="O160" s="4"/>
       <c r="P160" s="4"/>
     </row>
-    <row r="161" ht="17.65" customHeight="1">
+    <row r="161" ht="374.7" customHeight="1">
       <c r="A161" s="73"/>
       <c r="B161" s="44"/>
-      <c r="C161" t="s" s="80">
-        <v>175</v>
-      </c>
-      <c r="D161" t="s" s="78">
-        <v>231</v>
+      <c r="C161" s="79"/>
+      <c r="D161" t="s" s="75">
+        <v>233</v>
       </c>
       <c r="E161" s="76"/>
       <c r="F161" s="76"/>
@@ -7608,12 +7611,14 @@
       <c r="O161" s="4"/>
       <c r="P161" s="4"/>
     </row>
-    <row r="162" ht="374.7" customHeight="1">
+    <row r="162" ht="17.65" customHeight="1">
       <c r="A162" s="73"/>
       <c r="B162" s="44"/>
-      <c r="C162" s="79"/>
-      <c r="D162" t="s" s="75">
-        <v>232</v>
+      <c r="C162" t="s" s="75">
+        <v>234</v>
+      </c>
+      <c r="D162" t="s" s="78">
+        <v>235</v>
       </c>
       <c r="E162" s="76"/>
       <c r="F162" s="76"/>
@@ -7628,14 +7633,14 @@
       <c r="O162" s="4"/>
       <c r="P162" s="4"/>
     </row>
-    <row r="163" ht="17.65" customHeight="1">
+    <row r="163" ht="26.7" customHeight="1">
       <c r="A163" s="73"/>
       <c r="B163" s="44"/>
-      <c r="C163" t="s" s="75">
-        <v>233</v>
+      <c r="C163" t="s" s="80">
+        <v>161</v>
       </c>
       <c r="D163" t="s" s="78">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E163" s="76"/>
       <c r="F163" s="76"/>
@@ -7650,14 +7655,12 @@
       <c r="O163" s="4"/>
       <c r="P163" s="4"/>
     </row>
-    <row r="164" ht="26.7" customHeight="1">
+    <row r="164" ht="38.7" customHeight="1">
       <c r="A164" s="73"/>
       <c r="B164" s="44"/>
-      <c r="C164" t="s" s="80">
-        <v>160</v>
-      </c>
-      <c r="D164" t="s" s="78">
-        <v>235</v>
+      <c r="C164" s="79"/>
+      <c r="D164" t="s" s="75">
+        <v>237</v>
       </c>
       <c r="E164" s="76"/>
       <c r="F164" s="76"/>
@@ -7672,12 +7675,14 @@
       <c r="O164" s="4"/>
       <c r="P164" s="4"/>
     </row>
-    <row r="165" ht="38.7" customHeight="1">
+    <row r="165" ht="26.7" customHeight="1">
       <c r="A165" s="73"/>
       <c r="B165" s="44"/>
-      <c r="C165" s="79"/>
-      <c r="D165" t="s" s="75">
-        <v>236</v>
+      <c r="C165" t="s" s="80">
+        <v>164</v>
+      </c>
+      <c r="D165" t="s" s="78">
+        <v>238</v>
       </c>
       <c r="E165" s="76"/>
       <c r="F165" s="76"/>
@@ -7692,14 +7697,12 @@
       <c r="O165" s="4"/>
       <c r="P165" s="4"/>
     </row>
-    <row r="166" ht="26.7" customHeight="1">
+    <row r="166" ht="86.7" customHeight="1">
       <c r="A166" s="73"/>
       <c r="B166" s="44"/>
-      <c r="C166" t="s" s="80">
-        <v>163</v>
-      </c>
-      <c r="D166" t="s" s="78">
-        <v>237</v>
+      <c r="C166" s="79"/>
+      <c r="D166" t="s" s="75">
+        <v>239</v>
       </c>
       <c r="E166" s="76"/>
       <c r="F166" s="76"/>
@@ -7714,12 +7717,14 @@
       <c r="O166" s="4"/>
       <c r="P166" s="4"/>
     </row>
-    <row r="167" ht="86.7" customHeight="1">
+    <row r="167" ht="26.7" customHeight="1">
       <c r="A167" s="73"/>
       <c r="B167" s="44"/>
-      <c r="C167" s="79"/>
-      <c r="D167" t="s" s="75">
-        <v>238</v>
+      <c r="C167" t="s" s="80">
+        <v>167</v>
+      </c>
+      <c r="D167" t="s" s="78">
+        <v>240</v>
       </c>
       <c r="E167" s="76"/>
       <c r="F167" s="76"/>
@@ -7734,14 +7739,12 @@
       <c r="O167" s="4"/>
       <c r="P167" s="4"/>
     </row>
-    <row r="168" ht="26.7" customHeight="1">
+    <row r="168" ht="38.7" customHeight="1">
       <c r="A168" s="73"/>
       <c r="B168" s="44"/>
-      <c r="C168" t="s" s="80">
-        <v>166</v>
-      </c>
-      <c r="D168" t="s" s="78">
-        <v>239</v>
+      <c r="C168" s="79"/>
+      <c r="D168" t="s" s="75">
+        <v>241</v>
       </c>
       <c r="E168" s="76"/>
       <c r="F168" s="76"/>
@@ -7756,12 +7759,14 @@
       <c r="O168" s="4"/>
       <c r="P168" s="4"/>
     </row>
-    <row r="169" ht="38.7" customHeight="1">
+    <row r="169" ht="17.65" customHeight="1">
       <c r="A169" s="73"/>
       <c r="B169" s="44"/>
-      <c r="C169" s="79"/>
-      <c r="D169" t="s" s="75">
-        <v>240</v>
+      <c r="C169" t="s" s="80">
+        <v>170</v>
+      </c>
+      <c r="D169" t="s" s="78">
+        <v>242</v>
       </c>
       <c r="E169" s="76"/>
       <c r="F169" s="76"/>
@@ -7776,14 +7781,12 @@
       <c r="O169" s="4"/>
       <c r="P169" s="4"/>
     </row>
-    <row r="170" ht="17.65" customHeight="1">
+    <row r="170" ht="86.7" customHeight="1">
       <c r="A170" s="73"/>
       <c r="B170" s="44"/>
-      <c r="C170" t="s" s="80">
-        <v>169</v>
-      </c>
-      <c r="D170" t="s" s="78">
-        <v>241</v>
+      <c r="C170" s="79"/>
+      <c r="D170" t="s" s="75">
+        <v>243</v>
       </c>
       <c r="E170" s="76"/>
       <c r="F170" s="76"/>
@@ -7798,12 +7801,14 @@
       <c r="O170" s="4"/>
       <c r="P170" s="4"/>
     </row>
-    <row r="171" ht="86.7" customHeight="1">
+    <row r="171" ht="17.65" customHeight="1">
       <c r="A171" s="73"/>
       <c r="B171" s="44"/>
-      <c r="C171" s="79"/>
-      <c r="D171" t="s" s="75">
-        <v>242</v>
+      <c r="C171" t="s" s="80">
+        <v>173</v>
+      </c>
+      <c r="D171" t="s" s="78">
+        <v>244</v>
       </c>
       <c r="E171" s="76"/>
       <c r="F171" s="76"/>
@@ -7818,14 +7823,12 @@
       <c r="O171" s="4"/>
       <c r="P171" s="4"/>
     </row>
-    <row r="172" ht="17.65" customHeight="1">
+    <row r="172" ht="38.7" customHeight="1">
       <c r="A172" s="73"/>
       <c r="B172" s="44"/>
-      <c r="C172" t="s" s="80">
-        <v>172</v>
-      </c>
-      <c r="D172" t="s" s="78">
-        <v>243</v>
+      <c r="C172" s="79"/>
+      <c r="D172" t="s" s="75">
+        <v>245</v>
       </c>
       <c r="E172" s="76"/>
       <c r="F172" s="76"/>
@@ -7840,12 +7843,14 @@
       <c r="O172" s="4"/>
       <c r="P172" s="4"/>
     </row>
-    <row r="173" ht="38.7" customHeight="1">
+    <row r="173" ht="17.65" customHeight="1">
       <c r="A173" s="73"/>
       <c r="B173" s="44"/>
-      <c r="C173" s="79"/>
-      <c r="D173" t="s" s="75">
-        <v>244</v>
+      <c r="C173" t="s" s="80">
+        <v>176</v>
+      </c>
+      <c r="D173" t="s" s="78">
+        <v>246</v>
       </c>
       <c r="E173" s="76"/>
       <c r="F173" s="76"/>
@@ -7860,14 +7865,12 @@
       <c r="O173" s="4"/>
       <c r="P173" s="4"/>
     </row>
-    <row r="174" ht="17.65" customHeight="1">
+    <row r="174" ht="62.7" customHeight="1">
       <c r="A174" s="73"/>
       <c r="B174" s="44"/>
-      <c r="C174" t="s" s="80">
-        <v>175</v>
-      </c>
-      <c r="D174" t="s" s="78">
-        <v>245</v>
+      <c r="C174" s="79"/>
+      <c r="D174" t="s" s="75">
+        <v>247</v>
       </c>
       <c r="E174" s="76"/>
       <c r="F174" s="76"/>
@@ -7882,12 +7885,14 @@
       <c r="O174" s="4"/>
       <c r="P174" s="4"/>
     </row>
-    <row r="175" ht="62.7" customHeight="1">
+    <row r="175" ht="17.65" customHeight="1">
       <c r="A175" s="73"/>
       <c r="B175" s="44"/>
-      <c r="C175" s="79"/>
-      <c r="D175" t="s" s="75">
-        <v>246</v>
+      <c r="C175" t="s" s="80">
+        <v>179</v>
+      </c>
+      <c r="D175" t="s" s="78">
+        <v>248</v>
       </c>
       <c r="E175" s="76"/>
       <c r="F175" s="76"/>
@@ -7902,14 +7907,12 @@
       <c r="O175" s="4"/>
       <c r="P175" s="4"/>
     </row>
-    <row r="176" ht="17.65" customHeight="1">
+    <row r="176" ht="38.7" customHeight="1">
       <c r="A176" s="73"/>
       <c r="B176" s="44"/>
-      <c r="C176" t="s" s="80">
-        <v>178</v>
-      </c>
-      <c r="D176" t="s" s="78">
-        <v>247</v>
+      <c r="C176" s="79"/>
+      <c r="D176" t="s" s="75">
+        <v>249</v>
       </c>
       <c r="E176" s="76"/>
       <c r="F176" s="76"/>
@@ -7924,12 +7927,14 @@
       <c r="O176" s="4"/>
       <c r="P176" s="4"/>
     </row>
-    <row r="177" ht="38.7" customHeight="1">
+    <row r="177" ht="17.65" customHeight="1">
       <c r="A177" s="73"/>
       <c r="B177" s="44"/>
-      <c r="C177" s="79"/>
-      <c r="D177" t="s" s="75">
-        <v>248</v>
+      <c r="C177" t="s" s="80">
+        <v>182</v>
+      </c>
+      <c r="D177" t="s" s="78">
+        <v>250</v>
       </c>
       <c r="E177" s="76"/>
       <c r="F177" s="76"/>
@@ -7944,14 +7949,12 @@
       <c r="O177" s="4"/>
       <c r="P177" s="4"/>
     </row>
-    <row r="178" ht="17.65" customHeight="1">
+    <row r="178" ht="50.7" customHeight="1">
       <c r="A178" s="73"/>
       <c r="B178" s="44"/>
-      <c r="C178" t="s" s="80">
-        <v>181</v>
-      </c>
-      <c r="D178" t="s" s="78">
-        <v>249</v>
+      <c r="C178" s="79"/>
+      <c r="D178" t="s" s="75">
+        <v>251</v>
       </c>
       <c r="E178" s="76"/>
       <c r="F178" s="76"/>
@@ -7966,12 +7969,14 @@
       <c r="O178" s="4"/>
       <c r="P178" s="4"/>
     </row>
-    <row r="179" ht="50.7" customHeight="1">
+    <row r="179" ht="17.65" customHeight="1">
       <c r="A179" s="73"/>
       <c r="B179" s="44"/>
-      <c r="C179" s="79"/>
-      <c r="D179" t="s" s="75">
-        <v>250</v>
+      <c r="C179" t="s" s="75">
+        <v>252</v>
+      </c>
+      <c r="D179" t="s" s="78">
+        <v>253</v>
       </c>
       <c r="E179" s="76"/>
       <c r="F179" s="76"/>
@@ -7989,11 +7994,11 @@
     <row r="180" ht="17.65" customHeight="1">
       <c r="A180" s="73"/>
       <c r="B180" s="44"/>
-      <c r="C180" t="s" s="75">
-        <v>251</v>
+      <c r="C180" t="s" s="80">
+        <v>161</v>
       </c>
       <c r="D180" t="s" s="78">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E180" s="76"/>
       <c r="F180" s="76"/>
@@ -8008,14 +8013,12 @@
       <c r="O180" s="4"/>
       <c r="P180" s="4"/>
     </row>
-    <row r="181" ht="17.65" customHeight="1">
+    <row r="181" ht="158.7" customHeight="1">
       <c r="A181" s="73"/>
       <c r="B181" s="44"/>
-      <c r="C181" t="s" s="80">
-        <v>160</v>
-      </c>
-      <c r="D181" t="s" s="78">
-        <v>253</v>
+      <c r="C181" s="79"/>
+      <c r="D181" t="s" s="75">
+        <v>255</v>
       </c>
       <c r="E181" s="76"/>
       <c r="F181" s="76"/>
@@ -8030,12 +8033,14 @@
       <c r="O181" s="4"/>
       <c r="P181" s="4"/>
     </row>
-    <row r="182" ht="158.7" customHeight="1">
+    <row r="182" ht="17.65" customHeight="1">
       <c r="A182" s="73"/>
       <c r="B182" s="44"/>
-      <c r="C182" s="79"/>
-      <c r="D182" t="s" s="75">
-        <v>254</v>
+      <c r="C182" t="s" s="80">
+        <v>164</v>
+      </c>
+      <c r="D182" t="s" s="78">
+        <v>256</v>
       </c>
       <c r="E182" s="76"/>
       <c r="F182" s="76"/>
@@ -8050,14 +8055,12 @@
       <c r="O182" s="4"/>
       <c r="P182" s="4"/>
     </row>
-    <row r="183" ht="17.65" customHeight="1">
+    <row r="183" ht="50.7" customHeight="1">
       <c r="A183" s="73"/>
       <c r="B183" s="44"/>
-      <c r="C183" t="s" s="80">
-        <v>163</v>
-      </c>
-      <c r="D183" t="s" s="78">
-        <v>255</v>
+      <c r="C183" s="79"/>
+      <c r="D183" t="s" s="75">
+        <v>257</v>
       </c>
       <c r="E183" s="76"/>
       <c r="F183" s="76"/>
@@ -8072,12 +8075,14 @@
       <c r="O183" s="4"/>
       <c r="P183" s="4"/>
     </row>
-    <row r="184" ht="50.7" customHeight="1">
+    <row r="184" ht="17.65" customHeight="1">
       <c r="A184" s="73"/>
       <c r="B184" s="44"/>
-      <c r="C184" s="79"/>
-      <c r="D184" t="s" s="75">
-        <v>256</v>
+      <c r="C184" t="s" s="80">
+        <v>167</v>
+      </c>
+      <c r="D184" t="s" s="78">
+        <v>258</v>
       </c>
       <c r="E184" s="76"/>
       <c r="F184" s="76"/>
@@ -8092,14 +8097,12 @@
       <c r="O184" s="4"/>
       <c r="P184" s="4"/>
     </row>
-    <row r="185" ht="17.65" customHeight="1">
+    <row r="185" ht="38.7" customHeight="1">
       <c r="A185" s="73"/>
       <c r="B185" s="44"/>
-      <c r="C185" t="s" s="80">
-        <v>166</v>
-      </c>
-      <c r="D185" t="s" s="78">
-        <v>257</v>
+      <c r="C185" s="79"/>
+      <c r="D185" t="s" s="75">
+        <v>259</v>
       </c>
       <c r="E185" s="76"/>
       <c r="F185" s="76"/>
@@ -8114,12 +8117,14 @@
       <c r="O185" s="4"/>
       <c r="P185" s="4"/>
     </row>
-    <row r="186" ht="38.7" customHeight="1">
+    <row r="186" ht="26.7" customHeight="1">
       <c r="A186" s="73"/>
       <c r="B186" s="44"/>
-      <c r="C186" s="79"/>
-      <c r="D186" t="s" s="75">
-        <v>258</v>
+      <c r="C186" t="s" s="80">
+        <v>170</v>
+      </c>
+      <c r="D186" t="s" s="78">
+        <v>260</v>
       </c>
       <c r="E186" s="76"/>
       <c r="F186" s="76"/>
@@ -8134,14 +8139,12 @@
       <c r="O186" s="4"/>
       <c r="P186" s="4"/>
     </row>
-    <row r="187" ht="26.7" customHeight="1">
+    <row r="187" ht="98.7" customHeight="1">
       <c r="A187" s="73"/>
       <c r="B187" s="44"/>
-      <c r="C187" t="s" s="80">
-        <v>169</v>
-      </c>
-      <c r="D187" t="s" s="78">
-        <v>259</v>
+      <c r="C187" s="79"/>
+      <c r="D187" t="s" s="75">
+        <v>261</v>
       </c>
       <c r="E187" s="76"/>
       <c r="F187" s="76"/>
@@ -8156,12 +8159,14 @@
       <c r="O187" s="4"/>
       <c r="P187" s="4"/>
     </row>
-    <row r="188" ht="98.7" customHeight="1">
+    <row r="188" ht="17.65" customHeight="1">
       <c r="A188" s="73"/>
       <c r="B188" s="44"/>
-      <c r="C188" s="79"/>
-      <c r="D188" t="s" s="75">
-        <v>260</v>
+      <c r="C188" t="s" s="75">
+        <v>262</v>
+      </c>
+      <c r="D188" t="s" s="78">
+        <v>263</v>
       </c>
       <c r="E188" s="76"/>
       <c r="F188" s="76"/>
@@ -8179,11 +8184,11 @@
     <row r="189" ht="17.65" customHeight="1">
       <c r="A189" s="73"/>
       <c r="B189" s="44"/>
-      <c r="C189" t="s" s="75">
-        <v>261</v>
+      <c r="C189" t="s" s="80">
+        <v>161</v>
       </c>
       <c r="D189" t="s" s="78">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E189" s="76"/>
       <c r="F189" s="76"/>
@@ -8198,14 +8203,12 @@
       <c r="O189" s="4"/>
       <c r="P189" s="4"/>
     </row>
-    <row r="190" ht="17.65" customHeight="1">
+    <row r="190" ht="26.7" customHeight="1">
       <c r="A190" s="73"/>
       <c r="B190" s="44"/>
-      <c r="C190" t="s" s="80">
-        <v>160</v>
-      </c>
-      <c r="D190" t="s" s="78">
-        <v>263</v>
+      <c r="C190" s="79"/>
+      <c r="D190" t="s" s="75">
+        <v>265</v>
       </c>
       <c r="E190" s="76"/>
       <c r="F190" s="76"/>
@@ -8220,12 +8223,14 @@
       <c r="O190" s="4"/>
       <c r="P190" s="4"/>
     </row>
-    <row r="191" ht="26.7" customHeight="1">
+    <row r="191" ht="17.65" customHeight="1">
       <c r="A191" s="73"/>
       <c r="B191" s="44"/>
-      <c r="C191" s="79"/>
-      <c r="D191" t="s" s="75">
-        <v>264</v>
+      <c r="C191" t="s" s="80">
+        <v>164</v>
+      </c>
+      <c r="D191" t="s" s="78">
+        <v>266</v>
       </c>
       <c r="E191" s="76"/>
       <c r="F191" s="76"/>
@@ -8240,14 +8245,12 @@
       <c r="O191" s="4"/>
       <c r="P191" s="4"/>
     </row>
-    <row r="192" ht="17.65" customHeight="1">
+    <row r="192" ht="50.7" customHeight="1">
       <c r="A192" s="73"/>
       <c r="B192" s="44"/>
-      <c r="C192" t="s" s="80">
-        <v>163</v>
-      </c>
-      <c r="D192" t="s" s="78">
-        <v>265</v>
+      <c r="C192" s="79"/>
+      <c r="D192" t="s" s="75">
+        <v>267</v>
       </c>
       <c r="E192" s="76"/>
       <c r="F192" s="76"/>
@@ -8262,12 +8265,14 @@
       <c r="O192" s="4"/>
       <c r="P192" s="4"/>
     </row>
-    <row r="193" ht="50.7" customHeight="1">
+    <row r="193" ht="17.65" customHeight="1">
       <c r="A193" s="73"/>
       <c r="B193" s="44"/>
-      <c r="C193" s="79"/>
-      <c r="D193" t="s" s="75">
-        <v>266</v>
+      <c r="C193" t="s" s="80">
+        <v>167</v>
+      </c>
+      <c r="D193" t="s" s="78">
+        <v>268</v>
       </c>
       <c r="E193" s="76"/>
       <c r="F193" s="76"/>
@@ -8282,14 +8287,12 @@
       <c r="O193" s="4"/>
       <c r="P193" s="4"/>
     </row>
-    <row r="194" ht="17.65" customHeight="1">
+    <row r="194" ht="62.7" customHeight="1">
       <c r="A194" s="73"/>
       <c r="B194" s="44"/>
-      <c r="C194" t="s" s="80">
-        <v>166</v>
-      </c>
-      <c r="D194" t="s" s="78">
-        <v>267</v>
+      <c r="C194" s="79"/>
+      <c r="D194" t="s" s="75">
+        <v>269</v>
       </c>
       <c r="E194" s="76"/>
       <c r="F194" s="76"/>
@@ -8304,12 +8307,14 @@
       <c r="O194" s="4"/>
       <c r="P194" s="4"/>
     </row>
-    <row r="195" ht="62.7" customHeight="1">
+    <row r="195" ht="17.65" customHeight="1">
       <c r="A195" s="73"/>
       <c r="B195" s="44"/>
-      <c r="C195" s="79"/>
-      <c r="D195" t="s" s="75">
-        <v>268</v>
+      <c r="C195" t="s" s="75">
+        <v>270</v>
+      </c>
+      <c r="D195" t="s" s="78">
+        <v>271</v>
       </c>
       <c r="E195" s="76"/>
       <c r="F195" s="76"/>
@@ -8324,14 +8329,14 @@
       <c r="O195" s="4"/>
       <c r="P195" s="4"/>
     </row>
-    <row r="196" ht="17.65" customHeight="1">
+    <row r="196" ht="26.7" customHeight="1">
       <c r="A196" s="73"/>
       <c r="B196" s="44"/>
-      <c r="C196" t="s" s="75">
-        <v>269</v>
+      <c r="C196" t="s" s="80">
+        <v>161</v>
       </c>
       <c r="D196" t="s" s="78">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E196" s="76"/>
       <c r="F196" s="76"/>
@@ -8346,14 +8351,12 @@
       <c r="O196" s="4"/>
       <c r="P196" s="4"/>
     </row>
-    <row r="197" ht="26.7" customHeight="1">
+    <row r="197" ht="86.7" customHeight="1">
       <c r="A197" s="73"/>
       <c r="B197" s="44"/>
-      <c r="C197" t="s" s="80">
-        <v>160</v>
-      </c>
-      <c r="D197" t="s" s="78">
-        <v>271</v>
+      <c r="C197" s="79"/>
+      <c r="D197" t="s" s="75">
+        <v>273</v>
       </c>
       <c r="E197" s="76"/>
       <c r="F197" s="76"/>
@@ -8368,12 +8371,14 @@
       <c r="O197" s="4"/>
       <c r="P197" s="4"/>
     </row>
-    <row r="198" ht="86.7" customHeight="1">
+    <row r="198" ht="26.7" customHeight="1">
       <c r="A198" s="73"/>
       <c r="B198" s="44"/>
-      <c r="C198" s="79"/>
-      <c r="D198" t="s" s="75">
-        <v>272</v>
+      <c r="C198" t="s" s="80">
+        <v>164</v>
+      </c>
+      <c r="D198" t="s" s="78">
+        <v>274</v>
       </c>
       <c r="E198" s="76"/>
       <c r="F198" s="76"/>
@@ -8388,14 +8393,12 @@
       <c r="O198" s="4"/>
       <c r="P198" s="4"/>
     </row>
-    <row r="199" ht="26.7" customHeight="1">
+    <row r="199" ht="74.7" customHeight="1">
       <c r="A199" s="73"/>
       <c r="B199" s="44"/>
-      <c r="C199" t="s" s="80">
-        <v>163</v>
-      </c>
-      <c r="D199" t="s" s="78">
-        <v>273</v>
+      <c r="C199" s="79"/>
+      <c r="D199" t="s" s="75">
+        <v>275</v>
       </c>
       <c r="E199" s="76"/>
       <c r="F199" s="76"/>
@@ -8410,12 +8413,14 @@
       <c r="O199" s="4"/>
       <c r="P199" s="4"/>
     </row>
-    <row r="200" ht="74.7" customHeight="1">
+    <row r="200" ht="26.7" customHeight="1">
       <c r="A200" s="73"/>
       <c r="B200" s="44"/>
-      <c r="C200" s="79"/>
-      <c r="D200" t="s" s="75">
-        <v>274</v>
+      <c r="C200" t="s" s="80">
+        <v>167</v>
+      </c>
+      <c r="D200" t="s" s="78">
+        <v>276</v>
       </c>
       <c r="E200" s="76"/>
       <c r="F200" s="76"/>
@@ -8430,14 +8435,12 @@
       <c r="O200" s="4"/>
       <c r="P200" s="4"/>
     </row>
-    <row r="201" ht="26.7" customHeight="1">
+    <row r="201" ht="158.7" customHeight="1">
       <c r="A201" s="73"/>
       <c r="B201" s="44"/>
-      <c r="C201" t="s" s="80">
-        <v>166</v>
-      </c>
-      <c r="D201" t="s" s="78">
-        <v>275</v>
+      <c r="C201" s="79"/>
+      <c r="D201" t="s" s="75">
+        <v>277</v>
       </c>
       <c r="E201" s="76"/>
       <c r="F201" s="76"/>
@@ -8452,12 +8455,14 @@
       <c r="O201" s="4"/>
       <c r="P201" s="4"/>
     </row>
-    <row r="202" ht="158.7" customHeight="1">
+    <row r="202" ht="17.65" customHeight="1">
       <c r="A202" s="73"/>
       <c r="B202" s="44"/>
-      <c r="C202" s="79"/>
-      <c r="D202" t="s" s="75">
-        <v>276</v>
+      <c r="C202" t="s" s="80">
+        <v>170</v>
+      </c>
+      <c r="D202" t="s" s="78">
+        <v>278</v>
       </c>
       <c r="E202" s="76"/>
       <c r="F202" s="76"/>
@@ -8472,14 +8477,12 @@
       <c r="O202" s="4"/>
       <c r="P202" s="4"/>
     </row>
-    <row r="203" ht="17.65" customHeight="1">
+    <row r="203" ht="50.7" customHeight="1">
       <c r="A203" s="73"/>
-      <c r="B203" s="44"/>
-      <c r="C203" t="s" s="80">
-        <v>169</v>
-      </c>
-      <c r="D203" t="s" s="78">
-        <v>277</v>
+      <c r="B203" s="51"/>
+      <c r="C203" s="79"/>
+      <c r="D203" t="s" s="75">
+        <v>279</v>
       </c>
       <c r="E203" s="76"/>
       <c r="F203" s="76"/>
@@ -8496,10 +8499,12 @@
     </row>
     <row r="204" ht="50.7" customHeight="1">
       <c r="A204" s="73"/>
-      <c r="B204" s="51"/>
-      <c r="C204" s="79"/>
+      <c r="B204" s="81"/>
+      <c r="C204" t="s" s="82">
+        <v>111</v>
+      </c>
       <c r="D204" t="s" s="75">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="E204" s="76"/>
       <c r="F204" s="76"/>
@@ -8514,17 +8519,21 @@
       <c r="O204" s="4"/>
       <c r="P204" s="4"/>
     </row>
-    <row r="205" ht="50.7" customHeight="1">
-      <c r="A205" s="73"/>
-      <c r="B205" s="81"/>
-      <c r="C205" t="s" s="82">
-        <v>111</v>
-      </c>
-      <c r="D205" t="s" s="75">
-        <v>112</v>
-      </c>
-      <c r="E205" s="76"/>
-      <c r="F205" s="76"/>
+    <row r="205" ht="17.65" customHeight="1">
+      <c r="A205" s="83"/>
+      <c r="B205" t="s" s="84">
+        <v>280</v>
+      </c>
+      <c r="C205" t="s" s="85">
+        <v>8</v>
+      </c>
+      <c r="D205" t="s" s="85">
+        <v>281</v>
+      </c>
+      <c r="E205" t="s" s="86">
+        <v>282</v>
+      </c>
+      <c r="F205" s="87"/>
       <c r="G205" s="31"/>
       <c r="H205" s="3"/>
       <c r="I205" s="3"/>
@@ -8538,17 +8547,15 @@
     </row>
     <row r="206" ht="17.65" customHeight="1">
       <c r="A206" s="83"/>
-      <c r="B206" t="s" s="84">
-        <v>279</v>
-      </c>
-      <c r="C206" t="s" s="85">
-        <v>8</v>
-      </c>
-      <c r="D206" t="s" s="85">
-        <v>280</v>
+      <c r="B206" s="69"/>
+      <c r="C206" t="s" s="88">
+        <v>156</v>
+      </c>
+      <c r="D206" t="s" s="89">
+        <v>283</v>
       </c>
       <c r="E206" t="s" s="86">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F206" s="87"/>
       <c r="G206" s="31"/>
@@ -8564,15 +8571,13 @@
     </row>
     <row r="207" ht="17.65" customHeight="1">
       <c r="A207" s="83"/>
-      <c r="B207" s="69"/>
-      <c r="C207" t="s" s="88">
-        <v>155</v>
-      </c>
-      <c r="D207" t="s" s="89">
-        <v>282</v>
+      <c r="B207" s="44"/>
+      <c r="C207" s="79"/>
+      <c r="D207" t="s" s="85">
+        <v>285</v>
       </c>
       <c r="E207" t="s" s="86">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F207" s="87"/>
       <c r="G207" s="31"/>
@@ -8589,12 +8594,14 @@
     <row r="208" ht="17.65" customHeight="1">
       <c r="A208" s="83"/>
       <c r="B208" s="44"/>
-      <c r="C208" s="79"/>
-      <c r="D208" t="s" s="85">
-        <v>284</v>
+      <c r="C208" t="s" s="88">
+        <v>287</v>
+      </c>
+      <c r="D208" t="s" s="89">
+        <v>288</v>
       </c>
       <c r="E208" t="s" s="86">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F208" s="87"/>
       <c r="G208" s="31"/>
@@ -8611,14 +8618,12 @@
     <row r="209" ht="17.65" customHeight="1">
       <c r="A209" s="83"/>
       <c r="B209" s="44"/>
-      <c r="C209" t="s" s="88">
-        <v>286</v>
-      </c>
-      <c r="D209" t="s" s="89">
-        <v>287</v>
-      </c>
-      <c r="E209" t="s" s="86">
-        <v>288</v>
+      <c r="C209" s="79"/>
+      <c r="D209" t="s" s="85">
+        <v>290</v>
+      </c>
+      <c r="E209" t="s" s="85">
+        <v>290</v>
       </c>
       <c r="F209" s="87"/>
       <c r="G209" s="31"/>
@@ -8635,12 +8640,14 @@
     <row r="210" ht="17.65" customHeight="1">
       <c r="A210" s="83"/>
       <c r="B210" s="44"/>
-      <c r="C210" s="79"/>
-      <c r="D210" t="s" s="85">
-        <v>289</v>
-      </c>
-      <c r="E210" t="s" s="85">
-        <v>289</v>
+      <c r="C210" t="s" s="88">
+        <v>291</v>
+      </c>
+      <c r="D210" t="s" s="89">
+        <v>292</v>
+      </c>
+      <c r="E210" t="s" s="86">
+        <v>293</v>
       </c>
       <c r="F210" s="87"/>
       <c r="G210" s="31"/>
@@ -8657,14 +8664,12 @@
     <row r="211" ht="17.65" customHeight="1">
       <c r="A211" s="83"/>
       <c r="B211" s="44"/>
-      <c r="C211" t="s" s="88">
-        <v>290</v>
-      </c>
-      <c r="D211" t="s" s="89">
-        <v>291</v>
-      </c>
-      <c r="E211" t="s" s="86">
-        <v>292</v>
+      <c r="C211" s="79"/>
+      <c r="D211" t="s" s="85">
+        <v>294</v>
+      </c>
+      <c r="E211" t="s" s="85">
+        <v>294</v>
       </c>
       <c r="F211" s="87"/>
       <c r="G211" s="31"/>
@@ -8681,12 +8686,14 @@
     <row r="212" ht="17.65" customHeight="1">
       <c r="A212" s="83"/>
       <c r="B212" s="44"/>
-      <c r="C212" s="79"/>
-      <c r="D212" t="s" s="85">
-        <v>293</v>
-      </c>
-      <c r="E212" t="s" s="85">
-        <v>293</v>
+      <c r="C212" t="s" s="88">
+        <v>295</v>
+      </c>
+      <c r="D212" t="s" s="89">
+        <v>296</v>
+      </c>
+      <c r="E212" t="s" s="86">
+        <v>297</v>
       </c>
       <c r="F212" s="87"/>
       <c r="G212" s="31"/>
@@ -8703,14 +8710,12 @@
     <row r="213" ht="17.65" customHeight="1">
       <c r="A213" s="83"/>
       <c r="B213" s="44"/>
-      <c r="C213" t="s" s="88">
-        <v>294</v>
-      </c>
-      <c r="D213" t="s" s="89">
-        <v>295</v>
-      </c>
-      <c r="E213" t="s" s="86">
-        <v>296</v>
+      <c r="C213" s="79"/>
+      <c r="D213" t="s" s="85">
+        <v>298</v>
+      </c>
+      <c r="E213" t="s" s="85">
+        <v>298</v>
       </c>
       <c r="F213" s="87"/>
       <c r="G213" s="31"/>
@@ -8727,12 +8732,14 @@
     <row r="214" ht="17.65" customHeight="1">
       <c r="A214" s="83"/>
       <c r="B214" s="44"/>
-      <c r="C214" s="79"/>
-      <c r="D214" t="s" s="85">
-        <v>297</v>
-      </c>
-      <c r="E214" t="s" s="85">
-        <v>297</v>
+      <c r="C214" t="s" s="88">
+        <v>299</v>
+      </c>
+      <c r="D214" t="s" s="89">
+        <v>300</v>
+      </c>
+      <c r="E214" t="s" s="86">
+        <v>301</v>
       </c>
       <c r="F214" s="87"/>
       <c r="G214" s="31"/>
@@ -8749,14 +8756,12 @@
     <row r="215" ht="17.65" customHeight="1">
       <c r="A215" s="83"/>
       <c r="B215" s="44"/>
-      <c r="C215" t="s" s="88">
-        <v>298</v>
-      </c>
-      <c r="D215" t="s" s="89">
-        <v>299</v>
-      </c>
-      <c r="E215" t="s" s="86">
-        <v>300</v>
+      <c r="C215" s="79"/>
+      <c r="D215" t="s" s="85">
+        <v>302</v>
+      </c>
+      <c r="E215" t="s" s="85">
+        <v>302</v>
       </c>
       <c r="F215" s="87"/>
       <c r="G215" s="31"/>
@@ -8773,12 +8778,14 @@
     <row r="216" ht="17.65" customHeight="1">
       <c r="A216" s="83"/>
       <c r="B216" s="44"/>
-      <c r="C216" s="79"/>
-      <c r="D216" t="s" s="85">
-        <v>301</v>
-      </c>
-      <c r="E216" t="s" s="85">
-        <v>301</v>
+      <c r="C216" t="s" s="85">
+        <v>303</v>
+      </c>
+      <c r="D216" t="s" s="89">
+        <v>304</v>
+      </c>
+      <c r="E216" t="s" s="86">
+        <v>305</v>
       </c>
       <c r="F216" s="87"/>
       <c r="G216" s="31"/>
@@ -8796,13 +8803,13 @@
       <c r="A217" s="83"/>
       <c r="B217" s="44"/>
       <c r="C217" t="s" s="85">
-        <v>302</v>
-      </c>
-      <c r="D217" t="s" s="89">
-        <v>303</v>
+        <v>306</v>
+      </c>
+      <c r="D217" t="s" s="85">
+        <v>307</v>
       </c>
       <c r="E217" t="s" s="86">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F217" s="87"/>
       <c r="G217" s="31"/>
@@ -8819,14 +8826,14 @@
     <row r="218" ht="17.65" customHeight="1">
       <c r="A218" s="83"/>
       <c r="B218" s="44"/>
-      <c r="C218" t="s" s="85">
-        <v>305</v>
+      <c r="C218" t="s" s="90">
+        <v>309</v>
       </c>
       <c r="D218" t="s" s="85">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E218" t="s" s="86">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="F218" s="87"/>
       <c r="G218" s="31"/>
@@ -8843,14 +8850,14 @@
     <row r="219" ht="17.65" customHeight="1">
       <c r="A219" s="83"/>
       <c r="B219" s="44"/>
-      <c r="C219" t="s" s="90">
-        <v>308</v>
+      <c r="C219" t="s" s="85">
+        <v>312</v>
       </c>
       <c r="D219" t="s" s="85">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="E219" t="s" s="86">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F219" s="87"/>
       <c r="G219" s="31"/>
@@ -8867,14 +8874,14 @@
     <row r="220" ht="17.65" customHeight="1">
       <c r="A220" s="83"/>
       <c r="B220" s="44"/>
-      <c r="C220" t="s" s="85">
-        <v>311</v>
+      <c r="C220" t="s" s="90">
+        <v>309</v>
       </c>
       <c r="D220" t="s" s="85">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="E220" t="s" s="86">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F220" s="87"/>
       <c r="G220" s="31"/>
@@ -8891,14 +8898,14 @@
     <row r="221" ht="17.65" customHeight="1">
       <c r="A221" s="83"/>
       <c r="B221" s="44"/>
-      <c r="C221" t="s" s="90">
-        <v>308</v>
+      <c r="C221" t="s" s="85">
+        <v>317</v>
       </c>
       <c r="D221" t="s" s="85">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E221" t="s" s="86">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="F221" s="87"/>
       <c r="G221" s="31"/>
@@ -8915,14 +8922,14 @@
     <row r="222" ht="17.65" customHeight="1">
       <c r="A222" s="83"/>
       <c r="B222" s="44"/>
-      <c r="C222" t="s" s="85">
-        <v>316</v>
+      <c r="C222" t="s" s="90">
+        <v>320</v>
       </c>
       <c r="D222" t="s" s="85">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E222" t="s" s="86">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="F222" s="87"/>
       <c r="G222" s="31"/>
@@ -8940,13 +8947,13 @@
       <c r="A223" s="83"/>
       <c r="B223" s="44"/>
       <c r="C223" t="s" s="90">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D223" t="s" s="85">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E223" t="s" s="86">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="F223" s="87"/>
       <c r="G223" s="31"/>
@@ -8964,13 +8971,13 @@
       <c r="A224" s="83"/>
       <c r="B224" s="44"/>
       <c r="C224" t="s" s="90">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D224" t="s" s="85">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="E224" t="s" s="86">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="F224" s="87"/>
       <c r="G224" s="31"/>
@@ -8988,13 +8995,13 @@
       <c r="A225" s="83"/>
       <c r="B225" s="44"/>
       <c r="C225" t="s" s="90">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D225" t="s" s="85">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="E225" t="s" s="86">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="F225" s="87"/>
       <c r="G225" s="31"/>
@@ -9012,13 +9019,13 @@
       <c r="A226" s="83"/>
       <c r="B226" s="44"/>
       <c r="C226" t="s" s="90">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D226" t="s" s="85">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="E226" t="s" s="86">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F226" s="87"/>
       <c r="G226" s="31"/>
@@ -9036,13 +9043,13 @@
       <c r="A227" s="83"/>
       <c r="B227" s="44"/>
       <c r="C227" t="s" s="90">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D227" t="s" s="85">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="E227" t="s" s="86">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F227" s="87"/>
       <c r="G227" s="31"/>
@@ -9060,13 +9067,13 @@
       <c r="A228" s="83"/>
       <c r="B228" s="44"/>
       <c r="C228" t="s" s="90">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="D228" t="s" s="85">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E228" t="s" s="86">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="F228" s="87"/>
       <c r="G228" s="31"/>
@@ -9083,14 +9090,14 @@
     <row r="229" ht="17.65" customHeight="1">
       <c r="A229" s="83"/>
       <c r="B229" s="44"/>
-      <c r="C229" t="s" s="90">
-        <v>308</v>
+      <c r="C229" t="s" s="85">
+        <v>338</v>
       </c>
       <c r="D229" t="s" s="85">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="E229" t="s" s="86">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="F229" s="87"/>
       <c r="G229" s="31"/>
@@ -9107,15 +9114,13 @@
     <row r="230" ht="17.65" customHeight="1">
       <c r="A230" s="83"/>
       <c r="B230" s="44"/>
-      <c r="C230" t="s" s="85">
-        <v>337</v>
+      <c r="C230" t="s" s="90">
+        <v>309</v>
       </c>
       <c r="D230" t="s" s="85">
-        <v>338</v>
-      </c>
-      <c r="E230" t="s" s="86">
-        <v>339</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="E230" s="87"/>
       <c r="F230" s="87"/>
       <c r="G230" s="31"/>
       <c r="H230" s="3"/>
@@ -9131,11 +9136,11 @@
     <row r="231" ht="17.65" customHeight="1">
       <c r="A231" s="83"/>
       <c r="B231" s="44"/>
-      <c r="C231" t="s" s="90">
-        <v>308</v>
+      <c r="C231" t="s" s="85">
+        <v>342</v>
       </c>
       <c r="D231" t="s" s="85">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="E231" s="87"/>
       <c r="F231" s="87"/>
@@ -9152,12 +9157,12 @@
     </row>
     <row r="232" ht="17.65" customHeight="1">
       <c r="A232" s="83"/>
-      <c r="B232" s="44"/>
+      <c r="B232" s="51"/>
       <c r="C232" t="s" s="85">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D232" t="s" s="85">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E232" s="87"/>
       <c r="F232" s="87"/>
@@ -9174,12 +9179,12 @@
     </row>
     <row r="233" ht="17.65" customHeight="1">
       <c r="A233" s="83"/>
-      <c r="B233" s="51"/>
+      <c r="B233" s="91"/>
       <c r="C233" t="s" s="85">
-        <v>343</v>
+        <v>111</v>
       </c>
       <c r="D233" t="s" s="85">
-        <v>344</v>
+        <v>112</v>
       </c>
       <c r="E233" s="87"/>
       <c r="F233" s="87"/>
@@ -9198,12 +9203,14 @@
       <c r="A234" s="83"/>
       <c r="B234" s="91"/>
       <c r="C234" t="s" s="85">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="D234" t="s" s="85">
-        <v>112</v>
-      </c>
-      <c r="E234" s="87"/>
+        <v>6</v>
+      </c>
+      <c r="E234" t="s" s="86">
+        <v>6</v>
+      </c>
       <c r="F234" s="87"/>
       <c r="G234" s="31"/>
       <c r="H234" s="3"/>
@@ -9220,13 +9227,13 @@
       <c r="A235" s="83"/>
       <c r="B235" s="91"/>
       <c r="C235" t="s" s="85">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D235" t="s" s="85">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E235" t="s" s="86">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F235" s="87"/>
       <c r="G235" s="31"/>
@@ -9244,13 +9251,13 @@
       <c r="A236" s="83"/>
       <c r="B236" s="91"/>
       <c r="C236" t="s" s="85">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D236" t="s" s="85">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E236" t="s" s="86">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F236" s="87"/>
       <c r="G236" s="31"/>
@@ -9268,13 +9275,13 @@
       <c r="A237" s="83"/>
       <c r="B237" s="91"/>
       <c r="C237" t="s" s="85">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D237" t="s" s="85">
-        <v>7</v>
+        <v>346</v>
       </c>
       <c r="E237" t="s" s="86">
-        <v>21</v>
+        <v>346</v>
       </c>
       <c r="F237" s="87"/>
       <c r="G237" s="31"/>
@@ -9289,18 +9296,18 @@
       <c r="P237" s="4"/>
     </row>
     <row r="238" ht="17.65" customHeight="1">
-      <c r="A238" s="83"/>
-      <c r="B238" s="91"/>
-      <c r="C238" t="s" s="85">
-        <v>23</v>
-      </c>
-      <c r="D238" t="s" s="85">
-        <v>345</v>
-      </c>
-      <c r="E238" t="s" s="86">
-        <v>345</v>
-      </c>
-      <c r="F238" s="87"/>
+      <c r="A238" s="92"/>
+      <c r="B238" t="s" s="93">
+        <v>347</v>
+      </c>
+      <c r="C238" t="s" s="94">
+        <v>26</v>
+      </c>
+      <c r="D238" t="s" s="94">
+        <v>263</v>
+      </c>
+      <c r="E238" s="95"/>
+      <c r="F238" s="95"/>
       <c r="G238" s="31"/>
       <c r="H238" s="3"/>
       <c r="I238" s="3"/>
@@ -9314,14 +9321,12 @@
     </row>
     <row r="239" ht="17.65" customHeight="1">
       <c r="A239" s="92"/>
-      <c r="B239" t="s" s="93">
-        <v>346</v>
-      </c>
-      <c r="C239" t="s" s="94">
-        <v>26</v>
-      </c>
-      <c r="D239" t="s" s="94">
-        <v>262</v>
+      <c r="B239" s="69"/>
+      <c r="C239" t="s" s="96">
+        <v>29</v>
+      </c>
+      <c r="D239" t="s" s="97">
+        <v>348</v>
       </c>
       <c r="E239" s="95"/>
       <c r="F239" s="95"/>
@@ -9338,12 +9343,12 @@
     </row>
     <row r="240" ht="17.65" customHeight="1">
       <c r="A240" s="92"/>
-      <c r="B240" s="69"/>
-      <c r="C240" t="s" s="96">
-        <v>29</v>
-      </c>
-      <c r="D240" t="s" s="97">
-        <v>347</v>
+      <c r="B240" s="44"/>
+      <c r="C240" t="s" s="47">
+        <v>32</v>
+      </c>
+      <c r="D240" t="s" s="94">
+        <v>349</v>
       </c>
       <c r="E240" s="95"/>
       <c r="F240" s="95"/>
@@ -9361,11 +9366,11 @@
     <row r="241" ht="17.65" customHeight="1">
       <c r="A241" s="92"/>
       <c r="B241" s="44"/>
-      <c r="C241" t="s" s="47">
-        <v>32</v>
-      </c>
-      <c r="D241" t="s" s="94">
-        <v>348</v>
+      <c r="C241" t="s" s="96">
+        <v>35</v>
+      </c>
+      <c r="D241" t="s" s="97">
+        <v>350</v>
       </c>
       <c r="E241" s="95"/>
       <c r="F241" s="95"/>
@@ -9380,14 +9385,14 @@
       <c r="O241" s="4"/>
       <c r="P241" s="4"/>
     </row>
-    <row r="242" ht="17.65" customHeight="1">
+    <row r="242" ht="26.7" customHeight="1">
       <c r="A242" s="92"/>
       <c r="B242" s="44"/>
-      <c r="C242" t="s" s="96">
-        <v>35</v>
-      </c>
-      <c r="D242" t="s" s="97">
-        <v>349</v>
+      <c r="C242" t="s" s="47">
+        <v>38</v>
+      </c>
+      <c r="D242" t="s" s="94">
+        <v>351</v>
       </c>
       <c r="E242" s="95"/>
       <c r="F242" s="95"/>
@@ -9402,14 +9407,14 @@
       <c r="O242" s="4"/>
       <c r="P242" s="4"/>
     </row>
-    <row r="243" ht="26.7" customHeight="1">
+    <row r="243" ht="17.65" customHeight="1">
       <c r="A243" s="92"/>
       <c r="B243" s="44"/>
-      <c r="C243" t="s" s="47">
-        <v>38</v>
-      </c>
-      <c r="D243" t="s" s="94">
-        <v>350</v>
+      <c r="C243" t="s" s="96">
+        <v>47</v>
+      </c>
+      <c r="D243" t="s" s="97">
+        <v>352</v>
       </c>
       <c r="E243" s="95"/>
       <c r="F243" s="95"/>
@@ -9424,14 +9429,14 @@
       <c r="O243" s="4"/>
       <c r="P243" s="4"/>
     </row>
-    <row r="244" ht="17.65" customHeight="1">
+    <row r="244" ht="26.7" customHeight="1">
       <c r="A244" s="92"/>
       <c r="B244" s="44"/>
-      <c r="C244" t="s" s="96">
-        <v>47</v>
-      </c>
-      <c r="D244" t="s" s="97">
-        <v>351</v>
+      <c r="C244" t="s" s="47">
+        <v>50</v>
+      </c>
+      <c r="D244" t="s" s="94">
+        <v>353</v>
       </c>
       <c r="E244" s="95"/>
       <c r="F244" s="95"/>
@@ -9446,14 +9451,14 @@
       <c r="O244" s="4"/>
       <c r="P244" s="4"/>
     </row>
-    <row r="245" ht="26.7" customHeight="1">
+    <row r="245" ht="17.65" customHeight="1">
       <c r="A245" s="92"/>
       <c r="B245" s="44"/>
-      <c r="C245" t="s" s="47">
-        <v>50</v>
-      </c>
-      <c r="D245" t="s" s="94">
-        <v>352</v>
+      <c r="C245" t="s" s="98">
+        <v>354</v>
+      </c>
+      <c r="D245" t="s" s="97">
+        <v>355</v>
       </c>
       <c r="E245" s="95"/>
       <c r="F245" s="95"/>
@@ -9468,14 +9473,14 @@
       <c r="O245" s="4"/>
       <c r="P245" s="4"/>
     </row>
-    <row r="246" ht="17.65" customHeight="1">
+    <row r="246" ht="38.7" customHeight="1">
       <c r="A246" s="92"/>
       <c r="B246" s="44"/>
       <c r="C246" t="s" s="98">
-        <v>353</v>
-      </c>
-      <c r="D246" t="s" s="97">
-        <v>354</v>
+        <v>356</v>
+      </c>
+      <c r="D246" t="s" s="94">
+        <v>357</v>
       </c>
       <c r="E246" s="95"/>
       <c r="F246" s="95"/>
@@ -9490,14 +9495,14 @@
       <c r="O246" s="4"/>
       <c r="P246" s="4"/>
     </row>
-    <row r="247" ht="38.7" customHeight="1">
+    <row r="247" ht="17.65" customHeight="1">
       <c r="A247" s="92"/>
       <c r="B247" s="44"/>
       <c r="C247" t="s" s="98">
-        <v>355</v>
-      </c>
-      <c r="D247" t="s" s="94">
-        <v>356</v>
+        <v>358</v>
+      </c>
+      <c r="D247" t="s" s="97">
+        <v>359</v>
       </c>
       <c r="E247" s="95"/>
       <c r="F247" s="95"/>
@@ -9516,10 +9521,10 @@
       <c r="A248" s="92"/>
       <c r="B248" s="44"/>
       <c r="C248" t="s" s="98">
-        <v>357</v>
-      </c>
-      <c r="D248" t="s" s="97">
-        <v>358</v>
+        <v>360</v>
+      </c>
+      <c r="D248" t="s" s="94">
+        <v>361</v>
       </c>
       <c r="E248" s="95"/>
       <c r="F248" s="95"/>
@@ -9538,10 +9543,10 @@
       <c r="A249" s="92"/>
       <c r="B249" s="44"/>
       <c r="C249" t="s" s="98">
-        <v>359</v>
-      </c>
-      <c r="D249" t="s" s="94">
-        <v>360</v>
+        <v>362</v>
+      </c>
+      <c r="D249" t="s" s="97">
+        <v>363</v>
       </c>
       <c r="E249" s="95"/>
       <c r="F249" s="95"/>
@@ -9556,14 +9561,14 @@
       <c r="O249" s="4"/>
       <c r="P249" s="4"/>
     </row>
-    <row r="250" ht="17.65" customHeight="1">
+    <row r="250" ht="38.7" customHeight="1">
       <c r="A250" s="92"/>
       <c r="B250" s="44"/>
       <c r="C250" t="s" s="98">
-        <v>361</v>
-      </c>
-      <c r="D250" t="s" s="97">
-        <v>362</v>
+        <v>364</v>
+      </c>
+      <c r="D250" t="s" s="94">
+        <v>365</v>
       </c>
       <c r="E250" s="95"/>
       <c r="F250" s="95"/>
@@ -9578,14 +9583,14 @@
       <c r="O250" s="4"/>
       <c r="P250" s="4"/>
     </row>
-    <row r="251" ht="38.7" customHeight="1">
+    <row r="251" ht="26.7" customHeight="1">
       <c r="A251" s="92"/>
       <c r="B251" s="44"/>
       <c r="C251" t="s" s="98">
-        <v>363</v>
-      </c>
-      <c r="D251" t="s" s="94">
-        <v>364</v>
+        <v>366</v>
+      </c>
+      <c r="D251" t="s" s="97">
+        <v>367</v>
       </c>
       <c r="E251" s="95"/>
       <c r="F251" s="95"/>
@@ -9600,14 +9605,14 @@
       <c r="O251" s="4"/>
       <c r="P251" s="4"/>
     </row>
-    <row r="252" ht="26.7" customHeight="1">
+    <row r="252" ht="38.7" customHeight="1">
       <c r="A252" s="92"/>
       <c r="B252" s="44"/>
       <c r="C252" t="s" s="98">
-        <v>365</v>
-      </c>
-      <c r="D252" t="s" s="97">
-        <v>366</v>
+        <v>368</v>
+      </c>
+      <c r="D252" t="s" s="94">
+        <v>369</v>
       </c>
       <c r="E252" s="95"/>
       <c r="F252" s="95"/>
@@ -9622,14 +9627,14 @@
       <c r="O252" s="4"/>
       <c r="P252" s="4"/>
     </row>
-    <row r="253" ht="38.7" customHeight="1">
+    <row r="253" ht="26.7" customHeight="1">
       <c r="A253" s="92"/>
       <c r="B253" s="44"/>
       <c r="C253" t="s" s="98">
-        <v>367</v>
-      </c>
-      <c r="D253" t="s" s="94">
-        <v>368</v>
+        <v>370</v>
+      </c>
+      <c r="D253" t="s" s="97">
+        <v>371</v>
       </c>
       <c r="E253" s="95"/>
       <c r="F253" s="95"/>
@@ -9644,14 +9649,14 @@
       <c r="O253" s="4"/>
       <c r="P253" s="4"/>
     </row>
-    <row r="254" ht="26.7" customHeight="1">
+    <row r="254" ht="38.7" customHeight="1">
       <c r="A254" s="92"/>
       <c r="B254" s="44"/>
       <c r="C254" t="s" s="98">
-        <v>369</v>
-      </c>
-      <c r="D254" t="s" s="97">
-        <v>370</v>
+        <v>372</v>
+      </c>
+      <c r="D254" t="s" s="94">
+        <v>373</v>
       </c>
       <c r="E254" s="95"/>
       <c r="F254" s="95"/>
@@ -9666,14 +9671,14 @@
       <c r="O254" s="4"/>
       <c r="P254" s="4"/>
     </row>
-    <row r="255" ht="38.7" customHeight="1">
+    <row r="255" ht="26.7" customHeight="1">
       <c r="A255" s="92"/>
       <c r="B255" s="44"/>
       <c r="C255" t="s" s="98">
-        <v>371</v>
-      </c>
-      <c r="D255" t="s" s="94">
-        <v>372</v>
+        <v>374</v>
+      </c>
+      <c r="D255" t="s" s="97">
+        <v>375</v>
       </c>
       <c r="E255" s="95"/>
       <c r="F255" s="95"/>
@@ -9688,14 +9693,14 @@
       <c r="O255" s="4"/>
       <c r="P255" s="4"/>
     </row>
-    <row r="256" ht="26.7" customHeight="1">
+    <row r="256" ht="38.7" customHeight="1">
       <c r="A256" s="92"/>
       <c r="B256" s="44"/>
       <c r="C256" t="s" s="98">
-        <v>373</v>
-      </c>
-      <c r="D256" t="s" s="97">
-        <v>374</v>
+        <v>376</v>
+      </c>
+      <c r="D256" t="s" s="94">
+        <v>377</v>
       </c>
       <c r="E256" s="95"/>
       <c r="F256" s="95"/>
@@ -9710,14 +9715,14 @@
       <c r="O256" s="4"/>
       <c r="P256" s="4"/>
     </row>
-    <row r="257" ht="38.7" customHeight="1">
+    <row r="257" ht="17.65" customHeight="1">
       <c r="A257" s="92"/>
       <c r="B257" s="44"/>
       <c r="C257" t="s" s="98">
-        <v>375</v>
-      </c>
-      <c r="D257" t="s" s="94">
-        <v>376</v>
+        <v>378</v>
+      </c>
+      <c r="D257" t="s" s="97">
+        <v>379</v>
       </c>
       <c r="E257" s="95"/>
       <c r="F257" s="95"/>
@@ -9732,14 +9737,14 @@
       <c r="O257" s="4"/>
       <c r="P257" s="4"/>
     </row>
-    <row r="258" ht="17.65" customHeight="1">
+    <row r="258" ht="38.7" customHeight="1">
       <c r="A258" s="92"/>
       <c r="B258" s="44"/>
       <c r="C258" t="s" s="98">
-        <v>377</v>
-      </c>
-      <c r="D258" t="s" s="97">
-        <v>378</v>
+        <v>380</v>
+      </c>
+      <c r="D258" t="s" s="94">
+        <v>381</v>
       </c>
       <c r="E258" s="95"/>
       <c r="F258" s="95"/>
@@ -9754,14 +9759,14 @@
       <c r="O258" s="4"/>
       <c r="P258" s="4"/>
     </row>
-    <row r="259" ht="38.7" customHeight="1">
+    <row r="259" ht="17.65" customHeight="1">
       <c r="A259" s="92"/>
       <c r="B259" s="44"/>
       <c r="C259" t="s" s="98">
-        <v>379</v>
-      </c>
-      <c r="D259" t="s" s="94">
-        <v>380</v>
+        <v>382</v>
+      </c>
+      <c r="D259" t="s" s="97">
+        <v>383</v>
       </c>
       <c r="E259" s="95"/>
       <c r="F259" s="95"/>
@@ -9776,14 +9781,14 @@
       <c r="O259" s="4"/>
       <c r="P259" s="4"/>
     </row>
-    <row r="260" ht="17.65" customHeight="1">
+    <row r="260" ht="38.7" customHeight="1">
       <c r="A260" s="92"/>
-      <c r="B260" s="44"/>
+      <c r="B260" s="51"/>
       <c r="C260" t="s" s="98">
-        <v>381</v>
-      </c>
-      <c r="D260" t="s" s="97">
-        <v>382</v>
+        <v>384</v>
+      </c>
+      <c r="D260" t="s" s="94">
+        <v>385</v>
       </c>
       <c r="E260" s="95"/>
       <c r="F260" s="95"/>
@@ -9800,12 +9805,12 @@
     </row>
     <row r="261" ht="38.7" customHeight="1">
       <c r="A261" s="92"/>
-      <c r="B261" s="51"/>
+      <c r="B261" s="99"/>
       <c r="C261" t="s" s="98">
-        <v>383</v>
+        <v>111</v>
       </c>
       <c r="D261" t="s" s="94">
-        <v>384</v>
+        <v>112</v>
       </c>
       <c r="E261" s="95"/>
       <c r="F261" s="95"/>
@@ -9820,17 +9825,19 @@
       <c r="O261" s="4"/>
       <c r="P261" s="4"/>
     </row>
-    <row r="262" ht="38.7" customHeight="1">
-      <c r="A262" s="92"/>
-      <c r="B262" s="99"/>
-      <c r="C262" t="s" s="98">
-        <v>111</v>
-      </c>
-      <c r="D262" t="s" s="94">
-        <v>112</v>
-      </c>
-      <c r="E262" s="95"/>
-      <c r="F262" s="95"/>
+    <row r="262" ht="17.65" customHeight="1">
+      <c r="A262" s="100"/>
+      <c r="B262" t="s" s="101">
+        <v>386</v>
+      </c>
+      <c r="C262" t="s" s="102">
+        <v>8</v>
+      </c>
+      <c r="D262" t="s" s="102">
+        <v>387</v>
+      </c>
+      <c r="E262" s="103"/>
+      <c r="F262" s="103"/>
       <c r="G262" s="31"/>
       <c r="H262" s="3"/>
       <c r="I262" s="3"/>
@@ -9844,14 +9851,12 @@
     </row>
     <row r="263" ht="17.65" customHeight="1">
       <c r="A263" s="100"/>
-      <c r="B263" t="s" s="101">
-        <v>385</v>
-      </c>
+      <c r="B263" s="69"/>
       <c r="C263" t="s" s="102">
-        <v>8</v>
+        <v>388</v>
       </c>
       <c r="D263" t="s" s="102">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="E263" s="103"/>
       <c r="F263" s="103"/>
@@ -9868,12 +9873,12 @@
     </row>
     <row r="264" ht="17.65" customHeight="1">
       <c r="A264" s="100"/>
-      <c r="B264" s="69"/>
+      <c r="B264" s="44"/>
       <c r="C264" t="s" s="102">
-        <v>387</v>
-      </c>
-      <c r="D264" t="s" s="102">
-        <v>388</v>
+        <v>390</v>
+      </c>
+      <c r="D264" t="s" s="104">
+        <v>391</v>
       </c>
       <c r="E264" s="103"/>
       <c r="F264" s="103"/>
@@ -9888,14 +9893,14 @@
       <c r="O264" s="4"/>
       <c r="P264" s="4"/>
     </row>
-    <row r="265" ht="17.65" customHeight="1">
+    <row r="265" ht="170.7" customHeight="1">
       <c r="A265" s="100"/>
       <c r="B265" s="44"/>
       <c r="C265" t="s" s="102">
-        <v>389</v>
-      </c>
-      <c r="D265" t="s" s="104">
-        <v>390</v>
+        <v>392</v>
+      </c>
+      <c r="D265" t="s" s="102">
+        <v>393</v>
       </c>
       <c r="E265" s="103"/>
       <c r="F265" s="103"/>
@@ -9910,14 +9915,14 @@
       <c r="O265" s="4"/>
       <c r="P265" s="4"/>
     </row>
-    <row r="266" ht="170.7" customHeight="1">
+    <row r="266" ht="26.7" customHeight="1">
       <c r="A266" s="100"/>
       <c r="B266" s="44"/>
       <c r="C266" t="s" s="102">
-        <v>391</v>
-      </c>
-      <c r="D266" t="s" s="102">
-        <v>392</v>
+        <v>394</v>
+      </c>
+      <c r="D266" t="s" s="104">
+        <v>395</v>
       </c>
       <c r="E266" s="103"/>
       <c r="F266" s="103"/>
@@ -9936,10 +9941,10 @@
       <c r="A267" s="100"/>
       <c r="B267" s="44"/>
       <c r="C267" t="s" s="102">
-        <v>393</v>
-      </c>
-      <c r="D267" t="s" s="104">
-        <v>394</v>
+        <v>396</v>
+      </c>
+      <c r="D267" t="s" s="102">
+        <v>397</v>
       </c>
       <c r="E267" s="103"/>
       <c r="F267" s="103"/>
@@ -9954,14 +9959,14 @@
       <c r="O267" s="4"/>
       <c r="P267" s="4"/>
     </row>
-    <row r="268" ht="26.7" customHeight="1">
+    <row r="268" ht="17.65" customHeight="1">
       <c r="A268" s="100"/>
       <c r="B268" s="44"/>
       <c r="C268" t="s" s="102">
-        <v>395</v>
-      </c>
-      <c r="D268" t="s" s="102">
-        <v>396</v>
+        <v>398</v>
+      </c>
+      <c r="D268" t="s" s="104">
+        <v>399</v>
       </c>
       <c r="E268" s="103"/>
       <c r="F268" s="103"/>
@@ -9980,10 +9985,10 @@
       <c r="A269" s="100"/>
       <c r="B269" s="44"/>
       <c r="C269" t="s" s="102">
-        <v>397</v>
-      </c>
-      <c r="D269" t="s" s="104">
-        <v>398</v>
+        <v>400</v>
+      </c>
+      <c r="D269" t="s" s="102">
+        <v>401</v>
       </c>
       <c r="E269" s="103"/>
       <c r="F269" s="103"/>
@@ -10002,10 +10007,10 @@
       <c r="A270" s="100"/>
       <c r="B270" s="44"/>
       <c r="C270" t="s" s="102">
-        <v>399</v>
-      </c>
-      <c r="D270" t="s" s="102">
-        <v>400</v>
+        <v>402</v>
+      </c>
+      <c r="D270" t="s" s="104">
+        <v>403</v>
       </c>
       <c r="E270" s="103"/>
       <c r="F270" s="103"/>
@@ -10024,10 +10029,10 @@
       <c r="A271" s="100"/>
       <c r="B271" s="44"/>
       <c r="C271" t="s" s="102">
-        <v>401</v>
-      </c>
-      <c r="D271" t="s" s="104">
-        <v>402</v>
+        <v>404</v>
+      </c>
+      <c r="D271" t="s" s="102">
+        <v>405</v>
       </c>
       <c r="E271" s="103"/>
       <c r="F271" s="103"/>
@@ -10046,10 +10051,10 @@
       <c r="A272" s="100"/>
       <c r="B272" s="44"/>
       <c r="C272" t="s" s="102">
-        <v>403</v>
-      </c>
-      <c r="D272" t="s" s="102">
-        <v>404</v>
+        <v>406</v>
+      </c>
+      <c r="D272" t="s" s="104">
+        <v>407</v>
       </c>
       <c r="E272" s="103"/>
       <c r="F272" s="103"/>
@@ -10068,10 +10073,10 @@
       <c r="A273" s="100"/>
       <c r="B273" s="44"/>
       <c r="C273" t="s" s="102">
-        <v>405</v>
-      </c>
-      <c r="D273" t="s" s="104">
-        <v>406</v>
+        <v>408</v>
+      </c>
+      <c r="D273" t="s" s="102">
+        <v>409</v>
       </c>
       <c r="E273" s="103"/>
       <c r="F273" s="103"/>
@@ -10090,10 +10095,10 @@
       <c r="A274" s="100"/>
       <c r="B274" s="44"/>
       <c r="C274" t="s" s="102">
-        <v>407</v>
-      </c>
-      <c r="D274" t="s" s="102">
-        <v>408</v>
+        <v>410</v>
+      </c>
+      <c r="D274" t="s" s="104">
+        <v>411</v>
       </c>
       <c r="E274" s="103"/>
       <c r="F274" s="103"/>
@@ -10112,10 +10117,10 @@
       <c r="A275" s="100"/>
       <c r="B275" s="44"/>
       <c r="C275" t="s" s="102">
-        <v>409</v>
-      </c>
-      <c r="D275" t="s" s="104">
-        <v>410</v>
+        <v>412</v>
+      </c>
+      <c r="D275" t="s" s="102">
+        <v>413</v>
       </c>
       <c r="E275" s="103"/>
       <c r="F275" s="103"/>
@@ -10134,10 +10139,10 @@
       <c r="A276" s="100"/>
       <c r="B276" s="44"/>
       <c r="C276" t="s" s="102">
-        <v>411</v>
-      </c>
-      <c r="D276" t="s" s="102">
-        <v>412</v>
+        <v>414</v>
+      </c>
+      <c r="D276" t="s" s="104">
+        <v>415</v>
       </c>
       <c r="E276" s="103"/>
       <c r="F276" s="103"/>
@@ -10152,14 +10157,14 @@
       <c r="O276" s="4"/>
       <c r="P276" s="4"/>
     </row>
-    <row r="277" ht="17.65" customHeight="1">
+    <row r="277" ht="26.7" customHeight="1">
       <c r="A277" s="100"/>
       <c r="B277" s="44"/>
       <c r="C277" t="s" s="102">
-        <v>413</v>
-      </c>
-      <c r="D277" t="s" s="104">
-        <v>414</v>
+        <v>416</v>
+      </c>
+      <c r="D277" t="s" s="102">
+        <v>417</v>
       </c>
       <c r="E277" s="103"/>
       <c r="F277" s="103"/>
@@ -10174,14 +10179,14 @@
       <c r="O277" s="4"/>
       <c r="P277" s="4"/>
     </row>
-    <row r="278" ht="26.7" customHeight="1">
+    <row r="278" ht="17.65" customHeight="1">
       <c r="A278" s="100"/>
       <c r="B278" s="44"/>
       <c r="C278" t="s" s="102">
-        <v>415</v>
-      </c>
-      <c r="D278" t="s" s="102">
-        <v>416</v>
+        <v>418</v>
+      </c>
+      <c r="D278" t="s" s="104">
+        <v>419</v>
       </c>
       <c r="E278" s="103"/>
       <c r="F278" s="103"/>
@@ -10196,14 +10201,14 @@
       <c r="O278" s="4"/>
       <c r="P278" s="4"/>
     </row>
-    <row r="279" ht="17.65" customHeight="1">
+    <row r="279" ht="26.7" customHeight="1">
       <c r="A279" s="100"/>
       <c r="B279" s="44"/>
       <c r="C279" t="s" s="102">
-        <v>417</v>
-      </c>
-      <c r="D279" t="s" s="104">
-        <v>418</v>
+        <v>420</v>
+      </c>
+      <c r="D279" t="s" s="102">
+        <v>421</v>
       </c>
       <c r="E279" s="103"/>
       <c r="F279" s="103"/>
@@ -10218,14 +10223,14 @@
       <c r="O279" s="4"/>
       <c r="P279" s="4"/>
     </row>
-    <row r="280" ht="26.7" customHeight="1">
+    <row r="280" ht="17.65" customHeight="1">
       <c r="A280" s="100"/>
       <c r="B280" s="44"/>
       <c r="C280" t="s" s="102">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D280" t="s" s="102">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="E280" s="103"/>
       <c r="F280" s="103"/>
@@ -10244,10 +10249,10 @@
       <c r="A281" s="100"/>
       <c r="B281" s="44"/>
       <c r="C281" t="s" s="102">
-        <v>421</v>
-      </c>
-      <c r="D281" t="s" s="102">
-        <v>422</v>
+        <v>424</v>
+      </c>
+      <c r="D281" t="s" s="104">
+        <v>425</v>
       </c>
       <c r="E281" s="103"/>
       <c r="F281" s="103"/>
@@ -10264,12 +10269,12 @@
     </row>
     <row r="282" ht="17.65" customHeight="1">
       <c r="A282" s="100"/>
-      <c r="B282" s="44"/>
+      <c r="B282" s="51"/>
       <c r="C282" t="s" s="102">
-        <v>423</v>
-      </c>
-      <c r="D282" t="s" s="104">
-        <v>424</v>
+        <v>426</v>
+      </c>
+      <c r="D282" t="s" s="102">
+        <v>427</v>
       </c>
       <c r="E282" s="103"/>
       <c r="F282" s="103"/>
@@ -10286,12 +10291,12 @@
     </row>
     <row r="283" ht="17.65" customHeight="1">
       <c r="A283" s="100"/>
-      <c r="B283" s="51"/>
+      <c r="B283" s="105"/>
       <c r="C283" t="s" s="102">
-        <v>425</v>
+        <v>111</v>
       </c>
       <c r="D283" t="s" s="102">
-        <v>426</v>
+        <v>112</v>
       </c>
       <c r="E283" s="103"/>
       <c r="F283" s="103"/>
@@ -10307,16 +10312,18 @@
       <c r="P283" s="4"/>
     </row>
     <row r="284" ht="17.65" customHeight="1">
-      <c r="A284" s="100"/>
-      <c r="B284" s="105"/>
-      <c r="C284" t="s" s="102">
-        <v>111</v>
-      </c>
-      <c r="D284" t="s" s="102">
-        <v>112</v>
-      </c>
-      <c r="E284" s="103"/>
-      <c r="F284" s="103"/>
+      <c r="A284" s="106"/>
+      <c r="B284" t="s" s="107">
+        <v>428</v>
+      </c>
+      <c r="C284" t="s" s="108">
+        <v>8</v>
+      </c>
+      <c r="D284" t="s" s="108">
+        <v>326</v>
+      </c>
+      <c r="E284" s="109"/>
+      <c r="F284" s="109"/>
       <c r="G284" s="31"/>
       <c r="H284" s="3"/>
       <c r="I284" s="3"/>
@@ -10330,14 +10337,12 @@
     </row>
     <row r="285" ht="17.65" customHeight="1">
       <c r="A285" s="106"/>
-      <c r="B285" t="s" s="107">
-        <v>427</v>
-      </c>
+      <c r="B285" s="69"/>
       <c r="C285" t="s" s="108">
-        <v>8</v>
+        <v>156</v>
       </c>
       <c r="D285" t="s" s="108">
-        <v>325</v>
+        <v>429</v>
       </c>
       <c r="E285" s="109"/>
       <c r="F285" s="109"/>
@@ -10354,12 +10359,12 @@
     </row>
     <row r="286" ht="17.65" customHeight="1">
       <c r="A286" s="106"/>
-      <c r="B286" s="69"/>
+      <c r="B286" s="44"/>
       <c r="C286" t="s" s="108">
-        <v>155</v>
+        <v>430</v>
       </c>
       <c r="D286" t="s" s="108">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="E286" s="109"/>
       <c r="F286" s="109"/>
@@ -10378,10 +10383,10 @@
       <c r="A287" s="106"/>
       <c r="B287" s="44"/>
       <c r="C287" t="s" s="108">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="D287" t="s" s="108">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E287" s="109"/>
       <c r="F287" s="109"/>
@@ -10400,10 +10405,10 @@
       <c r="A288" s="106"/>
       <c r="B288" s="44"/>
       <c r="C288" t="s" s="108">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D288" t="s" s="108">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="E288" s="109"/>
       <c r="F288" s="109"/>
@@ -10422,10 +10427,10 @@
       <c r="A289" s="106"/>
       <c r="B289" s="44"/>
       <c r="C289" t="s" s="108">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D289" t="s" s="108">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E289" s="109"/>
       <c r="F289" s="109"/>
@@ -10440,14 +10445,14 @@
       <c r="O289" s="4"/>
       <c r="P289" s="4"/>
     </row>
-    <row r="290" ht="17.65" customHeight="1">
+    <row r="290" ht="46.7" customHeight="1">
       <c r="A290" s="106"/>
-      <c r="B290" s="44"/>
+      <c r="B290" s="51"/>
       <c r="C290" t="s" s="108">
-        <v>435</v>
+        <v>309</v>
       </c>
       <c r="D290" t="s" s="108">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E290" s="109"/>
       <c r="F290" s="109"/>
@@ -10464,12 +10469,12 @@
     </row>
     <row r="291" ht="46.7" customHeight="1">
       <c r="A291" s="106"/>
-      <c r="B291" s="51"/>
+      <c r="B291" s="110"/>
       <c r="C291" t="s" s="108">
-        <v>308</v>
+        <v>111</v>
       </c>
       <c r="D291" t="s" s="108">
-        <v>437</v>
+        <v>112</v>
       </c>
       <c r="E291" s="109"/>
       <c r="F291" s="109"/>
@@ -10484,17 +10489,19 @@
       <c r="O291" s="4"/>
       <c r="P291" s="4"/>
     </row>
-    <row r="292" ht="46.7" customHeight="1">
-      <c r="A292" s="106"/>
-      <c r="B292" s="110"/>
-      <c r="C292" t="s" s="108">
-        <v>111</v>
-      </c>
-      <c r="D292" t="s" s="108">
-        <v>112</v>
-      </c>
-      <c r="E292" s="109"/>
-      <c r="F292" s="109"/>
+    <row r="292" ht="17.65" customHeight="1">
+      <c r="A292" s="111"/>
+      <c r="B292" t="s" s="112">
+        <v>439</v>
+      </c>
+      <c r="C292" t="s" s="113">
+        <v>440</v>
+      </c>
+      <c r="D292" t="s" s="113">
+        <v>27</v>
+      </c>
+      <c r="E292" s="114"/>
+      <c r="F292" s="114"/>
       <c r="G292" s="31"/>
       <c r="H292" s="3"/>
       <c r="I292" s="3"/>
@@ -10508,14 +10515,12 @@
     </row>
     <row r="293" ht="17.65" customHeight="1">
       <c r="A293" s="111"/>
-      <c r="B293" t="s" s="112">
-        <v>438</v>
-      </c>
+      <c r="B293" s="69"/>
       <c r="C293" t="s" s="113">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D293" t="s" s="113">
-        <v>27</v>
+        <v>442</v>
       </c>
       <c r="E293" s="114"/>
       <c r="F293" s="114"/>
@@ -10532,12 +10537,12 @@
     </row>
     <row r="294" ht="17.65" customHeight="1">
       <c r="A294" s="111"/>
-      <c r="B294" s="69"/>
+      <c r="B294" s="44"/>
       <c r="C294" t="s" s="113">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D294" t="s" s="113">
-        <v>441</v>
+        <v>141</v>
       </c>
       <c r="E294" s="114"/>
       <c r="F294" s="114"/>
@@ -10556,10 +10561,10 @@
       <c r="A295" s="111"/>
       <c r="B295" s="44"/>
       <c r="C295" t="s" s="113">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D295" t="s" s="113">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="E295" s="114"/>
       <c r="F295" s="114"/>
@@ -10578,10 +10583,10 @@
       <c r="A296" s="111"/>
       <c r="B296" s="44"/>
       <c r="C296" t="s" s="113">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D296" t="s" s="113">
-        <v>154</v>
+        <v>281</v>
       </c>
       <c r="E296" s="114"/>
       <c r="F296" s="114"/>
@@ -10600,10 +10605,10 @@
       <c r="A297" s="111"/>
       <c r="B297" s="44"/>
       <c r="C297" t="s" s="113">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D297" t="s" s="113">
-        <v>280</v>
+        <v>447</v>
       </c>
       <c r="E297" s="114"/>
       <c r="F297" s="114"/>
@@ -10622,10 +10627,10 @@
       <c r="A298" s="111"/>
       <c r="B298" s="44"/>
       <c r="C298" t="s" s="113">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D298" t="s" s="113">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="E298" s="114"/>
       <c r="F298" s="114"/>
@@ -10644,10 +10649,10 @@
       <c r="A299" s="111"/>
       <c r="B299" s="44"/>
       <c r="C299" t="s" s="113">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D299" t="s" s="113">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="E299" s="114"/>
       <c r="F299" s="114"/>
@@ -10666,10 +10671,10 @@
       <c r="A300" s="111"/>
       <c r="B300" s="44"/>
       <c r="C300" t="s" s="113">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="D300" t="s" s="113">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="E300" s="114"/>
       <c r="F300" s="114"/>
@@ -10688,10 +10693,10 @@
       <c r="A301" s="111"/>
       <c r="B301" s="44"/>
       <c r="C301" t="s" s="113">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="D301" t="s" s="113">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="E301" s="114"/>
       <c r="F301" s="114"/>
@@ -10710,10 +10715,10 @@
       <c r="A302" s="111"/>
       <c r="B302" s="44"/>
       <c r="C302" t="s" s="113">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="D302" t="s" s="113">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="E302" s="114"/>
       <c r="F302" s="114"/>
@@ -10732,10 +10737,10 @@
       <c r="A303" s="111"/>
       <c r="B303" s="44"/>
       <c r="C303" t="s" s="113">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D303" t="s" s="113">
-        <v>456</v>
+        <v>263</v>
       </c>
       <c r="E303" s="114"/>
       <c r="F303" s="114"/>
@@ -10754,10 +10759,10 @@
       <c r="A304" s="111"/>
       <c r="B304" s="44"/>
       <c r="C304" t="s" s="113">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D304" t="s" s="113">
-        <v>262</v>
+        <v>155</v>
       </c>
       <c r="E304" s="114"/>
       <c r="F304" s="114"/>
@@ -10776,10 +10781,10 @@
       <c r="A305" s="111"/>
       <c r="B305" s="44"/>
       <c r="C305" t="s" s="113">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D305" t="s" s="113">
-        <v>154</v>
+        <v>387</v>
       </c>
       <c r="E305" s="114"/>
       <c r="F305" s="114"/>
@@ -10798,10 +10803,10 @@
       <c r="A306" s="111"/>
       <c r="B306" s="44"/>
       <c r="C306" t="s" s="113">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D306" t="s" s="113">
-        <v>386</v>
+        <v>326</v>
       </c>
       <c r="E306" s="114"/>
       <c r="F306" s="114"/>
@@ -10820,10 +10825,10 @@
       <c r="A307" s="111"/>
       <c r="B307" s="44"/>
       <c r="C307" t="s" s="113">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D307" t="s" s="113">
-        <v>325</v>
+        <v>463</v>
       </c>
       <c r="E307" s="114"/>
       <c r="F307" s="114"/>
@@ -10842,10 +10847,10 @@
       <c r="A308" s="111"/>
       <c r="B308" s="44"/>
       <c r="C308" t="s" s="113">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D308" t="s" s="113">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="E308" s="114"/>
       <c r="F308" s="114"/>
@@ -10864,10 +10869,10 @@
       <c r="A309" s="111"/>
       <c r="B309" s="44"/>
       <c r="C309" t="s" s="113">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D309" t="s" s="113">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="E309" s="114"/>
       <c r="F309" s="114"/>
@@ -10886,10 +10891,10 @@
       <c r="A310" s="111"/>
       <c r="B310" s="44"/>
       <c r="C310" t="s" s="113">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D310" t="s" s="113">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="E310" s="114"/>
       <c r="F310" s="114"/>
@@ -10906,12 +10911,12 @@
     </row>
     <row r="311" ht="17.65" customHeight="1">
       <c r="A311" s="111"/>
-      <c r="B311" s="44"/>
+      <c r="B311" s="51"/>
       <c r="C311" t="s" s="113">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="D311" t="s" s="113">
-        <v>468</v>
+        <v>110</v>
       </c>
       <c r="E311" s="114"/>
       <c r="F311" s="114"/>
@@ -10928,12 +10933,12 @@
     </row>
     <row r="312" ht="17.65" customHeight="1">
       <c r="A312" s="111"/>
-      <c r="B312" s="51"/>
+      <c r="B312" s="115"/>
       <c r="C312" t="s" s="113">
-        <v>435</v>
+        <v>111</v>
       </c>
       <c r="D312" t="s" s="113">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E312" s="114"/>
       <c r="F312" s="114"/>
@@ -10949,16 +10954,18 @@
       <c r="P312" s="4"/>
     </row>
     <row r="313" ht="17.65" customHeight="1">
-      <c r="A313" s="111"/>
-      <c r="B313" s="115"/>
-      <c r="C313" t="s" s="113">
-        <v>111</v>
-      </c>
-      <c r="D313" t="s" s="113">
-        <v>112</v>
-      </c>
-      <c r="E313" s="114"/>
-      <c r="F313" s="114"/>
+      <c r="A313" s="116"/>
+      <c r="B313" t="s" s="117">
+        <v>470</v>
+      </c>
+      <c r="C313" t="s" s="118">
+        <v>8</v>
+      </c>
+      <c r="D313" t="s" s="118">
+        <v>447</v>
+      </c>
+      <c r="E313" s="119"/>
+      <c r="F313" s="119"/>
       <c r="G313" s="31"/>
       <c r="H313" s="3"/>
       <c r="I313" s="3"/>
@@ -10972,14 +10979,12 @@
     </row>
     <row r="314" ht="17.65" customHeight="1">
       <c r="A314" s="116"/>
-      <c r="B314" t="s" s="117">
-        <v>469</v>
-      </c>
+      <c r="B314" s="69"/>
       <c r="C314" t="s" s="118">
-        <v>8</v>
+        <v>156</v>
       </c>
       <c r="D314" t="s" s="118">
-        <v>446</v>
+        <v>471</v>
       </c>
       <c r="E314" s="119"/>
       <c r="F314" s="119"/>
@@ -10996,12 +11001,12 @@
     </row>
     <row r="315" ht="17.65" customHeight="1">
       <c r="A315" s="116"/>
-      <c r="B315" s="69"/>
-      <c r="C315" t="s" s="118">
-        <v>155</v>
-      </c>
-      <c r="D315" t="s" s="118">
-        <v>470</v>
+      <c r="B315" s="44"/>
+      <c r="C315" t="s" s="120">
+        <v>436</v>
+      </c>
+      <c r="D315" t="s" s="121">
+        <v>472</v>
       </c>
       <c r="E315" s="119"/>
       <c r="F315" s="119"/>
@@ -11019,11 +11024,9 @@
     <row r="316" ht="17.65" customHeight="1">
       <c r="A316" s="116"/>
       <c r="B316" s="44"/>
-      <c r="C316" t="s" s="120">
-        <v>435</v>
-      </c>
-      <c r="D316" t="s" s="121">
-        <v>471</v>
+      <c r="C316" s="79"/>
+      <c r="D316" t="s" s="118">
+        <v>110</v>
       </c>
       <c r="E316" s="119"/>
       <c r="F316" s="119"/>
@@ -11041,9 +11044,11 @@
     <row r="317" ht="17.65" customHeight="1">
       <c r="A317" s="116"/>
       <c r="B317" s="44"/>
-      <c r="C317" s="79"/>
+      <c r="C317" t="s" s="118">
+        <v>473</v>
+      </c>
       <c r="D317" t="s" s="118">
-        <v>110</v>
+        <v>474</v>
       </c>
       <c r="E317" s="119"/>
       <c r="F317" s="119"/>
@@ -11062,10 +11067,10 @@
       <c r="A318" s="116"/>
       <c r="B318" s="44"/>
       <c r="C318" t="s" s="118">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D318" t="s" s="118">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="E318" s="119"/>
       <c r="F318" s="119"/>
@@ -11084,10 +11089,10 @@
       <c r="A319" s="116"/>
       <c r="B319" s="44"/>
       <c r="C319" t="s" s="118">
-        <v>474</v>
+        <v>436</v>
       </c>
       <c r="D319" t="s" s="118">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E319" s="119"/>
       <c r="F319" s="119"/>
@@ -11106,10 +11111,10 @@
       <c r="A320" s="116"/>
       <c r="B320" s="44"/>
       <c r="C320" t="s" s="118">
-        <v>435</v>
+        <v>478</v>
       </c>
       <c r="D320" t="s" s="118">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="E320" s="119"/>
       <c r="F320" s="119"/>
@@ -11128,10 +11133,10 @@
       <c r="A321" s="116"/>
       <c r="B321" s="44"/>
       <c r="C321" t="s" s="118">
-        <v>477</v>
+        <v>436</v>
       </c>
       <c r="D321" t="s" s="118">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E321" s="119"/>
       <c r="F321" s="119"/>
@@ -11149,11 +11154,11 @@
     <row r="322" ht="17.65" customHeight="1">
       <c r="A322" s="116"/>
       <c r="B322" s="44"/>
-      <c r="C322" t="s" s="118">
-        <v>435</v>
+      <c r="C322" t="s" s="120">
+        <v>481</v>
       </c>
       <c r="D322" t="s" s="118">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="E322" s="119"/>
       <c r="F322" s="119"/>
@@ -11171,11 +11176,9 @@
     <row r="323" ht="17.65" customHeight="1">
       <c r="A323" s="116"/>
       <c r="B323" s="44"/>
-      <c r="C323" t="s" s="120">
-        <v>480</v>
-      </c>
+      <c r="C323" s="79"/>
       <c r="D323" t="s" s="118">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E323" s="119"/>
       <c r="F323" s="119"/>
@@ -11193,9 +11196,11 @@
     <row r="324" ht="17.65" customHeight="1">
       <c r="A324" s="116"/>
       <c r="B324" s="44"/>
-      <c r="C324" s="79"/>
+      <c r="C324" t="s" s="120">
+        <v>484</v>
+      </c>
       <c r="D324" t="s" s="118">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="E324" s="119"/>
       <c r="F324" s="119"/>
@@ -11213,11 +11218,9 @@
     <row r="325" ht="17.65" customHeight="1">
       <c r="A325" s="116"/>
       <c r="B325" s="44"/>
-      <c r="C325" t="s" s="120">
-        <v>483</v>
-      </c>
+      <c r="C325" s="79"/>
       <c r="D325" t="s" s="118">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E325" s="119"/>
       <c r="F325" s="119"/>
@@ -11235,9 +11238,11 @@
     <row r="326" ht="17.65" customHeight="1">
       <c r="A326" s="116"/>
       <c r="B326" s="44"/>
-      <c r="C326" s="79"/>
+      <c r="C326" t="s" s="120">
+        <v>487</v>
+      </c>
       <c r="D326" t="s" s="118">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="E326" s="119"/>
       <c r="F326" s="119"/>
@@ -11255,11 +11260,9 @@
     <row r="327" ht="17.65" customHeight="1">
       <c r="A327" s="116"/>
       <c r="B327" s="44"/>
-      <c r="C327" t="s" s="120">
-        <v>486</v>
-      </c>
+      <c r="C327" s="79"/>
       <c r="D327" t="s" s="118">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E327" s="119"/>
       <c r="F327" s="119"/>
@@ -11277,9 +11280,11 @@
     <row r="328" ht="17.65" customHeight="1">
       <c r="A328" s="116"/>
       <c r="B328" s="44"/>
-      <c r="C328" s="79"/>
+      <c r="C328" t="s" s="120">
+        <v>490</v>
+      </c>
       <c r="D328" t="s" s="118">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="E328" s="119"/>
       <c r="F328" s="119"/>
@@ -11297,11 +11302,9 @@
     <row r="329" ht="17.65" customHeight="1">
       <c r="A329" s="116"/>
       <c r="B329" s="44"/>
-      <c r="C329" t="s" s="120">
-        <v>489</v>
-      </c>
+      <c r="C329" s="79"/>
       <c r="D329" t="s" s="118">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E329" s="119"/>
       <c r="F329" s="119"/>
@@ -11319,9 +11322,11 @@
     <row r="330" ht="17.65" customHeight="1">
       <c r="A330" s="116"/>
       <c r="B330" s="44"/>
-      <c r="C330" s="79"/>
+      <c r="C330" t="s" s="120">
+        <v>493</v>
+      </c>
       <c r="D330" t="s" s="118">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="E330" s="119"/>
       <c r="F330" s="119"/>
@@ -11339,11 +11344,9 @@
     <row r="331" ht="17.65" customHeight="1">
       <c r="A331" s="116"/>
       <c r="B331" s="44"/>
-      <c r="C331" t="s" s="120">
-        <v>492</v>
-      </c>
+      <c r="C331" s="79"/>
       <c r="D331" t="s" s="118">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="E331" s="119"/>
       <c r="F331" s="119"/>
@@ -11361,9 +11364,11 @@
     <row r="332" ht="17.65" customHeight="1">
       <c r="A332" s="116"/>
       <c r="B332" s="44"/>
-      <c r="C332" s="79"/>
+      <c r="C332" t="s" s="120">
+        <v>496</v>
+      </c>
       <c r="D332" t="s" s="118">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="E332" s="119"/>
       <c r="F332" s="119"/>
@@ -11381,11 +11386,9 @@
     <row r="333" ht="17.65" customHeight="1">
       <c r="A333" s="116"/>
       <c r="B333" s="44"/>
-      <c r="C333" t="s" s="120">
-        <v>495</v>
-      </c>
+      <c r="C333" s="79"/>
       <c r="D333" t="s" s="118">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E333" s="119"/>
       <c r="F333" s="119"/>
@@ -11403,9 +11406,11 @@
     <row r="334" ht="17.65" customHeight="1">
       <c r="A334" s="116"/>
       <c r="B334" s="44"/>
-      <c r="C334" s="79"/>
+      <c r="C334" t="s" s="120">
+        <v>499</v>
+      </c>
       <c r="D334" t="s" s="118">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="E334" s="119"/>
       <c r="F334" s="119"/>
@@ -11423,11 +11428,9 @@
     <row r="335" ht="17.65" customHeight="1">
       <c r="A335" s="116"/>
       <c r="B335" s="44"/>
-      <c r="C335" t="s" s="120">
-        <v>498</v>
-      </c>
+      <c r="C335" s="79"/>
       <c r="D335" t="s" s="118">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E335" s="119"/>
       <c r="F335" s="119"/>
@@ -11445,9 +11448,11 @@
     <row r="336" ht="17.65" customHeight="1">
       <c r="A336" s="116"/>
       <c r="B336" s="44"/>
-      <c r="C336" s="79"/>
+      <c r="C336" t="s" s="120">
+        <v>502</v>
+      </c>
       <c r="D336" t="s" s="118">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="E336" s="119"/>
       <c r="F336" s="119"/>
@@ -11465,11 +11470,9 @@
     <row r="337" ht="17.65" customHeight="1">
       <c r="A337" s="116"/>
       <c r="B337" s="44"/>
-      <c r="C337" t="s" s="120">
-        <v>501</v>
-      </c>
+      <c r="C337" s="79"/>
       <c r="D337" t="s" s="118">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E337" s="119"/>
       <c r="F337" s="119"/>
@@ -11487,9 +11490,11 @@
     <row r="338" ht="17.65" customHeight="1">
       <c r="A338" s="116"/>
       <c r="B338" s="44"/>
-      <c r="C338" s="79"/>
+      <c r="C338" t="s" s="120">
+        <v>505</v>
+      </c>
       <c r="D338" t="s" s="118">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="E338" s="119"/>
       <c r="F338" s="119"/>
@@ -11507,11 +11512,9 @@
     <row r="339" ht="17.65" customHeight="1">
       <c r="A339" s="116"/>
       <c r="B339" s="44"/>
-      <c r="C339" t="s" s="120">
-        <v>504</v>
-      </c>
+      <c r="C339" s="79"/>
       <c r="D339" t="s" s="118">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="E339" s="119"/>
       <c r="F339" s="119"/>
@@ -11529,9 +11532,11 @@
     <row r="340" ht="17.65" customHeight="1">
       <c r="A340" s="116"/>
       <c r="B340" s="44"/>
-      <c r="C340" s="79"/>
+      <c r="C340" t="s" s="120">
+        <v>508</v>
+      </c>
       <c r="D340" t="s" s="118">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="E340" s="119"/>
       <c r="F340" s="119"/>
@@ -11549,11 +11554,9 @@
     <row r="341" ht="17.65" customHeight="1">
       <c r="A341" s="116"/>
       <c r="B341" s="44"/>
-      <c r="C341" t="s" s="120">
-        <v>507</v>
-      </c>
+      <c r="C341" s="79"/>
       <c r="D341" t="s" s="118">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E341" s="119"/>
       <c r="F341" s="119"/>
@@ -11571,9 +11574,11 @@
     <row r="342" ht="17.65" customHeight="1">
       <c r="A342" s="116"/>
       <c r="B342" s="44"/>
-      <c r="C342" s="79"/>
+      <c r="C342" t="s" s="120">
+        <v>511</v>
+      </c>
       <c r="D342" t="s" s="118">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="E342" s="119"/>
       <c r="F342" s="119"/>
@@ -11591,11 +11596,9 @@
     <row r="343" ht="17.65" customHeight="1">
       <c r="A343" s="116"/>
       <c r="B343" s="44"/>
-      <c r="C343" t="s" s="120">
-        <v>510</v>
-      </c>
+      <c r="C343" s="79"/>
       <c r="D343" t="s" s="118">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E343" s="119"/>
       <c r="F343" s="119"/>
@@ -11613,9 +11616,11 @@
     <row r="344" ht="17.65" customHeight="1">
       <c r="A344" s="116"/>
       <c r="B344" s="44"/>
-      <c r="C344" s="79"/>
+      <c r="C344" t="s" s="120">
+        <v>514</v>
+      </c>
       <c r="D344" t="s" s="118">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="E344" s="119"/>
       <c r="F344" s="119"/>
@@ -11633,11 +11638,9 @@
     <row r="345" ht="17.65" customHeight="1">
       <c r="A345" s="116"/>
       <c r="B345" s="44"/>
-      <c r="C345" t="s" s="120">
-        <v>513</v>
-      </c>
+      <c r="C345" s="79"/>
       <c r="D345" t="s" s="118">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E345" s="119"/>
       <c r="F345" s="119"/>
@@ -11652,12 +11655,14 @@
       <c r="O345" s="4"/>
       <c r="P345" s="4"/>
     </row>
-    <row r="346" ht="17.65" customHeight="1">
+    <row r="346" ht="26.7" customHeight="1">
       <c r="A346" s="116"/>
-      <c r="B346" s="44"/>
-      <c r="C346" s="79"/>
+      <c r="B346" s="51"/>
+      <c r="C346" t="s" s="118">
+        <v>517</v>
+      </c>
       <c r="D346" t="s" s="118">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="E346" s="119"/>
       <c r="F346" s="119"/>
@@ -11674,12 +11679,12 @@
     </row>
     <row r="347" ht="26.7" customHeight="1">
       <c r="A347" s="116"/>
-      <c r="B347" s="51"/>
+      <c r="B347" s="122"/>
       <c r="C347" t="s" s="118">
-        <v>516</v>
+        <v>111</v>
       </c>
       <c r="D347" t="s" s="118">
-        <v>517</v>
+        <v>112</v>
       </c>
       <c r="E347" s="119"/>
       <c r="F347" s="119"/>
@@ -11694,17 +11699,19 @@
       <c r="O347" s="4"/>
       <c r="P347" s="4"/>
     </row>
-    <row r="348" ht="26.7" customHeight="1">
-      <c r="A348" s="116"/>
-      <c r="B348" s="122"/>
-      <c r="C348" t="s" s="118">
-        <v>111</v>
-      </c>
-      <c r="D348" t="s" s="118">
-        <v>112</v>
-      </c>
-      <c r="E348" s="119"/>
-      <c r="F348" s="119"/>
+    <row r="348" ht="17.65" customHeight="1">
+      <c r="A348" s="123"/>
+      <c r="B348" t="s" s="124">
+        <v>519</v>
+      </c>
+      <c r="C348" t="s" s="125">
+        <v>8</v>
+      </c>
+      <c r="D348" t="s" s="125">
+        <v>449</v>
+      </c>
+      <c r="E348" s="126"/>
+      <c r="F348" s="126"/>
       <c r="G348" s="31"/>
       <c r="H348" s="3"/>
       <c r="I348" s="3"/>
@@ -11718,14 +11725,12 @@
     </row>
     <row r="349" ht="17.65" customHeight="1">
       <c r="A349" s="123"/>
-      <c r="B349" t="s" s="124">
-        <v>518</v>
-      </c>
+      <c r="B349" s="69"/>
       <c r="C349" t="s" s="125">
-        <v>8</v>
+        <v>156</v>
       </c>
       <c r="D349" t="s" s="125">
-        <v>448</v>
+        <v>520</v>
       </c>
       <c r="E349" s="126"/>
       <c r="F349" s="126"/>
@@ -11742,12 +11747,12 @@
     </row>
     <row r="350" ht="17.65" customHeight="1">
       <c r="A350" s="123"/>
-      <c r="B350" s="69"/>
+      <c r="B350" s="44"/>
       <c r="C350" t="s" s="125">
-        <v>155</v>
+        <v>473</v>
       </c>
       <c r="D350" t="s" s="125">
-        <v>519</v>
+        <v>474</v>
       </c>
       <c r="E350" s="126"/>
       <c r="F350" s="126"/>
@@ -11765,11 +11770,11 @@
     <row r="351" ht="17.65" customHeight="1">
       <c r="A351" s="123"/>
       <c r="B351" s="44"/>
-      <c r="C351" t="s" s="125">
-        <v>472</v>
-      </c>
-      <c r="D351" t="s" s="125">
-        <v>473</v>
+      <c r="C351" t="s" s="127">
+        <v>436</v>
+      </c>
+      <c r="D351" t="s" s="128">
+        <v>521</v>
       </c>
       <c r="E351" s="126"/>
       <c r="F351" s="126"/>
@@ -11787,11 +11792,9 @@
     <row r="352" ht="17.65" customHeight="1">
       <c r="A352" s="123"/>
       <c r="B352" s="44"/>
-      <c r="C352" t="s" s="127">
-        <v>435</v>
-      </c>
-      <c r="D352" t="s" s="128">
-        <v>520</v>
+      <c r="C352" s="79"/>
+      <c r="D352" t="s" s="125">
+        <v>522</v>
       </c>
       <c r="E352" s="126"/>
       <c r="F352" s="126"/>
@@ -11809,9 +11812,11 @@
     <row r="353" ht="17.65" customHeight="1">
       <c r="A353" s="123"/>
       <c r="B353" s="44"/>
-      <c r="C353" s="79"/>
+      <c r="C353" t="s" s="125">
+        <v>517</v>
+      </c>
       <c r="D353" t="s" s="125">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="E353" s="126"/>
       <c r="F353" s="126"/>
@@ -11830,10 +11835,10 @@
       <c r="A354" s="123"/>
       <c r="B354" s="44"/>
       <c r="C354" t="s" s="125">
-        <v>516</v>
+        <v>436</v>
       </c>
       <c r="D354" t="s" s="125">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="E354" s="126"/>
       <c r="F354" s="126"/>
@@ -11852,10 +11857,10 @@
       <c r="A355" s="123"/>
       <c r="B355" s="44"/>
       <c r="C355" t="s" s="125">
-        <v>435</v>
+        <v>525</v>
       </c>
       <c r="D355" t="s" s="125">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="E355" s="126"/>
       <c r="F355" s="126"/>
@@ -11870,14 +11875,14 @@
       <c r="O355" s="4"/>
       <c r="P355" s="4"/>
     </row>
-    <row r="356" ht="17.65" customHeight="1">
+    <row r="356" ht="26.7" customHeight="1">
       <c r="A356" s="123"/>
-      <c r="B356" s="44"/>
+      <c r="B356" s="51"/>
       <c r="C356" t="s" s="125">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="D356" t="s" s="125">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="E356" s="126"/>
       <c r="F356" s="126"/>
@@ -11894,12 +11899,12 @@
     </row>
     <row r="357" ht="26.7" customHeight="1">
       <c r="A357" s="123"/>
-      <c r="B357" s="51"/>
+      <c r="B357" s="129"/>
       <c r="C357" t="s" s="125">
-        <v>526</v>
+        <v>111</v>
       </c>
       <c r="D357" t="s" s="125">
-        <v>527</v>
+        <v>112</v>
       </c>
       <c r="E357" s="126"/>
       <c r="F357" s="126"/>
@@ -11914,17 +11919,17 @@
       <c r="O357" s="4"/>
       <c r="P357" s="4"/>
     </row>
-    <row r="358" ht="26.7" customHeight="1">
-      <c r="A358" s="123"/>
-      <c r="B358" s="129"/>
-      <c r="C358" t="s" s="125">
-        <v>111</v>
-      </c>
-      <c r="D358" t="s" s="125">
-        <v>112</v>
-      </c>
-      <c r="E358" s="126"/>
-      <c r="F358" s="126"/>
+    <row r="358" ht="17.65" customHeight="1">
+      <c r="A358" s="130"/>
+      <c r="B358" t="s" s="131">
+        <v>529</v>
+      </c>
+      <c r="C358" t="s" s="132">
+        <v>530</v>
+      </c>
+      <c r="D358" s="133"/>
+      <c r="E358" s="134"/>
+      <c r="F358" s="134"/>
       <c r="G358" s="31"/>
       <c r="H358" s="3"/>
       <c r="I358" s="3"/>
@@ -11936,15 +11941,11 @@
       <c r="O358" s="4"/>
       <c r="P358" s="4"/>
     </row>
-    <row r="359" ht="17.65" customHeight="1">
+    <row r="359" ht="15" customHeight="1">
       <c r="A359" s="130"/>
-      <c r="B359" t="s" s="131">
-        <v>528</v>
-      </c>
-      <c r="C359" t="s" s="132">
-        <v>529</v>
-      </c>
-      <c r="D359" s="133"/>
+      <c r="B359" s="69"/>
+      <c r="C359" s="135"/>
+      <c r="D359" s="136"/>
       <c r="E359" s="134"/>
       <c r="F359" s="134"/>
       <c r="G359" s="31"/>
@@ -11960,8 +11961,8 @@
     </row>
     <row r="360" ht="15" customHeight="1">
       <c r="A360" s="130"/>
-      <c r="B360" s="69"/>
-      <c r="C360" s="135"/>
+      <c r="B360" s="44"/>
+      <c r="C360" s="137"/>
       <c r="D360" s="136"/>
       <c r="E360" s="134"/>
       <c r="F360" s="134"/>
@@ -12014,9 +12015,9 @@
     </row>
     <row r="363" ht="15" customHeight="1">
       <c r="A363" s="130"/>
-      <c r="B363" s="44"/>
-      <c r="C363" s="137"/>
-      <c r="D363" s="136"/>
+      <c r="B363" s="51"/>
+      <c r="C363" s="138"/>
+      <c r="D363" s="139"/>
       <c r="E363" s="134"/>
       <c r="F363" s="134"/>
       <c r="G363" s="31"/>
@@ -12030,13 +12031,19 @@
       <c r="O363" s="4"/>
       <c r="P363" s="4"/>
     </row>
-    <row r="364" ht="15" customHeight="1">
-      <c r="A364" s="130"/>
-      <c r="B364" s="51"/>
-      <c r="C364" s="138"/>
-      <c r="D364" s="139"/>
-      <c r="E364" s="134"/>
-      <c r="F364" s="134"/>
+    <row r="364" ht="17.65" customHeight="1">
+      <c r="A364" s="140"/>
+      <c r="B364" t="s" s="141">
+        <v>531</v>
+      </c>
+      <c r="C364" t="s" s="142">
+        <v>532</v>
+      </c>
+      <c r="D364" t="s" s="142">
+        <v>533</v>
+      </c>
+      <c r="E364" s="143"/>
+      <c r="F364" s="143"/>
       <c r="G364" s="31"/>
       <c r="H364" s="3"/>
       <c r="I364" s="3"/>
@@ -12048,16 +12055,14 @@
       <c r="O364" s="4"/>
       <c r="P364" s="4"/>
     </row>
-    <row r="365" ht="17.65" customHeight="1">
+    <row r="365" ht="26.7" customHeight="1">
       <c r="A365" s="140"/>
-      <c r="B365" t="s" s="141">
-        <v>530</v>
-      </c>
+      <c r="B365" s="69"/>
       <c r="C365" t="s" s="142">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="D365" t="s" s="142">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="E365" s="143"/>
       <c r="F365" s="143"/>
@@ -12074,12 +12079,12 @@
     </row>
     <row r="366" ht="26.7" customHeight="1">
       <c r="A366" s="140"/>
-      <c r="B366" s="69"/>
+      <c r="B366" s="44"/>
       <c r="C366" t="s" s="142">
-        <v>533</v>
+        <v>339</v>
       </c>
       <c r="D366" t="s" s="142">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="E366" s="143"/>
       <c r="F366" s="143"/>
@@ -12094,14 +12099,14 @@
       <c r="O366" s="4"/>
       <c r="P366" s="4"/>
     </row>
-    <row r="367" ht="26.7" customHeight="1">
+    <row r="367" ht="17.65" customHeight="1">
       <c r="A367" s="140"/>
       <c r="B367" s="44"/>
       <c r="C367" t="s" s="142">
-        <v>338</v>
+        <v>537</v>
       </c>
       <c r="D367" t="s" s="142">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="E367" s="143"/>
       <c r="F367" s="143"/>
@@ -12120,10 +12125,10 @@
       <c r="A368" s="140"/>
       <c r="B368" s="44"/>
       <c r="C368" t="s" s="142">
-        <v>536</v>
-      </c>
-      <c r="D368" t="s" s="142">
-        <v>537</v>
+        <v>539</v>
+      </c>
+      <c r="D368" t="s" s="144">
+        <v>540</v>
       </c>
       <c r="E368" s="143"/>
       <c r="F368" s="143"/>
@@ -12142,10 +12147,10 @@
       <c r="A369" s="140"/>
       <c r="B369" s="44"/>
       <c r="C369" t="s" s="142">
-        <v>538</v>
-      </c>
-      <c r="D369" t="s" s="144">
-        <v>539</v>
+        <v>541</v>
+      </c>
+      <c r="D369" t="s" s="142">
+        <v>542</v>
       </c>
       <c r="E369" s="143"/>
       <c r="F369" s="143"/>
@@ -12164,10 +12169,10 @@
       <c r="A370" s="140"/>
       <c r="B370" s="44"/>
       <c r="C370" t="s" s="142">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="D370" t="s" s="142">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="E370" s="143"/>
       <c r="F370" s="143"/>
@@ -12184,12 +12189,12 @@
     </row>
     <row r="371" ht="17.65" customHeight="1">
       <c r="A371" s="140"/>
-      <c r="B371" s="44"/>
+      <c r="B371" s="51"/>
       <c r="C371" t="s" s="142">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D371" t="s" s="142">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="E371" s="143"/>
       <c r="F371" s="143"/>
@@ -12206,15 +12211,19 @@
     </row>
     <row r="372" ht="17.65" customHeight="1">
       <c r="A372" s="140"/>
-      <c r="B372" s="51"/>
+      <c r="B372" s="145"/>
       <c r="C372" t="s" s="142">
-        <v>544</v>
+        <v>111</v>
       </c>
       <c r="D372" t="s" s="142">
-        <v>545</v>
-      </c>
-      <c r="E372" s="143"/>
-      <c r="F372" s="143"/>
+        <v>547</v>
+      </c>
+      <c r="E372" t="s" s="146">
+        <v>113</v>
+      </c>
+      <c r="F372" t="s" s="146">
+        <v>113</v>
+      </c>
       <c r="G372" s="31"/>
       <c r="H372" s="3"/>
       <c r="I372" s="3"/>
@@ -12226,22 +12235,14 @@
       <c r="O372" s="4"/>
       <c r="P372" s="4"/>
     </row>
-    <row r="373" ht="17.65" customHeight="1">
-      <c r="A373" s="140"/>
-      <c r="B373" s="145"/>
-      <c r="C373" t="s" s="142">
-        <v>111</v>
-      </c>
-      <c r="D373" t="s" s="142">
-        <v>546</v>
-      </c>
-      <c r="E373" t="s" s="146">
-        <v>113</v>
-      </c>
-      <c r="F373" t="s" s="146">
-        <v>113</v>
-      </c>
-      <c r="G373" s="31"/>
+    <row r="373" ht="15" customHeight="1">
+      <c r="A373" s="11"/>
+      <c r="B373" s="147"/>
+      <c r="C373" s="147"/>
+      <c r="D373" s="148"/>
+      <c r="E373" s="147"/>
+      <c r="F373" s="147"/>
+      <c r="G373" s="3"/>
       <c r="H373" s="3"/>
       <c r="I373" s="3"/>
       <c r="J373" s="3"/>
@@ -12252,106 +12253,88 @@
       <c r="O373" s="4"/>
       <c r="P373" s="4"/>
     </row>
-    <row r="374" ht="15" customHeight="1">
-      <c r="A374" s="11"/>
-      <c r="B374" s="147"/>
-      <c r="C374" s="147"/>
-      <c r="D374" s="148"/>
-      <c r="E374" s="147"/>
-      <c r="F374" s="147"/>
-      <c r="G374" s="3"/>
-      <c r="H374" s="3"/>
-      <c r="I374" s="3"/>
-      <c r="J374" s="3"/>
-      <c r="K374" s="3"/>
-      <c r="L374" s="3"/>
-      <c r="M374" s="3"/>
-      <c r="N374" s="3"/>
-      <c r="O374" s="4"/>
-      <c r="P374" s="4"/>
-    </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="B365:B372"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="C155:C156"/>
-    <mergeCell ref="C343:C344"/>
-    <mergeCell ref="C327:C328"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="B263:B283"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="C341:C342"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="C323:C324"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="C325:C326"/>
-    <mergeCell ref="B85:B99"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="C352:C353"/>
-    <mergeCell ref="C211:C212"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="C213:C214"/>
-    <mergeCell ref="B314:B347"/>
+    <mergeCell ref="C206:C207"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="B205:B232"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="C315:C316"/>
+    <mergeCell ref="B238:B260"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="C328:C329"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="C332:C333"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="C200:C201"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="C214:C215"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="C330:C331"/>
+    <mergeCell ref="C208:C209"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C186:C187"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="B284:B290"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="C196:C197"/>
+    <mergeCell ref="B100:B203"/>
+    <mergeCell ref="C193:C194"/>
+    <mergeCell ref="C334:C335"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="C358:D363"/>
+    <mergeCell ref="C198:C199"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="C336:C337"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="C182:C183"/>
+    <mergeCell ref="C175:C176"/>
+    <mergeCell ref="C156:C157"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="B348:B356"/>
+    <mergeCell ref="C344:C345"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="B358:B363"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="C191:C192"/>
+    <mergeCell ref="B292:B311"/>
+    <mergeCell ref="C338:C339"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="C116:C117"/>
     <mergeCell ref="B23:B54"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="C339:C340"/>
-    <mergeCell ref="C185:C186"/>
-    <mergeCell ref="B359:B364"/>
-    <mergeCell ref="C161:C162"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="C345:C346"/>
-    <mergeCell ref="B349:B357"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="B285:B291"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="C187:C188"/>
-    <mergeCell ref="C183:C184"/>
-    <mergeCell ref="C181:C182"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="C337:C338"/>
-    <mergeCell ref="C199:C200"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="C359:D364"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="C335:C336"/>
-    <mergeCell ref="C194:C195"/>
-    <mergeCell ref="B101:B204"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="C203:C204"/>
-    <mergeCell ref="C331:C332"/>
-    <mergeCell ref="C190:C191"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="C209:C210"/>
-    <mergeCell ref="C215:C216"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="C201:C202"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="C333:C334"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="C192:C193"/>
-    <mergeCell ref="B293:B312"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C159:C160"/>
-    <mergeCell ref="C329:C330"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="B239:B261"/>
-    <mergeCell ref="C197:C198"/>
-    <mergeCell ref="C316:C317"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="B206:B233"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="C207:C208"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="C210:C211"/>
+    <mergeCell ref="C351:C352"/>
+    <mergeCell ref="C177:C178"/>
+    <mergeCell ref="B84:B98"/>
+    <mergeCell ref="C324:C325"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="C322:C323"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="C212:C213"/>
+    <mergeCell ref="B313:B346"/>
+    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="C340:C341"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="B262:B282"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="C326:C327"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="C342:C343"/>
+    <mergeCell ref="B364:B371"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
